--- a/data/oegres_TA/oegres_TA.xlsx
+++ b/data/oegres_TA/oegres_TA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toluamuwo/Documents/WL2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toluamuwo/Documents/WL2022/oegres/data/oegres_TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4439" uniqueCount="1707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="1700">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5078,39 +5078,12 @@
     <t>dry</t>
   </si>
   <si>
-    <t>7 days</t>
-  </si>
-  <si>
-    <t>25+/- 2 ºC</t>
-  </si>
-  <si>
     <t>GA3</t>
   </si>
   <si>
-    <t>1% TTC</t>
-  </si>
-  <si>
-    <t>5 mM</t>
-  </si>
-  <si>
-    <t>10 mM</t>
-  </si>
-  <si>
-    <t>20 mM</t>
-  </si>
-  <si>
     <t>KNO3</t>
   </si>
   <si>
-    <t>50 mM</t>
-  </si>
-  <si>
-    <t>100 mM</t>
-  </si>
-  <si>
-    <t>200 mM</t>
-  </si>
-  <si>
     <t>control</t>
   </si>
   <si>
@@ -5141,9 +5114,6 @@
     <t>per.germ</t>
   </si>
   <si>
-    <t>24hrs</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -5151,6 +5121,15 @@
   </si>
   <si>
     <t>mgt</t>
+  </si>
+  <si>
+    <t>HgCl2</t>
+  </si>
+  <si>
+    <t>trt.duration measured in hours;</t>
+  </si>
+  <si>
+    <t>chemical.concent units mM</t>
   </si>
 </sst>
 </file>
@@ -5536,8 +5515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15859,8 +15838,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP4" sqref="AP4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16013,10 +15994,10 @@
         <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H2" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I2">
         <v>30.57</v>
@@ -16031,22 +16012,25 @@
         <v>1679</v>
       </c>
       <c r="M2">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N2">
         <v>2004</v>
       </c>
+      <c r="O2">
+        <v>2004</v>
+      </c>
       <c r="P2" t="s">
         <v>1681</v>
       </c>
-      <c r="Q2" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1683</v>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -16054,29 +16038,32 @@
       <c r="V2">
         <v>0</v>
       </c>
+      <c r="W2">
+        <v>25</v>
+      </c>
       <c r="Z2" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AB2" t="s">
-        <v>1703</v>
+      <c r="AB2">
+        <v>24</v>
       </c>
       <c r="AC2" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE2" t="s">
         <v>160</v>
       </c>
       <c r="AF2" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH2" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI2" s="8">
         <v>27.34</v>
@@ -16087,11 +16074,14 @@
       <c r="AM2">
         <v>60</v>
       </c>
+      <c r="AN2">
+        <v>90</v>
+      </c>
       <c r="AO2" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="AP2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
@@ -16114,10 +16104,10 @@
         <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H3" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I3">
         <v>30.57</v>
@@ -16132,22 +16122,25 @@
         <v>1679</v>
       </c>
       <c r="M3">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>2004</v>
       </c>
+      <c r="O3">
+        <v>2004</v>
+      </c>
       <c r="P3" t="s">
         <v>1681</v>
       </c>
-      <c r="Q3" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1683</v>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>25</v>
       </c>
       <c r="T3" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -16155,29 +16148,32 @@
       <c r="V3">
         <v>0</v>
       </c>
+      <c r="W3">
+        <v>25</v>
+      </c>
       <c r="Z3" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
-      <c r="AB3" t="s">
-        <v>1703</v>
+      <c r="AB3">
+        <v>24</v>
       </c>
       <c r="AC3" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE3" t="s">
         <v>160</v>
       </c>
       <c r="AF3" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI3" s="8">
         <v>15.18</v>
@@ -16188,11 +16184,14 @@
       <c r="AM3">
         <v>60</v>
       </c>
+      <c r="AN3">
+        <v>90</v>
+      </c>
       <c r="AO3" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="AP3" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
@@ -16215,10 +16214,10 @@
         <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H4" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I4">
         <v>30.57</v>
@@ -16233,19 +16232,22 @@
         <v>1679</v>
       </c>
       <c r="M4">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>2004</v>
       </c>
+      <c r="O4">
+        <v>2004</v>
+      </c>
       <c r="P4" t="s">
         <v>1681</v>
       </c>
-      <c r="Q4" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1683</v>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>25</v>
       </c>
       <c r="T4" t="s">
         <v>96</v>
@@ -16256,29 +16258,32 @@
       <c r="V4">
         <v>0</v>
       </c>
+      <c r="W4">
+        <v>25</v>
+      </c>
       <c r="Z4" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>1686</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA4">
+        <v>5</v>
+      </c>
+      <c r="AB4">
+        <v>24</v>
       </c>
       <c r="AC4" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE4" t="s">
         <v>160</v>
       </c>
       <c r="AF4" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH4" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI4" s="8">
         <v>38.659999999999997</v>
@@ -16289,8 +16294,14 @@
       <c r="AM4">
         <v>60</v>
       </c>
+      <c r="AN4">
+        <v>90</v>
+      </c>
       <c r="AO4" t="s">
-        <v>1705</v>
+        <v>1695</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
@@ -16313,10 +16324,10 @@
         <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H5" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I5">
         <v>30.57</v>
@@ -16331,19 +16342,22 @@
         <v>1679</v>
       </c>
       <c r="M5">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N5">
         <v>2004</v>
       </c>
+      <c r="O5">
+        <v>2004</v>
+      </c>
       <c r="P5" t="s">
         <v>1681</v>
       </c>
-      <c r="Q5" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S5" t="s">
-        <v>1683</v>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>25</v>
       </c>
       <c r="T5" t="s">
         <v>96</v>
@@ -16354,29 +16368,32 @@
       <c r="V5">
         <v>0</v>
       </c>
+      <c r="W5">
+        <v>25</v>
+      </c>
       <c r="Z5" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA5">
+        <v>10</v>
+      </c>
+      <c r="AB5">
+        <v>24</v>
       </c>
       <c r="AC5" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE5" t="s">
         <v>160</v>
       </c>
       <c r="AF5" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI5" s="8">
         <v>38</v>
@@ -16387,8 +16404,14 @@
       <c r="AM5">
         <v>60</v>
       </c>
+      <c r="AN5">
+        <v>90</v>
+      </c>
       <c r="AO5" t="s">
-        <v>1705</v>
+        <v>1695</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.2">
@@ -16411,10 +16434,10 @@
         <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H6" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I6">
         <v>30.57</v>
@@ -16429,19 +16452,22 @@
         <v>1679</v>
       </c>
       <c r="M6">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>2004</v>
       </c>
+      <c r="O6">
+        <v>2004</v>
+      </c>
       <c r="P6" t="s">
         <v>1681</v>
       </c>
-      <c r="Q6" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S6" t="s">
-        <v>1683</v>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>25</v>
       </c>
       <c r="T6" t="s">
         <v>96</v>
@@ -16452,29 +16478,32 @@
       <c r="V6">
         <v>0</v>
       </c>
+      <c r="W6">
+        <v>25</v>
+      </c>
       <c r="Z6" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>24</v>
       </c>
       <c r="AC6" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE6" t="s">
         <v>160</v>
       </c>
       <c r="AF6" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI6" s="8">
         <v>14.7</v>
@@ -16485,8 +16514,14 @@
       <c r="AM6">
         <v>60</v>
       </c>
+      <c r="AN6">
+        <v>90</v>
+      </c>
       <c r="AO6" t="s">
-        <v>1705</v>
+        <v>1695</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.2">
@@ -16509,10 +16544,10 @@
         <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H7" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I7">
         <v>30.57</v>
@@ -16527,19 +16562,22 @@
         <v>1679</v>
       </c>
       <c r="M7">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>2004</v>
       </c>
+      <c r="O7">
+        <v>2004</v>
+      </c>
       <c r="P7" t="s">
         <v>1681</v>
       </c>
-      <c r="Q7" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S7" t="s">
-        <v>1683</v>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>25</v>
       </c>
       <c r="T7" t="s">
         <v>96</v>
@@ -16550,29 +16588,32 @@
       <c r="V7">
         <v>0</v>
       </c>
+      <c r="W7">
+        <v>25</v>
+      </c>
       <c r="Z7" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>1688</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA7">
+        <v>20</v>
+      </c>
+      <c r="AB7">
+        <v>24</v>
       </c>
       <c r="AC7" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE7" t="s">
         <v>160</v>
       </c>
       <c r="AF7" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH7" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI7" s="8">
         <v>38.659999999999997</v>
@@ -16583,8 +16624,14 @@
       <c r="AM7">
         <v>60</v>
       </c>
+      <c r="AN7">
+        <v>90</v>
+      </c>
       <c r="AO7" t="s">
-        <v>1705</v>
+        <v>1695</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.2">
@@ -16607,10 +16654,10 @@
         <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I8">
         <v>30.57</v>
@@ -16625,19 +16672,22 @@
         <v>1679</v>
       </c>
       <c r="M8">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>2004</v>
       </c>
+      <c r="O8">
+        <v>2004</v>
+      </c>
       <c r="P8" t="s">
         <v>1681</v>
       </c>
-      <c r="Q8" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S8" t="s">
-        <v>1683</v>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>25</v>
       </c>
       <c r="T8" t="s">
         <v>96</v>
@@ -16648,29 +16698,32 @@
       <c r="V8">
         <v>0</v>
       </c>
+      <c r="W8">
+        <v>25</v>
+      </c>
       <c r="Z8" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>1690</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA8">
+        <v>50</v>
+      </c>
+      <c r="AB8">
+        <v>24</v>
       </c>
       <c r="AC8" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE8" t="s">
         <v>160</v>
       </c>
       <c r="AF8" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH8" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI8" s="8">
         <v>47.34</v>
@@ -16681,8 +16734,14 @@
       <c r="AM8">
         <v>60</v>
       </c>
+      <c r="AN8">
+        <v>90</v>
+      </c>
       <c r="AO8" t="s">
-        <v>1705</v>
+        <v>1695</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
@@ -16705,10 +16764,10 @@
         <v>168</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H9" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I9">
         <v>30.57</v>
@@ -16723,19 +16782,22 @@
         <v>1679</v>
       </c>
       <c r="M9">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>2004</v>
       </c>
+      <c r="O9">
+        <v>2004</v>
+      </c>
       <c r="P9" t="s">
         <v>1681</v>
       </c>
-      <c r="Q9" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S9" t="s">
-        <v>1683</v>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>25</v>
       </c>
       <c r="T9" t="s">
         <v>96</v>
@@ -16746,29 +16808,32 @@
       <c r="V9">
         <v>0</v>
       </c>
+      <c r="W9">
+        <v>25</v>
+      </c>
       <c r="Z9" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA9">
+        <v>100</v>
+      </c>
+      <c r="AB9">
+        <v>24</v>
       </c>
       <c r="AC9" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE9" t="s">
         <v>160</v>
       </c>
       <c r="AF9" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH9" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI9" s="8">
         <v>66</v>
@@ -16779,8 +16844,14 @@
       <c r="AM9">
         <v>60</v>
       </c>
+      <c r="AN9">
+        <v>90</v>
+      </c>
       <c r="AO9" t="s">
-        <v>1705</v>
+        <v>1695</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.2">
@@ -16803,10 +16874,10 @@
         <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I10">
         <v>30.57</v>
@@ -16821,19 +16892,22 @@
         <v>1679</v>
       </c>
       <c r="M10">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>2004</v>
       </c>
+      <c r="O10">
+        <v>2004</v>
+      </c>
       <c r="P10" t="s">
         <v>1681</v>
       </c>
-      <c r="Q10" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S10" t="s">
-        <v>1683</v>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>25</v>
       </c>
       <c r="T10" t="s">
         <v>96</v>
@@ -16844,29 +16918,32 @@
       <c r="V10">
         <v>0</v>
       </c>
+      <c r="W10">
+        <v>25</v>
+      </c>
       <c r="Z10" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA10">
+        <v>100</v>
+      </c>
+      <c r="AB10">
+        <v>24</v>
       </c>
       <c r="AC10" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE10" t="s">
         <v>160</v>
       </c>
       <c r="AF10" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH10" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI10" s="8">
         <v>20.95</v>
@@ -16877,8 +16954,14 @@
       <c r="AM10">
         <v>60</v>
       </c>
+      <c r="AN10">
+        <v>90</v>
+      </c>
       <c r="AO10" t="s">
-        <v>1705</v>
+        <v>1695</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.2">
@@ -16901,10 +16984,10 @@
         <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H11" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I11">
         <v>30.57</v>
@@ -16919,19 +17002,22 @@
         <v>1679</v>
       </c>
       <c r="M11">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>2004</v>
       </c>
+      <c r="O11">
+        <v>2004</v>
+      </c>
       <c r="P11" t="s">
         <v>1681</v>
       </c>
-      <c r="Q11" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S11" t="s">
-        <v>1683</v>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>25</v>
       </c>
       <c r="T11" t="s">
         <v>96</v>
@@ -16942,29 +17028,32 @@
       <c r="V11">
         <v>0</v>
       </c>
+      <c r="W11">
+        <v>25</v>
+      </c>
       <c r="Z11" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA11">
+        <v>200</v>
+      </c>
+      <c r="AB11">
+        <v>24</v>
       </c>
       <c r="AC11" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE11" t="s">
         <v>160</v>
       </c>
       <c r="AF11" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH11" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI11" s="8">
         <v>54</v>
@@ -16975,8 +17064,14 @@
       <c r="AM11">
         <v>60</v>
       </c>
+      <c r="AN11">
+        <v>90</v>
+      </c>
       <c r="AO11" t="s">
-        <v>1705</v>
+        <v>1695</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.2">
@@ -16999,10 +17094,10 @@
         <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I12">
         <v>30.57</v>
@@ -17017,19 +17112,22 @@
         <v>1679</v>
       </c>
       <c r="M12">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N12">
         <v>2004</v>
       </c>
+      <c r="O12">
+        <v>2004</v>
+      </c>
       <c r="P12" t="s">
         <v>1681</v>
       </c>
-      <c r="Q12" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S12" t="s">
-        <v>1683</v>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>25</v>
       </c>
       <c r="T12" t="s">
         <v>96</v>
@@ -17040,29 +17138,32 @@
       <c r="V12">
         <v>0</v>
       </c>
+      <c r="W12">
+        <v>25</v>
+      </c>
       <c r="Z12" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>1690</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA12">
+        <v>50</v>
+      </c>
+      <c r="AB12">
+        <v>24</v>
       </c>
       <c r="AC12" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE12" t="s">
         <v>160</v>
       </c>
       <c r="AF12" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH12" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI12" s="8">
         <v>72</v>
@@ -17073,8 +17174,14 @@
       <c r="AM12">
         <v>60</v>
       </c>
+      <c r="AN12">
+        <v>90</v>
+      </c>
       <c r="AO12" t="s">
-        <v>1705</v>
+        <v>1695</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.2">
@@ -17097,10 +17204,10 @@
         <v>168</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H13" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I13">
         <v>30.57</v>
@@ -17115,19 +17222,22 @@
         <v>1679</v>
       </c>
       <c r="M13">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>2004</v>
       </c>
+      <c r="O13">
+        <v>2004</v>
+      </c>
       <c r="P13" t="s">
         <v>1681</v>
       </c>
-      <c r="Q13" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S13" t="s">
-        <v>1683</v>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="S13">
+        <v>25</v>
       </c>
       <c r="T13" t="s">
         <v>96</v>
@@ -17138,29 +17248,32 @@
       <c r="V13">
         <v>0</v>
       </c>
+      <c r="W13">
+        <v>25</v>
+      </c>
       <c r="Z13" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA13">
+        <v>100</v>
+      </c>
+      <c r="AB13">
+        <v>24</v>
       </c>
       <c r="AC13" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE13" t="s">
         <v>160</v>
       </c>
       <c r="AF13" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI13" s="8">
         <v>83.33</v>
@@ -17171,8 +17284,14 @@
       <c r="AM13">
         <v>60</v>
       </c>
+      <c r="AN13">
+        <v>90</v>
+      </c>
       <c r="AO13" t="s">
-        <v>1705</v>
+        <v>1695</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.2">
@@ -17195,10 +17314,10 @@
         <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I14">
         <v>30.57</v>
@@ -17213,19 +17332,22 @@
         <v>1679</v>
       </c>
       <c r="M14">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N14">
         <v>2004</v>
       </c>
+      <c r="O14">
+        <v>2004</v>
+      </c>
       <c r="P14" t="s">
         <v>1681</v>
       </c>
-      <c r="Q14" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S14" t="s">
-        <v>1683</v>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="S14">
+        <v>25</v>
       </c>
       <c r="T14" t="s">
         <v>96</v>
@@ -17236,29 +17358,32 @@
       <c r="V14">
         <v>0</v>
       </c>
+      <c r="W14">
+        <v>25</v>
+      </c>
       <c r="Z14" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA14">
+        <v>100</v>
+      </c>
+      <c r="AB14">
+        <v>24</v>
       </c>
       <c r="AC14" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE14" t="s">
         <v>160</v>
       </c>
       <c r="AF14" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG14">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI14" s="8">
         <v>16.8</v>
@@ -17269,8 +17394,14 @@
       <c r="AM14">
         <v>60</v>
       </c>
+      <c r="AN14">
+        <v>90</v>
+      </c>
       <c r="AO14" t="s">
-        <v>1705</v>
+        <v>1695</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.2">
@@ -17293,10 +17424,10 @@
         <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H15" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I15">
         <v>30.57</v>
@@ -17311,19 +17442,22 @@
         <v>1679</v>
       </c>
       <c r="M15">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>2004</v>
       </c>
+      <c r="O15">
+        <v>2004</v>
+      </c>
       <c r="P15" t="s">
         <v>1681</v>
       </c>
-      <c r="Q15" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S15" t="s">
-        <v>1683</v>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>25</v>
       </c>
       <c r="T15" t="s">
         <v>96</v>
@@ -17334,29 +17468,32 @@
       <c r="V15">
         <v>0</v>
       </c>
+      <c r="W15">
+        <v>25</v>
+      </c>
       <c r="Z15" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA15">
+        <v>200</v>
+      </c>
+      <c r="AB15">
+        <v>24</v>
       </c>
       <c r="AC15" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE15" t="s">
         <v>160</v>
       </c>
       <c r="AF15" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH15" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI15" s="8">
         <v>62.66</v>
@@ -17367,8 +17504,14 @@
       <c r="AM15">
         <v>60</v>
       </c>
+      <c r="AN15">
+        <v>90</v>
+      </c>
       <c r="AO15" t="s">
-        <v>1705</v>
+        <v>1695</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
@@ -17391,10 +17534,10 @@
         <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H16" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I16">
         <v>30.57</v>
@@ -17409,22 +17552,25 @@
         <v>1679</v>
       </c>
       <c r="M16">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>2004</v>
       </c>
+      <c r="O16">
+        <v>2004</v>
+      </c>
       <c r="P16" t="s">
         <v>1681</v>
       </c>
-      <c r="Q16" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S16" t="s">
-        <v>1683</v>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <v>25</v>
       </c>
       <c r="T16" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U16">
         <v>4</v>
@@ -17432,29 +17578,32 @@
       <c r="V16">
         <v>15</v>
       </c>
+      <c r="W16">
+        <v>25</v>
+      </c>
       <c r="Z16" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
-      <c r="AB16" t="s">
-        <v>1703</v>
+      <c r="AB16">
+        <v>24</v>
       </c>
       <c r="AC16" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE16" t="s">
         <v>160</v>
       </c>
       <c r="AF16" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG16">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH16" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI16" s="8">
         <v>44</v>
@@ -17465,11 +17614,14 @@
       <c r="AM16">
         <v>60</v>
       </c>
+      <c r="AN16">
+        <v>90</v>
+      </c>
       <c r="AO16" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1678</v>
       </c>
@@ -17489,10 +17641,10 @@
         <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H17" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I17">
         <v>30.57</v>
@@ -17507,22 +17659,25 @@
         <v>1679</v>
       </c>
       <c r="M17">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>2004</v>
       </c>
+      <c r="O17">
+        <v>2004</v>
+      </c>
       <c r="P17" t="s">
         <v>1681</v>
       </c>
-      <c r="Q17" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S17" t="s">
-        <v>1683</v>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <v>25</v>
       </c>
       <c r="T17" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U17">
         <v>4</v>
@@ -17530,29 +17685,32 @@
       <c r="V17">
         <v>30</v>
       </c>
+      <c r="W17">
+        <v>25</v>
+      </c>
       <c r="Z17" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
-      <c r="AB17" t="s">
-        <v>1703</v>
+      <c r="AB17">
+        <v>24</v>
       </c>
       <c r="AC17" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE17" t="s">
         <v>160</v>
       </c>
       <c r="AF17" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG17">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH17" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI17" s="8">
         <v>63.34</v>
@@ -17563,11 +17721,14 @@
       <c r="AM17">
         <v>60</v>
       </c>
+      <c r="AN17">
+        <v>90</v>
+      </c>
       <c r="AO17" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1678</v>
       </c>
@@ -17587,10 +17748,10 @@
         <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H18" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I18">
         <v>30.57</v>
@@ -17605,22 +17766,25 @@
         <v>1679</v>
       </c>
       <c r="M18">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>2004</v>
       </c>
+      <c r="O18">
+        <v>2004</v>
+      </c>
       <c r="P18" t="s">
         <v>1681</v>
       </c>
-      <c r="Q18" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S18" t="s">
-        <v>1683</v>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>25</v>
       </c>
       <c r="T18" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U18">
         <v>4</v>
@@ -17628,29 +17792,32 @@
       <c r="V18">
         <v>30</v>
       </c>
+      <c r="W18">
+        <v>25</v>
+      </c>
       <c r="Z18" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
-      <c r="AB18" t="s">
-        <v>1703</v>
+      <c r="AB18">
+        <v>24</v>
       </c>
       <c r="AC18" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE18" t="s">
         <v>160</v>
       </c>
       <c r="AF18" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG18">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH18" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI18" s="8">
         <v>21.84</v>
@@ -17661,11 +17828,14 @@
       <c r="AM18">
         <v>60</v>
       </c>
+      <c r="AN18">
+        <v>90</v>
+      </c>
       <c r="AO18" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1678</v>
       </c>
@@ -17685,10 +17855,10 @@
         <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H19" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="I19">
         <v>30.57</v>
@@ -17703,22 +17873,25 @@
         <v>1679</v>
       </c>
       <c r="M19">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>2004</v>
       </c>
+      <c r="O19">
+        <v>2004</v>
+      </c>
       <c r="P19" t="s">
         <v>1681</v>
       </c>
-      <c r="Q19" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S19" t="s">
-        <v>1683</v>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>25</v>
       </c>
       <c r="T19" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U19">
         <v>4</v>
@@ -17726,29 +17899,32 @@
       <c r="V19">
         <v>60</v>
       </c>
+      <c r="W19">
+        <v>25</v>
+      </c>
       <c r="Z19" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
-      <c r="AB19" t="s">
-        <v>1703</v>
+      <c r="AB19">
+        <v>24</v>
       </c>
       <c r="AC19" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE19" t="s">
         <v>160</v>
       </c>
       <c r="AF19" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG19">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH19" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI19" s="8">
         <v>55.34</v>
@@ -17759,11 +17935,14 @@
       <c r="AM19">
         <v>60</v>
       </c>
+      <c r="AN19">
+        <v>90</v>
+      </c>
       <c r="AO19" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1678</v>
       </c>
@@ -17783,10 +17962,10 @@
         <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H20" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I20">
         <v>30.48</v>
@@ -17801,22 +17980,25 @@
         <v>1679</v>
       </c>
       <c r="M20">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N20">
         <v>2004</v>
       </c>
+      <c r="O20">
+        <v>2004</v>
+      </c>
       <c r="P20" t="s">
         <v>1681</v>
       </c>
-      <c r="Q20" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S20" t="s">
-        <v>1683</v>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>25</v>
       </c>
       <c r="T20" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -17824,29 +18006,32 @@
       <c r="V20">
         <v>0</v>
       </c>
+      <c r="W20">
+        <v>25</v>
+      </c>
       <c r="Z20" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
-      <c r="AB20" t="s">
-        <v>1703</v>
+      <c r="AB20">
+        <v>24</v>
       </c>
       <c r="AC20" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE20" t="s">
         <v>160</v>
       </c>
       <c r="AF20" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG20">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI20" s="8">
         <v>35.340000000000003</v>
@@ -17857,11 +18042,14 @@
       <c r="AM20">
         <v>60</v>
       </c>
+      <c r="AN20">
+        <v>90</v>
+      </c>
       <c r="AO20" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1678</v>
       </c>
@@ -17881,10 +18069,10 @@
         <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H21" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I21">
         <v>30.48</v>
@@ -17899,22 +18087,25 @@
         <v>1679</v>
       </c>
       <c r="M21">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <v>2004</v>
       </c>
+      <c r="O21">
+        <v>2004</v>
+      </c>
       <c r="P21" t="s">
         <v>1681</v>
       </c>
-      <c r="Q21" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S21" t="s">
-        <v>1683</v>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>25</v>
       </c>
       <c r="T21" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -17922,29 +18113,32 @@
       <c r="V21">
         <v>0</v>
       </c>
+      <c r="W21">
+        <v>25</v>
+      </c>
       <c r="Z21" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
-      <c r="AB21" t="s">
-        <v>1703</v>
+      <c r="AB21">
+        <v>24</v>
       </c>
       <c r="AC21" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE21" t="s">
         <v>160</v>
       </c>
       <c r="AF21" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH21" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI21" s="8">
         <v>18.27</v>
@@ -17955,11 +18149,14 @@
       <c r="AM21">
         <v>60</v>
       </c>
+      <c r="AN21">
+        <v>90</v>
+      </c>
       <c r="AO21" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1678</v>
       </c>
@@ -17979,10 +18176,10 @@
         <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H22" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I22">
         <v>30.48</v>
@@ -17997,19 +18194,22 @@
         <v>1679</v>
       </c>
       <c r="M22">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>2004</v>
       </c>
+      <c r="O22">
+        <v>2004</v>
+      </c>
       <c r="P22" t="s">
         <v>1681</v>
       </c>
-      <c r="Q22" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S22" t="s">
-        <v>1683</v>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>25</v>
       </c>
       <c r="T22" t="s">
         <v>96</v>
@@ -18020,29 +18220,32 @@
       <c r="V22">
         <v>0</v>
       </c>
+      <c r="W22">
+        <v>25</v>
+      </c>
       <c r="Z22" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>1686</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <v>24</v>
       </c>
       <c r="AC22" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE22" t="s">
         <v>160</v>
       </c>
       <c r="AF22" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG22">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI22" s="8">
         <v>40.659999999999997</v>
@@ -18053,11 +18256,17 @@
       <c r="AM22">
         <v>60</v>
       </c>
+      <c r="AN22">
+        <v>90</v>
+      </c>
       <c r="AO22" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1678</v>
       </c>
@@ -18077,10 +18286,10 @@
         <v>168</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H23" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I23">
         <v>30.48</v>
@@ -18095,19 +18304,22 @@
         <v>1679</v>
       </c>
       <c r="M23">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>2004</v>
       </c>
+      <c r="O23">
+        <v>2004</v>
+      </c>
       <c r="P23" t="s">
         <v>1681</v>
       </c>
-      <c r="Q23" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S23" t="s">
-        <v>1683</v>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>25</v>
       </c>
       <c r="T23" t="s">
         <v>96</v>
@@ -18118,29 +18330,32 @@
       <c r="V23">
         <v>0</v>
       </c>
+      <c r="W23">
+        <v>25</v>
+      </c>
       <c r="Z23" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA23">
+        <v>10</v>
+      </c>
+      <c r="AB23">
+        <v>24</v>
       </c>
       <c r="AC23" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE23" t="s">
         <v>160</v>
       </c>
       <c r="AF23" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG23">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH23" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI23" s="8">
         <v>36</v>
@@ -18151,11 +18366,17 @@
       <c r="AM23">
         <v>60</v>
       </c>
+      <c r="AN23">
+        <v>90</v>
+      </c>
       <c r="AO23" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1678</v>
       </c>
@@ -18175,10 +18396,10 @@
         <v>168</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H24" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I24">
         <v>30.48</v>
@@ -18193,19 +18414,22 @@
         <v>1679</v>
       </c>
       <c r="M24">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N24">
         <v>2004</v>
       </c>
+      <c r="O24">
+        <v>2004</v>
+      </c>
       <c r="P24" t="s">
         <v>1681</v>
       </c>
-      <c r="Q24" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S24" t="s">
-        <v>1683</v>
+      <c r="Q24">
+        <v>7</v>
+      </c>
+      <c r="S24">
+        <v>25</v>
       </c>
       <c r="T24" t="s">
         <v>96</v>
@@ -18216,29 +18440,32 @@
       <c r="V24">
         <v>0</v>
       </c>
+      <c r="W24">
+        <v>25</v>
+      </c>
       <c r="Z24" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA24">
+        <v>10</v>
+      </c>
+      <c r="AB24">
+        <v>24</v>
       </c>
       <c r="AC24" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE24" t="s">
         <v>160</v>
       </c>
       <c r="AF24" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG24">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH24" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI24" s="8">
         <v>13.86</v>
@@ -18249,11 +18476,17 @@
       <c r="AM24">
         <v>60</v>
       </c>
+      <c r="AN24">
+        <v>90</v>
+      </c>
       <c r="AO24" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1678</v>
       </c>
@@ -18273,10 +18506,10 @@
         <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H25" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I25">
         <v>30.48</v>
@@ -18291,19 +18524,22 @@
         <v>1679</v>
       </c>
       <c r="M25">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N25">
         <v>2004</v>
       </c>
+      <c r="O25">
+        <v>2004</v>
+      </c>
       <c r="P25" t="s">
         <v>1681</v>
       </c>
-      <c r="Q25" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S25" t="s">
-        <v>1683</v>
+      <c r="Q25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>25</v>
       </c>
       <c r="T25" t="s">
         <v>96</v>
@@ -18314,29 +18550,32 @@
       <c r="V25">
         <v>0</v>
       </c>
+      <c r="W25">
+        <v>25</v>
+      </c>
       <c r="Z25" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>1688</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA25">
+        <v>20</v>
+      </c>
+      <c r="AB25">
+        <v>24</v>
       </c>
       <c r="AC25" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE25" t="s">
         <v>160</v>
       </c>
       <c r="AF25" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG25">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH25" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI25" s="8">
         <v>34.659999999999997</v>
@@ -18347,11 +18586,17 @@
       <c r="AM25">
         <v>60</v>
       </c>
+      <c r="AN25">
+        <v>90</v>
+      </c>
       <c r="AO25" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1678</v>
       </c>
@@ -18371,10 +18616,10 @@
         <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H26" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I26">
         <v>30.48</v>
@@ -18389,19 +18634,22 @@
         <v>1679</v>
       </c>
       <c r="M26">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N26">
         <v>2004</v>
       </c>
+      <c r="O26">
+        <v>2004</v>
+      </c>
       <c r="P26" t="s">
         <v>1681</v>
       </c>
-      <c r="Q26" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S26" t="s">
-        <v>1683</v>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <v>25</v>
       </c>
       <c r="T26" t="s">
         <v>96</v>
@@ -18412,29 +18660,32 @@
       <c r="V26">
         <v>0</v>
       </c>
+      <c r="W26">
+        <v>25</v>
+      </c>
       <c r="Z26" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>1690</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA26">
+        <v>50</v>
+      </c>
+      <c r="AB26">
+        <v>24</v>
       </c>
       <c r="AC26" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE26" t="s">
         <v>160</v>
       </c>
       <c r="AF26" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG26">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH26" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI26" s="8">
         <v>46</v>
@@ -18445,11 +18696,17 @@
       <c r="AM26">
         <v>60</v>
       </c>
+      <c r="AN26">
+        <v>90</v>
+      </c>
       <c r="AO26" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1678</v>
       </c>
@@ -18469,10 +18726,10 @@
         <v>168</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H27" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I27">
         <v>30.48</v>
@@ -18487,19 +18744,22 @@
         <v>1679</v>
       </c>
       <c r="M27">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N27">
         <v>2004</v>
       </c>
+      <c r="O27">
+        <v>2004</v>
+      </c>
       <c r="P27" t="s">
         <v>1681</v>
       </c>
-      <c r="Q27" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S27" t="s">
-        <v>1683</v>
+      <c r="Q27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>25</v>
       </c>
       <c r="T27" t="s">
         <v>96</v>
@@ -18510,29 +18770,32 @@
       <c r="V27">
         <v>0</v>
       </c>
+      <c r="W27">
+        <v>25</v>
+      </c>
       <c r="Z27" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA27">
+        <v>100</v>
+      </c>
+      <c r="AB27">
+        <v>24</v>
       </c>
       <c r="AC27" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE27" t="s">
         <v>160</v>
       </c>
       <c r="AF27" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG27">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH27" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI27" s="8">
         <v>64.66</v>
@@ -18543,11 +18806,17 @@
       <c r="AM27">
         <v>60</v>
       </c>
+      <c r="AN27">
+        <v>90</v>
+      </c>
       <c r="AO27" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1678</v>
       </c>
@@ -18567,10 +18836,10 @@
         <v>168</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H28" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I28">
         <v>30.48</v>
@@ -18585,19 +18854,22 @@
         <v>1679</v>
       </c>
       <c r="M28">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N28">
         <v>2004</v>
       </c>
+      <c r="O28">
+        <v>2004</v>
+      </c>
       <c r="P28" t="s">
         <v>1681</v>
       </c>
-      <c r="Q28" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S28" t="s">
-        <v>1683</v>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+      <c r="S28">
+        <v>25</v>
       </c>
       <c r="T28" t="s">
         <v>96</v>
@@ -18608,29 +18880,32 @@
       <c r="V28">
         <v>0</v>
       </c>
+      <c r="W28">
+        <v>25</v>
+      </c>
       <c r="Z28" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA28">
+        <v>100</v>
+      </c>
+      <c r="AB28">
+        <v>24</v>
       </c>
       <c r="AC28" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE28" t="s">
         <v>160</v>
       </c>
       <c r="AF28" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG28">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI28" s="8">
         <v>22.49</v>
@@ -18641,11 +18916,17 @@
       <c r="AM28">
         <v>60</v>
       </c>
+      <c r="AN28">
+        <v>90</v>
+      </c>
       <c r="AO28" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1678</v>
       </c>
@@ -18665,10 +18946,10 @@
         <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H29" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I29">
         <v>30.48</v>
@@ -18683,19 +18964,22 @@
         <v>1679</v>
       </c>
       <c r="M29">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N29">
         <v>2004</v>
       </c>
+      <c r="O29">
+        <v>2004</v>
+      </c>
       <c r="P29" t="s">
         <v>1681</v>
       </c>
-      <c r="Q29" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S29" t="s">
-        <v>1683</v>
+      <c r="Q29">
+        <v>7</v>
+      </c>
+      <c r="S29">
+        <v>25</v>
       </c>
       <c r="T29" t="s">
         <v>96</v>
@@ -18706,29 +18990,32 @@
       <c r="V29">
         <v>0</v>
       </c>
+      <c r="W29">
+        <v>25</v>
+      </c>
       <c r="Z29" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA29">
+        <v>200</v>
+      </c>
+      <c r="AB29">
+        <v>24</v>
       </c>
       <c r="AC29" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE29" t="s">
         <v>160</v>
       </c>
       <c r="AF29" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH29" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI29" s="8">
         <v>53.34</v>
@@ -18739,11 +19026,17 @@
       <c r="AM29">
         <v>60</v>
       </c>
+      <c r="AN29">
+        <v>90</v>
+      </c>
       <c r="AO29" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1678</v>
       </c>
@@ -18763,10 +19056,10 @@
         <v>168</v>
       </c>
       <c r="G30" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H30" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I30">
         <v>30.48</v>
@@ -18781,19 +19074,22 @@
         <v>1679</v>
       </c>
       <c r="M30">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N30">
         <v>2004</v>
       </c>
+      <c r="O30">
+        <v>2004</v>
+      </c>
       <c r="P30" t="s">
         <v>1681</v>
       </c>
-      <c r="Q30" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S30" t="s">
-        <v>1683</v>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>25</v>
       </c>
       <c r="T30" t="s">
         <v>96</v>
@@ -18804,29 +19100,32 @@
       <c r="V30">
         <v>0</v>
       </c>
+      <c r="W30">
+        <v>25</v>
+      </c>
       <c r="Z30" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>1690</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA30">
+        <v>50</v>
+      </c>
+      <c r="AB30">
+        <v>24</v>
       </c>
       <c r="AC30" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE30" t="s">
         <v>160</v>
       </c>
       <c r="AF30" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG30">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH30" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI30" s="8">
         <v>68.66</v>
@@ -18837,11 +19136,17 @@
       <c r="AM30">
         <v>60</v>
       </c>
+      <c r="AN30">
+        <v>90</v>
+      </c>
       <c r="AO30" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1678</v>
       </c>
@@ -18861,10 +19166,10 @@
         <v>168</v>
       </c>
       <c r="G31" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H31" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I31">
         <v>30.48</v>
@@ -18879,19 +19184,22 @@
         <v>1679</v>
       </c>
       <c r="M31">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N31">
         <v>2004</v>
       </c>
+      <c r="O31">
+        <v>2004</v>
+      </c>
       <c r="P31" t="s">
         <v>1681</v>
       </c>
-      <c r="Q31" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S31" t="s">
-        <v>1683</v>
+      <c r="Q31">
+        <v>7</v>
+      </c>
+      <c r="S31">
+        <v>25</v>
       </c>
       <c r="T31" t="s">
         <v>96</v>
@@ -18902,29 +19210,32 @@
       <c r="V31">
         <v>0</v>
       </c>
+      <c r="W31">
+        <v>25</v>
+      </c>
       <c r="Z31" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA31">
+        <v>100</v>
+      </c>
+      <c r="AB31">
+        <v>24</v>
       </c>
       <c r="AC31" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE31" t="s">
         <v>160</v>
       </c>
       <c r="AF31" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG31">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH31" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI31" s="8">
         <v>81.34</v>
@@ -18935,11 +19246,17 @@
       <c r="AM31">
         <v>60</v>
       </c>
+      <c r="AN31">
+        <v>90</v>
+      </c>
       <c r="AO31" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1678</v>
       </c>
@@ -18959,10 +19276,10 @@
         <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H32" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I32">
         <v>30.48</v>
@@ -18977,19 +19294,22 @@
         <v>1679</v>
       </c>
       <c r="M32">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N32">
         <v>2004</v>
       </c>
+      <c r="O32">
+        <v>2004</v>
+      </c>
       <c r="P32" t="s">
         <v>1681</v>
       </c>
-      <c r="Q32" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S32" t="s">
-        <v>1683</v>
+      <c r="Q32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>25</v>
       </c>
       <c r="T32" t="s">
         <v>96</v>
@@ -19000,29 +19320,32 @@
       <c r="V32">
         <v>0</v>
       </c>
+      <c r="W32">
+        <v>25</v>
+      </c>
       <c r="Z32" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA32">
+        <v>100</v>
+      </c>
+      <c r="AB32">
+        <v>24</v>
       </c>
       <c r="AC32" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE32" t="s">
         <v>160</v>
       </c>
       <c r="AF32" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG32">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH32" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI32" s="8">
         <v>17.47</v>
@@ -19033,11 +19356,17 @@
       <c r="AM32">
         <v>60</v>
       </c>
+      <c r="AN32">
+        <v>90</v>
+      </c>
       <c r="AO32" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1678</v>
       </c>
@@ -19057,10 +19386,10 @@
         <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H33" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I33">
         <v>30.48</v>
@@ -19075,19 +19404,22 @@
         <v>1679</v>
       </c>
       <c r="M33">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N33">
         <v>2004</v>
       </c>
+      <c r="O33">
+        <v>2004</v>
+      </c>
       <c r="P33" t="s">
         <v>1681</v>
       </c>
-      <c r="Q33" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S33" t="s">
-        <v>1683</v>
+      <c r="Q33">
+        <v>7</v>
+      </c>
+      <c r="S33">
+        <v>25</v>
       </c>
       <c r="T33" t="s">
         <v>96</v>
@@ -19098,29 +19430,32 @@
       <c r="V33">
         <v>0</v>
       </c>
+      <c r="W33">
+        <v>25</v>
+      </c>
       <c r="Z33" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA33">
+        <v>200</v>
+      </c>
+      <c r="AB33">
+        <v>24</v>
       </c>
       <c r="AC33" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE33" t="s">
         <v>160</v>
       </c>
       <c r="AF33" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG33">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH33" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI33" s="8">
         <v>62.66</v>
@@ -19131,11 +19466,17 @@
       <c r="AM33">
         <v>60</v>
       </c>
+      <c r="AN33">
+        <v>90</v>
+      </c>
       <c r="AO33" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1678</v>
       </c>
@@ -19155,10 +19496,10 @@
         <v>168</v>
       </c>
       <c r="G34" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H34" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I34">
         <v>30.48</v>
@@ -19173,22 +19514,25 @@
         <v>1679</v>
       </c>
       <c r="M34">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N34">
         <v>2004</v>
       </c>
+      <c r="O34">
+        <v>2004</v>
+      </c>
       <c r="P34" t="s">
         <v>1681</v>
       </c>
-      <c r="Q34" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S34" t="s">
-        <v>1683</v>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="S34">
+        <v>25</v>
       </c>
       <c r="T34" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U34">
         <v>4</v>
@@ -19196,29 +19540,32 @@
       <c r="V34">
         <v>15</v>
       </c>
+      <c r="W34">
+        <v>25</v>
+      </c>
       <c r="Z34" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA34">
         <v>0</v>
       </c>
-      <c r="AB34" t="s">
-        <v>1703</v>
+      <c r="AB34">
+        <v>24</v>
       </c>
       <c r="AC34" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE34" t="s">
         <v>160</v>
       </c>
       <c r="AF34" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG34">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH34" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI34" s="8">
         <v>62</v>
@@ -19229,11 +19576,14 @@
       <c r="AM34">
         <v>60</v>
       </c>
+      <c r="AN34">
+        <v>90</v>
+      </c>
       <c r="AO34" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1678</v>
       </c>
@@ -19253,10 +19603,10 @@
         <v>168</v>
       </c>
       <c r="G35" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H35" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I35">
         <v>30.48</v>
@@ -19271,22 +19621,25 @@
         <v>1679</v>
       </c>
       <c r="M35">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N35">
         <v>2004</v>
       </c>
+      <c r="O35">
+        <v>2004</v>
+      </c>
       <c r="P35" t="s">
         <v>1681</v>
       </c>
-      <c r="Q35" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S35" t="s">
-        <v>1683</v>
+      <c r="Q35">
+        <v>7</v>
+      </c>
+      <c r="S35">
+        <v>25</v>
       </c>
       <c r="T35" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U35">
         <v>4</v>
@@ -19294,29 +19647,32 @@
       <c r="V35">
         <v>30</v>
       </c>
+      <c r="W35">
+        <v>25</v>
+      </c>
       <c r="Z35" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA35">
         <v>0</v>
       </c>
-      <c r="AB35" t="s">
-        <v>1703</v>
+      <c r="AB35">
+        <v>24</v>
       </c>
       <c r="AC35" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE35" t="s">
         <v>160</v>
       </c>
       <c r="AF35" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG35">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH35" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI35" s="8">
         <v>65</v>
@@ -19327,11 +19683,14 @@
       <c r="AM35">
         <v>60</v>
       </c>
+      <c r="AN35">
+        <v>90</v>
+      </c>
       <c r="AO35" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1678</v>
       </c>
@@ -19351,10 +19710,10 @@
         <v>168</v>
       </c>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H36" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I36">
         <v>30.48</v>
@@ -19369,22 +19728,25 @@
         <v>1679</v>
       </c>
       <c r="M36">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N36">
         <v>2004</v>
       </c>
+      <c r="O36">
+        <v>2004</v>
+      </c>
       <c r="P36" t="s">
         <v>1681</v>
       </c>
-      <c r="Q36" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S36" t="s">
-        <v>1683</v>
+      <c r="Q36">
+        <v>7</v>
+      </c>
+      <c r="S36">
+        <v>25</v>
       </c>
       <c r="T36" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U36">
         <v>4</v>
@@ -19392,29 +19754,32 @@
       <c r="V36">
         <v>30</v>
       </c>
+      <c r="W36">
+        <v>25</v>
+      </c>
       <c r="Z36" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA36">
         <v>0</v>
       </c>
-      <c r="AB36" t="s">
-        <v>1703</v>
+      <c r="AB36">
+        <v>24</v>
       </c>
       <c r="AC36" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE36" t="s">
         <v>160</v>
       </c>
       <c r="AF36" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG36">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH36" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI36" s="8">
         <v>23.81</v>
@@ -19425,11 +19790,14 @@
       <c r="AM36">
         <v>60</v>
       </c>
+      <c r="AN36">
+        <v>90</v>
+      </c>
       <c r="AO36" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1678</v>
       </c>
@@ -19449,10 +19817,10 @@
         <v>168</v>
       </c>
       <c r="G37" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H37" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I37">
         <v>30.48</v>
@@ -19467,22 +19835,25 @@
         <v>1679</v>
       </c>
       <c r="M37">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N37">
         <v>2004</v>
       </c>
+      <c r="O37">
+        <v>2004</v>
+      </c>
       <c r="P37" t="s">
         <v>1681</v>
       </c>
-      <c r="Q37" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S37" t="s">
-        <v>1683</v>
+      <c r="Q37">
+        <v>7</v>
+      </c>
+      <c r="S37">
+        <v>25</v>
       </c>
       <c r="T37" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U37">
         <v>4</v>
@@ -19490,29 +19861,32 @@
       <c r="V37">
         <v>60</v>
       </c>
+      <c r="W37">
+        <v>25</v>
+      </c>
       <c r="Z37" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
-      <c r="AB37" t="s">
-        <v>1703</v>
+      <c r="AB37">
+        <v>24</v>
       </c>
       <c r="AC37" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE37" t="s">
         <v>160</v>
       </c>
       <c r="AF37" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG37">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH37" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI37" s="8">
         <v>61.67</v>
@@ -19523,11 +19897,14 @@
       <c r="AM37">
         <v>60</v>
       </c>
+      <c r="AN37">
+        <v>90</v>
+      </c>
       <c r="AO37" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1678</v>
       </c>
@@ -19547,10 +19924,10 @@
         <v>168</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H38" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I38">
         <v>30.72</v>
@@ -19565,22 +19942,25 @@
         <v>1679</v>
       </c>
       <c r="M38">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N38">
         <v>2004</v>
       </c>
+      <c r="O38">
+        <v>2004</v>
+      </c>
       <c r="P38" t="s">
         <v>1681</v>
       </c>
-      <c r="Q38" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S38" t="s">
-        <v>1683</v>
+      <c r="Q38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>25</v>
       </c>
       <c r="T38" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -19588,29 +19968,32 @@
       <c r="V38">
         <v>0</v>
       </c>
+      <c r="W38">
+        <v>25</v>
+      </c>
       <c r="Z38" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA38">
         <v>0</v>
       </c>
-      <c r="AB38" t="s">
-        <v>1703</v>
+      <c r="AB38">
+        <v>24</v>
       </c>
       <c r="AC38" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE38" t="s">
         <v>160</v>
       </c>
       <c r="AF38" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG38">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH38" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI38" s="8">
         <v>25.33</v>
@@ -19621,11 +20004,14 @@
       <c r="AM38">
         <v>60</v>
       </c>
+      <c r="AN38">
+        <v>90</v>
+      </c>
       <c r="AO38" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1678</v>
       </c>
@@ -19645,10 +20031,10 @@
         <v>168</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H39" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I39">
         <v>30.72</v>
@@ -19663,22 +20049,25 @@
         <v>1679</v>
       </c>
       <c r="M39">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N39">
         <v>2004</v>
       </c>
+      <c r="O39">
+        <v>2004</v>
+      </c>
       <c r="P39" t="s">
         <v>1681</v>
       </c>
-      <c r="Q39" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S39" t="s">
-        <v>1683</v>
+      <c r="Q39">
+        <v>7</v>
+      </c>
+      <c r="S39">
+        <v>25</v>
       </c>
       <c r="T39" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -19686,29 +20075,32 @@
       <c r="V39">
         <v>0</v>
       </c>
+      <c r="W39">
+        <v>25</v>
+      </c>
       <c r="Z39" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA39">
         <v>0</v>
       </c>
-      <c r="AB39" t="s">
-        <v>1703</v>
+      <c r="AB39">
+        <v>24</v>
       </c>
       <c r="AC39" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE39" t="s">
         <v>160</v>
       </c>
       <c r="AF39" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG39">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH39" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI39" s="8">
         <v>15.63</v>
@@ -19719,11 +20111,14 @@
       <c r="AM39">
         <v>60</v>
       </c>
+      <c r="AN39">
+        <v>90</v>
+      </c>
       <c r="AO39" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1678</v>
       </c>
@@ -19743,10 +20138,10 @@
         <v>168</v>
       </c>
       <c r="G40" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H40" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I40">
         <v>30.72</v>
@@ -19761,19 +20156,22 @@
         <v>1679</v>
       </c>
       <c r="M40">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N40">
         <v>2004</v>
       </c>
+      <c r="O40">
+        <v>2004</v>
+      </c>
       <c r="P40" t="s">
         <v>1681</v>
       </c>
-      <c r="Q40" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S40" t="s">
-        <v>1683</v>
+      <c r="Q40">
+        <v>7</v>
+      </c>
+      <c r="S40">
+        <v>25</v>
       </c>
       <c r="T40" t="s">
         <v>96</v>
@@ -19784,29 +20182,32 @@
       <c r="V40">
         <v>0</v>
       </c>
+      <c r="W40">
+        <v>25</v>
+      </c>
       <c r="Z40" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>1686</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA40">
+        <v>5</v>
+      </c>
+      <c r="AB40">
+        <v>24</v>
       </c>
       <c r="AC40" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE40" t="s">
         <v>160</v>
       </c>
       <c r="AF40" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG40">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH40" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI40" s="8">
         <v>33.33</v>
@@ -19817,11 +20218,17 @@
       <c r="AM40">
         <v>60</v>
       </c>
+      <c r="AN40">
+        <v>90</v>
+      </c>
       <c r="AO40" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1678</v>
       </c>
@@ -19841,10 +20248,10 @@
         <v>168</v>
       </c>
       <c r="G41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H41" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I41">
         <v>30.72</v>
@@ -19859,19 +20266,22 @@
         <v>1679</v>
       </c>
       <c r="M41">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N41">
         <v>2004</v>
       </c>
+      <c r="O41">
+        <v>2004</v>
+      </c>
       <c r="P41" t="s">
         <v>1681</v>
       </c>
-      <c r="Q41" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S41" t="s">
-        <v>1683</v>
+      <c r="Q41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>25</v>
       </c>
       <c r="T41" t="s">
         <v>96</v>
@@ -19882,29 +20292,32 @@
       <c r="V41">
         <v>0</v>
       </c>
+      <c r="W41">
+        <v>25</v>
+      </c>
       <c r="Z41" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA41">
+        <v>10</v>
+      </c>
+      <c r="AB41">
+        <v>24</v>
       </c>
       <c r="AC41" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE41" t="s">
         <v>160</v>
       </c>
       <c r="AF41" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG41">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH41" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI41" s="8">
         <v>26</v>
@@ -19915,11 +20328,17 @@
       <c r="AM41">
         <v>60</v>
       </c>
+      <c r="AN41">
+        <v>90</v>
+      </c>
       <c r="AO41" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1678</v>
       </c>
@@ -19939,10 +20358,10 @@
         <v>168</v>
       </c>
       <c r="G42" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H42" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I42">
         <v>30.72</v>
@@ -19957,19 +20376,22 @@
         <v>1679</v>
       </c>
       <c r="M42">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N42">
         <v>2004</v>
       </c>
+      <c r="O42">
+        <v>2004</v>
+      </c>
       <c r="P42" t="s">
         <v>1681</v>
       </c>
-      <c r="Q42" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S42" t="s">
-        <v>1683</v>
+      <c r="Q42">
+        <v>7</v>
+      </c>
+      <c r="S42">
+        <v>25</v>
       </c>
       <c r="T42" t="s">
         <v>96</v>
@@ -19980,29 +20402,32 @@
       <c r="V42">
         <v>0</v>
       </c>
+      <c r="W42">
+        <v>25</v>
+      </c>
       <c r="Z42" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA42">
+        <v>10</v>
+      </c>
+      <c r="AB42">
+        <v>24</v>
       </c>
       <c r="AC42" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE42" t="s">
         <v>160</v>
       </c>
       <c r="AF42" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG42">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH42" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI42" s="8">
         <v>14.46</v>
@@ -20013,11 +20438,17 @@
       <c r="AM42">
         <v>60</v>
       </c>
+      <c r="AN42">
+        <v>90</v>
+      </c>
       <c r="AO42" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1678</v>
       </c>
@@ -20037,10 +20468,10 @@
         <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H43" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I43">
         <v>30.72</v>
@@ -20055,19 +20486,22 @@
         <v>1679</v>
       </c>
       <c r="M43">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N43">
         <v>2004</v>
       </c>
+      <c r="O43">
+        <v>2004</v>
+      </c>
       <c r="P43" t="s">
         <v>1681</v>
       </c>
-      <c r="Q43" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S43" t="s">
-        <v>1683</v>
+      <c r="Q43">
+        <v>7</v>
+      </c>
+      <c r="S43">
+        <v>25</v>
       </c>
       <c r="T43" t="s">
         <v>96</v>
@@ -20078,29 +20512,32 @@
       <c r="V43">
         <v>0</v>
       </c>
+      <c r="W43">
+        <v>25</v>
+      </c>
       <c r="Z43" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>1688</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA43">
+        <v>20</v>
+      </c>
+      <c r="AB43">
+        <v>24</v>
       </c>
       <c r="AC43" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE43" t="s">
         <v>160</v>
       </c>
       <c r="AF43" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG43">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH43" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI43" s="8">
         <v>33.33</v>
@@ -20111,11 +20548,17 @@
       <c r="AM43">
         <v>60</v>
       </c>
+      <c r="AN43">
+        <v>90</v>
+      </c>
       <c r="AO43" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1678</v>
       </c>
@@ -20135,10 +20578,10 @@
         <v>168</v>
       </c>
       <c r="G44" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H44" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I44">
         <v>30.72</v>
@@ -20153,19 +20596,22 @@
         <v>1679</v>
       </c>
       <c r="M44">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N44">
         <v>2004</v>
       </c>
+      <c r="O44">
+        <v>2004</v>
+      </c>
       <c r="P44" t="s">
         <v>1681</v>
       </c>
-      <c r="Q44" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S44" t="s">
-        <v>1683</v>
+      <c r="Q44">
+        <v>7</v>
+      </c>
+      <c r="S44">
+        <v>25</v>
       </c>
       <c r="T44" t="s">
         <v>96</v>
@@ -20176,29 +20622,32 @@
       <c r="V44">
         <v>0</v>
       </c>
+      <c r="W44">
+        <v>25</v>
+      </c>
       <c r="Z44" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>1690</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA44">
+        <v>50</v>
+      </c>
+      <c r="AB44">
+        <v>24</v>
       </c>
       <c r="AC44" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE44" t="s">
         <v>160</v>
       </c>
       <c r="AF44" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG44">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH44" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI44" s="8">
         <v>44</v>
@@ -20209,11 +20658,17 @@
       <c r="AM44">
         <v>60</v>
       </c>
+      <c r="AN44">
+        <v>90</v>
+      </c>
       <c r="AO44" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1678</v>
       </c>
@@ -20233,10 +20688,10 @@
         <v>168</v>
       </c>
       <c r="G45" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H45" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I45">
         <v>30.72</v>
@@ -20251,19 +20706,22 @@
         <v>1679</v>
       </c>
       <c r="M45">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N45">
         <v>2004</v>
       </c>
+      <c r="O45">
+        <v>2004</v>
+      </c>
       <c r="P45" t="s">
         <v>1681</v>
       </c>
-      <c r="Q45" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S45" t="s">
-        <v>1683</v>
+      <c r="Q45">
+        <v>7</v>
+      </c>
+      <c r="S45">
+        <v>25</v>
       </c>
       <c r="T45" t="s">
         <v>96</v>
@@ -20274,29 +20732,32 @@
       <c r="V45">
         <v>0</v>
       </c>
+      <c r="W45">
+        <v>25</v>
+      </c>
       <c r="Z45" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA45">
+        <v>100</v>
+      </c>
+      <c r="AB45">
+        <v>24</v>
       </c>
       <c r="AC45" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE45" t="s">
         <v>160</v>
       </c>
       <c r="AF45" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG45">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH45" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI45" s="8">
         <v>64.67</v>
@@ -20307,11 +20768,17 @@
       <c r="AM45">
         <v>60</v>
       </c>
+      <c r="AN45">
+        <v>90</v>
+      </c>
       <c r="AO45" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1678</v>
       </c>
@@ -20331,10 +20798,10 @@
         <v>168</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H46" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I46">
         <v>30.72</v>
@@ -20349,19 +20816,22 @@
         <v>1679</v>
       </c>
       <c r="M46">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N46">
         <v>2004</v>
       </c>
+      <c r="O46">
+        <v>2004</v>
+      </c>
       <c r="P46" t="s">
         <v>1681</v>
       </c>
-      <c r="Q46" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S46" t="s">
-        <v>1683</v>
+      <c r="Q46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>25</v>
       </c>
       <c r="T46" t="s">
         <v>96</v>
@@ -20372,29 +20842,32 @@
       <c r="V46">
         <v>0</v>
       </c>
+      <c r="W46">
+        <v>25</v>
+      </c>
       <c r="Z46" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA46">
+        <v>100</v>
+      </c>
+      <c r="AB46">
+        <v>24</v>
       </c>
       <c r="AC46" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE46" t="s">
         <v>160</v>
       </c>
       <c r="AF46" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG46">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH46" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI46" s="8">
         <v>18.100000000000001</v>
@@ -20405,11 +20878,17 @@
       <c r="AM46">
         <v>60</v>
       </c>
+      <c r="AN46">
+        <v>90</v>
+      </c>
       <c r="AO46" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1678</v>
       </c>
@@ -20429,10 +20908,10 @@
         <v>168</v>
       </c>
       <c r="G47" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H47" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I47">
         <v>30.72</v>
@@ -20447,19 +20926,22 @@
         <v>1679</v>
       </c>
       <c r="M47">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N47">
         <v>2004</v>
       </c>
+      <c r="O47">
+        <v>2004</v>
+      </c>
       <c r="P47" t="s">
         <v>1681</v>
       </c>
-      <c r="Q47" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S47" t="s">
-        <v>1683</v>
+      <c r="Q47">
+        <v>7</v>
+      </c>
+      <c r="S47">
+        <v>25</v>
       </c>
       <c r="T47" t="s">
         <v>96</v>
@@ -20470,29 +20952,32 @@
       <c r="V47">
         <v>0</v>
       </c>
+      <c r="W47">
+        <v>25</v>
+      </c>
       <c r="Z47" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA47">
+        <v>200</v>
+      </c>
+      <c r="AB47">
+        <v>24</v>
       </c>
       <c r="AC47" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE47" t="s">
         <v>160</v>
       </c>
       <c r="AF47" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG47">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH47" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI47" s="8">
         <v>49.33</v>
@@ -20503,11 +20988,17 @@
       <c r="AM47">
         <v>60</v>
       </c>
+      <c r="AN47">
+        <v>90</v>
+      </c>
       <c r="AO47" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1678</v>
       </c>
@@ -20527,10 +21018,10 @@
         <v>168</v>
       </c>
       <c r="G48" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H48" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I48">
         <v>30.72</v>
@@ -20545,19 +21036,22 @@
         <v>1679</v>
       </c>
       <c r="M48">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N48">
         <v>2004</v>
       </c>
+      <c r="O48">
+        <v>2004</v>
+      </c>
       <c r="P48" t="s">
         <v>1681</v>
       </c>
-      <c r="Q48" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S48" t="s">
-        <v>1683</v>
+      <c r="Q48">
+        <v>7</v>
+      </c>
+      <c r="S48">
+        <v>25</v>
       </c>
       <c r="T48" t="s">
         <v>96</v>
@@ -20568,29 +21062,32 @@
       <c r="V48">
         <v>0</v>
       </c>
+      <c r="W48">
+        <v>25</v>
+      </c>
       <c r="Z48" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>1690</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA48">
+        <v>50</v>
+      </c>
+      <c r="AB48">
+        <v>24</v>
       </c>
       <c r="AC48" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE48" t="s">
         <v>160</v>
       </c>
       <c r="AF48" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG48">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH48" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI48" s="8">
         <v>72.66</v>
@@ -20601,11 +21098,17 @@
       <c r="AM48">
         <v>60</v>
       </c>
+      <c r="AN48">
+        <v>90</v>
+      </c>
       <c r="AO48" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1678</v>
       </c>
@@ -20625,10 +21128,10 @@
         <v>168</v>
       </c>
       <c r="G49" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H49" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I49">
         <v>30.72</v>
@@ -20643,19 +21146,22 @@
         <v>1679</v>
       </c>
       <c r="M49">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N49">
         <v>2004</v>
       </c>
+      <c r="O49">
+        <v>2004</v>
+      </c>
       <c r="P49" t="s">
         <v>1681</v>
       </c>
-      <c r="Q49" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S49" t="s">
-        <v>1683</v>
+      <c r="Q49">
+        <v>7</v>
+      </c>
+      <c r="S49">
+        <v>25</v>
       </c>
       <c r="T49" t="s">
         <v>96</v>
@@ -20666,29 +21172,32 @@
       <c r="V49">
         <v>0</v>
       </c>
+      <c r="W49">
+        <v>25</v>
+      </c>
       <c r="Z49" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA49">
+        <v>100</v>
+      </c>
+      <c r="AB49">
+        <v>24</v>
       </c>
       <c r="AC49" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE49" t="s">
         <v>160</v>
       </c>
       <c r="AF49" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG49">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH49" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI49" s="8">
         <v>80</v>
@@ -20699,11 +21208,17 @@
       <c r="AM49">
         <v>60</v>
       </c>
+      <c r="AN49">
+        <v>90</v>
+      </c>
       <c r="AO49" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1678</v>
       </c>
@@ -20723,10 +21238,10 @@
         <v>168</v>
       </c>
       <c r="G50" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H50" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I50">
         <v>30.72</v>
@@ -20741,19 +21256,22 @@
         <v>1679</v>
       </c>
       <c r="M50">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N50">
         <v>2004</v>
       </c>
+      <c r="O50">
+        <v>2004</v>
+      </c>
       <c r="P50" t="s">
         <v>1681</v>
       </c>
-      <c r="Q50" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S50" t="s">
-        <v>1683</v>
+      <c r="Q50">
+        <v>7</v>
+      </c>
+      <c r="S50">
+        <v>25</v>
       </c>
       <c r="T50" t="s">
         <v>96</v>
@@ -20764,29 +21282,32 @@
       <c r="V50">
         <v>0</v>
       </c>
+      <c r="W50">
+        <v>25</v>
+      </c>
       <c r="Z50" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA50">
+        <v>100</v>
+      </c>
+      <c r="AB50">
+        <v>24</v>
       </c>
       <c r="AC50" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE50" t="s">
         <v>160</v>
       </c>
       <c r="AF50" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG50">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH50" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI50" s="8">
         <v>16.309999999999999</v>
@@ -20797,11 +21318,17 @@
       <c r="AM50">
         <v>60</v>
       </c>
+      <c r="AN50">
+        <v>90</v>
+      </c>
       <c r="AO50" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1678</v>
       </c>
@@ -20821,10 +21348,10 @@
         <v>168</v>
       </c>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H51" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I51">
         <v>30.72</v>
@@ -20839,19 +21366,22 @@
         <v>1679</v>
       </c>
       <c r="M51">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N51">
         <v>2004</v>
       </c>
+      <c r="O51">
+        <v>2004</v>
+      </c>
       <c r="P51" t="s">
         <v>1681</v>
       </c>
-      <c r="Q51" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S51" t="s">
-        <v>1683</v>
+      <c r="Q51">
+        <v>7</v>
+      </c>
+      <c r="S51">
+        <v>25</v>
       </c>
       <c r="T51" t="s">
         <v>96</v>
@@ -20862,29 +21392,32 @@
       <c r="V51">
         <v>0</v>
       </c>
+      <c r="W51">
+        <v>25</v>
+      </c>
       <c r="Z51" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA51">
+        <v>200</v>
+      </c>
+      <c r="AB51">
+        <v>24</v>
       </c>
       <c r="AC51" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE51" t="s">
         <v>160</v>
       </c>
       <c r="AF51" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG51">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH51" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI51" s="8">
         <v>78</v>
@@ -20895,11 +21428,17 @@
       <c r="AM51">
         <v>60</v>
       </c>
+      <c r="AN51">
+        <v>90</v>
+      </c>
       <c r="AO51" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1678</v>
       </c>
@@ -20919,10 +21458,10 @@
         <v>168</v>
       </c>
       <c r="G52" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H52" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I52">
         <v>30.72</v>
@@ -20937,22 +21476,25 @@
         <v>1679</v>
       </c>
       <c r="M52">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N52">
         <v>2004</v>
       </c>
+      <c r="O52">
+        <v>2004</v>
+      </c>
       <c r="P52" t="s">
         <v>1681</v>
       </c>
-      <c r="Q52" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S52" t="s">
-        <v>1683</v>
+      <c r="Q52">
+        <v>7</v>
+      </c>
+      <c r="S52">
+        <v>25</v>
       </c>
       <c r="T52" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U52">
         <v>4</v>
@@ -20960,29 +21502,32 @@
       <c r="V52">
         <v>15</v>
       </c>
+      <c r="W52">
+        <v>25</v>
+      </c>
       <c r="Z52" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA52">
         <v>0</v>
       </c>
-      <c r="AB52" t="s">
-        <v>1703</v>
+      <c r="AB52">
+        <v>24</v>
       </c>
       <c r="AC52" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE52" t="s">
         <v>160</v>
       </c>
       <c r="AF52" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG52">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH52" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI52" s="8">
         <v>54.67</v>
@@ -20993,11 +21538,14 @@
       <c r="AM52">
         <v>60</v>
       </c>
+      <c r="AN52">
+        <v>90</v>
+      </c>
       <c r="AO52" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1678</v>
       </c>
@@ -21017,10 +21565,10 @@
         <v>168</v>
       </c>
       <c r="G53" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H53" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I53">
         <v>30.72</v>
@@ -21035,22 +21583,25 @@
         <v>1679</v>
       </c>
       <c r="M53">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N53">
         <v>2004</v>
       </c>
+      <c r="O53">
+        <v>2004</v>
+      </c>
       <c r="P53" t="s">
         <v>1681</v>
       </c>
-      <c r="Q53" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S53" t="s">
-        <v>1683</v>
+      <c r="Q53">
+        <v>7</v>
+      </c>
+      <c r="S53">
+        <v>25</v>
       </c>
       <c r="T53" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U53">
         <v>4</v>
@@ -21058,29 +21609,32 @@
       <c r="V53">
         <v>30</v>
       </c>
+      <c r="W53">
+        <v>25</v>
+      </c>
       <c r="Z53" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA53">
         <v>0</v>
       </c>
-      <c r="AB53" t="s">
-        <v>1703</v>
+      <c r="AB53">
+        <v>24</v>
       </c>
       <c r="AC53" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE53" t="s">
         <v>160</v>
       </c>
       <c r="AF53" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG53">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH53" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI53" s="8">
         <v>66</v>
@@ -21091,11 +21645,14 @@
       <c r="AM53">
         <v>60</v>
       </c>
+      <c r="AN53">
+        <v>90</v>
+      </c>
       <c r="AO53" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1678</v>
       </c>
@@ -21115,10 +21672,10 @@
         <v>168</v>
       </c>
       <c r="G54" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H54" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I54">
         <v>30.72</v>
@@ -21133,22 +21690,25 @@
         <v>1679</v>
       </c>
       <c r="M54">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N54">
         <v>2004</v>
       </c>
+      <c r="O54">
+        <v>2004</v>
+      </c>
       <c r="P54" t="s">
         <v>1681</v>
       </c>
-      <c r="Q54" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S54" t="s">
-        <v>1683</v>
+      <c r="Q54">
+        <v>7</v>
+      </c>
+      <c r="S54">
+        <v>25</v>
       </c>
       <c r="T54" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U54">
         <v>4</v>
@@ -21156,29 +21716,32 @@
       <c r="V54">
         <v>30</v>
       </c>
+      <c r="W54">
+        <v>25</v>
+      </c>
       <c r="Z54" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA54">
         <v>0</v>
       </c>
-      <c r="AB54" t="s">
-        <v>1703</v>
+      <c r="AB54">
+        <v>24</v>
       </c>
       <c r="AC54" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE54" t="s">
         <v>160</v>
       </c>
       <c r="AF54" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG54">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH54" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI54" s="8">
         <v>22.33</v>
@@ -21189,11 +21752,14 @@
       <c r="AM54">
         <v>60</v>
       </c>
+      <c r="AN54">
+        <v>90</v>
+      </c>
       <c r="AO54" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1678</v>
       </c>
@@ -21213,10 +21779,10 @@
         <v>168</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H55" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I55">
         <v>30.72</v>
@@ -21231,22 +21797,25 @@
         <v>1679</v>
       </c>
       <c r="M55">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N55">
         <v>2004</v>
       </c>
+      <c r="O55">
+        <v>2004</v>
+      </c>
       <c r="P55" t="s">
         <v>1681</v>
       </c>
-      <c r="Q55" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S55" t="s">
-        <v>1683</v>
+      <c r="Q55">
+        <v>7</v>
+      </c>
+      <c r="S55">
+        <v>25</v>
       </c>
       <c r="T55" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U55">
         <v>4</v>
@@ -21254,29 +21823,32 @@
       <c r="V55">
         <v>60</v>
       </c>
+      <c r="W55">
+        <v>25</v>
+      </c>
       <c r="Z55" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA55">
         <v>0</v>
       </c>
-      <c r="AB55" t="s">
-        <v>1703</v>
+      <c r="AB55">
+        <v>24</v>
       </c>
       <c r="AC55" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE55" t="s">
         <v>160</v>
       </c>
       <c r="AF55" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG55">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH55" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI55" s="8">
         <v>58.67</v>
@@ -21287,11 +21859,14 @@
       <c r="AM55">
         <v>60</v>
       </c>
+      <c r="AN55">
+        <v>90</v>
+      </c>
       <c r="AO55" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1678</v>
       </c>
@@ -21311,10 +21886,10 @@
         <v>168</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H56" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I56">
         <v>30.73</v>
@@ -21329,22 +21904,25 @@
         <v>1679</v>
       </c>
       <c r="M56">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N56">
         <v>2004</v>
       </c>
+      <c r="O56">
+        <v>2004</v>
+      </c>
       <c r="P56" t="s">
         <v>1681</v>
       </c>
-      <c r="Q56" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S56" t="s">
-        <v>1683</v>
+      <c r="Q56">
+        <v>7</v>
+      </c>
+      <c r="S56">
+        <v>25</v>
       </c>
       <c r="T56" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -21352,29 +21930,32 @@
       <c r="V56">
         <v>0</v>
       </c>
+      <c r="W56">
+        <v>25</v>
+      </c>
       <c r="Z56" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA56">
         <v>0</v>
       </c>
-      <c r="AB56" t="s">
-        <v>1703</v>
+      <c r="AB56">
+        <v>24</v>
       </c>
       <c r="AC56" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE56" t="s">
         <v>160</v>
       </c>
       <c r="AF56" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG56">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH56" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI56" s="8">
         <v>24.66</v>
@@ -21385,11 +21966,14 @@
       <c r="AM56">
         <v>60</v>
       </c>
+      <c r="AN56">
+        <v>90</v>
+      </c>
       <c r="AO56" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1678</v>
       </c>
@@ -21409,10 +21993,10 @@
         <v>168</v>
       </c>
       <c r="G57" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H57" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I57">
         <v>30.73</v>
@@ -21427,22 +22011,25 @@
         <v>1679</v>
       </c>
       <c r="M57">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N57">
         <v>2004</v>
       </c>
+      <c r="O57">
+        <v>2004</v>
+      </c>
       <c r="P57" t="s">
         <v>1681</v>
       </c>
-      <c r="Q57" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S57" t="s">
-        <v>1683</v>
+      <c r="Q57">
+        <v>7</v>
+      </c>
+      <c r="S57">
+        <v>25</v>
       </c>
       <c r="T57" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -21450,29 +22037,32 @@
       <c r="V57">
         <v>0</v>
       </c>
+      <c r="W57">
+        <v>25</v>
+      </c>
       <c r="Z57" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA57">
         <v>0</v>
       </c>
-      <c r="AB57" t="s">
-        <v>1703</v>
+      <c r="AB57">
+        <v>24</v>
       </c>
       <c r="AC57" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE57" t="s">
         <v>160</v>
       </c>
       <c r="AF57" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG57">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH57" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI57" s="8">
         <v>18.96</v>
@@ -21483,11 +22073,14 @@
       <c r="AM57">
         <v>60</v>
       </c>
+      <c r="AN57">
+        <v>90</v>
+      </c>
       <c r="AO57" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1678</v>
       </c>
@@ -21507,10 +22100,10 @@
         <v>168</v>
       </c>
       <c r="G58" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H58" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I58">
         <v>30.73</v>
@@ -21525,19 +22118,22 @@
         <v>1679</v>
       </c>
       <c r="M58">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N58">
         <v>2004</v>
       </c>
+      <c r="O58">
+        <v>2004</v>
+      </c>
       <c r="P58" t="s">
         <v>1681</v>
       </c>
-      <c r="Q58" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S58" t="s">
-        <v>1683</v>
+      <c r="Q58">
+        <v>7</v>
+      </c>
+      <c r="S58">
+        <v>25</v>
       </c>
       <c r="T58" t="s">
         <v>96</v>
@@ -21548,29 +22144,32 @@
       <c r="V58">
         <v>0</v>
       </c>
+      <c r="W58">
+        <v>25</v>
+      </c>
       <c r="Z58" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>1686</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA58">
+        <v>5</v>
+      </c>
+      <c r="AB58">
+        <v>24</v>
       </c>
       <c r="AC58" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE58" t="s">
         <v>160</v>
       </c>
       <c r="AF58" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG58">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH58" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI58" s="8">
         <v>50.66</v>
@@ -21581,11 +22180,17 @@
       <c r="AM58">
         <v>60</v>
       </c>
+      <c r="AN58">
+        <v>90</v>
+      </c>
       <c r="AO58" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1678</v>
       </c>
@@ -21605,10 +22210,10 @@
         <v>168</v>
       </c>
       <c r="G59" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H59" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I59">
         <v>30.73</v>
@@ -21623,19 +22228,22 @@
         <v>1679</v>
       </c>
       <c r="M59">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N59">
         <v>2004</v>
       </c>
+      <c r="O59">
+        <v>2004</v>
+      </c>
       <c r="P59" t="s">
         <v>1681</v>
       </c>
-      <c r="Q59" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S59" t="s">
-        <v>1683</v>
+      <c r="Q59">
+        <v>7</v>
+      </c>
+      <c r="S59">
+        <v>25</v>
       </c>
       <c r="T59" t="s">
         <v>96</v>
@@ -21646,29 +22254,32 @@
       <c r="V59">
         <v>0</v>
       </c>
+      <c r="W59">
+        <v>25</v>
+      </c>
       <c r="Z59" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA59">
+        <v>10</v>
+      </c>
+      <c r="AB59">
+        <v>24</v>
       </c>
       <c r="AC59" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE59" t="s">
         <v>160</v>
       </c>
       <c r="AF59" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG59">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH59" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI59" s="8">
         <v>58</v>
@@ -21679,11 +22290,17 @@
       <c r="AM59">
         <v>60</v>
       </c>
+      <c r="AN59">
+        <v>90</v>
+      </c>
       <c r="AO59" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1678</v>
       </c>
@@ -21703,10 +22320,10 @@
         <v>168</v>
       </c>
       <c r="G60" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H60" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I60">
         <v>30.73</v>
@@ -21721,19 +22338,22 @@
         <v>1679</v>
       </c>
       <c r="M60">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N60">
         <v>2004</v>
       </c>
+      <c r="O60">
+        <v>2004</v>
+      </c>
       <c r="P60" t="s">
         <v>1681</v>
       </c>
-      <c r="Q60" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S60" t="s">
-        <v>1683</v>
+      <c r="Q60">
+        <v>7</v>
+      </c>
+      <c r="S60">
+        <v>25</v>
       </c>
       <c r="T60" t="s">
         <v>96</v>
@@ -21744,29 +22364,32 @@
       <c r="V60">
         <v>0</v>
       </c>
+      <c r="W60">
+        <v>25</v>
+      </c>
       <c r="Z60" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA60">
+        <v>10</v>
+      </c>
+      <c r="AB60">
+        <v>24</v>
       </c>
       <c r="AC60" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE60" t="s">
         <v>160</v>
       </c>
       <c r="AF60" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG60">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH60" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI60" s="8">
         <v>13.36</v>
@@ -21777,11 +22400,17 @@
       <c r="AM60">
         <v>60</v>
       </c>
+      <c r="AN60">
+        <v>90</v>
+      </c>
       <c r="AO60" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1678</v>
       </c>
@@ -21801,10 +22430,10 @@
         <v>168</v>
       </c>
       <c r="G61" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H61" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I61">
         <v>30.73</v>
@@ -21819,19 +22448,22 @@
         <v>1679</v>
       </c>
       <c r="M61">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N61">
         <v>2004</v>
       </c>
+      <c r="O61">
+        <v>2004</v>
+      </c>
       <c r="P61" t="s">
         <v>1681</v>
       </c>
-      <c r="Q61" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S61" t="s">
-        <v>1683</v>
+      <c r="Q61">
+        <v>7</v>
+      </c>
+      <c r="S61">
+        <v>25</v>
       </c>
       <c r="T61" t="s">
         <v>96</v>
@@ -21842,29 +22474,32 @@
       <c r="V61">
         <v>0</v>
       </c>
+      <c r="W61">
+        <v>25</v>
+      </c>
       <c r="Z61" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>1688</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA61">
+        <v>20</v>
+      </c>
+      <c r="AB61">
+        <v>24</v>
       </c>
       <c r="AC61" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE61" t="s">
         <v>160</v>
       </c>
       <c r="AF61" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG61">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH61" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI61" s="8">
         <v>56</v>
@@ -21875,11 +22510,17 @@
       <c r="AM61">
         <v>60</v>
       </c>
+      <c r="AN61">
+        <v>90</v>
+      </c>
       <c r="AO61" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1678</v>
       </c>
@@ -21899,10 +22540,10 @@
         <v>168</v>
       </c>
       <c r="G62" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H62" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I62">
         <v>30.73</v>
@@ -21917,19 +22558,22 @@
         <v>1679</v>
       </c>
       <c r="M62">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N62">
         <v>2004</v>
       </c>
+      <c r="O62">
+        <v>2004</v>
+      </c>
       <c r="P62" t="s">
         <v>1681</v>
       </c>
-      <c r="Q62" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S62" t="s">
-        <v>1683</v>
+      <c r="Q62">
+        <v>7</v>
+      </c>
+      <c r="S62">
+        <v>25</v>
       </c>
       <c r="T62" t="s">
         <v>96</v>
@@ -21940,29 +22584,32 @@
       <c r="V62">
         <v>0</v>
       </c>
+      <c r="W62">
+        <v>25</v>
+      </c>
       <c r="Z62" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>1690</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA62">
+        <v>50</v>
+      </c>
+      <c r="AB62">
+        <v>24</v>
       </c>
       <c r="AC62" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE62" t="s">
         <v>160</v>
       </c>
       <c r="AF62" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG62">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH62" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI62" s="8">
         <v>68.66</v>
@@ -21973,11 +22620,17 @@
       <c r="AM62">
         <v>60</v>
       </c>
+      <c r="AN62">
+        <v>90</v>
+      </c>
       <c r="AO62" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1678</v>
       </c>
@@ -21997,10 +22650,10 @@
         <v>168</v>
       </c>
       <c r="G63" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H63" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I63">
         <v>30.73</v>
@@ -22015,19 +22668,22 @@
         <v>1679</v>
       </c>
       <c r="M63">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N63">
         <v>2004</v>
       </c>
+      <c r="O63">
+        <v>2004</v>
+      </c>
       <c r="P63" t="s">
         <v>1681</v>
       </c>
-      <c r="Q63" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S63" t="s">
-        <v>1683</v>
+      <c r="Q63">
+        <v>7</v>
+      </c>
+      <c r="S63">
+        <v>25</v>
       </c>
       <c r="T63" t="s">
         <v>96</v>
@@ -22038,29 +22694,32 @@
       <c r="V63">
         <v>0</v>
       </c>
+      <c r="W63">
+        <v>25</v>
+      </c>
       <c r="Z63" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA63">
+        <v>100</v>
+      </c>
+      <c r="AB63">
+        <v>24</v>
       </c>
       <c r="AC63" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE63" t="s">
         <v>160</v>
       </c>
       <c r="AF63" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG63">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH63" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI63" s="8">
         <v>77.33</v>
@@ -22071,11 +22730,17 @@
       <c r="AM63">
         <v>60</v>
       </c>
+      <c r="AN63">
+        <v>90</v>
+      </c>
       <c r="AO63" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1678</v>
       </c>
@@ -22095,10 +22760,10 @@
         <v>168</v>
       </c>
       <c r="G64" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H64" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I64">
         <v>30.73</v>
@@ -22113,19 +22778,22 @@
         <v>1679</v>
       </c>
       <c r="M64">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N64">
         <v>2004</v>
       </c>
+      <c r="O64">
+        <v>2004</v>
+      </c>
       <c r="P64" t="s">
         <v>1681</v>
       </c>
-      <c r="Q64" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S64" t="s">
-        <v>1683</v>
+      <c r="Q64">
+        <v>7</v>
+      </c>
+      <c r="S64">
+        <v>25</v>
       </c>
       <c r="T64" t="s">
         <v>96</v>
@@ -22136,29 +22804,32 @@
       <c r="V64">
         <v>0</v>
       </c>
+      <c r="W64">
+        <v>25</v>
+      </c>
       <c r="Z64" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA64">
+        <v>100</v>
+      </c>
+      <c r="AB64">
+        <v>24</v>
       </c>
       <c r="AC64" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE64" t="s">
         <v>160</v>
       </c>
       <c r="AF64" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG64">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH64" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI64" s="8">
         <v>18.28</v>
@@ -22169,11 +22840,17 @@
       <c r="AM64">
         <v>60</v>
       </c>
+      <c r="AN64">
+        <v>90</v>
+      </c>
       <c r="AO64" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1678</v>
       </c>
@@ -22193,10 +22870,10 @@
         <v>168</v>
       </c>
       <c r="G65" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H65" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I65">
         <v>30.73</v>
@@ -22211,19 +22888,22 @@
         <v>1679</v>
       </c>
       <c r="M65">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N65">
         <v>2004</v>
       </c>
+      <c r="O65">
+        <v>2004</v>
+      </c>
       <c r="P65" t="s">
         <v>1681</v>
       </c>
-      <c r="Q65" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S65" t="s">
-        <v>1683</v>
+      <c r="Q65">
+        <v>7</v>
+      </c>
+      <c r="S65">
+        <v>25</v>
       </c>
       <c r="T65" t="s">
         <v>96</v>
@@ -22234,29 +22914,32 @@
       <c r="V65">
         <v>0</v>
       </c>
+      <c r="W65">
+        <v>25</v>
+      </c>
       <c r="Z65" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA65">
+        <v>200</v>
+      </c>
+      <c r="AB65">
+        <v>24</v>
       </c>
       <c r="AC65" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE65" t="s">
         <v>160</v>
       </c>
       <c r="AF65" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG65">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH65" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI65" s="8">
         <v>74.44</v>
@@ -22267,11 +22950,17 @@
       <c r="AM65">
         <v>60</v>
       </c>
+      <c r="AN65">
+        <v>90</v>
+      </c>
       <c r="AO65" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1678</v>
       </c>
@@ -22291,10 +22980,10 @@
         <v>168</v>
       </c>
       <c r="G66" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H66" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I66">
         <v>30.73</v>
@@ -22309,19 +22998,22 @@
         <v>1679</v>
       </c>
       <c r="M66">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N66">
         <v>2004</v>
       </c>
+      <c r="O66">
+        <v>2004</v>
+      </c>
       <c r="P66" t="s">
         <v>1681</v>
       </c>
-      <c r="Q66" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S66" t="s">
-        <v>1683</v>
+      <c r="Q66">
+        <v>7</v>
+      </c>
+      <c r="S66">
+        <v>25</v>
       </c>
       <c r="T66" t="s">
         <v>96</v>
@@ -22332,29 +23024,32 @@
       <c r="V66">
         <v>0</v>
       </c>
+      <c r="W66">
+        <v>25</v>
+      </c>
       <c r="Z66" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>1690</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA66">
+        <v>50</v>
+      </c>
+      <c r="AB66">
+        <v>24</v>
       </c>
       <c r="AC66" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE66" t="s">
         <v>160</v>
       </c>
       <c r="AF66" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG66">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH66" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI66" s="8">
         <v>42.66</v>
@@ -22365,11 +23060,17 @@
       <c r="AM66">
         <v>60</v>
       </c>
+      <c r="AN66">
+        <v>90</v>
+      </c>
       <c r="AO66" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1678</v>
       </c>
@@ -22389,10 +23090,10 @@
         <v>168</v>
       </c>
       <c r="G67" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H67" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I67">
         <v>30.73</v>
@@ -22407,19 +23108,22 @@
         <v>1679</v>
       </c>
       <c r="M67">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N67">
         <v>2004</v>
       </c>
+      <c r="O67">
+        <v>2004</v>
+      </c>
       <c r="P67" t="s">
         <v>1681</v>
       </c>
-      <c r="Q67" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S67" t="s">
-        <v>1683</v>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="S67">
+        <v>25</v>
       </c>
       <c r="T67" t="s">
         <v>96</v>
@@ -22430,29 +23134,32 @@
       <c r="V67">
         <v>0</v>
       </c>
+      <c r="W67">
+        <v>25</v>
+      </c>
       <c r="Z67" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA67">
+        <v>100</v>
+      </c>
+      <c r="AB67">
+        <v>24</v>
       </c>
       <c r="AC67" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE67" t="s">
         <v>160</v>
       </c>
       <c r="AF67" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG67">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH67" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI67" s="8">
         <v>56.33</v>
@@ -22463,11 +23170,17 @@
       <c r="AM67">
         <v>60</v>
       </c>
+      <c r="AN67">
+        <v>90</v>
+      </c>
       <c r="AO67" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1678</v>
       </c>
@@ -22487,10 +23200,10 @@
         <v>168</v>
       </c>
       <c r="G68" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H68" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I68">
         <v>30.73</v>
@@ -22505,19 +23218,22 @@
         <v>1679</v>
       </c>
       <c r="M68">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N68">
         <v>2004</v>
       </c>
+      <c r="O68">
+        <v>2004</v>
+      </c>
       <c r="P68" t="s">
         <v>1681</v>
       </c>
-      <c r="Q68" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S68" t="s">
-        <v>1683</v>
+      <c r="Q68">
+        <v>7</v>
+      </c>
+      <c r="S68">
+        <v>25</v>
       </c>
       <c r="T68" t="s">
         <v>96</v>
@@ -22528,29 +23244,32 @@
       <c r="V68">
         <v>0</v>
       </c>
+      <c r="W68">
+        <v>25</v>
+      </c>
       <c r="Z68" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA68">
+        <v>100</v>
+      </c>
+      <c r="AB68">
+        <v>24</v>
       </c>
       <c r="AC68" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE68" t="s">
         <v>160</v>
       </c>
       <c r="AF68" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG68">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH68" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI68" s="8">
         <v>17.670000000000002</v>
@@ -22561,11 +23280,17 @@
       <c r="AM68">
         <v>60</v>
       </c>
+      <c r="AN68">
+        <v>90</v>
+      </c>
       <c r="AO68" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1678</v>
       </c>
@@ -22585,10 +23310,10 @@
         <v>168</v>
       </c>
       <c r="G69" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H69" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I69">
         <v>30.73</v>
@@ -22603,19 +23328,22 @@
         <v>1679</v>
       </c>
       <c r="M69">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N69">
         <v>2004</v>
       </c>
+      <c r="O69">
+        <v>2004</v>
+      </c>
       <c r="P69" t="s">
         <v>1681</v>
       </c>
-      <c r="Q69" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S69" t="s">
-        <v>1683</v>
+      <c r="Q69">
+        <v>7</v>
+      </c>
+      <c r="S69">
+        <v>25</v>
       </c>
       <c r="T69" t="s">
         <v>96</v>
@@ -22626,29 +23354,32 @@
       <c r="V69">
         <v>0</v>
       </c>
+      <c r="W69">
+        <v>25</v>
+      </c>
       <c r="Z69" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA69">
+        <v>200</v>
+      </c>
+      <c r="AB69">
+        <v>24</v>
       </c>
       <c r="AC69" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE69" t="s">
         <v>160</v>
       </c>
       <c r="AF69" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG69">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH69" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI69" s="8">
         <v>45.33</v>
@@ -22659,11 +23390,17 @@
       <c r="AM69">
         <v>60</v>
       </c>
+      <c r="AN69">
+        <v>90</v>
+      </c>
       <c r="AO69" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1678</v>
       </c>
@@ -22683,10 +23420,10 @@
         <v>168</v>
       </c>
       <c r="G70" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H70" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I70">
         <v>30.73</v>
@@ -22701,22 +23438,25 @@
         <v>1679</v>
       </c>
       <c r="M70">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N70">
         <v>2004</v>
       </c>
+      <c r="O70">
+        <v>2004</v>
+      </c>
       <c r="P70" t="s">
         <v>1681</v>
       </c>
-      <c r="Q70" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S70" t="s">
-        <v>1683</v>
+      <c r="Q70">
+        <v>7</v>
+      </c>
+      <c r="S70">
+        <v>25</v>
       </c>
       <c r="T70" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U70">
         <v>4</v>
@@ -22724,29 +23464,32 @@
       <c r="V70">
         <v>15</v>
       </c>
+      <c r="W70">
+        <v>25</v>
+      </c>
       <c r="Z70" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA70">
         <v>0</v>
       </c>
-      <c r="AB70" t="s">
-        <v>1703</v>
+      <c r="AB70">
+        <v>24</v>
       </c>
       <c r="AC70" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE70" t="s">
         <v>160</v>
       </c>
       <c r="AF70" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG70">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH70" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI70" s="8">
         <v>29.33</v>
@@ -22757,11 +23500,14 @@
       <c r="AM70">
         <v>60</v>
       </c>
+      <c r="AN70">
+        <v>90</v>
+      </c>
       <c r="AO70" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1678</v>
       </c>
@@ -22781,10 +23527,10 @@
         <v>168</v>
       </c>
       <c r="G71" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H71" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I71">
         <v>30.73</v>
@@ -22799,22 +23545,25 @@
         <v>1679</v>
       </c>
       <c r="M71">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N71">
         <v>2004</v>
       </c>
+      <c r="O71">
+        <v>2004</v>
+      </c>
       <c r="P71" t="s">
         <v>1681</v>
       </c>
-      <c r="Q71" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S71" t="s">
-        <v>1683</v>
+      <c r="Q71">
+        <v>7</v>
+      </c>
+      <c r="S71">
+        <v>25</v>
       </c>
       <c r="T71" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U71">
         <v>4</v>
@@ -22822,29 +23571,32 @@
       <c r="V71">
         <v>30</v>
       </c>
+      <c r="W71">
+        <v>25</v>
+      </c>
       <c r="Z71" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA71">
         <v>0</v>
       </c>
-      <c r="AB71" t="s">
-        <v>1703</v>
+      <c r="AB71">
+        <v>24</v>
       </c>
       <c r="AC71" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE71" t="s">
         <v>160</v>
       </c>
       <c r="AF71" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG71">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH71" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI71" s="8">
         <v>31.33</v>
@@ -22855,11 +23607,14 @@
       <c r="AM71">
         <v>60</v>
       </c>
+      <c r="AN71">
+        <v>90</v>
+      </c>
       <c r="AO71" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1678</v>
       </c>
@@ -22879,10 +23634,10 @@
         <v>168</v>
       </c>
       <c r="G72" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H72" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I72">
         <v>30.73</v>
@@ -22897,22 +23652,25 @@
         <v>1679</v>
       </c>
       <c r="M72">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N72">
         <v>2004</v>
       </c>
+      <c r="O72">
+        <v>2004</v>
+      </c>
       <c r="P72" t="s">
         <v>1681</v>
       </c>
-      <c r="Q72" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S72" t="s">
-        <v>1683</v>
+      <c r="Q72">
+        <v>7</v>
+      </c>
+      <c r="S72">
+        <v>25</v>
       </c>
       <c r="T72" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U72">
         <v>4</v>
@@ -22920,29 +23678,32 @@
       <c r="V72">
         <v>30</v>
       </c>
+      <c r="W72">
+        <v>25</v>
+      </c>
       <c r="Z72" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA72">
         <v>0</v>
       </c>
-      <c r="AB72" t="s">
-        <v>1703</v>
+      <c r="AB72">
+        <v>24</v>
       </c>
       <c r="AC72" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE72" t="s">
         <v>160</v>
       </c>
       <c r="AF72" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG72">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH72" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI72" s="8">
         <v>25.31</v>
@@ -22953,11 +23714,14 @@
       <c r="AM72">
         <v>60</v>
       </c>
+      <c r="AN72">
+        <v>90</v>
+      </c>
       <c r="AO72" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1678</v>
       </c>
@@ -22977,10 +23741,10 @@
         <v>168</v>
       </c>
       <c r="G73" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H73" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="I73">
         <v>30.73</v>
@@ -22995,22 +23759,25 @@
         <v>1679</v>
       </c>
       <c r="M73">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N73">
         <v>2004</v>
       </c>
+      <c r="O73">
+        <v>2004</v>
+      </c>
       <c r="P73" t="s">
         <v>1681</v>
       </c>
-      <c r="Q73" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S73" t="s">
-        <v>1683</v>
+      <c r="Q73">
+        <v>7</v>
+      </c>
+      <c r="S73">
+        <v>25</v>
       </c>
       <c r="T73" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U73">
         <v>4</v>
@@ -23018,29 +23785,32 @@
       <c r="V73">
         <v>60</v>
       </c>
+      <c r="W73">
+        <v>25</v>
+      </c>
       <c r="Z73" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA73">
         <v>0</v>
       </c>
-      <c r="AB73" t="s">
-        <v>1703</v>
+      <c r="AB73">
+        <v>24</v>
       </c>
       <c r="AC73" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE73" t="s">
         <v>160</v>
       </c>
       <c r="AF73" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG73">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH73" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI73" s="8">
         <v>32.33</v>
@@ -23051,11 +23821,14 @@
       <c r="AM73">
         <v>60</v>
       </c>
+      <c r="AN73">
+        <v>90</v>
+      </c>
       <c r="AO73" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1678</v>
       </c>
@@ -23075,10 +23848,10 @@
         <v>168</v>
       </c>
       <c r="G74" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H74" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I74">
         <v>30.58</v>
@@ -23093,22 +23866,25 @@
         <v>1679</v>
       </c>
       <c r="M74">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N74">
         <v>2004</v>
       </c>
+      <c r="O74">
+        <v>2004</v>
+      </c>
       <c r="P74" t="s">
         <v>1681</v>
       </c>
-      <c r="Q74" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S74" t="s">
-        <v>1683</v>
+      <c r="Q74">
+        <v>7</v>
+      </c>
+      <c r="S74">
+        <v>25</v>
       </c>
       <c r="T74" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -23116,29 +23892,32 @@
       <c r="V74">
         <v>0</v>
       </c>
+      <c r="W74">
+        <v>25</v>
+      </c>
       <c r="Z74" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA74">
         <v>0</v>
       </c>
-      <c r="AB74" t="s">
-        <v>1703</v>
+      <c r="AB74">
+        <v>24</v>
       </c>
       <c r="AC74" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE74" t="s">
         <v>160</v>
       </c>
       <c r="AF74" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG74">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH74" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI74" s="8">
         <v>30.66</v>
@@ -23149,11 +23928,14 @@
       <c r="AM74">
         <v>60</v>
       </c>
+      <c r="AN74">
+        <v>90</v>
+      </c>
       <c r="AO74" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1678</v>
       </c>
@@ -23173,10 +23955,10 @@
         <v>168</v>
       </c>
       <c r="G75" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H75" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I75">
         <v>30.58</v>
@@ -23191,22 +23973,25 @@
         <v>1679</v>
       </c>
       <c r="M75">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N75">
         <v>2004</v>
       </c>
+      <c r="O75">
+        <v>2004</v>
+      </c>
       <c r="P75" t="s">
         <v>1681</v>
       </c>
-      <c r="Q75" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S75" t="s">
-        <v>1683</v>
+      <c r="Q75">
+        <v>7</v>
+      </c>
+      <c r="S75">
+        <v>25</v>
       </c>
       <c r="T75" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -23214,29 +23999,32 @@
       <c r="V75">
         <v>0</v>
       </c>
+      <c r="W75">
+        <v>25</v>
+      </c>
       <c r="Z75" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA75">
         <v>0</v>
       </c>
-      <c r="AB75" t="s">
-        <v>1703</v>
+      <c r="AB75">
+        <v>24</v>
       </c>
       <c r="AC75" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE75" t="s">
         <v>160</v>
       </c>
       <c r="AF75" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG75">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH75" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI75" s="8">
         <v>19.489999999999998</v>
@@ -23247,11 +24035,14 @@
       <c r="AM75">
         <v>60</v>
       </c>
+      <c r="AN75">
+        <v>90</v>
+      </c>
       <c r="AO75" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1678</v>
       </c>
@@ -23271,10 +24062,10 @@
         <v>168</v>
       </c>
       <c r="G76" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H76" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I76">
         <v>30.58</v>
@@ -23289,19 +24080,22 @@
         <v>1679</v>
       </c>
       <c r="M76">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N76">
         <v>2004</v>
       </c>
+      <c r="O76">
+        <v>2004</v>
+      </c>
       <c r="P76" t="s">
         <v>1681</v>
       </c>
-      <c r="Q76" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S76" t="s">
-        <v>1683</v>
+      <c r="Q76">
+        <v>7</v>
+      </c>
+      <c r="S76">
+        <v>25</v>
       </c>
       <c r="T76" t="s">
         <v>96</v>
@@ -23312,29 +24106,32 @@
       <c r="V76">
         <v>0</v>
       </c>
+      <c r="W76">
+        <v>25</v>
+      </c>
       <c r="Z76" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>1686</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA76">
+        <v>5</v>
+      </c>
+      <c r="AB76">
+        <v>24</v>
       </c>
       <c r="AC76" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE76" t="s">
         <v>160</v>
       </c>
       <c r="AF76" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG76">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH76" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI76" s="8">
         <v>55.33</v>
@@ -23345,11 +24142,17 @@
       <c r="AM76">
         <v>60</v>
       </c>
+      <c r="AN76">
+        <v>90</v>
+      </c>
       <c r="AO76" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1678</v>
       </c>
@@ -23369,10 +24172,10 @@
         <v>168</v>
       </c>
       <c r="G77" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H77" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I77">
         <v>30.58</v>
@@ -23387,19 +24190,22 @@
         <v>1679</v>
       </c>
       <c r="M77">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N77">
         <v>2004</v>
       </c>
+      <c r="O77">
+        <v>2004</v>
+      </c>
       <c r="P77" t="s">
         <v>1681</v>
       </c>
-      <c r="Q77" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S77" t="s">
-        <v>1683</v>
+      <c r="Q77">
+        <v>7</v>
+      </c>
+      <c r="S77">
+        <v>25</v>
       </c>
       <c r="T77" t="s">
         <v>96</v>
@@ -23410,29 +24216,32 @@
       <c r="V77">
         <v>0</v>
       </c>
+      <c r="W77">
+        <v>25</v>
+      </c>
       <c r="Z77" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA77">
+        <v>10</v>
+      </c>
+      <c r="AB77">
+        <v>24</v>
       </c>
       <c r="AC77" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE77" t="s">
         <v>160</v>
       </c>
       <c r="AF77" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG77">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH77" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI77" s="8">
         <v>71.33</v>
@@ -23443,11 +24252,17 @@
       <c r="AM77">
         <v>60</v>
       </c>
+      <c r="AN77">
+        <v>90</v>
+      </c>
       <c r="AO77" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1678</v>
       </c>
@@ -23467,10 +24282,10 @@
         <v>168</v>
       </c>
       <c r="G78" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H78" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I78">
         <v>30.58</v>
@@ -23485,19 +24300,22 @@
         <v>1679</v>
       </c>
       <c r="M78">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N78">
         <v>2004</v>
       </c>
+      <c r="O78">
+        <v>2004</v>
+      </c>
       <c r="P78" t="s">
         <v>1681</v>
       </c>
-      <c r="Q78" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S78" t="s">
-        <v>1683</v>
+      <c r="Q78">
+        <v>7</v>
+      </c>
+      <c r="S78">
+        <v>25</v>
       </c>
       <c r="T78" t="s">
         <v>96</v>
@@ -23508,29 +24326,32 @@
       <c r="V78">
         <v>0</v>
       </c>
+      <c r="W78">
+        <v>25</v>
+      </c>
       <c r="Z78" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA78">
+        <v>10</v>
+      </c>
+      <c r="AB78">
+        <v>24</v>
       </c>
       <c r="AC78" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE78" t="s">
         <v>160</v>
       </c>
       <c r="AF78" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG78">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH78" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI78" s="8">
         <v>10.99</v>
@@ -23541,11 +24362,17 @@
       <c r="AM78">
         <v>60</v>
       </c>
+      <c r="AN78">
+        <v>90</v>
+      </c>
       <c r="AO78" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1678</v>
       </c>
@@ -23565,10 +24392,10 @@
         <v>168</v>
       </c>
       <c r="G79" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H79" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I79">
         <v>30.58</v>
@@ -23583,19 +24410,22 @@
         <v>1679</v>
       </c>
       <c r="M79">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N79">
         <v>2004</v>
       </c>
+      <c r="O79">
+        <v>2004</v>
+      </c>
       <c r="P79" t="s">
         <v>1681</v>
       </c>
-      <c r="Q79" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S79" t="s">
-        <v>1683</v>
+      <c r="Q79">
+        <v>7</v>
+      </c>
+      <c r="S79">
+        <v>25</v>
       </c>
       <c r="T79" t="s">
         <v>96</v>
@@ -23606,29 +24436,32 @@
       <c r="V79">
         <v>0</v>
       </c>
+      <c r="W79">
+        <v>25</v>
+      </c>
       <c r="Z79" t="s">
-        <v>1684</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>1688</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>1703</v>
+        <v>1682</v>
+      </c>
+      <c r="AA79">
+        <v>20</v>
+      </c>
+      <c r="AB79">
+        <v>24</v>
       </c>
       <c r="AC79" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE79" t="s">
         <v>160</v>
       </c>
       <c r="AF79" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG79">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH79" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI79" s="8">
         <v>60.66</v>
@@ -23639,11 +24472,17 @@
       <c r="AM79">
         <v>60</v>
       </c>
+      <c r="AN79">
+        <v>90</v>
+      </c>
       <c r="AO79" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1678</v>
       </c>
@@ -23663,10 +24502,10 @@
         <v>168</v>
       </c>
       <c r="G80" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H80" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I80">
         <v>30.58</v>
@@ -23681,19 +24520,22 @@
         <v>1679</v>
       </c>
       <c r="M80">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N80">
         <v>2004</v>
       </c>
+      <c r="O80">
+        <v>2004</v>
+      </c>
       <c r="P80" t="s">
         <v>1681</v>
       </c>
-      <c r="Q80" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S80" t="s">
-        <v>1683</v>
+      <c r="Q80">
+        <v>7</v>
+      </c>
+      <c r="S80">
+        <v>25</v>
       </c>
       <c r="T80" t="s">
         <v>96</v>
@@ -23704,29 +24546,32 @@
       <c r="V80">
         <v>0</v>
       </c>
+      <c r="W80">
+        <v>25</v>
+      </c>
       <c r="Z80" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>1690</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA80">
+        <v>50</v>
+      </c>
+      <c r="AB80">
+        <v>24</v>
       </c>
       <c r="AC80" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE80" t="s">
         <v>160</v>
       </c>
       <c r="AF80" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG80">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH80" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI80" s="8">
         <v>73</v>
@@ -23737,11 +24582,17 @@
       <c r="AM80">
         <v>60</v>
       </c>
+      <c r="AN80">
+        <v>90</v>
+      </c>
       <c r="AO80" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1678</v>
       </c>
@@ -23761,10 +24612,10 @@
         <v>168</v>
       </c>
       <c r="G81" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H81" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I81">
         <v>30.58</v>
@@ -23779,19 +24630,22 @@
         <v>1679</v>
       </c>
       <c r="M81">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N81">
         <v>2004</v>
       </c>
+      <c r="O81">
+        <v>2004</v>
+      </c>
       <c r="P81" t="s">
         <v>1681</v>
       </c>
-      <c r="Q81" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S81" t="s">
-        <v>1683</v>
+      <c r="Q81">
+        <v>7</v>
+      </c>
+      <c r="S81">
+        <v>25</v>
       </c>
       <c r="T81" t="s">
         <v>96</v>
@@ -23802,29 +24656,32 @@
       <c r="V81">
         <v>0</v>
       </c>
+      <c r="W81">
+        <v>25</v>
+      </c>
       <c r="Z81" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA81">
+        <v>100</v>
+      </c>
+      <c r="AB81">
+        <v>24</v>
       </c>
       <c r="AC81" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE81" t="s">
         <v>160</v>
       </c>
       <c r="AF81" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG81">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH81" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI81" s="8">
         <v>76.66</v>
@@ -23835,11 +24692,17 @@
       <c r="AM81">
         <v>60</v>
       </c>
+      <c r="AN81">
+        <v>90</v>
+      </c>
       <c r="AO81" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1678</v>
       </c>
@@ -23859,10 +24722,10 @@
         <v>168</v>
       </c>
       <c r="G82" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H82" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I82">
         <v>30.58</v>
@@ -23877,19 +24740,22 @@
         <v>1679</v>
       </c>
       <c r="M82">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N82">
         <v>2004</v>
       </c>
+      <c r="O82">
+        <v>2004</v>
+      </c>
       <c r="P82" t="s">
         <v>1681</v>
       </c>
-      <c r="Q82" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S82" t="s">
-        <v>1683</v>
+      <c r="Q82">
+        <v>7</v>
+      </c>
+      <c r="S82">
+        <v>25</v>
       </c>
       <c r="T82" t="s">
         <v>96</v>
@@ -23900,29 +24766,32 @@
       <c r="V82">
         <v>0</v>
       </c>
+      <c r="W82">
+        <v>25</v>
+      </c>
       <c r="Z82" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA82">
+        <v>100</v>
+      </c>
+      <c r="AB82">
+        <v>24</v>
       </c>
       <c r="AC82" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE82" t="s">
         <v>160</v>
       </c>
       <c r="AF82" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG82">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH82" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI82" s="8">
         <v>20.010000000000002</v>
@@ -23933,11 +24802,17 @@
       <c r="AM82">
         <v>60</v>
       </c>
+      <c r="AN82">
+        <v>90</v>
+      </c>
       <c r="AO82" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1678</v>
       </c>
@@ -23957,10 +24832,10 @@
         <v>168</v>
       </c>
       <c r="G83" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H83" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I83">
         <v>30.58</v>
@@ -23975,19 +24850,22 @@
         <v>1679</v>
       </c>
       <c r="M83">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N83">
         <v>2004</v>
       </c>
+      <c r="O83">
+        <v>2004</v>
+      </c>
       <c r="P83" t="s">
         <v>1681</v>
       </c>
-      <c r="Q83" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S83" t="s">
-        <v>1683</v>
+      <c r="Q83">
+        <v>7</v>
+      </c>
+      <c r="S83">
+        <v>25</v>
       </c>
       <c r="T83" t="s">
         <v>96</v>
@@ -23998,29 +24876,32 @@
       <c r="V83">
         <v>0</v>
       </c>
+      <c r="W83">
+        <v>25</v>
+      </c>
       <c r="Z83" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>1703</v>
+        <v>1683</v>
+      </c>
+      <c r="AA83">
+        <v>200</v>
+      </c>
+      <c r="AB83">
+        <v>24</v>
       </c>
       <c r="AC83" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE83" t="s">
         <v>160</v>
       </c>
       <c r="AF83" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG83">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH83" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI83" s="8">
         <v>70</v>
@@ -24031,11 +24912,17 @@
       <c r="AM83">
         <v>60</v>
       </c>
+      <c r="AN83">
+        <v>90</v>
+      </c>
       <c r="AO83" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1678</v>
       </c>
@@ -24055,10 +24942,10 @@
         <v>168</v>
       </c>
       <c r="G84" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H84" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I84">
         <v>30.58</v>
@@ -24073,19 +24960,22 @@
         <v>1679</v>
       </c>
       <c r="M84">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N84">
         <v>2004</v>
       </c>
+      <c r="O84">
+        <v>2004</v>
+      </c>
       <c r="P84" t="s">
         <v>1681</v>
       </c>
-      <c r="Q84" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S84" t="s">
-        <v>1683</v>
+      <c r="Q84">
+        <v>7</v>
+      </c>
+      <c r="S84">
+        <v>25</v>
       </c>
       <c r="T84" t="s">
         <v>96</v>
@@ -24096,29 +24986,32 @@
       <c r="V84">
         <v>0</v>
       </c>
+      <c r="W84">
+        <v>25</v>
+      </c>
       <c r="Z84" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>1690</v>
-      </c>
-      <c r="AB84" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA84">
+        <v>50</v>
+      </c>
+      <c r="AB84">
+        <v>24</v>
       </c>
       <c r="AC84" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE84" t="s">
         <v>160</v>
       </c>
       <c r="AF84" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG84">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH84" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI84" s="8">
         <v>43.33</v>
@@ -24129,11 +25022,17 @@
       <c r="AM84">
         <v>60</v>
       </c>
+      <c r="AN84">
+        <v>90</v>
+      </c>
       <c r="AO84" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1678</v>
       </c>
@@ -24153,10 +25052,10 @@
         <v>168</v>
       </c>
       <c r="G85" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H85" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I85">
         <v>30.58</v>
@@ -24171,19 +25070,22 @@
         <v>1679</v>
       </c>
       <c r="M85">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N85">
         <v>2004</v>
       </c>
+      <c r="O85">
+        <v>2004</v>
+      </c>
       <c r="P85" t="s">
         <v>1681</v>
       </c>
-      <c r="Q85" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S85" t="s">
-        <v>1683</v>
+      <c r="Q85">
+        <v>7</v>
+      </c>
+      <c r="S85">
+        <v>25</v>
       </c>
       <c r="T85" t="s">
         <v>96</v>
@@ -24194,29 +25096,32 @@
       <c r="V85">
         <v>0</v>
       </c>
+      <c r="W85">
+        <v>25</v>
+      </c>
       <c r="Z85" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB85" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA85">
+        <v>100</v>
+      </c>
+      <c r="AB85">
+        <v>24</v>
       </c>
       <c r="AC85" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE85" t="s">
         <v>160</v>
       </c>
       <c r="AF85" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG85">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH85" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI85" s="8">
         <v>46.66</v>
@@ -24227,11 +25132,17 @@
       <c r="AM85">
         <v>60</v>
       </c>
+      <c r="AN85">
+        <v>90</v>
+      </c>
       <c r="AO85" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP85" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1678</v>
       </c>
@@ -24251,10 +25162,10 @@
         <v>168</v>
       </c>
       <c r="G86" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H86" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I86">
         <v>30.58</v>
@@ -24269,19 +25180,22 @@
         <v>1679</v>
       </c>
       <c r="M86">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N86">
         <v>2004</v>
       </c>
+      <c r="O86">
+        <v>2004</v>
+      </c>
       <c r="P86" t="s">
         <v>1681</v>
       </c>
-      <c r="Q86" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S86" t="s">
-        <v>1683</v>
+      <c r="Q86">
+        <v>7</v>
+      </c>
+      <c r="S86">
+        <v>25</v>
       </c>
       <c r="T86" t="s">
         <v>96</v>
@@ -24292,29 +25206,32 @@
       <c r="V86">
         <v>0</v>
       </c>
+      <c r="W86">
+        <v>25</v>
+      </c>
       <c r="Z86" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA86">
+        <v>100</v>
+      </c>
+      <c r="AB86">
+        <v>24</v>
       </c>
       <c r="AC86" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE86" t="s">
         <v>160</v>
       </c>
       <c r="AF86" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG86">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH86" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI86" s="8">
         <v>19.32</v>
@@ -24325,11 +25242,17 @@
       <c r="AM86">
         <v>60</v>
       </c>
+      <c r="AN86">
+        <v>90</v>
+      </c>
       <c r="AO86" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1678</v>
       </c>
@@ -24349,10 +25272,10 @@
         <v>168</v>
       </c>
       <c r="G87" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H87" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I87">
         <v>30.58</v>
@@ -24367,19 +25290,22 @@
         <v>1679</v>
       </c>
       <c r="M87">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N87">
         <v>2004</v>
       </c>
+      <c r="O87">
+        <v>2004</v>
+      </c>
       <c r="P87" t="s">
         <v>1681</v>
       </c>
-      <c r="Q87" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S87" t="s">
-        <v>1683</v>
+      <c r="Q87">
+        <v>7</v>
+      </c>
+      <c r="S87">
+        <v>25</v>
       </c>
       <c r="T87" t="s">
         <v>96</v>
@@ -24390,29 +25316,32 @@
       <c r="V87">
         <v>0</v>
       </c>
+      <c r="W87">
+        <v>25</v>
+      </c>
       <c r="Z87" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AB87" t="s">
-        <v>1703</v>
+        <v>1686</v>
+      </c>
+      <c r="AA87">
+        <v>200</v>
+      </c>
+      <c r="AB87">
+        <v>24</v>
       </c>
       <c r="AC87" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE87" t="s">
         <v>160</v>
       </c>
       <c r="AF87" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG87">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH87" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI87" s="8">
         <v>49.33</v>
@@ -24423,11 +25352,17 @@
       <c r="AM87">
         <v>60</v>
       </c>
+      <c r="AN87">
+        <v>90</v>
+      </c>
       <c r="AO87" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+      <c r="AP87" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1678</v>
       </c>
@@ -24447,10 +25382,10 @@
         <v>168</v>
       </c>
       <c r="G88" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H88" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I88">
         <v>30.58</v>
@@ -24465,22 +25400,25 @@
         <v>1679</v>
       </c>
       <c r="M88">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N88">
         <v>2004</v>
       </c>
+      <c r="O88">
+        <v>2004</v>
+      </c>
       <c r="P88" t="s">
         <v>1681</v>
       </c>
-      <c r="Q88" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S88" t="s">
-        <v>1683</v>
+      <c r="Q88">
+        <v>7</v>
+      </c>
+      <c r="S88">
+        <v>25</v>
       </c>
       <c r="T88" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U88">
         <v>4</v>
@@ -24488,29 +25426,32 @@
       <c r="V88">
         <v>15</v>
       </c>
+      <c r="W88">
+        <v>25</v>
+      </c>
       <c r="Z88" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA88">
         <v>0</v>
       </c>
-      <c r="AB88" t="s">
-        <v>1703</v>
+      <c r="AB88">
+        <v>24</v>
       </c>
       <c r="AC88" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE88" t="s">
         <v>160</v>
       </c>
       <c r="AF88" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG88">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH88" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI88" s="8">
         <v>51.33</v>
@@ -24521,11 +25462,14 @@
       <c r="AM88">
         <v>60</v>
       </c>
+      <c r="AN88">
+        <v>90</v>
+      </c>
       <c r="AO88" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1678</v>
       </c>
@@ -24545,10 +25489,10 @@
         <v>168</v>
       </c>
       <c r="G89" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H89" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I89">
         <v>30.58</v>
@@ -24563,22 +25507,25 @@
         <v>1679</v>
       </c>
       <c r="M89">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N89">
         <v>2004</v>
       </c>
+      <c r="O89">
+        <v>2004</v>
+      </c>
       <c r="P89" t="s">
         <v>1681</v>
       </c>
-      <c r="Q89" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S89" t="s">
-        <v>1683</v>
+      <c r="Q89">
+        <v>7</v>
+      </c>
+      <c r="S89">
+        <v>25</v>
       </c>
       <c r="T89" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U89">
         <v>4</v>
@@ -24586,29 +25533,32 @@
       <c r="V89">
         <v>30</v>
       </c>
+      <c r="W89">
+        <v>25</v>
+      </c>
       <c r="Z89" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA89">
         <v>0</v>
       </c>
-      <c r="AB89" t="s">
-        <v>1703</v>
+      <c r="AB89">
+        <v>24</v>
       </c>
       <c r="AC89" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE89" t="s">
         <v>160</v>
       </c>
       <c r="AF89" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG89">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH89" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI89" s="8">
         <v>68.66</v>
@@ -24619,11 +25569,14 @@
       <c r="AM89">
         <v>60</v>
       </c>
+      <c r="AN89">
+        <v>90</v>
+      </c>
       <c r="AO89" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1678</v>
       </c>
@@ -24643,10 +25596,10 @@
         <v>168</v>
       </c>
       <c r="G90" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H90" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I90">
         <v>30.58</v>
@@ -24661,22 +25614,25 @@
         <v>1679</v>
       </c>
       <c r="M90">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N90">
         <v>2004</v>
       </c>
+      <c r="O90">
+        <v>2004</v>
+      </c>
       <c r="P90" t="s">
         <v>1681</v>
       </c>
-      <c r="Q90" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S90" t="s">
-        <v>1683</v>
+      <c r="Q90">
+        <v>7</v>
+      </c>
+      <c r="S90">
+        <v>25</v>
       </c>
       <c r="T90" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U90">
         <v>4</v>
@@ -24684,29 +25640,32 @@
       <c r="V90">
         <v>30</v>
       </c>
+      <c r="W90">
+        <v>25</v>
+      </c>
       <c r="Z90" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA90">
         <v>0</v>
       </c>
-      <c r="AB90" t="s">
-        <v>1703</v>
+      <c r="AB90">
+        <v>24</v>
       </c>
       <c r="AC90" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE90" t="s">
         <v>160</v>
       </c>
       <c r="AF90" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG90">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH90" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="AI90" s="8">
         <v>25.31</v>
@@ -24717,11 +25676,14 @@
       <c r="AM90">
         <v>60</v>
       </c>
+      <c r="AN90">
+        <v>90</v>
+      </c>
       <c r="AO90" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1678</v>
       </c>
@@ -24741,10 +25703,10 @@
         <v>168</v>
       </c>
       <c r="G91" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H91" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I91">
         <v>30.58</v>
@@ -24759,22 +25721,25 @@
         <v>1679</v>
       </c>
       <c r="M91">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N91">
         <v>2004</v>
       </c>
+      <c r="O91">
+        <v>2004</v>
+      </c>
       <c r="P91" t="s">
         <v>1681</v>
       </c>
-      <c r="Q91" t="s">
-        <v>1682</v>
-      </c>
-      <c r="S91" t="s">
-        <v>1683</v>
+      <c r="Q91">
+        <v>7</v>
+      </c>
+      <c r="S91">
+        <v>25</v>
       </c>
       <c r="T91" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="U91">
         <v>4</v>
@@ -24782,29 +25747,32 @@
       <c r="V91">
         <v>60</v>
       </c>
+      <c r="W91">
+        <v>25</v>
+      </c>
       <c r="Z91" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="AA91">
         <v>0</v>
       </c>
-      <c r="AB91" t="s">
-        <v>1703</v>
+      <c r="AB91">
+        <v>24</v>
       </c>
       <c r="AC91" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="AE91" t="s">
         <v>160</v>
       </c>
       <c r="AF91" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="AG91">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AH91" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="AI91" s="8">
         <v>56</v>
@@ -24815,8 +25783,11 @@
       <c r="AM91">
         <v>60</v>
       </c>
+      <c r="AN91">
+        <v>90</v>
+      </c>
       <c r="AO91" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
     </row>
   </sheetData>

--- a/data/oegres_TA/oegres_TA.xlsx
+++ b/data/oegres_TA/oegres_TA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="1735">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5130,6 +5130,111 @@
   </si>
   <si>
     <t>chemical.concent units mM</t>
+  </si>
+  <si>
+    <t>Aldridge1992</t>
+  </si>
+  <si>
+    <t>Zizania</t>
+  </si>
+  <si>
+    <t>palutris</t>
+  </si>
+  <si>
+    <t>Minnesota, USA</t>
+  </si>
+  <si>
+    <t>Porteresia</t>
+  </si>
+  <si>
+    <t>coarctata</t>
+  </si>
+  <si>
+    <t>Sussex, England</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>33/19</t>
+  </si>
+  <si>
+    <t>12/12h</t>
+  </si>
+  <si>
+    <t>8/16h</t>
+  </si>
+  <si>
+    <t>25/10h</t>
+  </si>
+  <si>
+    <t>drying</t>
+  </si>
+  <si>
+    <t>treatment duration in hours</t>
+  </si>
+  <si>
+    <t>treatment duration in days</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Alptekin2001</t>
+  </si>
+  <si>
+    <t>cold stratification</t>
+  </si>
+  <si>
+    <t>pericarp removal</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>soaking duration: overnight; filled out storage info using values given during moisture content determination</t>
+  </si>
+  <si>
+    <t>see note</t>
+  </si>
+  <si>
+    <t>Amini2008</t>
+  </si>
+  <si>
+    <t>Hyrcanian forests, Iran</t>
+  </si>
+  <si>
+    <t>NaOH</t>
+  </si>
+  <si>
+    <t>cold stratification for 7 months - roughly 213 days</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>immature seed</t>
+  </si>
+  <si>
+    <t>mature seed</t>
+  </si>
+  <si>
+    <t>exp2</t>
+  </si>
+  <si>
+    <t>germ.speed</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>altitude</t>
   </si>
 </sst>
 </file>
@@ -5176,12 +5281,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5193,12 +5304,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5214,10 +5333,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -5515,8 +5645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15836,12 +15966,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP91"/>
+  <dimension ref="A1:AP168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AG20" sqref="AG20"/>
+      <selection pane="bottomLeft" activeCell="AI169" sqref="AI169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25788,6 +25918,6543 @@
       </c>
       <c r="AO91" t="s">
         <v>1695</v>
+      </c>
+    </row>
+    <row r="92" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>1703</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P92" s="9" t="s">
+        <v>1709</v>
+      </c>
+      <c r="S92" s="9">
+        <v>2</v>
+      </c>
+      <c r="T92" s="10" t="s">
+        <v>1714</v>
+      </c>
+      <c r="W92" s="9" t="s">
+        <v>1710</v>
+      </c>
+      <c r="Y92" s="11" t="s">
+        <v>1711</v>
+      </c>
+      <c r="AB92" s="9">
+        <v>25</v>
+      </c>
+      <c r="AP92" s="9" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T93" s="9" t="s">
+        <v>1714</v>
+      </c>
+      <c r="AB93" s="9">
+        <v>3</v>
+      </c>
+      <c r="AP93" s="9" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="94" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T94" s="9" t="s">
+        <v>1714</v>
+      </c>
+      <c r="AB94" s="9">
+        <v>3</v>
+      </c>
+      <c r="AP94" s="9" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="95" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T95" s="9" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="96" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>1706</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="P100" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S100" s="9">
+        <v>21</v>
+      </c>
+      <c r="W100" s="11" t="s">
+        <v>1713</v>
+      </c>
+      <c r="Y100" s="11" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="101" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C101" t="s">
+        <v>459</v>
+      </c>
+      <c r="D101" t="s">
+        <v>316</v>
+      </c>
+      <c r="E101" t="s">
+        <v>317</v>
+      </c>
+      <c r="F101" t="s">
+        <v>168</v>
+      </c>
+      <c r="G101" t="s">
+        <v>160</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I101">
+        <v>39.64</v>
+      </c>
+      <c r="J101">
+        <v>-39.5</v>
+      </c>
+      <c r="K101">
+        <v>1300</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M101">
+        <v>200</v>
+      </c>
+      <c r="N101">
+        <v>2000</v>
+      </c>
+      <c r="O101">
+        <v>2000</v>
+      </c>
+      <c r="P101" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>105</v>
+      </c>
+      <c r="T101" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U101">
+        <v>4</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>20</v>
+      </c>
+      <c r="X101" t="s">
+        <v>1720</v>
+      </c>
+      <c r="Y101">
+        <v>12</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI101">
+        <v>18</v>
+      </c>
+      <c r="AL101">
+        <v>5</v>
+      </c>
+      <c r="AM101">
+        <v>20</v>
+      </c>
+      <c r="AN101">
+        <v>0</v>
+      </c>
+      <c r="AO101" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP101" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="102" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C102" t="s">
+        <v>459</v>
+      </c>
+      <c r="D102" t="s">
+        <v>316</v>
+      </c>
+      <c r="E102" t="s">
+        <v>317</v>
+      </c>
+      <c r="F102" t="s">
+        <v>168</v>
+      </c>
+      <c r="G102" t="s">
+        <v>160</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I102">
+        <v>39.64</v>
+      </c>
+      <c r="J102">
+        <v>-39.5</v>
+      </c>
+      <c r="K102">
+        <v>1300</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M102">
+        <v>200</v>
+      </c>
+      <c r="N102">
+        <v>2000</v>
+      </c>
+      <c r="O102">
+        <v>2000</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>105</v>
+      </c>
+      <c r="T102" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U102">
+        <v>4</v>
+      </c>
+      <c r="V102">
+        <v>30</v>
+      </c>
+      <c r="W102">
+        <v>20</v>
+      </c>
+      <c r="X102" t="s">
+        <v>1720</v>
+      </c>
+      <c r="Y102">
+        <v>12</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI102">
+        <v>52</v>
+      </c>
+      <c r="AL102">
+        <v>5</v>
+      </c>
+      <c r="AM102">
+        <v>20</v>
+      </c>
+      <c r="AN102">
+        <v>30</v>
+      </c>
+      <c r="AO102" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP102" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="103" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C103" t="s">
+        <v>459</v>
+      </c>
+      <c r="D103" t="s">
+        <v>316</v>
+      </c>
+      <c r="E103" t="s">
+        <v>317</v>
+      </c>
+      <c r="F103" t="s">
+        <v>168</v>
+      </c>
+      <c r="G103" t="s">
+        <v>160</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I103">
+        <v>39.64</v>
+      </c>
+      <c r="J103">
+        <v>-39.5</v>
+      </c>
+      <c r="K103">
+        <v>1300</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M103">
+        <v>200</v>
+      </c>
+      <c r="N103">
+        <v>2000</v>
+      </c>
+      <c r="O103">
+        <v>2000</v>
+      </c>
+      <c r="P103" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>105</v>
+      </c>
+      <c r="T103" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U103">
+        <v>4</v>
+      </c>
+      <c r="V103">
+        <v>60</v>
+      </c>
+      <c r="W103">
+        <v>20</v>
+      </c>
+      <c r="X103" t="s">
+        <v>1720</v>
+      </c>
+      <c r="Y103">
+        <v>12</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI103">
+        <v>93</v>
+      </c>
+      <c r="AL103">
+        <v>5</v>
+      </c>
+      <c r="AM103">
+        <v>20</v>
+      </c>
+      <c r="AN103">
+        <v>60</v>
+      </c>
+      <c r="AO103" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP103" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="104" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C104" t="s">
+        <v>459</v>
+      </c>
+      <c r="D104" t="s">
+        <v>316</v>
+      </c>
+      <c r="E104" t="s">
+        <v>317</v>
+      </c>
+      <c r="F104" t="s">
+        <v>168</v>
+      </c>
+      <c r="G104" t="s">
+        <v>160</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I104">
+        <v>39.64</v>
+      </c>
+      <c r="J104">
+        <v>-39.5</v>
+      </c>
+      <c r="K104">
+        <v>1300</v>
+      </c>
+      <c r="L104" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M104">
+        <v>200</v>
+      </c>
+      <c r="N104">
+        <v>2000</v>
+      </c>
+      <c r="O104">
+        <v>2000</v>
+      </c>
+      <c r="P104" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>105</v>
+      </c>
+      <c r="T104" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U104">
+        <v>4</v>
+      </c>
+      <c r="V104">
+        <v>90</v>
+      </c>
+      <c r="W104">
+        <v>20</v>
+      </c>
+      <c r="X104" t="s">
+        <v>1720</v>
+      </c>
+      <c r="Y104">
+        <v>12</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI104">
+        <v>98</v>
+      </c>
+      <c r="AL104">
+        <v>5</v>
+      </c>
+      <c r="AM104">
+        <v>20</v>
+      </c>
+      <c r="AN104">
+        <v>90</v>
+      </c>
+      <c r="AO104" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP104" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="105" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C105" t="s">
+        <v>459</v>
+      </c>
+      <c r="D105" t="s">
+        <v>316</v>
+      </c>
+      <c r="E105" t="s">
+        <v>317</v>
+      </c>
+      <c r="F105" t="s">
+        <v>168</v>
+      </c>
+      <c r="G105" t="s">
+        <v>160</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I105">
+        <v>39.64</v>
+      </c>
+      <c r="J105">
+        <v>-39.5</v>
+      </c>
+      <c r="K105">
+        <v>1300</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M105">
+        <v>200</v>
+      </c>
+      <c r="N105">
+        <v>2000</v>
+      </c>
+      <c r="O105">
+        <v>2000</v>
+      </c>
+      <c r="P105" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>105</v>
+      </c>
+      <c r="T105" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U105">
+        <v>4</v>
+      </c>
+      <c r="V105">
+        <v>120</v>
+      </c>
+      <c r="W105">
+        <v>20</v>
+      </c>
+      <c r="X105" t="s">
+        <v>1720</v>
+      </c>
+      <c r="Y105">
+        <v>12</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI105">
+        <v>97</v>
+      </c>
+      <c r="AL105">
+        <v>5</v>
+      </c>
+      <c r="AM105">
+        <v>20</v>
+      </c>
+      <c r="AN105">
+        <v>120</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP105" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="106" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C106" t="s">
+        <v>459</v>
+      </c>
+      <c r="D106" t="s">
+        <v>316</v>
+      </c>
+      <c r="E106" t="s">
+        <v>317</v>
+      </c>
+      <c r="F106" t="s">
+        <v>168</v>
+      </c>
+      <c r="G106" t="s">
+        <v>160</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I106">
+        <v>39.64</v>
+      </c>
+      <c r="J106">
+        <v>-39.5</v>
+      </c>
+      <c r="K106">
+        <v>1300</v>
+      </c>
+      <c r="L106" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M106">
+        <v>200</v>
+      </c>
+      <c r="N106">
+        <v>2000</v>
+      </c>
+      <c r="O106">
+        <v>2000</v>
+      </c>
+      <c r="P106" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>105</v>
+      </c>
+      <c r="T106" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U106">
+        <v>4</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>20</v>
+      </c>
+      <c r="Y106">
+        <v>12</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI106">
+        <v>7</v>
+      </c>
+      <c r="AL106">
+        <v>5</v>
+      </c>
+      <c r="AM106">
+        <v>20</v>
+      </c>
+      <c r="AN106">
+        <v>0</v>
+      </c>
+      <c r="AO106" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP106" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="107" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C107" t="s">
+        <v>459</v>
+      </c>
+      <c r="D107" t="s">
+        <v>316</v>
+      </c>
+      <c r="E107" t="s">
+        <v>317</v>
+      </c>
+      <c r="F107" t="s">
+        <v>168</v>
+      </c>
+      <c r="G107" t="s">
+        <v>160</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I107">
+        <v>39.64</v>
+      </c>
+      <c r="J107">
+        <v>-39.5</v>
+      </c>
+      <c r="K107">
+        <v>1300</v>
+      </c>
+      <c r="L107" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M107">
+        <v>200</v>
+      </c>
+      <c r="N107">
+        <v>2000</v>
+      </c>
+      <c r="O107">
+        <v>2000</v>
+      </c>
+      <c r="P107" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>105</v>
+      </c>
+      <c r="T107" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U107">
+        <v>4</v>
+      </c>
+      <c r="V107">
+        <v>30</v>
+      </c>
+      <c r="W107">
+        <v>20</v>
+      </c>
+      <c r="Y107">
+        <v>12</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF107" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI107">
+        <v>20</v>
+      </c>
+      <c r="AL107">
+        <v>5</v>
+      </c>
+      <c r="AM107">
+        <v>20</v>
+      </c>
+      <c r="AN107">
+        <v>30</v>
+      </c>
+      <c r="AO107" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP107" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="108" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C108" t="s">
+        <v>459</v>
+      </c>
+      <c r="D108" t="s">
+        <v>316</v>
+      </c>
+      <c r="E108" t="s">
+        <v>317</v>
+      </c>
+      <c r="F108" t="s">
+        <v>168</v>
+      </c>
+      <c r="G108" t="s">
+        <v>160</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I108">
+        <v>39.64</v>
+      </c>
+      <c r="J108">
+        <v>-39.5</v>
+      </c>
+      <c r="K108">
+        <v>1300</v>
+      </c>
+      <c r="L108" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M108">
+        <v>200</v>
+      </c>
+      <c r="N108">
+        <v>2000</v>
+      </c>
+      <c r="O108">
+        <v>2000</v>
+      </c>
+      <c r="P108" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>105</v>
+      </c>
+      <c r="T108" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U108">
+        <v>4</v>
+      </c>
+      <c r="V108">
+        <v>60</v>
+      </c>
+      <c r="W108">
+        <v>20</v>
+      </c>
+      <c r="Y108">
+        <v>12</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI108">
+        <v>72</v>
+      </c>
+      <c r="AL108">
+        <v>5</v>
+      </c>
+      <c r="AM108">
+        <v>20</v>
+      </c>
+      <c r="AN108">
+        <v>60</v>
+      </c>
+      <c r="AO108" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP108" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="109" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C109" t="s">
+        <v>459</v>
+      </c>
+      <c r="D109" t="s">
+        <v>316</v>
+      </c>
+      <c r="E109" t="s">
+        <v>317</v>
+      </c>
+      <c r="F109" t="s">
+        <v>168</v>
+      </c>
+      <c r="G109" t="s">
+        <v>160</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I109">
+        <v>39.64</v>
+      </c>
+      <c r="J109">
+        <v>-39.5</v>
+      </c>
+      <c r="K109">
+        <v>1300</v>
+      </c>
+      <c r="L109" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M109">
+        <v>200</v>
+      </c>
+      <c r="N109">
+        <v>2000</v>
+      </c>
+      <c r="O109">
+        <v>2000</v>
+      </c>
+      <c r="P109" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>105</v>
+      </c>
+      <c r="T109" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U109">
+        <v>4</v>
+      </c>
+      <c r="V109">
+        <v>90</v>
+      </c>
+      <c r="W109">
+        <v>20</v>
+      </c>
+      <c r="Y109">
+        <v>12</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI109">
+        <v>95</v>
+      </c>
+      <c r="AL109">
+        <v>5</v>
+      </c>
+      <c r="AM109">
+        <v>20</v>
+      </c>
+      <c r="AN109">
+        <v>90</v>
+      </c>
+      <c r="AO109" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="110" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C110" t="s">
+        <v>459</v>
+      </c>
+      <c r="D110" t="s">
+        <v>316</v>
+      </c>
+      <c r="E110" t="s">
+        <v>317</v>
+      </c>
+      <c r="F110" t="s">
+        <v>168</v>
+      </c>
+      <c r="G110" t="s">
+        <v>160</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I110">
+        <v>39.64</v>
+      </c>
+      <c r="J110">
+        <v>-39.5</v>
+      </c>
+      <c r="K110">
+        <v>1300</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M110">
+        <v>200</v>
+      </c>
+      <c r="N110">
+        <v>2000</v>
+      </c>
+      <c r="O110">
+        <v>2000</v>
+      </c>
+      <c r="P110" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>105</v>
+      </c>
+      <c r="T110" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U110">
+        <v>4</v>
+      </c>
+      <c r="V110">
+        <v>120</v>
+      </c>
+      <c r="W110">
+        <v>20</v>
+      </c>
+      <c r="Y110">
+        <v>12</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI110">
+        <v>97</v>
+      </c>
+      <c r="AL110">
+        <v>5</v>
+      </c>
+      <c r="AM110">
+        <v>20</v>
+      </c>
+      <c r="AN110">
+        <v>120</v>
+      </c>
+      <c r="AO110" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP110" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="111" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C111" t="s">
+        <v>459</v>
+      </c>
+      <c r="D111" t="s">
+        <v>316</v>
+      </c>
+      <c r="E111" t="s">
+        <v>317</v>
+      </c>
+      <c r="F111" t="s">
+        <v>168</v>
+      </c>
+      <c r="G111" t="s">
+        <v>160</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I111">
+        <v>37.61</v>
+      </c>
+      <c r="J111">
+        <v>-36.39</v>
+      </c>
+      <c r="K111">
+        <v>1200</v>
+      </c>
+      <c r="L111" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M111">
+        <v>200</v>
+      </c>
+      <c r="N111">
+        <v>1999</v>
+      </c>
+      <c r="O111">
+        <v>1999</v>
+      </c>
+      <c r="P111" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <v>105</v>
+      </c>
+      <c r="T111" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U111">
+        <v>4</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>20</v>
+      </c>
+      <c r="Y111">
+        <v>12</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI111">
+        <v>4</v>
+      </c>
+      <c r="AL111">
+        <v>5</v>
+      </c>
+      <c r="AM111">
+        <v>20</v>
+      </c>
+      <c r="AN111">
+        <v>0</v>
+      </c>
+      <c r="AO111" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP111" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="112" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C112" t="s">
+        <v>459</v>
+      </c>
+      <c r="D112" t="s">
+        <v>316</v>
+      </c>
+      <c r="E112" t="s">
+        <v>317</v>
+      </c>
+      <c r="F112" t="s">
+        <v>168</v>
+      </c>
+      <c r="G112" t="s">
+        <v>160</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I112">
+        <v>37.61</v>
+      </c>
+      <c r="J112">
+        <v>-36.39</v>
+      </c>
+      <c r="K112">
+        <v>1200</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M112">
+        <v>200</v>
+      </c>
+      <c r="N112">
+        <v>1999</v>
+      </c>
+      <c r="O112">
+        <v>1999</v>
+      </c>
+      <c r="P112" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="S112">
+        <v>105</v>
+      </c>
+      <c r="T112" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U112">
+        <v>4</v>
+      </c>
+      <c r="V112">
+        <v>30</v>
+      </c>
+      <c r="W112">
+        <v>20</v>
+      </c>
+      <c r="Y112">
+        <v>12</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI112">
+        <v>19</v>
+      </c>
+      <c r="AL112">
+        <v>5</v>
+      </c>
+      <c r="AM112">
+        <v>20</v>
+      </c>
+      <c r="AN112">
+        <v>30</v>
+      </c>
+      <c r="AO112" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="113" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C113" t="s">
+        <v>459</v>
+      </c>
+      <c r="D113" t="s">
+        <v>316</v>
+      </c>
+      <c r="E113" t="s">
+        <v>317</v>
+      </c>
+      <c r="F113" t="s">
+        <v>168</v>
+      </c>
+      <c r="G113" t="s">
+        <v>160</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I113">
+        <v>37.61</v>
+      </c>
+      <c r="J113">
+        <v>-36.39</v>
+      </c>
+      <c r="K113">
+        <v>1200</v>
+      </c>
+      <c r="L113" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M113">
+        <v>200</v>
+      </c>
+      <c r="N113">
+        <v>1999</v>
+      </c>
+      <c r="O113">
+        <v>1999</v>
+      </c>
+      <c r="P113" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="S113">
+        <v>105</v>
+      </c>
+      <c r="T113" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U113">
+        <v>4</v>
+      </c>
+      <c r="V113">
+        <v>60</v>
+      </c>
+      <c r="W113">
+        <v>20</v>
+      </c>
+      <c r="Y113">
+        <v>12</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI113">
+        <v>68</v>
+      </c>
+      <c r="AL113">
+        <v>5</v>
+      </c>
+      <c r="AM113">
+        <v>20</v>
+      </c>
+      <c r="AN113">
+        <v>60</v>
+      </c>
+      <c r="AO113" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP113" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="114" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C114" t="s">
+        <v>459</v>
+      </c>
+      <c r="D114" t="s">
+        <v>316</v>
+      </c>
+      <c r="E114" t="s">
+        <v>317</v>
+      </c>
+      <c r="F114" t="s">
+        <v>168</v>
+      </c>
+      <c r="G114" t="s">
+        <v>160</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I114">
+        <v>37.61</v>
+      </c>
+      <c r="J114">
+        <v>-36.39</v>
+      </c>
+      <c r="K114">
+        <v>1200</v>
+      </c>
+      <c r="L114" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M114">
+        <v>200</v>
+      </c>
+      <c r="N114">
+        <v>1999</v>
+      </c>
+      <c r="O114">
+        <v>1999</v>
+      </c>
+      <c r="P114" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="S114">
+        <v>105</v>
+      </c>
+      <c r="T114" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U114">
+        <v>4</v>
+      </c>
+      <c r="V114">
+        <v>90</v>
+      </c>
+      <c r="W114">
+        <v>20</v>
+      </c>
+      <c r="Y114">
+        <v>12</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI114">
+        <v>91</v>
+      </c>
+      <c r="AL114">
+        <v>5</v>
+      </c>
+      <c r="AM114">
+        <v>20</v>
+      </c>
+      <c r="AN114">
+        <v>90</v>
+      </c>
+      <c r="AO114" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP114" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="115" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C115" t="s">
+        <v>459</v>
+      </c>
+      <c r="D115" t="s">
+        <v>316</v>
+      </c>
+      <c r="E115" t="s">
+        <v>317</v>
+      </c>
+      <c r="F115" t="s">
+        <v>168</v>
+      </c>
+      <c r="G115" t="s">
+        <v>160</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I115">
+        <v>37.61</v>
+      </c>
+      <c r="J115">
+        <v>-36.39</v>
+      </c>
+      <c r="K115">
+        <v>1200</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M115">
+        <v>200</v>
+      </c>
+      <c r="N115">
+        <v>1999</v>
+      </c>
+      <c r="O115">
+        <v>1999</v>
+      </c>
+      <c r="P115" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="S115">
+        <v>105</v>
+      </c>
+      <c r="T115" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U115">
+        <v>4</v>
+      </c>
+      <c r="V115">
+        <v>120</v>
+      </c>
+      <c r="W115">
+        <v>20</v>
+      </c>
+      <c r="Y115">
+        <v>12</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF115" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH115" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI115">
+        <v>90</v>
+      </c>
+      <c r="AL115">
+        <v>5</v>
+      </c>
+      <c r="AM115">
+        <v>20</v>
+      </c>
+      <c r="AN115">
+        <v>120</v>
+      </c>
+      <c r="AO115" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP115" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="116" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C116" t="s">
+        <v>459</v>
+      </c>
+      <c r="D116" t="s">
+        <v>316</v>
+      </c>
+      <c r="E116" t="s">
+        <v>317</v>
+      </c>
+      <c r="F116" t="s">
+        <v>168</v>
+      </c>
+      <c r="G116" t="s">
+        <v>160</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I116">
+        <v>37.54</v>
+      </c>
+      <c r="J116">
+        <v>-43.74</v>
+      </c>
+      <c r="K116">
+        <v>1650</v>
+      </c>
+      <c r="L116" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M116">
+        <v>200</v>
+      </c>
+      <c r="N116">
+        <v>1999</v>
+      </c>
+      <c r="O116">
+        <v>1999</v>
+      </c>
+      <c r="P116" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>105</v>
+      </c>
+      <c r="T116" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U116">
+        <v>4</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>20</v>
+      </c>
+      <c r="Y116">
+        <v>12</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH116" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <v>5</v>
+      </c>
+      <c r="AM116">
+        <v>20</v>
+      </c>
+      <c r="AN116">
+        <v>0</v>
+      </c>
+      <c r="AO116" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP116" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="117" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C117" t="s">
+        <v>459</v>
+      </c>
+      <c r="D117" t="s">
+        <v>316</v>
+      </c>
+      <c r="E117" t="s">
+        <v>317</v>
+      </c>
+      <c r="F117" t="s">
+        <v>168</v>
+      </c>
+      <c r="G117" t="s">
+        <v>160</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I117">
+        <v>37.54</v>
+      </c>
+      <c r="J117">
+        <v>-43.74</v>
+      </c>
+      <c r="K117">
+        <v>1650</v>
+      </c>
+      <c r="L117" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M117">
+        <v>200</v>
+      </c>
+      <c r="N117">
+        <v>1999</v>
+      </c>
+      <c r="O117">
+        <v>1999</v>
+      </c>
+      <c r="P117" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="S117">
+        <v>105</v>
+      </c>
+      <c r="T117" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U117">
+        <v>4</v>
+      </c>
+      <c r="V117">
+        <v>30</v>
+      </c>
+      <c r="W117">
+        <v>20</v>
+      </c>
+      <c r="Y117">
+        <v>12</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH117" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI117">
+        <v>17</v>
+      </c>
+      <c r="AL117">
+        <v>5</v>
+      </c>
+      <c r="AM117">
+        <v>20</v>
+      </c>
+      <c r="AN117">
+        <v>30</v>
+      </c>
+      <c r="AO117" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP117" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="118" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C118" t="s">
+        <v>459</v>
+      </c>
+      <c r="D118" t="s">
+        <v>316</v>
+      </c>
+      <c r="E118" t="s">
+        <v>317</v>
+      </c>
+      <c r="F118" t="s">
+        <v>168</v>
+      </c>
+      <c r="G118" t="s">
+        <v>160</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I118">
+        <v>37.54</v>
+      </c>
+      <c r="J118">
+        <v>-43.74</v>
+      </c>
+      <c r="K118">
+        <v>1650</v>
+      </c>
+      <c r="L118" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M118">
+        <v>200</v>
+      </c>
+      <c r="N118">
+        <v>1999</v>
+      </c>
+      <c r="O118">
+        <v>1999</v>
+      </c>
+      <c r="P118" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="S118">
+        <v>105</v>
+      </c>
+      <c r="T118" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U118">
+        <v>4</v>
+      </c>
+      <c r="V118">
+        <v>60</v>
+      </c>
+      <c r="W118">
+        <v>20</v>
+      </c>
+      <c r="Y118">
+        <v>12</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH118" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI118">
+        <v>73</v>
+      </c>
+      <c r="AL118">
+        <v>5</v>
+      </c>
+      <c r="AM118">
+        <v>20</v>
+      </c>
+      <c r="AN118">
+        <v>60</v>
+      </c>
+      <c r="AO118" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP118" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="119" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C119" t="s">
+        <v>459</v>
+      </c>
+      <c r="D119" t="s">
+        <v>316</v>
+      </c>
+      <c r="E119" t="s">
+        <v>317</v>
+      </c>
+      <c r="F119" t="s">
+        <v>168</v>
+      </c>
+      <c r="G119" t="s">
+        <v>160</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I119">
+        <v>37.54</v>
+      </c>
+      <c r="J119">
+        <v>-43.74</v>
+      </c>
+      <c r="K119">
+        <v>1650</v>
+      </c>
+      <c r="L119" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M119">
+        <v>200</v>
+      </c>
+      <c r="N119">
+        <v>1999</v>
+      </c>
+      <c r="O119">
+        <v>1999</v>
+      </c>
+      <c r="P119" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+      <c r="S119">
+        <v>105</v>
+      </c>
+      <c r="T119" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U119">
+        <v>4</v>
+      </c>
+      <c r="V119">
+        <v>90</v>
+      </c>
+      <c r="W119">
+        <v>20</v>
+      </c>
+      <c r="Y119">
+        <v>12</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH119" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI119">
+        <v>92</v>
+      </c>
+      <c r="AL119">
+        <v>5</v>
+      </c>
+      <c r="AM119">
+        <v>20</v>
+      </c>
+      <c r="AN119">
+        <v>90</v>
+      </c>
+      <c r="AO119" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP119" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="120" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C120" t="s">
+        <v>459</v>
+      </c>
+      <c r="D120" t="s">
+        <v>316</v>
+      </c>
+      <c r="E120" t="s">
+        <v>317</v>
+      </c>
+      <c r="F120" t="s">
+        <v>168</v>
+      </c>
+      <c r="G120" t="s">
+        <v>160</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I120">
+        <v>37.54</v>
+      </c>
+      <c r="J120">
+        <v>-43.74</v>
+      </c>
+      <c r="K120">
+        <v>1650</v>
+      </c>
+      <c r="L120" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M120">
+        <v>200</v>
+      </c>
+      <c r="N120">
+        <v>1999</v>
+      </c>
+      <c r="O120">
+        <v>1999</v>
+      </c>
+      <c r="P120" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="S120">
+        <v>105</v>
+      </c>
+      <c r="T120" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U120">
+        <v>4</v>
+      </c>
+      <c r="V120">
+        <v>120</v>
+      </c>
+      <c r="W120">
+        <v>20</v>
+      </c>
+      <c r="Y120">
+        <v>12</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AH120" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI120">
+        <v>89</v>
+      </c>
+      <c r="AL120">
+        <v>5</v>
+      </c>
+      <c r="AM120">
+        <v>20</v>
+      </c>
+      <c r="AN120">
+        <v>120</v>
+      </c>
+      <c r="AO120" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP120" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="121" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C121" t="s">
+        <v>459</v>
+      </c>
+      <c r="D121" t="s">
+        <v>325</v>
+      </c>
+      <c r="E121" t="s">
+        <v>326</v>
+      </c>
+      <c r="F121" t="s">
+        <v>168</v>
+      </c>
+      <c r="G121" t="s">
+        <v>160</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K121">
+        <v>500</v>
+      </c>
+      <c r="L121" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P121" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q121">
+        <v>213</v>
+      </c>
+      <c r="S121">
+        <v>4</v>
+      </c>
+      <c r="T121" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V121">
+        <v>213</v>
+      </c>
+      <c r="X121" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF121" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH121" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>3</v>
+      </c>
+      <c r="AM121">
+        <v>80</v>
+      </c>
+      <c r="AO121" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP121" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="122" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C122" t="s">
+        <v>459</v>
+      </c>
+      <c r="D122" t="s">
+        <v>325</v>
+      </c>
+      <c r="E122" t="s">
+        <v>326</v>
+      </c>
+      <c r="F122" t="s">
+        <v>168</v>
+      </c>
+      <c r="G122" t="s">
+        <v>160</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K122">
+        <v>500</v>
+      </c>
+      <c r="L122" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P122" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q122">
+        <v>213</v>
+      </c>
+      <c r="S122">
+        <v>4</v>
+      </c>
+      <c r="T122" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V122">
+        <v>213</v>
+      </c>
+      <c r="X122" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG122">
+        <v>90</v>
+      </c>
+      <c r="AH122" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>3</v>
+      </c>
+      <c r="AM122">
+        <v>80</v>
+      </c>
+      <c r="AO122" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP122" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="123" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C123" t="s">
+        <v>459</v>
+      </c>
+      <c r="D123" t="s">
+        <v>325</v>
+      </c>
+      <c r="E123" t="s">
+        <v>326</v>
+      </c>
+      <c r="F123" t="s">
+        <v>168</v>
+      </c>
+      <c r="G123" t="s">
+        <v>160</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K123">
+        <v>500</v>
+      </c>
+      <c r="L123" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P123" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q123">
+        <v>213</v>
+      </c>
+      <c r="S123">
+        <v>4</v>
+      </c>
+      <c r="T123" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V123">
+        <v>213</v>
+      </c>
+      <c r="X123" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AG123">
+        <v>1440</v>
+      </c>
+      <c r="AH123" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI123">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK123">
+        <v>1.3</v>
+      </c>
+      <c r="AL123">
+        <v>3</v>
+      </c>
+      <c r="AM123">
+        <v>80</v>
+      </c>
+      <c r="AO123" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP123" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="124" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C124" t="s">
+        <v>459</v>
+      </c>
+      <c r="D124" t="s">
+        <v>325</v>
+      </c>
+      <c r="E124" t="s">
+        <v>326</v>
+      </c>
+      <c r="F124" t="s">
+        <v>168</v>
+      </c>
+      <c r="G124" t="s">
+        <v>160</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K124">
+        <v>500</v>
+      </c>
+      <c r="L124" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P124" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q124">
+        <v>213</v>
+      </c>
+      <c r="S124">
+        <v>4</v>
+      </c>
+      <c r="T124" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V124">
+        <v>213</v>
+      </c>
+      <c r="X124" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG124">
+        <v>1440</v>
+      </c>
+      <c r="AH124" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI124">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AJ124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK124">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL124">
+        <v>3</v>
+      </c>
+      <c r="AM124">
+        <v>80</v>
+      </c>
+      <c r="AO124" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP124" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="125" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C125" t="s">
+        <v>459</v>
+      </c>
+      <c r="D125" t="s">
+        <v>325</v>
+      </c>
+      <c r="E125" t="s">
+        <v>326</v>
+      </c>
+      <c r="F125" t="s">
+        <v>168</v>
+      </c>
+      <c r="G125" t="s">
+        <v>160</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K125">
+        <v>500</v>
+      </c>
+      <c r="L125" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P125" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q125">
+        <v>213</v>
+      </c>
+      <c r="S125">
+        <v>4</v>
+      </c>
+      <c r="T125" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V125">
+        <v>213</v>
+      </c>
+      <c r="X125" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF125" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH125" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI125">
+        <v>36.6</v>
+      </c>
+      <c r="AJ125" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK125">
+        <v>9.6</v>
+      </c>
+      <c r="AL125">
+        <v>3</v>
+      </c>
+      <c r="AM125">
+        <v>80</v>
+      </c>
+      <c r="AO125" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP125" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="126" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C126" t="s">
+        <v>459</v>
+      </c>
+      <c r="D126" t="s">
+        <v>325</v>
+      </c>
+      <c r="E126" t="s">
+        <v>326</v>
+      </c>
+      <c r="F126" t="s">
+        <v>168</v>
+      </c>
+      <c r="G126" t="s">
+        <v>160</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K126">
+        <v>500</v>
+      </c>
+      <c r="L126" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P126" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q126">
+        <v>213</v>
+      </c>
+      <c r="S126">
+        <v>4</v>
+      </c>
+      <c r="T126" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V126">
+        <v>213</v>
+      </c>
+      <c r="X126" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF126" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG126">
+        <v>90</v>
+      </c>
+      <c r="AH126" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>3</v>
+      </c>
+      <c r="AM126">
+        <v>80</v>
+      </c>
+      <c r="AO126" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP126" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="127" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C127" t="s">
+        <v>459</v>
+      </c>
+      <c r="D127" t="s">
+        <v>325</v>
+      </c>
+      <c r="E127" t="s">
+        <v>326</v>
+      </c>
+      <c r="F127" t="s">
+        <v>168</v>
+      </c>
+      <c r="G127" t="s">
+        <v>160</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K127">
+        <v>500</v>
+      </c>
+      <c r="L127" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P127" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q127">
+        <v>213</v>
+      </c>
+      <c r="S127">
+        <v>4</v>
+      </c>
+      <c r="T127" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V127">
+        <v>213</v>
+      </c>
+      <c r="X127" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF127" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AG127">
+        <v>1440</v>
+      </c>
+      <c r="AH127" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI127">
+        <v>23.5</v>
+      </c>
+      <c r="AJ127" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK127">
+        <v>3.4</v>
+      </c>
+      <c r="AL127">
+        <v>3</v>
+      </c>
+      <c r="AM127">
+        <v>80</v>
+      </c>
+      <c r="AO127" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP127" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="128" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C128" t="s">
+        <v>459</v>
+      </c>
+      <c r="D128" t="s">
+        <v>325</v>
+      </c>
+      <c r="E128" t="s">
+        <v>326</v>
+      </c>
+      <c r="F128" t="s">
+        <v>168</v>
+      </c>
+      <c r="G128" t="s">
+        <v>160</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K128">
+        <v>500</v>
+      </c>
+      <c r="L128" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P128" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q128">
+        <v>213</v>
+      </c>
+      <c r="S128">
+        <v>4</v>
+      </c>
+      <c r="T128" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V128">
+        <v>213</v>
+      </c>
+      <c r="X128" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG128">
+        <v>1440</v>
+      </c>
+      <c r="AH128" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI128">
+        <v>25.4</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK128">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AL128">
+        <v>3</v>
+      </c>
+      <c r="AM128">
+        <v>80</v>
+      </c>
+      <c r="AO128" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP128" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="129" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C129" t="s">
+        <v>459</v>
+      </c>
+      <c r="D129" t="s">
+        <v>325</v>
+      </c>
+      <c r="E129" t="s">
+        <v>326</v>
+      </c>
+      <c r="F129" t="s">
+        <v>168</v>
+      </c>
+      <c r="G129" t="s">
+        <v>160</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K129">
+        <v>500</v>
+      </c>
+      <c r="L129" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P129" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q129">
+        <v>213</v>
+      </c>
+      <c r="S129">
+        <v>4</v>
+      </c>
+      <c r="T129" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V129">
+        <v>213</v>
+      </c>
+      <c r="X129" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF129" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH129" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>3</v>
+      </c>
+      <c r="AM129">
+        <v>80</v>
+      </c>
+      <c r="AO129" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP129" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="130" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C130" t="s">
+        <v>459</v>
+      </c>
+      <c r="D130" t="s">
+        <v>325</v>
+      </c>
+      <c r="E130" t="s">
+        <v>326</v>
+      </c>
+      <c r="F130" t="s">
+        <v>168</v>
+      </c>
+      <c r="G130" t="s">
+        <v>160</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K130">
+        <v>500</v>
+      </c>
+      <c r="L130" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P130" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q130">
+        <v>213</v>
+      </c>
+      <c r="S130">
+        <v>4</v>
+      </c>
+      <c r="T130" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V130">
+        <v>213</v>
+      </c>
+      <c r="X130" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF130" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG130">
+        <v>90</v>
+      </c>
+      <c r="AH130" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>3</v>
+      </c>
+      <c r="AM130">
+        <v>80</v>
+      </c>
+      <c r="AO130" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP130" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="131" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C131" t="s">
+        <v>459</v>
+      </c>
+      <c r="D131" t="s">
+        <v>325</v>
+      </c>
+      <c r="E131" t="s">
+        <v>326</v>
+      </c>
+      <c r="F131" t="s">
+        <v>168</v>
+      </c>
+      <c r="G131" t="s">
+        <v>160</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K131">
+        <v>500</v>
+      </c>
+      <c r="L131" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P131" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q131">
+        <v>213</v>
+      </c>
+      <c r="S131">
+        <v>4</v>
+      </c>
+      <c r="T131" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V131">
+        <v>213</v>
+      </c>
+      <c r="X131" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC131" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD131" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE131" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF131" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AG131">
+        <v>1440</v>
+      </c>
+      <c r="AH131" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI131">
+        <v>0.5</v>
+      </c>
+      <c r="AJ131" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>3</v>
+      </c>
+      <c r="AM131">
+        <v>80</v>
+      </c>
+      <c r="AO131" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP131" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="132" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C132" t="s">
+        <v>459</v>
+      </c>
+      <c r="D132" t="s">
+        <v>325</v>
+      </c>
+      <c r="E132" t="s">
+        <v>326</v>
+      </c>
+      <c r="F132" t="s">
+        <v>168</v>
+      </c>
+      <c r="G132" t="s">
+        <v>160</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K132">
+        <v>500</v>
+      </c>
+      <c r="L132" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P132" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q132">
+        <v>213</v>
+      </c>
+      <c r="S132">
+        <v>4</v>
+      </c>
+      <c r="T132" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V132">
+        <v>213</v>
+      </c>
+      <c r="X132" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE132" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF132" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG132">
+        <v>1440</v>
+      </c>
+      <c r="AH132" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI132">
+        <v>0.5</v>
+      </c>
+      <c r="AJ132" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>3</v>
+      </c>
+      <c r="AM132">
+        <v>80</v>
+      </c>
+      <c r="AO132" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP132" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="133" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C133" t="s">
+        <v>459</v>
+      </c>
+      <c r="D133" t="s">
+        <v>325</v>
+      </c>
+      <c r="E133" t="s">
+        <v>326</v>
+      </c>
+      <c r="F133" t="s">
+        <v>168</v>
+      </c>
+      <c r="G133" t="s">
+        <v>160</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K133">
+        <v>500</v>
+      </c>
+      <c r="L133" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P133" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q133">
+        <v>213</v>
+      </c>
+      <c r="S133">
+        <v>4</v>
+      </c>
+      <c r="T133" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V133">
+        <v>213</v>
+      </c>
+      <c r="X133" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE133" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF133" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH133" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI133">
+        <v>7.4</v>
+      </c>
+      <c r="AJ133" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK133">
+        <v>0.1</v>
+      </c>
+      <c r="AL133">
+        <v>3</v>
+      </c>
+      <c r="AM133">
+        <v>80</v>
+      </c>
+      <c r="AO133" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP133" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="134" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C134" t="s">
+        <v>459</v>
+      </c>
+      <c r="D134" t="s">
+        <v>325</v>
+      </c>
+      <c r="E134" t="s">
+        <v>326</v>
+      </c>
+      <c r="F134" t="s">
+        <v>168</v>
+      </c>
+      <c r="G134" t="s">
+        <v>160</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K134">
+        <v>500</v>
+      </c>
+      <c r="L134" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P134" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q134">
+        <v>213</v>
+      </c>
+      <c r="S134">
+        <v>4</v>
+      </c>
+      <c r="T134" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V134">
+        <v>213</v>
+      </c>
+      <c r="X134" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF134" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG134">
+        <v>90</v>
+      </c>
+      <c r="AH134" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
+      <c r="AL134">
+        <v>3</v>
+      </c>
+      <c r="AM134">
+        <v>80</v>
+      </c>
+      <c r="AO134" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP134" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="135" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C135" t="s">
+        <v>459</v>
+      </c>
+      <c r="D135" t="s">
+        <v>325</v>
+      </c>
+      <c r="E135" t="s">
+        <v>326</v>
+      </c>
+      <c r="F135" t="s">
+        <v>168</v>
+      </c>
+      <c r="G135" t="s">
+        <v>160</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K135">
+        <v>500</v>
+      </c>
+      <c r="L135" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P135" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q135">
+        <v>213</v>
+      </c>
+      <c r="S135">
+        <v>4</v>
+      </c>
+      <c r="T135" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V135">
+        <v>213</v>
+      </c>
+      <c r="X135" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD135" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE135" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF135" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AG135">
+        <v>1440</v>
+      </c>
+      <c r="AH135" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI135">
+        <v>3.6</v>
+      </c>
+      <c r="AJ135" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK135">
+        <v>0.8</v>
+      </c>
+      <c r="AL135">
+        <v>3</v>
+      </c>
+      <c r="AM135">
+        <v>80</v>
+      </c>
+      <c r="AO135" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP135" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="136" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C136" t="s">
+        <v>459</v>
+      </c>
+      <c r="D136" t="s">
+        <v>325</v>
+      </c>
+      <c r="E136" t="s">
+        <v>326</v>
+      </c>
+      <c r="F136" t="s">
+        <v>168</v>
+      </c>
+      <c r="G136" t="s">
+        <v>160</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K136">
+        <v>500</v>
+      </c>
+      <c r="L136" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P136" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q136">
+        <v>213</v>
+      </c>
+      <c r="S136">
+        <v>4</v>
+      </c>
+      <c r="T136" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V136">
+        <v>213</v>
+      </c>
+      <c r="X136" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD136" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE136" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF136" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG136">
+        <v>1440</v>
+      </c>
+      <c r="AH136" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI136">
+        <v>0.7</v>
+      </c>
+      <c r="AJ136" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK136">
+        <v>0.1</v>
+      </c>
+      <c r="AL136">
+        <v>3</v>
+      </c>
+      <c r="AM136">
+        <v>80</v>
+      </c>
+      <c r="AO136" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP136" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="137" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C137" t="s">
+        <v>459</v>
+      </c>
+      <c r="D137" t="s">
+        <v>325</v>
+      </c>
+      <c r="E137" t="s">
+        <v>326</v>
+      </c>
+      <c r="F137" t="s">
+        <v>168</v>
+      </c>
+      <c r="G137" t="s">
+        <v>160</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K137">
+        <v>500</v>
+      </c>
+      <c r="L137" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P137" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q137">
+        <v>213</v>
+      </c>
+      <c r="S137">
+        <v>4</v>
+      </c>
+      <c r="T137" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V137">
+        <v>213</v>
+      </c>
+      <c r="X137" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC137" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE137" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF137" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH137" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>3</v>
+      </c>
+      <c r="AM137">
+        <v>80</v>
+      </c>
+      <c r="AO137" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP137" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="138" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C138" t="s">
+        <v>459</v>
+      </c>
+      <c r="D138" t="s">
+        <v>325</v>
+      </c>
+      <c r="E138" t="s">
+        <v>326</v>
+      </c>
+      <c r="F138" t="s">
+        <v>168</v>
+      </c>
+      <c r="G138" t="s">
+        <v>160</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K138">
+        <v>500</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P138" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q138">
+        <v>213</v>
+      </c>
+      <c r="S138">
+        <v>4</v>
+      </c>
+      <c r="T138" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V138">
+        <v>213</v>
+      </c>
+      <c r="X138" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC138" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE138" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF138" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG138">
+        <v>90</v>
+      </c>
+      <c r="AH138" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>3</v>
+      </c>
+      <c r="AM138">
+        <v>80</v>
+      </c>
+      <c r="AO138" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP138" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="139" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C139" t="s">
+        <v>459</v>
+      </c>
+      <c r="D139" t="s">
+        <v>325</v>
+      </c>
+      <c r="E139" t="s">
+        <v>326</v>
+      </c>
+      <c r="F139" t="s">
+        <v>168</v>
+      </c>
+      <c r="G139" t="s">
+        <v>160</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K139">
+        <v>500</v>
+      </c>
+      <c r="L139" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P139" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q139">
+        <v>213</v>
+      </c>
+      <c r="S139">
+        <v>4</v>
+      </c>
+      <c r="T139" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V139">
+        <v>213</v>
+      </c>
+      <c r="X139" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC139" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD139" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE139" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF139" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AG139">
+        <v>1440</v>
+      </c>
+      <c r="AH139" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI139">
+        <v>105.6</v>
+      </c>
+      <c r="AJ139" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK139">
+        <v>0.2</v>
+      </c>
+      <c r="AL139">
+        <v>3</v>
+      </c>
+      <c r="AM139">
+        <v>80</v>
+      </c>
+      <c r="AO139" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP139" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="140" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C140" t="s">
+        <v>459</v>
+      </c>
+      <c r="D140" t="s">
+        <v>325</v>
+      </c>
+      <c r="E140" t="s">
+        <v>326</v>
+      </c>
+      <c r="F140" t="s">
+        <v>168</v>
+      </c>
+      <c r="G140" t="s">
+        <v>160</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K140">
+        <v>500</v>
+      </c>
+      <c r="L140" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P140" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q140">
+        <v>213</v>
+      </c>
+      <c r="S140">
+        <v>4</v>
+      </c>
+      <c r="T140" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V140">
+        <v>213</v>
+      </c>
+      <c r="X140" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC140" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD140" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE140" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF140" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG140">
+        <v>1440</v>
+      </c>
+      <c r="AH140" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI140">
+        <v>97.1</v>
+      </c>
+      <c r="AJ140" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK140">
+        <v>0.6</v>
+      </c>
+      <c r="AL140">
+        <v>3</v>
+      </c>
+      <c r="AM140">
+        <v>80</v>
+      </c>
+      <c r="AO140" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP140" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="141" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C141" t="s">
+        <v>459</v>
+      </c>
+      <c r="D141" t="s">
+        <v>325</v>
+      </c>
+      <c r="E141" t="s">
+        <v>326</v>
+      </c>
+      <c r="F141" t="s">
+        <v>168</v>
+      </c>
+      <c r="G141" t="s">
+        <v>160</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K141">
+        <v>500</v>
+      </c>
+      <c r="L141" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P141" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q141">
+        <v>213</v>
+      </c>
+      <c r="S141">
+        <v>4</v>
+      </c>
+      <c r="T141" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V141">
+        <v>213</v>
+      </c>
+      <c r="X141" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC141" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE141" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF141" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH141" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI141">
+        <v>20.9</v>
+      </c>
+      <c r="AJ141" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK141">
+        <v>0.6</v>
+      </c>
+      <c r="AL141">
+        <v>3</v>
+      </c>
+      <c r="AM141">
+        <v>80</v>
+      </c>
+      <c r="AO141" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP141" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="142" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C142" t="s">
+        <v>459</v>
+      </c>
+      <c r="D142" t="s">
+        <v>325</v>
+      </c>
+      <c r="E142" t="s">
+        <v>326</v>
+      </c>
+      <c r="F142" t="s">
+        <v>168</v>
+      </c>
+      <c r="G142" t="s">
+        <v>160</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K142">
+        <v>500</v>
+      </c>
+      <c r="L142" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P142" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q142">
+        <v>213</v>
+      </c>
+      <c r="S142">
+        <v>4</v>
+      </c>
+      <c r="T142" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V142">
+        <v>213</v>
+      </c>
+      <c r="X142" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC142" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE142" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF142" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG142">
+        <v>90</v>
+      </c>
+      <c r="AH142" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>3</v>
+      </c>
+      <c r="AM142">
+        <v>80</v>
+      </c>
+      <c r="AO142" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP142" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="143" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C143" t="s">
+        <v>459</v>
+      </c>
+      <c r="D143" t="s">
+        <v>325</v>
+      </c>
+      <c r="E143" t="s">
+        <v>326</v>
+      </c>
+      <c r="F143" t="s">
+        <v>168</v>
+      </c>
+      <c r="G143" t="s">
+        <v>160</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K143">
+        <v>500</v>
+      </c>
+      <c r="L143" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P143" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q143">
+        <v>213</v>
+      </c>
+      <c r="S143">
+        <v>4</v>
+      </c>
+      <c r="T143" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V143">
+        <v>213</v>
+      </c>
+      <c r="X143" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD143" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE143" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF143" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AG143">
+        <v>1440</v>
+      </c>
+      <c r="AH143" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI143">
+        <v>78.8</v>
+      </c>
+      <c r="AJ143" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK143">
+        <v>6</v>
+      </c>
+      <c r="AL143">
+        <v>3</v>
+      </c>
+      <c r="AM143">
+        <v>80</v>
+      </c>
+      <c r="AO143" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP143" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="144" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C144" t="s">
+        <v>459</v>
+      </c>
+      <c r="D144" t="s">
+        <v>325</v>
+      </c>
+      <c r="E144" t="s">
+        <v>326</v>
+      </c>
+      <c r="F144" t="s">
+        <v>168</v>
+      </c>
+      <c r="G144" t="s">
+        <v>160</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K144">
+        <v>500</v>
+      </c>
+      <c r="L144" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P144" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q144">
+        <v>213</v>
+      </c>
+      <c r="S144">
+        <v>4</v>
+      </c>
+      <c r="T144" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V144">
+        <v>213</v>
+      </c>
+      <c r="X144" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD144" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE144" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF144" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG144">
+        <v>1440</v>
+      </c>
+      <c r="AH144" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI144">
+        <v>92.2</v>
+      </c>
+      <c r="AJ144" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK144">
+        <v>7.9</v>
+      </c>
+      <c r="AL144">
+        <v>3</v>
+      </c>
+      <c r="AM144">
+        <v>80</v>
+      </c>
+      <c r="AO144" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP144" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="145" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C145" t="s">
+        <v>459</v>
+      </c>
+      <c r="D145" t="s">
+        <v>325</v>
+      </c>
+      <c r="E145" t="s">
+        <v>326</v>
+      </c>
+      <c r="F145" t="s">
+        <v>168</v>
+      </c>
+      <c r="G145" t="s">
+        <v>160</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K145">
+        <v>500</v>
+      </c>
+      <c r="L145" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P145" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q145">
+        <v>213</v>
+      </c>
+      <c r="S145">
+        <v>4</v>
+      </c>
+      <c r="T145" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V145">
+        <v>213</v>
+      </c>
+      <c r="X145" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC145" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE145" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF145" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH145" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI145">
+        <v>36.6</v>
+      </c>
+      <c r="AJ145" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK145">
+        <v>9.6</v>
+      </c>
+      <c r="AL145">
+        <v>3</v>
+      </c>
+      <c r="AM145">
+        <v>80</v>
+      </c>
+      <c r="AO145" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP145" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="146" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C146" t="s">
+        <v>459</v>
+      </c>
+      <c r="D146" t="s">
+        <v>325</v>
+      </c>
+      <c r="E146" t="s">
+        <v>326</v>
+      </c>
+      <c r="F146" t="s">
+        <v>168</v>
+      </c>
+      <c r="G146" t="s">
+        <v>160</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K146">
+        <v>500</v>
+      </c>
+      <c r="L146" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P146" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q146">
+        <v>213</v>
+      </c>
+      <c r="S146">
+        <v>4</v>
+      </c>
+      <c r="T146" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V146">
+        <v>213</v>
+      </c>
+      <c r="X146" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC146" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE146" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF146" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG146">
+        <v>90</v>
+      </c>
+      <c r="AH146" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>3</v>
+      </c>
+      <c r="AM146">
+        <v>80</v>
+      </c>
+      <c r="AO146" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP146" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="147" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C147" t="s">
+        <v>459</v>
+      </c>
+      <c r="D147" t="s">
+        <v>325</v>
+      </c>
+      <c r="E147" t="s">
+        <v>326</v>
+      </c>
+      <c r="F147" t="s">
+        <v>168</v>
+      </c>
+      <c r="G147" t="s">
+        <v>160</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K147">
+        <v>500</v>
+      </c>
+      <c r="L147" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P147" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q147">
+        <v>213</v>
+      </c>
+      <c r="S147">
+        <v>4</v>
+      </c>
+      <c r="T147" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V147">
+        <v>213</v>
+      </c>
+      <c r="X147" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC147" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD147" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE147" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF147" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AG147">
+        <v>1440</v>
+      </c>
+      <c r="AH147" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI147">
+        <v>23.5</v>
+      </c>
+      <c r="AJ147" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK147">
+        <v>3.4</v>
+      </c>
+      <c r="AL147">
+        <v>3</v>
+      </c>
+      <c r="AM147">
+        <v>80</v>
+      </c>
+      <c r="AO147" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP147" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="148" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C148" t="s">
+        <v>459</v>
+      </c>
+      <c r="D148" t="s">
+        <v>325</v>
+      </c>
+      <c r="E148" t="s">
+        <v>326</v>
+      </c>
+      <c r="F148" t="s">
+        <v>168</v>
+      </c>
+      <c r="G148" t="s">
+        <v>160</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K148">
+        <v>500</v>
+      </c>
+      <c r="L148" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P148" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q148">
+        <v>213</v>
+      </c>
+      <c r="S148">
+        <v>4</v>
+      </c>
+      <c r="T148" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V148">
+        <v>213</v>
+      </c>
+      <c r="X148" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC148" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD148" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE148" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF148" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG148">
+        <v>1440</v>
+      </c>
+      <c r="AH148" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI148">
+        <v>25.5</v>
+      </c>
+      <c r="AJ148" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK148">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AL148">
+        <v>3</v>
+      </c>
+      <c r="AM148">
+        <v>80</v>
+      </c>
+      <c r="AO148" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP148" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="149" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C149" t="s">
+        <v>459</v>
+      </c>
+      <c r="D149" t="s">
+        <v>325</v>
+      </c>
+      <c r="E149" t="s">
+        <v>326</v>
+      </c>
+      <c r="F149" t="s">
+        <v>168</v>
+      </c>
+      <c r="G149" t="s">
+        <v>160</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K149">
+        <v>1500</v>
+      </c>
+      <c r="L149" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P149" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q149">
+        <v>213</v>
+      </c>
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V149">
+        <v>213</v>
+      </c>
+      <c r="X149" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH149" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI149">
+        <v>36.5</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK149">
+        <v>5.6</v>
+      </c>
+      <c r="AL149">
+        <v>3</v>
+      </c>
+      <c r="AM149">
+        <v>80</v>
+      </c>
+      <c r="AO149" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP149" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="150" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C150" t="s">
+        <v>459</v>
+      </c>
+      <c r="D150" t="s">
+        <v>325</v>
+      </c>
+      <c r="E150" t="s">
+        <v>326</v>
+      </c>
+      <c r="F150" t="s">
+        <v>168</v>
+      </c>
+      <c r="G150" t="s">
+        <v>160</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K150">
+        <v>1500</v>
+      </c>
+      <c r="L150" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P150" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q150">
+        <v>213</v>
+      </c>
+      <c r="S150">
+        <v>4</v>
+      </c>
+      <c r="T150" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V150">
+        <v>213</v>
+      </c>
+      <c r="X150" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC150" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE150" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF150" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG150">
+        <v>90</v>
+      </c>
+      <c r="AH150" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>3</v>
+      </c>
+      <c r="AM150">
+        <v>80</v>
+      </c>
+      <c r="AO150" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP150" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="151" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C151" t="s">
+        <v>459</v>
+      </c>
+      <c r="D151" t="s">
+        <v>325</v>
+      </c>
+      <c r="E151" t="s">
+        <v>326</v>
+      </c>
+      <c r="F151" t="s">
+        <v>168</v>
+      </c>
+      <c r="G151" t="s">
+        <v>160</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K151">
+        <v>1500</v>
+      </c>
+      <c r="L151" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P151" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q151">
+        <v>213</v>
+      </c>
+      <c r="S151">
+        <v>4</v>
+      </c>
+      <c r="T151" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V151">
+        <v>213</v>
+      </c>
+      <c r="X151" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD151" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF151" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AG151">
+        <v>1440</v>
+      </c>
+      <c r="AH151" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI151">
+        <v>86.9</v>
+      </c>
+      <c r="AJ151" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK151">
+        <v>3</v>
+      </c>
+      <c r="AL151">
+        <v>3</v>
+      </c>
+      <c r="AM151">
+        <v>80</v>
+      </c>
+      <c r="AO151" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP151" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="152" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C152" t="s">
+        <v>459</v>
+      </c>
+      <c r="D152" t="s">
+        <v>325</v>
+      </c>
+      <c r="E152" t="s">
+        <v>326</v>
+      </c>
+      <c r="F152" t="s">
+        <v>168</v>
+      </c>
+      <c r="G152" t="s">
+        <v>160</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K152">
+        <v>1500</v>
+      </c>
+      <c r="L152" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P152" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q152">
+        <v>213</v>
+      </c>
+      <c r="S152">
+        <v>4</v>
+      </c>
+      <c r="T152" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V152">
+        <v>213</v>
+      </c>
+      <c r="X152" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC152" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD152" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE152" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF152" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG152">
+        <v>1440</v>
+      </c>
+      <c r="AH152" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI152">
+        <v>61.2</v>
+      </c>
+      <c r="AJ152" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK152">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AL152">
+        <v>3</v>
+      </c>
+      <c r="AM152">
+        <v>80</v>
+      </c>
+      <c r="AO152" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP152" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="153" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C153" t="s">
+        <v>459</v>
+      </c>
+      <c r="D153" t="s">
+        <v>325</v>
+      </c>
+      <c r="E153" t="s">
+        <v>326</v>
+      </c>
+      <c r="F153" t="s">
+        <v>168</v>
+      </c>
+      <c r="G153" t="s">
+        <v>160</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K153">
+        <v>500</v>
+      </c>
+      <c r="L153" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P153" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q153">
+        <v>213</v>
+      </c>
+      <c r="S153">
+        <v>4</v>
+      </c>
+      <c r="T153" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V153">
+        <v>213</v>
+      </c>
+      <c r="X153" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH153" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI153">
+        <v>7.4</v>
+      </c>
+      <c r="AJ153" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK153">
+        <v>0.1</v>
+      </c>
+      <c r="AL153">
+        <v>3</v>
+      </c>
+      <c r="AM153">
+        <v>80</v>
+      </c>
+      <c r="AO153" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP153" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="154" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C154" t="s">
+        <v>459</v>
+      </c>
+      <c r="D154" t="s">
+        <v>325</v>
+      </c>
+      <c r="E154" t="s">
+        <v>326</v>
+      </c>
+      <c r="F154" t="s">
+        <v>168</v>
+      </c>
+      <c r="G154" t="s">
+        <v>160</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K154">
+        <v>500</v>
+      </c>
+      <c r="L154" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P154" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q154">
+        <v>213</v>
+      </c>
+      <c r="S154">
+        <v>4</v>
+      </c>
+      <c r="T154" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V154">
+        <v>213</v>
+      </c>
+      <c r="X154" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE154" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF154" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG154">
+        <v>90</v>
+      </c>
+      <c r="AH154" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI154">
+        <v>0</v>
+      </c>
+      <c r="AJ154" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK154">
+        <v>0</v>
+      </c>
+      <c r="AL154">
+        <v>3</v>
+      </c>
+      <c r="AM154">
+        <v>80</v>
+      </c>
+      <c r="AO154" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP154" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="155" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C155" t="s">
+        <v>459</v>
+      </c>
+      <c r="D155" t="s">
+        <v>325</v>
+      </c>
+      <c r="E155" t="s">
+        <v>326</v>
+      </c>
+      <c r="F155" t="s">
+        <v>168</v>
+      </c>
+      <c r="G155" t="s">
+        <v>160</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K155">
+        <v>500</v>
+      </c>
+      <c r="L155" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P155" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q155">
+        <v>213</v>
+      </c>
+      <c r="S155">
+        <v>4</v>
+      </c>
+      <c r="T155" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V155">
+        <v>213</v>
+      </c>
+      <c r="X155" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD155" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE155" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF155" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AG155">
+        <v>1440</v>
+      </c>
+      <c r="AH155" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI155">
+        <v>3.6</v>
+      </c>
+      <c r="AJ155" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK155">
+        <v>0.8</v>
+      </c>
+      <c r="AL155">
+        <v>3</v>
+      </c>
+      <c r="AM155">
+        <v>80</v>
+      </c>
+      <c r="AO155" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP155" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="156" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C156" t="s">
+        <v>459</v>
+      </c>
+      <c r="D156" t="s">
+        <v>325</v>
+      </c>
+      <c r="E156" t="s">
+        <v>326</v>
+      </c>
+      <c r="F156" t="s">
+        <v>168</v>
+      </c>
+      <c r="G156" t="s">
+        <v>160</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K156">
+        <v>500</v>
+      </c>
+      <c r="L156" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P156" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q156">
+        <v>213</v>
+      </c>
+      <c r="S156">
+        <v>4</v>
+      </c>
+      <c r="T156" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V156">
+        <v>213</v>
+      </c>
+      <c r="X156" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD156" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE156" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF156" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG156">
+        <v>1440</v>
+      </c>
+      <c r="AH156" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI156">
+        <v>0.6</v>
+      </c>
+      <c r="AJ156" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK156">
+        <v>0.1</v>
+      </c>
+      <c r="AL156">
+        <v>3</v>
+      </c>
+      <c r="AM156">
+        <v>80</v>
+      </c>
+      <c r="AO156" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP156" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="157" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C157" t="s">
+        <v>459</v>
+      </c>
+      <c r="D157" t="s">
+        <v>325</v>
+      </c>
+      <c r="E157" t="s">
+        <v>326</v>
+      </c>
+      <c r="F157" t="s">
+        <v>168</v>
+      </c>
+      <c r="G157" t="s">
+        <v>160</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K157">
+        <v>1500</v>
+      </c>
+      <c r="L157" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P157" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q157">
+        <v>213</v>
+      </c>
+      <c r="S157">
+        <v>4</v>
+      </c>
+      <c r="T157" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V157">
+        <v>213</v>
+      </c>
+      <c r="X157" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF157" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH157" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI157">
+        <v>0.3</v>
+      </c>
+      <c r="AJ157" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK157">
+        <v>0.01</v>
+      </c>
+      <c r="AL157">
+        <v>3</v>
+      </c>
+      <c r="AM157">
+        <v>80</v>
+      </c>
+      <c r="AO157" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP157" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="158" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C158" t="s">
+        <v>459</v>
+      </c>
+      <c r="D158" t="s">
+        <v>325</v>
+      </c>
+      <c r="E158" t="s">
+        <v>326</v>
+      </c>
+      <c r="F158" t="s">
+        <v>168</v>
+      </c>
+      <c r="G158" t="s">
+        <v>160</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K158">
+        <v>1500</v>
+      </c>
+      <c r="L158" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P158" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q158">
+        <v>213</v>
+      </c>
+      <c r="S158">
+        <v>4</v>
+      </c>
+      <c r="T158" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V158">
+        <v>213</v>
+      </c>
+      <c r="X158" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC158" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF158" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG158">
+        <v>90</v>
+      </c>
+      <c r="AH158" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK158">
+        <v>0</v>
+      </c>
+      <c r="AL158">
+        <v>3</v>
+      </c>
+      <c r="AM158">
+        <v>80</v>
+      </c>
+      <c r="AO158" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP158" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="159" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C159" t="s">
+        <v>459</v>
+      </c>
+      <c r="D159" t="s">
+        <v>325</v>
+      </c>
+      <c r="E159" t="s">
+        <v>326</v>
+      </c>
+      <c r="F159" t="s">
+        <v>168</v>
+      </c>
+      <c r="G159" t="s">
+        <v>160</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K159">
+        <v>1500</v>
+      </c>
+      <c r="L159" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P159" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q159">
+        <v>213</v>
+      </c>
+      <c r="S159">
+        <v>4</v>
+      </c>
+      <c r="T159" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V159">
+        <v>213</v>
+      </c>
+      <c r="X159" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD159" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF159" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AG159">
+        <v>1440</v>
+      </c>
+      <c r="AH159" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI159">
+        <v>1.6</v>
+      </c>
+      <c r="AJ159" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK159">
+        <v>0.01</v>
+      </c>
+      <c r="AL159">
+        <v>3</v>
+      </c>
+      <c r="AM159">
+        <v>80</v>
+      </c>
+      <c r="AO159" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP159" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="160" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C160" t="s">
+        <v>459</v>
+      </c>
+      <c r="D160" t="s">
+        <v>325</v>
+      </c>
+      <c r="E160" t="s">
+        <v>326</v>
+      </c>
+      <c r="F160" t="s">
+        <v>168</v>
+      </c>
+      <c r="G160" t="s">
+        <v>160</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K160">
+        <v>1500</v>
+      </c>
+      <c r="L160" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P160" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q160">
+        <v>213</v>
+      </c>
+      <c r="S160">
+        <v>4</v>
+      </c>
+      <c r="T160" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V160">
+        <v>213</v>
+      </c>
+      <c r="X160" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF160" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG160">
+        <v>1440</v>
+      </c>
+      <c r="AH160" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AI160">
+        <v>0.9</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK160">
+        <v>0.1</v>
+      </c>
+      <c r="AL160">
+        <v>3</v>
+      </c>
+      <c r="AM160">
+        <v>80</v>
+      </c>
+      <c r="AO160" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP160" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="161" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C161" t="s">
+        <v>459</v>
+      </c>
+      <c r="D161" t="s">
+        <v>325</v>
+      </c>
+      <c r="E161" t="s">
+        <v>326</v>
+      </c>
+      <c r="F161" t="s">
+        <v>168</v>
+      </c>
+      <c r="G161" t="s">
+        <v>160</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K161">
+        <v>500</v>
+      </c>
+      <c r="L161" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P161" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q161">
+        <v>213</v>
+      </c>
+      <c r="S161">
+        <v>4</v>
+      </c>
+      <c r="T161" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V161">
+        <v>213</v>
+      </c>
+      <c r="X161" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE161" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH161" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI161">
+        <v>20.9</v>
+      </c>
+      <c r="AJ161" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK161">
+        <v>4.2</v>
+      </c>
+      <c r="AL161">
+        <v>3</v>
+      </c>
+      <c r="AM161">
+        <v>80</v>
+      </c>
+      <c r="AO161" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP161" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="162" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C162" t="s">
+        <v>459</v>
+      </c>
+      <c r="D162" t="s">
+        <v>325</v>
+      </c>
+      <c r="E162" t="s">
+        <v>326</v>
+      </c>
+      <c r="F162" t="s">
+        <v>168</v>
+      </c>
+      <c r="G162" t="s">
+        <v>160</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K162">
+        <v>500</v>
+      </c>
+      <c r="L162" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P162" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q162">
+        <v>213</v>
+      </c>
+      <c r="S162">
+        <v>4</v>
+      </c>
+      <c r="T162" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V162">
+        <v>213</v>
+      </c>
+      <c r="X162" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC162" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE162" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF162" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG162">
+        <v>90</v>
+      </c>
+      <c r="AH162" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI162">
+        <v>0</v>
+      </c>
+      <c r="AJ162" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK162">
+        <v>0</v>
+      </c>
+      <c r="AL162">
+        <v>3</v>
+      </c>
+      <c r="AM162">
+        <v>80</v>
+      </c>
+      <c r="AO162" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP162" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="163" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C163" t="s">
+        <v>459</v>
+      </c>
+      <c r="D163" t="s">
+        <v>325</v>
+      </c>
+      <c r="E163" t="s">
+        <v>326</v>
+      </c>
+      <c r="F163" t="s">
+        <v>168</v>
+      </c>
+      <c r="G163" t="s">
+        <v>160</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K163">
+        <v>500</v>
+      </c>
+      <c r="L163" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P163" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q163">
+        <v>213</v>
+      </c>
+      <c r="S163">
+        <v>4</v>
+      </c>
+      <c r="T163" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V163">
+        <v>213</v>
+      </c>
+      <c r="X163" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD163" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AG163">
+        <v>1440</v>
+      </c>
+      <c r="AH163" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI163">
+        <v>78.8</v>
+      </c>
+      <c r="AJ163" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK163">
+        <v>6.1</v>
+      </c>
+      <c r="AL163">
+        <v>3</v>
+      </c>
+      <c r="AM163">
+        <v>80</v>
+      </c>
+      <c r="AO163" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP163" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="164" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C164" t="s">
+        <v>459</v>
+      </c>
+      <c r="D164" t="s">
+        <v>325</v>
+      </c>
+      <c r="E164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
+        <v>168</v>
+      </c>
+      <c r="G164" t="s">
+        <v>160</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K164">
+        <v>500</v>
+      </c>
+      <c r="L164" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P164" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q164">
+        <v>213</v>
+      </c>
+      <c r="S164">
+        <v>4</v>
+      </c>
+      <c r="T164" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V164">
+        <v>213</v>
+      </c>
+      <c r="X164" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE164" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF164" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG164">
+        <v>1440</v>
+      </c>
+      <c r="AH164" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI164">
+        <v>92.2</v>
+      </c>
+      <c r="AJ164" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK164">
+        <v>7.9</v>
+      </c>
+      <c r="AL164">
+        <v>3</v>
+      </c>
+      <c r="AM164">
+        <v>80</v>
+      </c>
+      <c r="AO164" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP164" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="165" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C165" t="s">
+        <v>459</v>
+      </c>
+      <c r="D165" t="s">
+        <v>325</v>
+      </c>
+      <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
+        <v>168</v>
+      </c>
+      <c r="G165" t="s">
+        <v>160</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K165">
+        <v>1500</v>
+      </c>
+      <c r="L165" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P165" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q165">
+        <v>213</v>
+      </c>
+      <c r="S165">
+        <v>4</v>
+      </c>
+      <c r="T165" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V165">
+        <v>213</v>
+      </c>
+      <c r="X165" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH165" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI165">
+        <v>110.3</v>
+      </c>
+      <c r="AJ165" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK165">
+        <v>0.6</v>
+      </c>
+      <c r="AL165">
+        <v>3</v>
+      </c>
+      <c r="AM165">
+        <v>80</v>
+      </c>
+      <c r="AO165" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP165" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="166" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C166" t="s">
+        <v>459</v>
+      </c>
+      <c r="D166" t="s">
+        <v>325</v>
+      </c>
+      <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
+        <v>168</v>
+      </c>
+      <c r="G166" t="s">
+        <v>160</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K166">
+        <v>1500</v>
+      </c>
+      <c r="L166" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P166" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q166">
+        <v>213</v>
+      </c>
+      <c r="S166">
+        <v>4</v>
+      </c>
+      <c r="T166" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V166">
+        <v>213</v>
+      </c>
+      <c r="X166" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE166" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF166" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG166">
+        <v>90</v>
+      </c>
+      <c r="AH166" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI166">
+        <v>0</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK166">
+        <v>0</v>
+      </c>
+      <c r="AL166">
+        <v>3</v>
+      </c>
+      <c r="AM166">
+        <v>80</v>
+      </c>
+      <c r="AO166" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP166" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="167" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C167" t="s">
+        <v>459</v>
+      </c>
+      <c r="D167" t="s">
+        <v>325</v>
+      </c>
+      <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
+        <v>168</v>
+      </c>
+      <c r="G167" t="s">
+        <v>160</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K167">
+        <v>1500</v>
+      </c>
+      <c r="L167" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P167" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q167">
+        <v>213</v>
+      </c>
+      <c r="S167">
+        <v>4</v>
+      </c>
+      <c r="T167" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V167">
+        <v>213</v>
+      </c>
+      <c r="X167" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF167" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AG167">
+        <v>1440</v>
+      </c>
+      <c r="AH167" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI167">
+        <v>97.1</v>
+      </c>
+      <c r="AJ167" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK167">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AL167">
+        <v>3</v>
+      </c>
+      <c r="AM167">
+        <v>80</v>
+      </c>
+      <c r="AO167" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP167" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="168" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C168" t="s">
+        <v>459</v>
+      </c>
+      <c r="D168" t="s">
+        <v>325</v>
+      </c>
+      <c r="E168" t="s">
+        <v>326</v>
+      </c>
+      <c r="F168" t="s">
+        <v>168</v>
+      </c>
+      <c r="G168" t="s">
+        <v>160</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K168">
+        <v>1500</v>
+      </c>
+      <c r="L168" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P168" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q168">
+        <v>213</v>
+      </c>
+      <c r="S168">
+        <v>4</v>
+      </c>
+      <c r="T168" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V168">
+        <v>213</v>
+      </c>
+      <c r="X168" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG168">
+        <v>1440</v>
+      </c>
+      <c r="AH168" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI168">
+        <v>108.9</v>
+      </c>
+      <c r="AJ168" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AK168">
+        <v>0.8</v>
+      </c>
+      <c r="AL168">
+        <v>3</v>
+      </c>
+      <c r="AM168">
+        <v>80</v>
+      </c>
+      <c r="AO168" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP168" t="s">
+        <v>1727</v>
       </c>
     </row>
   </sheetData>

--- a/data/oegres_TA/oegres_TA.xlsx
+++ b/data/oegres_TA/oegres_TA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="1736">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5213,9 +5213,6 @@
     <t>NaOH</t>
   </si>
   <si>
-    <t>cold stratification for 7 months - roughly 213 days</t>
-  </si>
-  <si>
     <t>KN</t>
   </si>
   <si>
@@ -5235,6 +5232,12 @@
   </si>
   <si>
     <t>altitude</t>
+  </si>
+  <si>
+    <t>cold stratification for 7 months - roughly 213 days; not sure if storage temp is correct</t>
+  </si>
+  <si>
+    <t>Table 5</t>
   </si>
 </sst>
 </file>
@@ -15969,9 +15972,9 @@
   <dimension ref="A1:AP168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AI169" sqref="AI169"/>
+      <selection pane="bottomLeft" activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28192,11 +28195,14 @@
       <c r="T121" t="s">
         <v>1719</v>
       </c>
+      <c r="U121">
+        <v>4</v>
+      </c>
       <c r="V121">
         <v>213</v>
       </c>
       <c r="X121" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z121" t="s">
         <v>168</v>
@@ -28217,7 +28223,7 @@
         <v>0</v>
       </c>
       <c r="AJ121" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK121">
         <v>0</v>
@@ -28228,11 +28234,14 @@
       <c r="AM121">
         <v>80</v>
       </c>
+      <c r="AN121">
+        <v>217</v>
+      </c>
       <c r="AO121" t="s">
         <v>1721</v>
       </c>
       <c r="AP121" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.2">
@@ -28278,11 +28287,14 @@
       <c r="T122" t="s">
         <v>1719</v>
       </c>
+      <c r="U122">
+        <v>4</v>
+      </c>
       <c r="V122">
         <v>213</v>
       </c>
       <c r="X122" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z122" t="s">
         <v>168</v>
@@ -28306,7 +28318,7 @@
         <v>0</v>
       </c>
       <c r="AJ122" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK122">
         <v>0</v>
@@ -28317,11 +28329,14 @@
       <c r="AM122">
         <v>80</v>
       </c>
+      <c r="AN122">
+        <v>217</v>
+      </c>
       <c r="AO122" t="s">
         <v>1721</v>
       </c>
       <c r="AP122" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.2">
@@ -28367,11 +28382,14 @@
       <c r="T123" t="s">
         <v>1719</v>
       </c>
+      <c r="U123">
+        <v>4</v>
+      </c>
       <c r="V123">
         <v>213</v>
       </c>
       <c r="X123" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z123" t="s">
         <v>168</v>
@@ -28398,7 +28416,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="AJ123" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK123">
         <v>1.3</v>
@@ -28409,11 +28427,14 @@
       <c r="AM123">
         <v>80</v>
       </c>
+      <c r="AN123">
+        <v>217</v>
+      </c>
       <c r="AO123" t="s">
         <v>1721</v>
       </c>
       <c r="AP123" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.2">
@@ -28459,11 +28480,14 @@
       <c r="T124" t="s">
         <v>1719</v>
       </c>
+      <c r="U124">
+        <v>4</v>
+      </c>
       <c r="V124">
         <v>213</v>
       </c>
       <c r="X124" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z124" t="s">
         <v>168</v>
@@ -28478,7 +28502,7 @@
         <v>160</v>
       </c>
       <c r="AF124" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AG124">
         <v>1440</v>
@@ -28490,7 +28514,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="AJ124" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK124">
         <v>2.2000000000000002</v>
@@ -28501,11 +28525,14 @@
       <c r="AM124">
         <v>80</v>
       </c>
+      <c r="AN124">
+        <v>217</v>
+      </c>
       <c r="AO124" t="s">
         <v>1721</v>
       </c>
       <c r="AP124" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.2">
@@ -28551,11 +28578,14 @@
       <c r="T125" t="s">
         <v>1719</v>
       </c>
+      <c r="U125">
+        <v>4</v>
+      </c>
       <c r="V125">
         <v>213</v>
       </c>
       <c r="X125" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Z125" t="s">
         <v>168</v>
@@ -28576,7 +28606,7 @@
         <v>36.6</v>
       </c>
       <c r="AJ125" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK125">
         <v>9.6</v>
@@ -28587,11 +28617,14 @@
       <c r="AM125">
         <v>80</v>
       </c>
+      <c r="AN125">
+        <v>217</v>
+      </c>
       <c r="AO125" t="s">
         <v>1721</v>
       </c>
       <c r="AP125" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.2">
@@ -28637,11 +28670,14 @@
       <c r="T126" t="s">
         <v>1719</v>
       </c>
+      <c r="U126">
+        <v>4</v>
+      </c>
       <c r="V126">
         <v>213</v>
       </c>
       <c r="X126" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Z126" t="s">
         <v>168</v>
@@ -28665,7 +28701,7 @@
         <v>0</v>
       </c>
       <c r="AJ126" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK126">
         <v>0</v>
@@ -28676,11 +28712,14 @@
       <c r="AM126">
         <v>80</v>
       </c>
+      <c r="AN126">
+        <v>217</v>
+      </c>
       <c r="AO126" t="s">
         <v>1721</v>
       </c>
       <c r="AP126" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.2">
@@ -28726,11 +28765,14 @@
       <c r="T127" t="s">
         <v>1719</v>
       </c>
+      <c r="U127">
+        <v>4</v>
+      </c>
       <c r="V127">
         <v>213</v>
       </c>
       <c r="X127" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Z127" t="s">
         <v>168</v>
@@ -28757,7 +28799,7 @@
         <v>23.5</v>
       </c>
       <c r="AJ127" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK127">
         <v>3.4</v>
@@ -28768,11 +28810,14 @@
       <c r="AM127">
         <v>80</v>
       </c>
+      <c r="AN127">
+        <v>217</v>
+      </c>
       <c r="AO127" t="s">
         <v>1721</v>
       </c>
       <c r="AP127" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.2">
@@ -28818,11 +28863,14 @@
       <c r="T128" t="s">
         <v>1719</v>
       </c>
+      <c r="U128">
+        <v>4</v>
+      </c>
       <c r="V128">
         <v>213</v>
       </c>
       <c r="X128" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Z128" t="s">
         <v>168</v>
@@ -28837,7 +28885,7 @@
         <v>160</v>
       </c>
       <c r="AF128" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AG128">
         <v>1440</v>
@@ -28849,7 +28897,7 @@
         <v>25.4</v>
       </c>
       <c r="AJ128" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK128">
         <v>4.0999999999999996</v>
@@ -28860,11 +28908,14 @@
       <c r="AM128">
         <v>80</v>
       </c>
+      <c r="AN128">
+        <v>217</v>
+      </c>
       <c r="AO128" t="s">
         <v>1721</v>
       </c>
       <c r="AP128" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="129" spans="1:42" x14ac:dyDescent="0.2">
@@ -28910,11 +28961,14 @@
       <c r="T129" t="s">
         <v>1719</v>
       </c>
+      <c r="U129">
+        <v>4</v>
+      </c>
       <c r="V129">
         <v>213</v>
       </c>
       <c r="X129" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z129" t="s">
         <v>168</v>
@@ -28929,13 +28983,13 @@
         <v>168</v>
       </c>
       <c r="AH129" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI129">
         <v>0</v>
       </c>
       <c r="AJ129" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK129">
         <v>0</v>
@@ -28946,11 +29000,14 @@
       <c r="AM129">
         <v>80</v>
       </c>
+      <c r="AN129">
+        <v>217</v>
+      </c>
       <c r="AO129" t="s">
         <v>1721</v>
       </c>
       <c r="AP129" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="130" spans="1:42" x14ac:dyDescent="0.2">
@@ -28996,11 +29053,14 @@
       <c r="T130" t="s">
         <v>1719</v>
       </c>
+      <c r="U130">
+        <v>4</v>
+      </c>
       <c r="V130">
         <v>213</v>
       </c>
       <c r="X130" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z130" t="s">
         <v>168</v>
@@ -29018,13 +29078,13 @@
         <v>90</v>
       </c>
       <c r="AH130" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI130">
         <v>0</v>
       </c>
       <c r="AJ130" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK130">
         <v>0</v>
@@ -29035,11 +29095,14 @@
       <c r="AM130">
         <v>80</v>
       </c>
+      <c r="AN130">
+        <v>217</v>
+      </c>
       <c r="AO130" t="s">
         <v>1721</v>
       </c>
       <c r="AP130" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.2">
@@ -29085,11 +29148,14 @@
       <c r="T131" t="s">
         <v>1719</v>
       </c>
+      <c r="U131">
+        <v>4</v>
+      </c>
       <c r="V131">
         <v>213</v>
       </c>
       <c r="X131" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z131" t="s">
         <v>168</v>
@@ -29110,13 +29176,13 @@
         <v>1440</v>
       </c>
       <c r="AH131" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI131">
         <v>0.5</v>
       </c>
       <c r="AJ131" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK131">
         <v>0</v>
@@ -29127,11 +29193,14 @@
       <c r="AM131">
         <v>80</v>
       </c>
+      <c r="AN131">
+        <v>217</v>
+      </c>
       <c r="AO131" t="s">
         <v>1721</v>
       </c>
       <c r="AP131" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="132" spans="1:42" x14ac:dyDescent="0.2">
@@ -29177,11 +29246,14 @@
       <c r="T132" t="s">
         <v>1719</v>
       </c>
+      <c r="U132">
+        <v>4</v>
+      </c>
       <c r="V132">
         <v>213</v>
       </c>
       <c r="X132" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z132" t="s">
         <v>168</v>
@@ -29196,19 +29268,19 @@
         <v>160</v>
       </c>
       <c r="AF132" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AG132">
         <v>1440</v>
       </c>
       <c r="AH132" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI132">
         <v>0.5</v>
       </c>
       <c r="AJ132" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK132">
         <v>0</v>
@@ -29219,11 +29291,14 @@
       <c r="AM132">
         <v>80</v>
       </c>
+      <c r="AN132">
+        <v>217</v>
+      </c>
       <c r="AO132" t="s">
         <v>1721</v>
       </c>
       <c r="AP132" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="133" spans="1:42" x14ac:dyDescent="0.2">
@@ -29269,11 +29344,14 @@
       <c r="T133" t="s">
         <v>1719</v>
       </c>
+      <c r="U133">
+        <v>4</v>
+      </c>
       <c r="V133">
         <v>213</v>
       </c>
       <c r="X133" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Z133" t="s">
         <v>168</v>
@@ -29288,13 +29366,13 @@
         <v>168</v>
       </c>
       <c r="AH133" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI133">
         <v>7.4</v>
       </c>
       <c r="AJ133" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK133">
         <v>0.1</v>
@@ -29305,11 +29383,14 @@
       <c r="AM133">
         <v>80</v>
       </c>
+      <c r="AN133">
+        <v>217</v>
+      </c>
       <c r="AO133" t="s">
         <v>1721</v>
       </c>
       <c r="AP133" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="134" spans="1:42" x14ac:dyDescent="0.2">
@@ -29355,11 +29436,14 @@
       <c r="T134" t="s">
         <v>1719</v>
       </c>
+      <c r="U134">
+        <v>4</v>
+      </c>
       <c r="V134">
         <v>213</v>
       </c>
       <c r="X134" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Z134" t="s">
         <v>168</v>
@@ -29377,13 +29461,13 @@
         <v>90</v>
       </c>
       <c r="AH134" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI134">
         <v>0</v>
       </c>
       <c r="AJ134" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK134">
         <v>0</v>
@@ -29394,11 +29478,14 @@
       <c r="AM134">
         <v>80</v>
       </c>
+      <c r="AN134">
+        <v>217</v>
+      </c>
       <c r="AO134" t="s">
         <v>1721</v>
       </c>
       <c r="AP134" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="135" spans="1:42" x14ac:dyDescent="0.2">
@@ -29444,11 +29531,14 @@
       <c r="T135" t="s">
         <v>1719</v>
       </c>
+      <c r="U135">
+        <v>4</v>
+      </c>
       <c r="V135">
         <v>213</v>
       </c>
       <c r="X135" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Z135" t="s">
         <v>168</v>
@@ -29469,13 +29559,13 @@
         <v>1440</v>
       </c>
       <c r="AH135" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI135">
         <v>3.6</v>
       </c>
       <c r="AJ135" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK135">
         <v>0.8</v>
@@ -29486,11 +29576,14 @@
       <c r="AM135">
         <v>80</v>
       </c>
+      <c r="AN135">
+        <v>217</v>
+      </c>
       <c r="AO135" t="s">
         <v>1721</v>
       </c>
       <c r="AP135" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="136" spans="1:42" x14ac:dyDescent="0.2">
@@ -29536,11 +29629,14 @@
       <c r="T136" t="s">
         <v>1719</v>
       </c>
+      <c r="U136">
+        <v>4</v>
+      </c>
       <c r="V136">
         <v>213</v>
       </c>
       <c r="X136" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Z136" t="s">
         <v>168</v>
@@ -29555,19 +29651,19 @@
         <v>160</v>
       </c>
       <c r="AF136" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AG136">
         <v>1440</v>
       </c>
       <c r="AH136" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI136">
         <v>0.7</v>
       </c>
       <c r="AJ136" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK136">
         <v>0.1</v>
@@ -29578,11 +29674,14 @@
       <c r="AM136">
         <v>80</v>
       </c>
+      <c r="AN136">
+        <v>217</v>
+      </c>
       <c r="AO136" t="s">
         <v>1721</v>
       </c>
       <c r="AP136" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="137" spans="1:42" x14ac:dyDescent="0.2">
@@ -29628,11 +29727,14 @@
       <c r="T137" t="s">
         <v>1719</v>
       </c>
+      <c r="U137">
+        <v>4</v>
+      </c>
       <c r="V137">
         <v>213</v>
       </c>
       <c r="X137" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z137" t="s">
         <v>168</v>
@@ -29653,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="AJ137" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK137">
         <v>0</v>
@@ -29664,11 +29766,14 @@
       <c r="AM137">
         <v>80</v>
       </c>
+      <c r="AN137">
+        <v>217</v>
+      </c>
       <c r="AO137" t="s">
         <v>1721</v>
       </c>
       <c r="AP137" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.2">
@@ -29714,11 +29819,14 @@
       <c r="T138" t="s">
         <v>1719</v>
       </c>
+      <c r="U138">
+        <v>4</v>
+      </c>
       <c r="V138">
         <v>213</v>
       </c>
       <c r="X138" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z138" t="s">
         <v>168</v>
@@ -29742,7 +29850,7 @@
         <v>0</v>
       </c>
       <c r="AJ138" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK138">
         <v>0</v>
@@ -29753,11 +29861,14 @@
       <c r="AM138">
         <v>80</v>
       </c>
+      <c r="AN138">
+        <v>217</v>
+      </c>
       <c r="AO138" t="s">
         <v>1721</v>
       </c>
       <c r="AP138" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="139" spans="1:42" x14ac:dyDescent="0.2">
@@ -29803,11 +29914,14 @@
       <c r="T139" t="s">
         <v>1719</v>
       </c>
+      <c r="U139">
+        <v>4</v>
+      </c>
       <c r="V139">
         <v>213</v>
       </c>
       <c r="X139" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z139" t="s">
         <v>168</v>
@@ -29834,7 +29948,7 @@
         <v>105.6</v>
       </c>
       <c r="AJ139" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK139">
         <v>0.2</v>
@@ -29845,11 +29959,14 @@
       <c r="AM139">
         <v>80</v>
       </c>
+      <c r="AN139">
+        <v>217</v>
+      </c>
       <c r="AO139" t="s">
         <v>1721</v>
       </c>
       <c r="AP139" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="140" spans="1:42" x14ac:dyDescent="0.2">
@@ -29895,11 +30012,14 @@
       <c r="T140" t="s">
         <v>1719</v>
       </c>
+      <c r="U140">
+        <v>4</v>
+      </c>
       <c r="V140">
         <v>213</v>
       </c>
       <c r="X140" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z140" t="s">
         <v>168</v>
@@ -29914,7 +30034,7 @@
         <v>160</v>
       </c>
       <c r="AF140" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AG140">
         <v>1440</v>
@@ -29926,7 +30046,7 @@
         <v>97.1</v>
       </c>
       <c r="AJ140" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK140">
         <v>0.6</v>
@@ -29937,11 +30057,14 @@
       <c r="AM140">
         <v>80</v>
       </c>
+      <c r="AN140">
+        <v>217</v>
+      </c>
       <c r="AO140" t="s">
         <v>1721</v>
       </c>
       <c r="AP140" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="141" spans="1:42" x14ac:dyDescent="0.2">
@@ -29987,11 +30110,14 @@
       <c r="T141" t="s">
         <v>1719</v>
       </c>
+      <c r="U141">
+        <v>4</v>
+      </c>
       <c r="V141">
         <v>213</v>
       </c>
       <c r="X141" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Z141" t="s">
         <v>168</v>
@@ -30012,7 +30138,7 @@
         <v>20.9</v>
       </c>
       <c r="AJ141" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK141">
         <v>0.6</v>
@@ -30023,11 +30149,14 @@
       <c r="AM141">
         <v>80</v>
       </c>
+      <c r="AN141">
+        <v>217</v>
+      </c>
       <c r="AO141" t="s">
         <v>1721</v>
       </c>
       <c r="AP141" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.2">
@@ -30073,11 +30202,14 @@
       <c r="T142" t="s">
         <v>1719</v>
       </c>
+      <c r="U142">
+        <v>4</v>
+      </c>
       <c r="V142">
         <v>213</v>
       </c>
       <c r="X142" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Z142" t="s">
         <v>168</v>
@@ -30101,7 +30233,7 @@
         <v>0</v>
       </c>
       <c r="AJ142" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK142">
         <v>0</v>
@@ -30112,11 +30244,14 @@
       <c r="AM142">
         <v>80</v>
       </c>
+      <c r="AN142">
+        <v>217</v>
+      </c>
       <c r="AO142" t="s">
         <v>1721</v>
       </c>
       <c r="AP142" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="143" spans="1:42" x14ac:dyDescent="0.2">
@@ -30162,11 +30297,14 @@
       <c r="T143" t="s">
         <v>1719</v>
       </c>
+      <c r="U143">
+        <v>4</v>
+      </c>
       <c r="V143">
         <v>213</v>
       </c>
       <c r="X143" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Z143" t="s">
         <v>168</v>
@@ -30193,7 +30331,7 @@
         <v>78.8</v>
       </c>
       <c r="AJ143" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK143">
         <v>6</v>
@@ -30204,11 +30342,14 @@
       <c r="AM143">
         <v>80</v>
       </c>
+      <c r="AN143">
+        <v>217</v>
+      </c>
       <c r="AO143" t="s">
         <v>1721</v>
       </c>
       <c r="AP143" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="144" spans="1:42" x14ac:dyDescent="0.2">
@@ -30254,11 +30395,14 @@
       <c r="T144" t="s">
         <v>1719</v>
       </c>
+      <c r="U144">
+        <v>4</v>
+      </c>
       <c r="V144">
         <v>213</v>
       </c>
       <c r="X144" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Z144" t="s">
         <v>168</v>
@@ -30273,7 +30417,7 @@
         <v>160</v>
       </c>
       <c r="AF144" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AG144">
         <v>1440</v>
@@ -30285,7 +30429,7 @@
         <v>92.2</v>
       </c>
       <c r="AJ144" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK144">
         <v>7.9</v>
@@ -30296,11 +30440,14 @@
       <c r="AM144">
         <v>80</v>
       </c>
+      <c r="AN144">
+        <v>217</v>
+      </c>
       <c r="AO144" t="s">
         <v>1721</v>
       </c>
       <c r="AP144" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="145" spans="1:42" x14ac:dyDescent="0.2">
@@ -30308,7 +30455,7 @@
         <v>1724</v>
       </c>
       <c r="B145" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C145" t="s">
         <v>459</v>
@@ -30346,11 +30493,14 @@
       <c r="T145" t="s">
         <v>1719</v>
       </c>
+      <c r="U145">
+        <v>4</v>
+      </c>
       <c r="V145">
         <v>213</v>
       </c>
       <c r="X145" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z145" t="s">
         <v>168</v>
@@ -30371,7 +30521,7 @@
         <v>36.6</v>
       </c>
       <c r="AJ145" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK145">
         <v>9.6</v>
@@ -30382,11 +30532,14 @@
       <c r="AM145">
         <v>80</v>
       </c>
+      <c r="AN145">
+        <v>217</v>
+      </c>
       <c r="AO145" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP145" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="146" spans="1:42" x14ac:dyDescent="0.2">
@@ -30394,7 +30547,7 @@
         <v>1724</v>
       </c>
       <c r="B146" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C146" t="s">
         <v>459</v>
@@ -30432,11 +30585,14 @@
       <c r="T146" t="s">
         <v>1719</v>
       </c>
+      <c r="U146">
+        <v>4</v>
+      </c>
       <c r="V146">
         <v>213</v>
       </c>
       <c r="X146" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z146" t="s">
         <v>168</v>
@@ -30460,7 +30616,7 @@
         <v>0</v>
       </c>
       <c r="AJ146" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK146">
         <v>0</v>
@@ -30471,11 +30627,14 @@
       <c r="AM146">
         <v>80</v>
       </c>
+      <c r="AN146">
+        <v>217</v>
+      </c>
       <c r="AO146" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP146" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="147" spans="1:42" x14ac:dyDescent="0.2">
@@ -30483,7 +30642,7 @@
         <v>1724</v>
       </c>
       <c r="B147" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C147" t="s">
         <v>459</v>
@@ -30521,11 +30680,14 @@
       <c r="T147" t="s">
         <v>1719</v>
       </c>
+      <c r="U147">
+        <v>4</v>
+      </c>
       <c r="V147">
         <v>213</v>
       </c>
       <c r="X147" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z147" t="s">
         <v>168</v>
@@ -30552,7 +30714,7 @@
         <v>23.5</v>
       </c>
       <c r="AJ147" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK147">
         <v>3.4</v>
@@ -30563,11 +30725,14 @@
       <c r="AM147">
         <v>80</v>
       </c>
+      <c r="AN147">
+        <v>217</v>
+      </c>
       <c r="AO147" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP147" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="148" spans="1:42" x14ac:dyDescent="0.2">
@@ -30575,7 +30740,7 @@
         <v>1724</v>
       </c>
       <c r="B148" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C148" t="s">
         <v>459</v>
@@ -30613,11 +30778,14 @@
       <c r="T148" t="s">
         <v>1719</v>
       </c>
+      <c r="U148">
+        <v>4</v>
+      </c>
       <c r="V148">
         <v>213</v>
       </c>
       <c r="X148" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z148" t="s">
         <v>168</v>
@@ -30632,7 +30800,7 @@
         <v>160</v>
       </c>
       <c r="AF148" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AG148">
         <v>1440</v>
@@ -30644,7 +30812,7 @@
         <v>25.5</v>
       </c>
       <c r="AJ148" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK148">
         <v>4.0999999999999996</v>
@@ -30655,11 +30823,14 @@
       <c r="AM148">
         <v>80</v>
       </c>
+      <c r="AN148">
+        <v>217</v>
+      </c>
       <c r="AO148" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP148" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="149" spans="1:42" x14ac:dyDescent="0.2">
@@ -30667,7 +30838,7 @@
         <v>1724</v>
       </c>
       <c r="B149" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C149" t="s">
         <v>459</v>
@@ -30705,11 +30876,14 @@
       <c r="T149" t="s">
         <v>1719</v>
       </c>
+      <c r="U149">
+        <v>4</v>
+      </c>
       <c r="V149">
         <v>213</v>
       </c>
       <c r="X149" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z149" t="s">
         <v>168</v>
@@ -30730,7 +30904,7 @@
         <v>36.5</v>
       </c>
       <c r="AJ149" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK149">
         <v>5.6</v>
@@ -30741,11 +30915,14 @@
       <c r="AM149">
         <v>80</v>
       </c>
+      <c r="AN149">
+        <v>217</v>
+      </c>
       <c r="AO149" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP149" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.2">
@@ -30753,7 +30930,7 @@
         <v>1724</v>
       </c>
       <c r="B150" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C150" t="s">
         <v>459</v>
@@ -30791,11 +30968,14 @@
       <c r="T150" t="s">
         <v>1719</v>
       </c>
+      <c r="U150">
+        <v>4</v>
+      </c>
       <c r="V150">
         <v>213</v>
       </c>
       <c r="X150" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z150" t="s">
         <v>168</v>
@@ -30819,7 +30999,7 @@
         <v>0</v>
       </c>
       <c r="AJ150" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK150">
         <v>0</v>
@@ -30830,11 +31010,14 @@
       <c r="AM150">
         <v>80</v>
       </c>
+      <c r="AN150">
+        <v>217</v>
+      </c>
       <c r="AO150" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP150" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.2">
@@ -30842,7 +31025,7 @@
         <v>1724</v>
       </c>
       <c r="B151" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C151" t="s">
         <v>459</v>
@@ -30880,11 +31063,14 @@
       <c r="T151" t="s">
         <v>1719</v>
       </c>
+      <c r="U151">
+        <v>4</v>
+      </c>
       <c r="V151">
         <v>213</v>
       </c>
       <c r="X151" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z151" t="s">
         <v>168</v>
@@ -30911,7 +31097,7 @@
         <v>86.9</v>
       </c>
       <c r="AJ151" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK151">
         <v>3</v>
@@ -30922,11 +31108,14 @@
       <c r="AM151">
         <v>80</v>
       </c>
+      <c r="AN151">
+        <v>217</v>
+      </c>
       <c r="AO151" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP151" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="152" spans="1:42" x14ac:dyDescent="0.2">
@@ -30934,7 +31123,7 @@
         <v>1724</v>
       </c>
       <c r="B152" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C152" t="s">
         <v>459</v>
@@ -30972,11 +31161,14 @@
       <c r="T152" t="s">
         <v>1719</v>
       </c>
+      <c r="U152">
+        <v>4</v>
+      </c>
       <c r="V152">
         <v>213</v>
       </c>
       <c r="X152" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z152" t="s">
         <v>168</v>
@@ -30991,7 +31183,7 @@
         <v>160</v>
       </c>
       <c r="AF152" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AG152">
         <v>1440</v>
@@ -31003,7 +31195,7 @@
         <v>61.2</v>
       </c>
       <c r="AJ152" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK152">
         <v>4.0999999999999996</v>
@@ -31014,11 +31206,14 @@
       <c r="AM152">
         <v>80</v>
       </c>
+      <c r="AN152">
+        <v>217</v>
+      </c>
       <c r="AO152" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP152" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="153" spans="1:42" x14ac:dyDescent="0.2">
@@ -31026,7 +31221,7 @@
         <v>1724</v>
       </c>
       <c r="B153" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C153" t="s">
         <v>459</v>
@@ -31064,11 +31259,14 @@
       <c r="T153" t="s">
         <v>1719</v>
       </c>
+      <c r="U153">
+        <v>4</v>
+      </c>
       <c r="V153">
         <v>213</v>
       </c>
       <c r="X153" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z153" t="s">
         <v>168</v>
@@ -31083,13 +31281,13 @@
         <v>168</v>
       </c>
       <c r="AH153" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI153">
         <v>7.4</v>
       </c>
       <c r="AJ153" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK153">
         <v>0.1</v>
@@ -31100,11 +31298,14 @@
       <c r="AM153">
         <v>80</v>
       </c>
+      <c r="AN153">
+        <v>217</v>
+      </c>
       <c r="AO153" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP153" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="154" spans="1:42" x14ac:dyDescent="0.2">
@@ -31112,7 +31313,7 @@
         <v>1724</v>
       </c>
       <c r="B154" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C154" t="s">
         <v>459</v>
@@ -31150,11 +31351,14 @@
       <c r="T154" t="s">
         <v>1719</v>
       </c>
+      <c r="U154">
+        <v>4</v>
+      </c>
       <c r="V154">
         <v>213</v>
       </c>
       <c r="X154" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z154" t="s">
         <v>168</v>
@@ -31172,13 +31376,13 @@
         <v>90</v>
       </c>
       <c r="AH154" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI154">
         <v>0</v>
       </c>
       <c r="AJ154" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK154">
         <v>0</v>
@@ -31189,11 +31393,14 @@
       <c r="AM154">
         <v>80</v>
       </c>
+      <c r="AN154">
+        <v>217</v>
+      </c>
       <c r="AO154" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP154" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="155" spans="1:42" x14ac:dyDescent="0.2">
@@ -31201,7 +31408,7 @@
         <v>1724</v>
       </c>
       <c r="B155" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C155" t="s">
         <v>459</v>
@@ -31239,11 +31446,14 @@
       <c r="T155" t="s">
         <v>1719</v>
       </c>
+      <c r="U155">
+        <v>4</v>
+      </c>
       <c r="V155">
         <v>213</v>
       </c>
       <c r="X155" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z155" t="s">
         <v>168</v>
@@ -31264,13 +31474,13 @@
         <v>1440</v>
       </c>
       <c r="AH155" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI155">
         <v>3.6</v>
       </c>
       <c r="AJ155" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK155">
         <v>0.8</v>
@@ -31281,11 +31491,14 @@
       <c r="AM155">
         <v>80</v>
       </c>
+      <c r="AN155">
+        <v>217</v>
+      </c>
       <c r="AO155" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP155" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="156" spans="1:42" x14ac:dyDescent="0.2">
@@ -31293,7 +31506,7 @@
         <v>1724</v>
       </c>
       <c r="B156" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C156" t="s">
         <v>459</v>
@@ -31331,11 +31544,14 @@
       <c r="T156" t="s">
         <v>1719</v>
       </c>
+      <c r="U156">
+        <v>4</v>
+      </c>
       <c r="V156">
         <v>213</v>
       </c>
       <c r="X156" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z156" t="s">
         <v>168</v>
@@ -31350,19 +31566,19 @@
         <v>160</v>
       </c>
       <c r="AF156" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AG156">
         <v>1440</v>
       </c>
       <c r="AH156" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI156">
         <v>0.6</v>
       </c>
       <c r="AJ156" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK156">
         <v>0.1</v>
@@ -31373,11 +31589,14 @@
       <c r="AM156">
         <v>80</v>
       </c>
+      <c r="AN156">
+        <v>217</v>
+      </c>
       <c r="AO156" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP156" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.2">
@@ -31385,7 +31604,7 @@
         <v>1724</v>
       </c>
       <c r="B157" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C157" t="s">
         <v>459</v>
@@ -31423,11 +31642,14 @@
       <c r="T157" t="s">
         <v>1719</v>
       </c>
+      <c r="U157">
+        <v>4</v>
+      </c>
       <c r="V157">
         <v>213</v>
       </c>
       <c r="X157" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z157" t="s">
         <v>168</v>
@@ -31442,13 +31664,13 @@
         <v>168</v>
       </c>
       <c r="AH157" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI157">
         <v>0.3</v>
       </c>
       <c r="AJ157" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK157">
         <v>0.01</v>
@@ -31459,11 +31681,14 @@
       <c r="AM157">
         <v>80</v>
       </c>
+      <c r="AN157">
+        <v>217</v>
+      </c>
       <c r="AO157" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP157" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="158" spans="1:42" x14ac:dyDescent="0.2">
@@ -31471,7 +31696,7 @@
         <v>1724</v>
       </c>
       <c r="B158" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C158" t="s">
         <v>459</v>
@@ -31509,11 +31734,14 @@
       <c r="T158" t="s">
         <v>1719</v>
       </c>
+      <c r="U158">
+        <v>4</v>
+      </c>
       <c r="V158">
         <v>213</v>
       </c>
       <c r="X158" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z158" t="s">
         <v>168</v>
@@ -31531,13 +31759,13 @@
         <v>90</v>
       </c>
       <c r="AH158" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI158">
         <v>0</v>
       </c>
       <c r="AJ158" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK158">
         <v>0</v>
@@ -31548,11 +31776,14 @@
       <c r="AM158">
         <v>80</v>
       </c>
+      <c r="AN158">
+        <v>217</v>
+      </c>
       <c r="AO158" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP158" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.2">
@@ -31560,7 +31791,7 @@
         <v>1724</v>
       </c>
       <c r="B159" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C159" t="s">
         <v>459</v>
@@ -31598,11 +31829,14 @@
       <c r="T159" t="s">
         <v>1719</v>
       </c>
+      <c r="U159">
+        <v>4</v>
+      </c>
       <c r="V159">
         <v>213</v>
       </c>
       <c r="X159" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z159" t="s">
         <v>168</v>
@@ -31623,13 +31857,13 @@
         <v>1440</v>
       </c>
       <c r="AH159" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI159">
         <v>1.6</v>
       </c>
       <c r="AJ159" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK159">
         <v>0.01</v>
@@ -31640,11 +31874,14 @@
       <c r="AM159">
         <v>80</v>
       </c>
+      <c r="AN159">
+        <v>217</v>
+      </c>
       <c r="AO159" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP159" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="160" spans="1:42" x14ac:dyDescent="0.2">
@@ -31652,7 +31889,7 @@
         <v>1724</v>
       </c>
       <c r="B160" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C160" t="s">
         <v>459</v>
@@ -31690,11 +31927,14 @@
       <c r="T160" t="s">
         <v>1719</v>
       </c>
+      <c r="U160">
+        <v>4</v>
+      </c>
       <c r="V160">
         <v>213</v>
       </c>
       <c r="X160" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z160" t="s">
         <v>168</v>
@@ -31709,19 +31949,19 @@
         <v>160</v>
       </c>
       <c r="AF160" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AG160">
         <v>1440</v>
       </c>
       <c r="AH160" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AI160">
         <v>0.9</v>
       </c>
       <c r="AJ160" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK160">
         <v>0.1</v>
@@ -31732,11 +31972,14 @@
       <c r="AM160">
         <v>80</v>
       </c>
+      <c r="AN160">
+        <v>217</v>
+      </c>
       <c r="AO160" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP160" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="161" spans="1:42" x14ac:dyDescent="0.2">
@@ -31744,7 +31987,7 @@
         <v>1724</v>
       </c>
       <c r="B161" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C161" t="s">
         <v>459</v>
@@ -31782,11 +32025,14 @@
       <c r="T161" t="s">
         <v>1719</v>
       </c>
+      <c r="U161">
+        <v>4</v>
+      </c>
       <c r="V161">
         <v>213</v>
       </c>
       <c r="X161" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z161" t="s">
         <v>168</v>
@@ -31807,7 +32053,7 @@
         <v>20.9</v>
       </c>
       <c r="AJ161" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK161">
         <v>4.2</v>
@@ -31818,11 +32064,14 @@
       <c r="AM161">
         <v>80</v>
       </c>
+      <c r="AN161">
+        <v>217</v>
+      </c>
       <c r="AO161" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP161" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="162" spans="1:42" x14ac:dyDescent="0.2">
@@ -31830,7 +32079,7 @@
         <v>1724</v>
       </c>
       <c r="B162" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C162" t="s">
         <v>459</v>
@@ -31868,11 +32117,14 @@
       <c r="T162" t="s">
         <v>1719</v>
       </c>
+      <c r="U162">
+        <v>4</v>
+      </c>
       <c r="V162">
         <v>213</v>
       </c>
       <c r="X162" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z162" t="s">
         <v>168</v>
@@ -31896,7 +32148,7 @@
         <v>0</v>
       </c>
       <c r="AJ162" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK162">
         <v>0</v>
@@ -31907,11 +32159,14 @@
       <c r="AM162">
         <v>80</v>
       </c>
+      <c r="AN162">
+        <v>217</v>
+      </c>
       <c r="AO162" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP162" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="163" spans="1:42" x14ac:dyDescent="0.2">
@@ -31919,7 +32174,7 @@
         <v>1724</v>
       </c>
       <c r="B163" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C163" t="s">
         <v>459</v>
@@ -31957,11 +32212,14 @@
       <c r="T163" t="s">
         <v>1719</v>
       </c>
+      <c r="U163">
+        <v>4</v>
+      </c>
       <c r="V163">
         <v>213</v>
       </c>
       <c r="X163" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z163" t="s">
         <v>168</v>
@@ -31988,7 +32246,7 @@
         <v>78.8</v>
       </c>
       <c r="AJ163" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK163">
         <v>6.1</v>
@@ -31999,11 +32257,14 @@
       <c r="AM163">
         <v>80</v>
       </c>
+      <c r="AN163">
+        <v>217</v>
+      </c>
       <c r="AO163" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP163" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="164" spans="1:42" x14ac:dyDescent="0.2">
@@ -32011,7 +32272,7 @@
         <v>1724</v>
       </c>
       <c r="B164" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C164" t="s">
         <v>459</v>
@@ -32049,11 +32310,14 @@
       <c r="T164" t="s">
         <v>1719</v>
       </c>
+      <c r="U164">
+        <v>4</v>
+      </c>
       <c r="V164">
         <v>213</v>
       </c>
       <c r="X164" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z164" t="s">
         <v>168</v>
@@ -32068,7 +32332,7 @@
         <v>160</v>
       </c>
       <c r="AF164" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AG164">
         <v>1440</v>
@@ -32080,7 +32344,7 @@
         <v>92.2</v>
       </c>
       <c r="AJ164" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK164">
         <v>7.9</v>
@@ -32091,11 +32355,14 @@
       <c r="AM164">
         <v>80</v>
       </c>
+      <c r="AN164">
+        <v>217</v>
+      </c>
       <c r="AO164" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP164" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="165" spans="1:42" x14ac:dyDescent="0.2">
@@ -32103,7 +32370,7 @@
         <v>1724</v>
       </c>
       <c r="B165" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C165" t="s">
         <v>459</v>
@@ -32141,11 +32408,14 @@
       <c r="T165" t="s">
         <v>1719</v>
       </c>
+      <c r="U165">
+        <v>4</v>
+      </c>
       <c r="V165">
         <v>213</v>
       </c>
       <c r="X165" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z165" t="s">
         <v>168</v>
@@ -32166,7 +32436,7 @@
         <v>110.3</v>
       </c>
       <c r="AJ165" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK165">
         <v>0.6</v>
@@ -32177,11 +32447,14 @@
       <c r="AM165">
         <v>80</v>
       </c>
+      <c r="AN165">
+        <v>217</v>
+      </c>
       <c r="AO165" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP165" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="166" spans="1:42" x14ac:dyDescent="0.2">
@@ -32189,7 +32462,7 @@
         <v>1724</v>
       </c>
       <c r="B166" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C166" t="s">
         <v>459</v>
@@ -32227,11 +32500,14 @@
       <c r="T166" t="s">
         <v>1719</v>
       </c>
+      <c r="U166">
+        <v>4</v>
+      </c>
       <c r="V166">
         <v>213</v>
       </c>
       <c r="X166" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z166" t="s">
         <v>168</v>
@@ -32255,7 +32531,7 @@
         <v>0</v>
       </c>
       <c r="AJ166" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK166">
         <v>0</v>
@@ -32266,11 +32542,14 @@
       <c r="AM166">
         <v>80</v>
       </c>
+      <c r="AN166">
+        <v>217</v>
+      </c>
       <c r="AO166" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP166" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.2">
@@ -32278,7 +32557,7 @@
         <v>1724</v>
       </c>
       <c r="B167" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C167" t="s">
         <v>459</v>
@@ -32316,11 +32595,14 @@
       <c r="T167" t="s">
         <v>1719</v>
       </c>
+      <c r="U167">
+        <v>4</v>
+      </c>
       <c r="V167">
         <v>213</v>
       </c>
       <c r="X167" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z167" t="s">
         <v>168</v>
@@ -32347,7 +32629,7 @@
         <v>97.1</v>
       </c>
       <c r="AJ167" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK167">
         <v>2.2999999999999998</v>
@@ -32358,11 +32640,14 @@
       <c r="AM167">
         <v>80</v>
       </c>
+      <c r="AN167">
+        <v>217</v>
+      </c>
       <c r="AO167" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP167" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="168" spans="1:42" x14ac:dyDescent="0.2">
@@ -32370,7 +32655,7 @@
         <v>1724</v>
       </c>
       <c r="B168" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C168" t="s">
         <v>459</v>
@@ -32408,11 +32693,14 @@
       <c r="T168" t="s">
         <v>1719</v>
       </c>
+      <c r="U168">
+        <v>4</v>
+      </c>
       <c r="V168">
         <v>213</v>
       </c>
       <c r="X168" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Z168" t="s">
         <v>168</v>
@@ -32427,7 +32715,7 @@
         <v>160</v>
       </c>
       <c r="AF168" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AG168">
         <v>1440</v>
@@ -32439,7 +32727,7 @@
         <v>108.9</v>
       </c>
       <c r="AJ168" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AK168">
         <v>0.8</v>
@@ -32450,11 +32738,14 @@
       <c r="AM168">
         <v>80</v>
       </c>
+      <c r="AN168">
+        <v>217</v>
+      </c>
       <c r="AO168" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="AP168" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
     </row>
   </sheetData>

--- a/data/oegres_TA/oegres_TA.xlsx
+++ b/data/oegres_TA/oegres_TA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="1736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5763" uniqueCount="1746">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5186,9 +5186,6 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>Alptekin2001</t>
-  </si>
-  <si>
     <t>cold stratification</t>
   </si>
   <si>
@@ -5204,9 +5201,6 @@
     <t>see note</t>
   </si>
   <si>
-    <t>Amini2008</t>
-  </si>
-  <si>
     <t>Hyrcanian forests, Iran</t>
   </si>
   <si>
@@ -5238,6 +5232,42 @@
   </si>
   <si>
     <t>Table 5</t>
+  </si>
+  <si>
+    <t>Alptekin2002</t>
+  </si>
+  <si>
+    <t>Amini2018</t>
+  </si>
+  <si>
+    <t>Chen15</t>
+  </si>
+  <si>
+    <t>Tsuifeng, Taiwan</t>
+  </si>
+  <si>
+    <t>incubation temperature</t>
+  </si>
+  <si>
+    <t>30/20</t>
+  </si>
+  <si>
+    <t>30/15</t>
+  </si>
+  <si>
+    <t>25/15</t>
+  </si>
+  <si>
+    <t>20/10.</t>
+  </si>
+  <si>
+    <t>15/5.</t>
+  </si>
+  <si>
+    <t>treatment duration in weeks</t>
+  </si>
+  <si>
+    <t>Figure 1</t>
   </si>
 </sst>
 </file>
@@ -5307,8 +5337,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5340,17 +5372,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -15969,12 +16003,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP168"/>
+  <dimension ref="A1:AP179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="R36" sqref="R36"/>
+      <selection pane="bottomLeft" activeCell="R179" sqref="R179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26041,7 +26075,7 @@
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B101" t="s">
         <v>1680</v>
@@ -26095,7 +26129,7 @@
         <v>105</v>
       </c>
       <c r="T101" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U101">
         <v>4</v>
@@ -26107,7 +26141,7 @@
         <v>20</v>
       </c>
       <c r="X101" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Y101">
         <v>12</v>
@@ -26115,11 +26149,14 @@
       <c r="Z101" t="s">
         <v>168</v>
       </c>
+      <c r="AB101">
+        <v>7</v>
+      </c>
       <c r="AC101" t="s">
         <v>160</v>
       </c>
       <c r="AD101" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE101" t="s">
         <v>160</v>
@@ -26128,7 +26165,7 @@
         <v>1688</v>
       </c>
       <c r="AG101" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="AH101" t="s">
         <v>1693</v>
@@ -26146,15 +26183,15 @@
         <v>0</v>
       </c>
       <c r="AO101" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP101" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP101" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B102" t="s">
         <v>1680</v>
@@ -26208,7 +26245,7 @@
         <v>105</v>
       </c>
       <c r="T102" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U102">
         <v>4</v>
@@ -26220,7 +26257,7 @@
         <v>20</v>
       </c>
       <c r="X102" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Y102">
         <v>12</v>
@@ -26228,11 +26265,14 @@
       <c r="Z102" t="s">
         <v>168</v>
       </c>
+      <c r="AB102">
+        <v>7</v>
+      </c>
       <c r="AC102" t="s">
         <v>160</v>
       </c>
       <c r="AD102" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE102" t="s">
         <v>160</v>
@@ -26256,15 +26296,15 @@
         <v>30</v>
       </c>
       <c r="AO102" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP102" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP102" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B103" t="s">
         <v>1680</v>
@@ -26318,7 +26358,7 @@
         <v>105</v>
       </c>
       <c r="T103" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U103">
         <v>4</v>
@@ -26330,7 +26370,7 @@
         <v>20</v>
       </c>
       <c r="X103" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Y103">
         <v>12</v>
@@ -26338,11 +26378,14 @@
       <c r="Z103" t="s">
         <v>168</v>
       </c>
+      <c r="AB103">
+        <v>7</v>
+      </c>
       <c r="AC103" t="s">
         <v>160</v>
       </c>
       <c r="AD103" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE103" t="s">
         <v>160</v>
@@ -26366,15 +26409,15 @@
         <v>60</v>
       </c>
       <c r="AO103" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP103" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP103" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B104" t="s">
         <v>1680</v>
@@ -26428,7 +26471,7 @@
         <v>105</v>
       </c>
       <c r="T104" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U104">
         <v>4</v>
@@ -26440,7 +26483,7 @@
         <v>20</v>
       </c>
       <c r="X104" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Y104">
         <v>12</v>
@@ -26448,11 +26491,14 @@
       <c r="Z104" t="s">
         <v>168</v>
       </c>
+      <c r="AB104">
+        <v>7</v>
+      </c>
       <c r="AC104" t="s">
         <v>160</v>
       </c>
       <c r="AD104" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE104" t="s">
         <v>160</v>
@@ -26476,15 +26522,15 @@
         <v>90</v>
       </c>
       <c r="AO104" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP104" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP104" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B105" t="s">
         <v>1680</v>
@@ -26538,7 +26584,7 @@
         <v>105</v>
       </c>
       <c r="T105" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U105">
         <v>4</v>
@@ -26550,7 +26596,7 @@
         <v>20</v>
       </c>
       <c r="X105" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Y105">
         <v>12</v>
@@ -26558,11 +26604,14 @@
       <c r="Z105" t="s">
         <v>168</v>
       </c>
+      <c r="AB105">
+        <v>7</v>
+      </c>
       <c r="AC105" t="s">
         <v>160</v>
       </c>
       <c r="AD105" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE105" t="s">
         <v>160</v>
@@ -26586,15 +26635,15 @@
         <v>120</v>
       </c>
       <c r="AO105" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP105" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP105" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B106" t="s">
         <v>1680</v>
@@ -26648,7 +26697,7 @@
         <v>105</v>
       </c>
       <c r="T106" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U106">
         <v>4</v>
@@ -26665,6 +26714,9 @@
       <c r="Z106" t="s">
         <v>168</v>
       </c>
+      <c r="AB106">
+        <v>7</v>
+      </c>
       <c r="AC106" t="s">
         <v>1694</v>
       </c>
@@ -26690,15 +26742,15 @@
         <v>0</v>
       </c>
       <c r="AO106" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP106" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP106" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B107" t="s">
         <v>1680</v>
@@ -26752,7 +26804,7 @@
         <v>105</v>
       </c>
       <c r="T107" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U107">
         <v>4</v>
@@ -26769,6 +26821,9 @@
       <c r="Z107" t="s">
         <v>168</v>
       </c>
+      <c r="AB107">
+        <v>7</v>
+      </c>
       <c r="AC107" t="s">
         <v>1694</v>
       </c>
@@ -26794,15 +26849,15 @@
         <v>30</v>
       </c>
       <c r="AO107" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP107" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP107" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="108" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B108" t="s">
         <v>1680</v>
@@ -26856,7 +26911,7 @@
         <v>105</v>
       </c>
       <c r="T108" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U108">
         <v>4</v>
@@ -26873,6 +26928,9 @@
       <c r="Z108" t="s">
         <v>168</v>
       </c>
+      <c r="AB108">
+        <v>7</v>
+      </c>
       <c r="AC108" t="s">
         <v>1694</v>
       </c>
@@ -26898,15 +26956,15 @@
         <v>60</v>
       </c>
       <c r="AO108" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP108" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP108" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B109" t="s">
         <v>1680</v>
@@ -26960,7 +27018,7 @@
         <v>105</v>
       </c>
       <c r="T109" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U109">
         <v>4</v>
@@ -26977,6 +27035,9 @@
       <c r="Z109" t="s">
         <v>168</v>
       </c>
+      <c r="AB109">
+        <v>7</v>
+      </c>
       <c r="AC109" t="s">
         <v>1694</v>
       </c>
@@ -27002,15 +27063,15 @@
         <v>90</v>
       </c>
       <c r="AO109" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP109" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP109" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B110" t="s">
         <v>1680</v>
@@ -27064,7 +27125,7 @@
         <v>105</v>
       </c>
       <c r="T110" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U110">
         <v>4</v>
@@ -27081,6 +27142,9 @@
       <c r="Z110" t="s">
         <v>168</v>
       </c>
+      <c r="AB110">
+        <v>7</v>
+      </c>
       <c r="AC110" t="s">
         <v>1694</v>
       </c>
@@ -27106,15 +27170,15 @@
         <v>120</v>
       </c>
       <c r="AO110" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP110" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP110" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B111" t="s">
         <v>1680</v>
@@ -27168,7 +27232,7 @@
         <v>105</v>
       </c>
       <c r="T111" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U111">
         <v>4</v>
@@ -27185,6 +27249,9 @@
       <c r="Z111" t="s">
         <v>168</v>
       </c>
+      <c r="AB111">
+        <v>7</v>
+      </c>
       <c r="AC111" t="s">
         <v>1694</v>
       </c>
@@ -27210,15 +27277,15 @@
         <v>0</v>
       </c>
       <c r="AO111" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP111" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP111" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B112" t="s">
         <v>1680</v>
@@ -27272,7 +27339,7 @@
         <v>105</v>
       </c>
       <c r="T112" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U112">
         <v>4</v>
@@ -27289,6 +27356,9 @@
       <c r="Z112" t="s">
         <v>168</v>
       </c>
+      <c r="AB112">
+        <v>7</v>
+      </c>
       <c r="AC112" t="s">
         <v>1694</v>
       </c>
@@ -27314,15 +27384,15 @@
         <v>30</v>
       </c>
       <c r="AO112" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP112" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP112" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="113" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B113" t="s">
         <v>1680</v>
@@ -27376,7 +27446,7 @@
         <v>105</v>
       </c>
       <c r="T113" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U113">
         <v>4</v>
@@ -27393,6 +27463,9 @@
       <c r="Z113" t="s">
         <v>168</v>
       </c>
+      <c r="AB113">
+        <v>7</v>
+      </c>
       <c r="AC113" t="s">
         <v>1694</v>
       </c>
@@ -27418,15 +27491,15 @@
         <v>60</v>
       </c>
       <c r="AO113" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP113" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP113" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B114" t="s">
         <v>1680</v>
@@ -27480,7 +27553,7 @@
         <v>105</v>
       </c>
       <c r="T114" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U114">
         <v>4</v>
@@ -27497,6 +27570,9 @@
       <c r="Z114" t="s">
         <v>168</v>
       </c>
+      <c r="AB114">
+        <v>7</v>
+      </c>
       <c r="AC114" t="s">
         <v>1694</v>
       </c>
@@ -27522,15 +27598,15 @@
         <v>90</v>
       </c>
       <c r="AO114" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP114" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP114" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B115" t="s">
         <v>1680</v>
@@ -27584,7 +27660,7 @@
         <v>105</v>
       </c>
       <c r="T115" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U115">
         <v>4</v>
@@ -27601,6 +27677,9 @@
       <c r="Z115" t="s">
         <v>168</v>
       </c>
+      <c r="AB115">
+        <v>7</v>
+      </c>
       <c r="AC115" t="s">
         <v>1694</v>
       </c>
@@ -27626,15 +27705,15 @@
         <v>120</v>
       </c>
       <c r="AO115" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP115" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP115" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B116" t="s">
         <v>1680</v>
@@ -27688,7 +27767,7 @@
         <v>105</v>
       </c>
       <c r="T116" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U116">
         <v>4</v>
@@ -27705,6 +27784,9 @@
       <c r="Z116" t="s">
         <v>168</v>
       </c>
+      <c r="AB116">
+        <v>7</v>
+      </c>
       <c r="AC116" t="s">
         <v>1694</v>
       </c>
@@ -27730,15 +27812,15 @@
         <v>0</v>
       </c>
       <c r="AO116" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP116" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP116" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B117" t="s">
         <v>1680</v>
@@ -27792,7 +27874,7 @@
         <v>105</v>
       </c>
       <c r="T117" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U117">
         <v>4</v>
@@ -27809,6 +27891,9 @@
       <c r="Z117" t="s">
         <v>168</v>
       </c>
+      <c r="AB117">
+        <v>7</v>
+      </c>
       <c r="AC117" t="s">
         <v>1694</v>
       </c>
@@ -27834,15 +27919,15 @@
         <v>30</v>
       </c>
       <c r="AO117" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP117" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP117" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B118" t="s">
         <v>1680</v>
@@ -27896,7 +27981,7 @@
         <v>105</v>
       </c>
       <c r="T118" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U118">
         <v>4</v>
@@ -27913,6 +27998,9 @@
       <c r="Z118" t="s">
         <v>168</v>
       </c>
+      <c r="AB118">
+        <v>7</v>
+      </c>
       <c r="AC118" t="s">
         <v>1694</v>
       </c>
@@ -27938,15 +28026,15 @@
         <v>60</v>
       </c>
       <c r="AO118" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP118" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP118" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B119" t="s">
         <v>1680</v>
@@ -28000,7 +28088,7 @@
         <v>105</v>
       </c>
       <c r="T119" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U119">
         <v>4</v>
@@ -28017,6 +28105,9 @@
       <c r="Z119" t="s">
         <v>168</v>
       </c>
+      <c r="AB119">
+        <v>7</v>
+      </c>
       <c r="AC119" t="s">
         <v>1694</v>
       </c>
@@ -28042,15 +28133,15 @@
         <v>90</v>
       </c>
       <c r="AO119" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP119" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP119" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B120" t="s">
         <v>1680</v>
@@ -28104,7 +28195,7 @@
         <v>105</v>
       </c>
       <c r="T120" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U120">
         <v>4</v>
@@ -28121,6 +28212,9 @@
       <c r="Z120" t="s">
         <v>168</v>
       </c>
+      <c r="AB120">
+        <v>7</v>
+      </c>
       <c r="AC120" t="s">
         <v>1694</v>
       </c>
@@ -28146,15 +28240,15 @@
         <v>120</v>
       </c>
       <c r="AO120" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AP120" t="s">
         <v>1721</v>
-      </c>
-      <c r="AP120" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B121" t="s">
         <v>1680</v>
@@ -28175,7 +28269,7 @@
         <v>160</v>
       </c>
       <c r="H121" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K121">
         <v>500</v>
@@ -28193,7 +28287,7 @@
         <v>4</v>
       </c>
       <c r="T121" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U121">
         <v>4</v>
@@ -28202,11 +28296,14 @@
         <v>213</v>
       </c>
       <c r="X121" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="Z121" t="s">
         <v>168</v>
       </c>
+      <c r="AB121">
+        <v>7</v>
+      </c>
       <c r="AC121" t="s">
         <v>1694</v>
       </c>
@@ -28223,7 +28320,7 @@
         <v>0</v>
       </c>
       <c r="AJ121" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK121">
         <v>0</v>
@@ -28238,15 +28335,15 @@
         <v>217</v>
       </c>
       <c r="AO121" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP121" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B122" t="s">
         <v>1680</v>
@@ -28267,7 +28364,7 @@
         <v>160</v>
       </c>
       <c r="H122" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K122">
         <v>500</v>
@@ -28285,7 +28382,7 @@
         <v>4</v>
       </c>
       <c r="T122" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U122">
         <v>4</v>
@@ -28294,11 +28391,14 @@
         <v>213</v>
       </c>
       <c r="X122" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="Z122" t="s">
         <v>168</v>
       </c>
+      <c r="AB122">
+        <v>7</v>
+      </c>
       <c r="AC122" t="s">
         <v>1694</v>
       </c>
@@ -28306,7 +28406,7 @@
         <v>160</v>
       </c>
       <c r="AF122" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AG122">
         <v>90</v>
@@ -28318,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="AJ122" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK122">
         <v>0</v>
@@ -28333,15 +28433,15 @@
         <v>217</v>
       </c>
       <c r="AO122" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP122" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B123" t="s">
         <v>1680</v>
@@ -28362,7 +28462,7 @@
         <v>160</v>
       </c>
       <c r="H123" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K123">
         <v>500</v>
@@ -28380,7 +28480,7 @@
         <v>4</v>
       </c>
       <c r="T123" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U123">
         <v>4</v>
@@ -28389,16 +28489,19 @@
         <v>213</v>
       </c>
       <c r="X123" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="Z123" t="s">
         <v>168</v>
       </c>
+      <c r="AB123">
+        <v>7</v>
+      </c>
       <c r="AC123" t="s">
         <v>160</v>
       </c>
       <c r="AD123" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE123" t="s">
         <v>160</v>
@@ -28416,7 +28519,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="AJ123" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK123">
         <v>1.3</v>
@@ -28431,15 +28534,15 @@
         <v>217</v>
       </c>
       <c r="AO123" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP123" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B124" t="s">
         <v>1680</v>
@@ -28460,7 +28563,7 @@
         <v>160</v>
       </c>
       <c r="H124" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K124">
         <v>500</v>
@@ -28478,7 +28581,7 @@
         <v>4</v>
       </c>
       <c r="T124" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U124">
         <v>4</v>
@@ -28487,22 +28590,25 @@
         <v>213</v>
       </c>
       <c r="X124" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="Z124" t="s">
         <v>168</v>
       </c>
+      <c r="AB124">
+        <v>7</v>
+      </c>
       <c r="AC124" t="s">
         <v>160</v>
       </c>
       <c r="AD124" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE124" t="s">
         <v>160</v>
       </c>
       <c r="AF124" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AG124">
         <v>1440</v>
@@ -28514,7 +28620,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="AJ124" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK124">
         <v>2.2000000000000002</v>
@@ -28529,15 +28635,15 @@
         <v>217</v>
       </c>
       <c r="AO124" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP124" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B125" t="s">
         <v>1680</v>
@@ -28558,7 +28664,7 @@
         <v>160</v>
       </c>
       <c r="H125" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K125">
         <v>500</v>
@@ -28576,7 +28682,7 @@
         <v>4</v>
       </c>
       <c r="T125" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U125">
         <v>4</v>
@@ -28585,11 +28691,14 @@
         <v>213</v>
       </c>
       <c r="X125" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="Z125" t="s">
         <v>168</v>
       </c>
+      <c r="AB125">
+        <v>7</v>
+      </c>
       <c r="AC125" t="s">
         <v>1694</v>
       </c>
@@ -28606,7 +28715,7 @@
         <v>36.6</v>
       </c>
       <c r="AJ125" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK125">
         <v>9.6</v>
@@ -28621,15 +28730,15 @@
         <v>217</v>
       </c>
       <c r="AO125" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP125" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B126" t="s">
         <v>1680</v>
@@ -28650,7 +28759,7 @@
         <v>160</v>
       </c>
       <c r="H126" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K126">
         <v>500</v>
@@ -28668,7 +28777,7 @@
         <v>4</v>
       </c>
       <c r="T126" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U126">
         <v>4</v>
@@ -28677,11 +28786,14 @@
         <v>213</v>
       </c>
       <c r="X126" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="Z126" t="s">
         <v>168</v>
       </c>
+      <c r="AB126">
+        <v>7</v>
+      </c>
       <c r="AC126" t="s">
         <v>1694</v>
       </c>
@@ -28689,7 +28801,7 @@
         <v>160</v>
       </c>
       <c r="AF126" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AG126">
         <v>90</v>
@@ -28701,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="AJ126" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK126">
         <v>0</v>
@@ -28716,15 +28828,15 @@
         <v>217</v>
       </c>
       <c r="AO126" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP126" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B127" t="s">
         <v>1680</v>
@@ -28745,7 +28857,7 @@
         <v>160</v>
       </c>
       <c r="H127" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K127">
         <v>500</v>
@@ -28763,7 +28875,7 @@
         <v>4</v>
       </c>
       <c r="T127" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U127">
         <v>4</v>
@@ -28772,16 +28884,19 @@
         <v>213</v>
       </c>
       <c r="X127" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="Z127" t="s">
         <v>168</v>
       </c>
+      <c r="AB127">
+        <v>7</v>
+      </c>
       <c r="AC127" t="s">
         <v>160</v>
       </c>
       <c r="AD127" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE127" t="s">
         <v>160</v>
@@ -28799,7 +28914,7 @@
         <v>23.5</v>
       </c>
       <c r="AJ127" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK127">
         <v>3.4</v>
@@ -28814,15 +28929,15 @@
         <v>217</v>
       </c>
       <c r="AO127" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP127" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B128" t="s">
         <v>1680</v>
@@ -28843,7 +28958,7 @@
         <v>160</v>
       </c>
       <c r="H128" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K128">
         <v>500</v>
@@ -28861,7 +28976,7 @@
         <v>4</v>
       </c>
       <c r="T128" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U128">
         <v>4</v>
@@ -28870,22 +28985,25 @@
         <v>213</v>
       </c>
       <c r="X128" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="Z128" t="s">
         <v>168</v>
       </c>
+      <c r="AB128">
+        <v>7</v>
+      </c>
       <c r="AC128" t="s">
         <v>160</v>
       </c>
       <c r="AD128" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE128" t="s">
         <v>160</v>
       </c>
       <c r="AF128" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AG128">
         <v>1440</v>
@@ -28897,7 +29015,7 @@
         <v>25.4</v>
       </c>
       <c r="AJ128" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK128">
         <v>4.0999999999999996</v>
@@ -28912,15 +29030,15 @@
         <v>217</v>
       </c>
       <c r="AO128" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP128" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="129" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B129" t="s">
         <v>1680</v>
@@ -28941,7 +29059,7 @@
         <v>160</v>
       </c>
       <c r="H129" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K129">
         <v>500</v>
@@ -28959,7 +29077,7 @@
         <v>4</v>
       </c>
       <c r="T129" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U129">
         <v>4</v>
@@ -28968,11 +29086,14 @@
         <v>213</v>
       </c>
       <c r="X129" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="Z129" t="s">
         <v>168</v>
       </c>
+      <c r="AB129">
+        <v>7</v>
+      </c>
       <c r="AC129" t="s">
         <v>1694</v>
       </c>
@@ -28983,13 +29104,13 @@
         <v>168</v>
       </c>
       <c r="AH129" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI129">
         <v>0</v>
       </c>
       <c r="AJ129" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK129">
         <v>0</v>
@@ -29004,15 +29125,15 @@
         <v>217</v>
       </c>
       <c r="AO129" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP129" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="130" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B130" t="s">
         <v>1680</v>
@@ -29033,7 +29154,7 @@
         <v>160</v>
       </c>
       <c r="H130" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K130">
         <v>500</v>
@@ -29051,7 +29172,7 @@
         <v>4</v>
       </c>
       <c r="T130" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U130">
         <v>4</v>
@@ -29060,11 +29181,14 @@
         <v>213</v>
       </c>
       <c r="X130" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="Z130" t="s">
         <v>168</v>
       </c>
+      <c r="AB130">
+        <v>7</v>
+      </c>
       <c r="AC130" t="s">
         <v>1694</v>
       </c>
@@ -29072,19 +29196,19 @@
         <v>160</v>
       </c>
       <c r="AF130" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AG130">
         <v>90</v>
       </c>
       <c r="AH130" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI130">
         <v>0</v>
       </c>
       <c r="AJ130" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK130">
         <v>0</v>
@@ -29099,15 +29223,15 @@
         <v>217</v>
       </c>
       <c r="AO130" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP130" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B131" t="s">
         <v>1680</v>
@@ -29128,7 +29252,7 @@
         <v>160</v>
       </c>
       <c r="H131" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K131">
         <v>500</v>
@@ -29146,7 +29270,7 @@
         <v>4</v>
       </c>
       <c r="T131" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U131">
         <v>4</v>
@@ -29155,16 +29279,19 @@
         <v>213</v>
       </c>
       <c r="X131" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="Z131" t="s">
         <v>168</v>
       </c>
+      <c r="AB131">
+        <v>7</v>
+      </c>
       <c r="AC131" t="s">
         <v>160</v>
       </c>
       <c r="AD131" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE131" t="s">
         <v>160</v>
@@ -29176,13 +29303,13 @@
         <v>1440</v>
       </c>
       <c r="AH131" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI131">
         <v>0.5</v>
       </c>
       <c r="AJ131" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK131">
         <v>0</v>
@@ -29197,15 +29324,15 @@
         <v>217</v>
       </c>
       <c r="AO131" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP131" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="132" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B132" t="s">
         <v>1680</v>
@@ -29226,7 +29353,7 @@
         <v>160</v>
       </c>
       <c r="H132" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K132">
         <v>500</v>
@@ -29244,7 +29371,7 @@
         <v>4</v>
       </c>
       <c r="T132" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U132">
         <v>4</v>
@@ -29253,34 +29380,37 @@
         <v>213</v>
       </c>
       <c r="X132" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="Z132" t="s">
         <v>168</v>
       </c>
+      <c r="AB132">
+        <v>7</v>
+      </c>
       <c r="AC132" t="s">
         <v>160</v>
       </c>
       <c r="AD132" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE132" t="s">
         <v>160</v>
       </c>
       <c r="AF132" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AG132">
         <v>1440</v>
       </c>
       <c r="AH132" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI132">
         <v>0.5</v>
       </c>
       <c r="AJ132" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK132">
         <v>0</v>
@@ -29295,15 +29425,15 @@
         <v>217</v>
       </c>
       <c r="AO132" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP132" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="133" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B133" t="s">
         <v>1680</v>
@@ -29324,7 +29454,7 @@
         <v>160</v>
       </c>
       <c r="H133" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K133">
         <v>500</v>
@@ -29342,7 +29472,7 @@
         <v>4</v>
       </c>
       <c r="T133" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U133">
         <v>4</v>
@@ -29351,11 +29481,14 @@
         <v>213</v>
       </c>
       <c r="X133" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="Z133" t="s">
         <v>168</v>
       </c>
+      <c r="AB133">
+        <v>7</v>
+      </c>
       <c r="AC133" t="s">
         <v>1694</v>
       </c>
@@ -29366,13 +29499,13 @@
         <v>168</v>
       </c>
       <c r="AH133" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI133">
         <v>7.4</v>
       </c>
       <c r="AJ133" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK133">
         <v>0.1</v>
@@ -29387,15 +29520,15 @@
         <v>217</v>
       </c>
       <c r="AO133" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP133" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="134" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B134" t="s">
         <v>1680</v>
@@ -29416,7 +29549,7 @@
         <v>160</v>
       </c>
       <c r="H134" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K134">
         <v>500</v>
@@ -29434,7 +29567,7 @@
         <v>4</v>
       </c>
       <c r="T134" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U134">
         <v>4</v>
@@ -29443,11 +29576,14 @@
         <v>213</v>
       </c>
       <c r="X134" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="Z134" t="s">
         <v>168</v>
       </c>
+      <c r="AB134">
+        <v>7</v>
+      </c>
       <c r="AC134" t="s">
         <v>1694</v>
       </c>
@@ -29455,19 +29591,19 @@
         <v>160</v>
       </c>
       <c r="AF134" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AG134">
         <v>90</v>
       </c>
       <c r="AH134" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI134">
         <v>0</v>
       </c>
       <c r="AJ134" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK134">
         <v>0</v>
@@ -29482,15 +29618,15 @@
         <v>217</v>
       </c>
       <c r="AO134" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP134" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="135" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B135" t="s">
         <v>1680</v>
@@ -29511,7 +29647,7 @@
         <v>160</v>
       </c>
       <c r="H135" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K135">
         <v>500</v>
@@ -29529,7 +29665,7 @@
         <v>4</v>
       </c>
       <c r="T135" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U135">
         <v>4</v>
@@ -29538,16 +29674,19 @@
         <v>213</v>
       </c>
       <c r="X135" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="Z135" t="s">
         <v>168</v>
       </c>
+      <c r="AB135">
+        <v>7</v>
+      </c>
       <c r="AC135" t="s">
         <v>160</v>
       </c>
       <c r="AD135" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE135" t="s">
         <v>160</v>
@@ -29559,13 +29698,13 @@
         <v>1440</v>
       </c>
       <c r="AH135" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI135">
         <v>3.6</v>
       </c>
       <c r="AJ135" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK135">
         <v>0.8</v>
@@ -29580,15 +29719,15 @@
         <v>217</v>
       </c>
       <c r="AO135" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP135" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="136" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B136" t="s">
         <v>1680</v>
@@ -29609,7 +29748,7 @@
         <v>160</v>
       </c>
       <c r="H136" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K136">
         <v>500</v>
@@ -29627,7 +29766,7 @@
         <v>4</v>
       </c>
       <c r="T136" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U136">
         <v>4</v>
@@ -29636,34 +29775,37 @@
         <v>213</v>
       </c>
       <c r="X136" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="Z136" t="s">
         <v>168</v>
       </c>
+      <c r="AB136">
+        <v>7</v>
+      </c>
       <c r="AC136" t="s">
         <v>160</v>
       </c>
       <c r="AD136" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE136" t="s">
         <v>160</v>
       </c>
       <c r="AF136" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AG136">
         <v>1440</v>
       </c>
       <c r="AH136" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI136">
         <v>0.7</v>
       </c>
       <c r="AJ136" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK136">
         <v>0.1</v>
@@ -29678,15 +29820,15 @@
         <v>217</v>
       </c>
       <c r="AO136" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP136" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="137" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B137" t="s">
         <v>1680</v>
@@ -29707,7 +29849,7 @@
         <v>160</v>
       </c>
       <c r="H137" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K137">
         <v>500</v>
@@ -29725,7 +29867,7 @@
         <v>4</v>
       </c>
       <c r="T137" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U137">
         <v>4</v>
@@ -29734,11 +29876,14 @@
         <v>213</v>
       </c>
       <c r="X137" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="Z137" t="s">
         <v>168</v>
       </c>
+      <c r="AB137">
+        <v>7</v>
+      </c>
       <c r="AC137" t="s">
         <v>1694</v>
       </c>
@@ -29755,7 +29900,7 @@
         <v>0</v>
       </c>
       <c r="AJ137" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK137">
         <v>0</v>
@@ -29770,15 +29915,15 @@
         <v>217</v>
       </c>
       <c r="AO137" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP137" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B138" t="s">
         <v>1680</v>
@@ -29799,7 +29944,7 @@
         <v>160</v>
       </c>
       <c r="H138" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K138">
         <v>500</v>
@@ -29817,7 +29962,7 @@
         <v>4</v>
       </c>
       <c r="T138" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U138">
         <v>4</v>
@@ -29826,11 +29971,14 @@
         <v>213</v>
       </c>
       <c r="X138" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="Z138" t="s">
         <v>168</v>
       </c>
+      <c r="AB138">
+        <v>7</v>
+      </c>
       <c r="AC138" t="s">
         <v>1694</v>
       </c>
@@ -29838,7 +29986,7 @@
         <v>160</v>
       </c>
       <c r="AF138" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AG138">
         <v>90</v>
@@ -29850,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="AJ138" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK138">
         <v>0</v>
@@ -29865,15 +30013,15 @@
         <v>217</v>
       </c>
       <c r="AO138" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP138" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="139" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B139" t="s">
         <v>1680</v>
@@ -29894,7 +30042,7 @@
         <v>160</v>
       </c>
       <c r="H139" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K139">
         <v>500</v>
@@ -29912,7 +30060,7 @@
         <v>4</v>
       </c>
       <c r="T139" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U139">
         <v>4</v>
@@ -29921,16 +30069,19 @@
         <v>213</v>
       </c>
       <c r="X139" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="Z139" t="s">
         <v>168</v>
       </c>
+      <c r="AB139">
+        <v>7</v>
+      </c>
       <c r="AC139" t="s">
         <v>160</v>
       </c>
       <c r="AD139" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE139" t="s">
         <v>160</v>
@@ -29948,7 +30099,7 @@
         <v>105.6</v>
       </c>
       <c r="AJ139" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK139">
         <v>0.2</v>
@@ -29963,15 +30114,15 @@
         <v>217</v>
       </c>
       <c r="AO139" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP139" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="140" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B140" t="s">
         <v>1680</v>
@@ -29992,7 +30143,7 @@
         <v>160</v>
       </c>
       <c r="H140" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K140">
         <v>500</v>
@@ -30010,7 +30161,7 @@
         <v>4</v>
       </c>
       <c r="T140" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U140">
         <v>4</v>
@@ -30019,22 +30170,25 @@
         <v>213</v>
       </c>
       <c r="X140" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="Z140" t="s">
         <v>168</v>
       </c>
+      <c r="AB140">
+        <v>7</v>
+      </c>
       <c r="AC140" t="s">
         <v>160</v>
       </c>
       <c r="AD140" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE140" t="s">
         <v>160</v>
       </c>
       <c r="AF140" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AG140">
         <v>1440</v>
@@ -30046,7 +30200,7 @@
         <v>97.1</v>
       </c>
       <c r="AJ140" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK140">
         <v>0.6</v>
@@ -30061,15 +30215,15 @@
         <v>217</v>
       </c>
       <c r="AO140" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP140" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="141" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B141" t="s">
         <v>1680</v>
@@ -30090,7 +30244,7 @@
         <v>160</v>
       </c>
       <c r="H141" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K141">
         <v>500</v>
@@ -30108,7 +30262,7 @@
         <v>4</v>
       </c>
       <c r="T141" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U141">
         <v>4</v>
@@ -30117,11 +30271,14 @@
         <v>213</v>
       </c>
       <c r="X141" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="Z141" t="s">
         <v>168</v>
       </c>
+      <c r="AB141">
+        <v>7</v>
+      </c>
       <c r="AC141" t="s">
         <v>1694</v>
       </c>
@@ -30138,7 +30295,7 @@
         <v>20.9</v>
       </c>
       <c r="AJ141" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK141">
         <v>0.6</v>
@@ -30153,15 +30310,15 @@
         <v>217</v>
       </c>
       <c r="AO141" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP141" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B142" t="s">
         <v>1680</v>
@@ -30182,7 +30339,7 @@
         <v>160</v>
       </c>
       <c r="H142" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K142">
         <v>500</v>
@@ -30200,7 +30357,7 @@
         <v>4</v>
       </c>
       <c r="T142" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U142">
         <v>4</v>
@@ -30209,11 +30366,14 @@
         <v>213</v>
       </c>
       <c r="X142" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="Z142" t="s">
         <v>168</v>
       </c>
+      <c r="AB142">
+        <v>7</v>
+      </c>
       <c r="AC142" t="s">
         <v>1694</v>
       </c>
@@ -30221,7 +30381,7 @@
         <v>160</v>
       </c>
       <c r="AF142" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AG142">
         <v>90</v>
@@ -30233,7 +30393,7 @@
         <v>0</v>
       </c>
       <c r="AJ142" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK142">
         <v>0</v>
@@ -30248,15 +30408,15 @@
         <v>217</v>
       </c>
       <c r="AO142" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP142" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="143" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B143" t="s">
         <v>1680</v>
@@ -30277,7 +30437,7 @@
         <v>160</v>
       </c>
       <c r="H143" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K143">
         <v>500</v>
@@ -30295,7 +30455,7 @@
         <v>4</v>
       </c>
       <c r="T143" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U143">
         <v>4</v>
@@ -30304,16 +30464,19 @@
         <v>213</v>
       </c>
       <c r="X143" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="Z143" t="s">
         <v>168</v>
       </c>
+      <c r="AB143">
+        <v>7</v>
+      </c>
       <c r="AC143" t="s">
         <v>160</v>
       </c>
       <c r="AD143" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE143" t="s">
         <v>160</v>
@@ -30331,7 +30494,7 @@
         <v>78.8</v>
       </c>
       <c r="AJ143" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK143">
         <v>6</v>
@@ -30346,15 +30509,15 @@
         <v>217</v>
       </c>
       <c r="AO143" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP143" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="144" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B144" t="s">
         <v>1680</v>
@@ -30375,7 +30538,7 @@
         <v>160</v>
       </c>
       <c r="H144" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K144">
         <v>500</v>
@@ -30393,7 +30556,7 @@
         <v>4</v>
       </c>
       <c r="T144" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U144">
         <v>4</v>
@@ -30402,22 +30565,25 @@
         <v>213</v>
       </c>
       <c r="X144" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="Z144" t="s">
         <v>168</v>
       </c>
+      <c r="AB144">
+        <v>7</v>
+      </c>
       <c r="AC144" t="s">
         <v>160</v>
       </c>
       <c r="AD144" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE144" t="s">
         <v>160</v>
       </c>
       <c r="AF144" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AG144">
         <v>1440</v>
@@ -30429,7 +30595,7 @@
         <v>92.2</v>
       </c>
       <c r="AJ144" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK144">
         <v>7.9</v>
@@ -30444,18 +30610,18 @@
         <v>217</v>
       </c>
       <c r="AO144" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AP144" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="145" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B145" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C145" t="s">
         <v>459</v>
@@ -30473,7 +30639,7 @@
         <v>160</v>
       </c>
       <c r="H145" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K145">
         <v>500</v>
@@ -30491,7 +30657,7 @@
         <v>4</v>
       </c>
       <c r="T145" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U145">
         <v>4</v>
@@ -30500,11 +30666,14 @@
         <v>213</v>
       </c>
       <c r="X145" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z145" t="s">
         <v>168</v>
       </c>
+      <c r="AB145">
+        <v>7</v>
+      </c>
       <c r="AC145" t="s">
         <v>1694</v>
       </c>
@@ -30521,7 +30690,7 @@
         <v>36.6</v>
       </c>
       <c r="AJ145" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK145">
         <v>9.6</v>
@@ -30536,18 +30705,18 @@
         <v>217</v>
       </c>
       <c r="AO145" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP145" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="146" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B146" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C146" t="s">
         <v>459</v>
@@ -30565,7 +30734,7 @@
         <v>160</v>
       </c>
       <c r="H146" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K146">
         <v>500</v>
@@ -30583,7 +30752,7 @@
         <v>4</v>
       </c>
       <c r="T146" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U146">
         <v>4</v>
@@ -30592,11 +30761,14 @@
         <v>213</v>
       </c>
       <c r="X146" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z146" t="s">
         <v>168</v>
       </c>
+      <c r="AB146">
+        <v>7</v>
+      </c>
       <c r="AC146" t="s">
         <v>1694</v>
       </c>
@@ -30604,7 +30776,7 @@
         <v>160</v>
       </c>
       <c r="AF146" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AG146">
         <v>90</v>
@@ -30616,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="AJ146" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK146">
         <v>0</v>
@@ -30631,18 +30803,18 @@
         <v>217</v>
       </c>
       <c r="AO146" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP146" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="147" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B147" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C147" t="s">
         <v>459</v>
@@ -30660,7 +30832,7 @@
         <v>160</v>
       </c>
       <c r="H147" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K147">
         <v>500</v>
@@ -30678,7 +30850,7 @@
         <v>4</v>
       </c>
       <c r="T147" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U147">
         <v>4</v>
@@ -30687,16 +30859,19 @@
         <v>213</v>
       </c>
       <c r="X147" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z147" t="s">
         <v>168</v>
       </c>
+      <c r="AB147">
+        <v>7</v>
+      </c>
       <c r="AC147" t="s">
         <v>160</v>
       </c>
       <c r="AD147" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE147" t="s">
         <v>160</v>
@@ -30714,7 +30889,7 @@
         <v>23.5</v>
       </c>
       <c r="AJ147" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK147">
         <v>3.4</v>
@@ -30729,18 +30904,18 @@
         <v>217</v>
       </c>
       <c r="AO147" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP147" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="148" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B148" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C148" t="s">
         <v>459</v>
@@ -30758,7 +30933,7 @@
         <v>160</v>
       </c>
       <c r="H148" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K148">
         <v>500</v>
@@ -30776,7 +30951,7 @@
         <v>4</v>
       </c>
       <c r="T148" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U148">
         <v>4</v>
@@ -30785,22 +30960,25 @@
         <v>213</v>
       </c>
       <c r="X148" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z148" t="s">
         <v>168</v>
       </c>
+      <c r="AB148">
+        <v>7</v>
+      </c>
       <c r="AC148" t="s">
         <v>160</v>
       </c>
       <c r="AD148" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE148" t="s">
         <v>160</v>
       </c>
       <c r="AF148" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AG148">
         <v>1440</v>
@@ -30812,7 +30990,7 @@
         <v>25.5</v>
       </c>
       <c r="AJ148" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK148">
         <v>4.0999999999999996</v>
@@ -30827,18 +31005,18 @@
         <v>217</v>
       </c>
       <c r="AO148" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP148" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="149" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B149" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C149" t="s">
         <v>459</v>
@@ -30856,7 +31034,7 @@
         <v>160</v>
       </c>
       <c r="H149" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K149">
         <v>1500</v>
@@ -30874,7 +31052,7 @@
         <v>4</v>
       </c>
       <c r="T149" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U149">
         <v>4</v>
@@ -30883,11 +31061,14 @@
         <v>213</v>
       </c>
       <c r="X149" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z149" t="s">
         <v>168</v>
       </c>
+      <c r="AB149">
+        <v>7</v>
+      </c>
       <c r="AC149" t="s">
         <v>1694</v>
       </c>
@@ -30904,7 +31085,7 @@
         <v>36.5</v>
       </c>
       <c r="AJ149" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK149">
         <v>5.6</v>
@@ -30919,18 +31100,18 @@
         <v>217</v>
       </c>
       <c r="AO149" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP149" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B150" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C150" t="s">
         <v>459</v>
@@ -30948,7 +31129,7 @@
         <v>160</v>
       </c>
       <c r="H150" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K150">
         <v>1500</v>
@@ -30966,7 +31147,7 @@
         <v>4</v>
       </c>
       <c r="T150" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U150">
         <v>4</v>
@@ -30975,11 +31156,14 @@
         <v>213</v>
       </c>
       <c r="X150" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z150" t="s">
         <v>168</v>
       </c>
+      <c r="AB150">
+        <v>7</v>
+      </c>
       <c r="AC150" t="s">
         <v>1694</v>
       </c>
@@ -30987,7 +31171,7 @@
         <v>160</v>
       </c>
       <c r="AF150" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AG150">
         <v>90</v>
@@ -30999,7 +31183,7 @@
         <v>0</v>
       </c>
       <c r="AJ150" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK150">
         <v>0</v>
@@ -31014,18 +31198,18 @@
         <v>217</v>
       </c>
       <c r="AO150" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP150" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B151" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C151" t="s">
         <v>459</v>
@@ -31043,7 +31227,7 @@
         <v>160</v>
       </c>
       <c r="H151" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K151">
         <v>1500</v>
@@ -31061,7 +31245,7 @@
         <v>4</v>
       </c>
       <c r="T151" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U151">
         <v>4</v>
@@ -31070,16 +31254,19 @@
         <v>213</v>
       </c>
       <c r="X151" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z151" t="s">
         <v>168</v>
       </c>
+      <c r="AB151">
+        <v>7</v>
+      </c>
       <c r="AC151" t="s">
         <v>160</v>
       </c>
       <c r="AD151" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE151" t="s">
         <v>160</v>
@@ -31097,7 +31284,7 @@
         <v>86.9</v>
       </c>
       <c r="AJ151" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK151">
         <v>3</v>
@@ -31112,18 +31299,18 @@
         <v>217</v>
       </c>
       <c r="AO151" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP151" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="152" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B152" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C152" t="s">
         <v>459</v>
@@ -31141,7 +31328,7 @@
         <v>160</v>
       </c>
       <c r="H152" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K152">
         <v>1500</v>
@@ -31159,7 +31346,7 @@
         <v>4</v>
       </c>
       <c r="T152" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U152">
         <v>4</v>
@@ -31168,22 +31355,25 @@
         <v>213</v>
       </c>
       <c r="X152" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z152" t="s">
         <v>168</v>
       </c>
+      <c r="AB152">
+        <v>7</v>
+      </c>
       <c r="AC152" t="s">
         <v>160</v>
       </c>
       <c r="AD152" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE152" t="s">
         <v>160</v>
       </c>
       <c r="AF152" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AG152">
         <v>1440</v>
@@ -31195,7 +31385,7 @@
         <v>61.2</v>
       </c>
       <c r="AJ152" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK152">
         <v>4.0999999999999996</v>
@@ -31210,18 +31400,18 @@
         <v>217</v>
       </c>
       <c r="AO152" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP152" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="153" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B153" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C153" t="s">
         <v>459</v>
@@ -31239,7 +31429,7 @@
         <v>160</v>
       </c>
       <c r="H153" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K153">
         <v>500</v>
@@ -31257,7 +31447,7 @@
         <v>4</v>
       </c>
       <c r="T153" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U153">
         <v>4</v>
@@ -31266,11 +31456,14 @@
         <v>213</v>
       </c>
       <c r="X153" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z153" t="s">
         <v>168</v>
       </c>
+      <c r="AB153">
+        <v>7</v>
+      </c>
       <c r="AC153" t="s">
         <v>1694</v>
       </c>
@@ -31281,13 +31474,13 @@
         <v>168</v>
       </c>
       <c r="AH153" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI153">
         <v>7.4</v>
       </c>
       <c r="AJ153" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK153">
         <v>0.1</v>
@@ -31302,18 +31495,18 @@
         <v>217</v>
       </c>
       <c r="AO153" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP153" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="154" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B154" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C154" t="s">
         <v>459</v>
@@ -31331,7 +31524,7 @@
         <v>160</v>
       </c>
       <c r="H154" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K154">
         <v>500</v>
@@ -31349,7 +31542,7 @@
         <v>4</v>
       </c>
       <c r="T154" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U154">
         <v>4</v>
@@ -31358,11 +31551,14 @@
         <v>213</v>
       </c>
       <c r="X154" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z154" t="s">
         <v>168</v>
       </c>
+      <c r="AB154">
+        <v>7</v>
+      </c>
       <c r="AC154" t="s">
         <v>1694</v>
       </c>
@@ -31370,19 +31566,19 @@
         <v>160</v>
       </c>
       <c r="AF154" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AG154">
         <v>90</v>
       </c>
       <c r="AH154" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI154">
         <v>0</v>
       </c>
       <c r="AJ154" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK154">
         <v>0</v>
@@ -31397,18 +31593,18 @@
         <v>217</v>
       </c>
       <c r="AO154" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP154" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="155" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B155" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C155" t="s">
         <v>459</v>
@@ -31426,7 +31622,7 @@
         <v>160</v>
       </c>
       <c r="H155" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K155">
         <v>500</v>
@@ -31444,7 +31640,7 @@
         <v>4</v>
       </c>
       <c r="T155" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U155">
         <v>4</v>
@@ -31453,16 +31649,19 @@
         <v>213</v>
       </c>
       <c r="X155" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z155" t="s">
         <v>168</v>
       </c>
+      <c r="AB155">
+        <v>7</v>
+      </c>
       <c r="AC155" t="s">
         <v>160</v>
       </c>
       <c r="AD155" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE155" t="s">
         <v>160</v>
@@ -31474,13 +31673,13 @@
         <v>1440</v>
       </c>
       <c r="AH155" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI155">
         <v>3.6</v>
       </c>
       <c r="AJ155" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK155">
         <v>0.8</v>
@@ -31495,18 +31694,18 @@
         <v>217</v>
       </c>
       <c r="AO155" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP155" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="156" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B156" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C156" t="s">
         <v>459</v>
@@ -31524,7 +31723,7 @@
         <v>160</v>
       </c>
       <c r="H156" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K156">
         <v>500</v>
@@ -31542,7 +31741,7 @@
         <v>4</v>
       </c>
       <c r="T156" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U156">
         <v>4</v>
@@ -31551,34 +31750,37 @@
         <v>213</v>
       </c>
       <c r="X156" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z156" t="s">
         <v>168</v>
       </c>
+      <c r="AB156">
+        <v>7</v>
+      </c>
       <c r="AC156" t="s">
         <v>160</v>
       </c>
       <c r="AD156" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE156" t="s">
         <v>160</v>
       </c>
       <c r="AF156" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AG156">
         <v>1440</v>
       </c>
       <c r="AH156" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI156">
         <v>0.6</v>
       </c>
       <c r="AJ156" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK156">
         <v>0.1</v>
@@ -31593,18 +31795,18 @@
         <v>217</v>
       </c>
       <c r="AO156" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP156" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B157" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C157" t="s">
         <v>459</v>
@@ -31622,7 +31824,7 @@
         <v>160</v>
       </c>
       <c r="H157" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K157">
         <v>1500</v>
@@ -31640,7 +31842,7 @@
         <v>4</v>
       </c>
       <c r="T157" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U157">
         <v>4</v>
@@ -31649,11 +31851,14 @@
         <v>213</v>
       </c>
       <c r="X157" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z157" t="s">
         <v>168</v>
       </c>
+      <c r="AB157">
+        <v>7</v>
+      </c>
       <c r="AC157" t="s">
         <v>1694</v>
       </c>
@@ -31664,13 +31869,13 @@
         <v>168</v>
       </c>
       <c r="AH157" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI157">
         <v>0.3</v>
       </c>
       <c r="AJ157" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK157">
         <v>0.01</v>
@@ -31685,18 +31890,18 @@
         <v>217</v>
       </c>
       <c r="AO157" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP157" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="158" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B158" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C158" t="s">
         <v>459</v>
@@ -31714,7 +31919,7 @@
         <v>160</v>
       </c>
       <c r="H158" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K158">
         <v>1500</v>
@@ -31732,7 +31937,7 @@
         <v>4</v>
       </c>
       <c r="T158" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U158">
         <v>4</v>
@@ -31741,11 +31946,14 @@
         <v>213</v>
       </c>
       <c r="X158" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z158" t="s">
         <v>168</v>
       </c>
+      <c r="AB158">
+        <v>7</v>
+      </c>
       <c r="AC158" t="s">
         <v>1694</v>
       </c>
@@ -31753,19 +31961,19 @@
         <v>160</v>
       </c>
       <c r="AF158" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AG158">
         <v>90</v>
       </c>
       <c r="AH158" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI158">
         <v>0</v>
       </c>
       <c r="AJ158" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK158">
         <v>0</v>
@@ -31780,18 +31988,18 @@
         <v>217</v>
       </c>
       <c r="AO158" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP158" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B159" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C159" t="s">
         <v>459</v>
@@ -31809,7 +32017,7 @@
         <v>160</v>
       </c>
       <c r="H159" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K159">
         <v>1500</v>
@@ -31827,7 +32035,7 @@
         <v>4</v>
       </c>
       <c r="T159" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U159">
         <v>4</v>
@@ -31836,16 +32044,19 @@
         <v>213</v>
       </c>
       <c r="X159" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z159" t="s">
         <v>168</v>
       </c>
+      <c r="AB159">
+        <v>7</v>
+      </c>
       <c r="AC159" t="s">
         <v>160</v>
       </c>
       <c r="AD159" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE159" t="s">
         <v>160</v>
@@ -31857,13 +32068,13 @@
         <v>1440</v>
       </c>
       <c r="AH159" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI159">
         <v>1.6</v>
       </c>
       <c r="AJ159" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK159">
         <v>0.01</v>
@@ -31878,18 +32089,18 @@
         <v>217</v>
       </c>
       <c r="AO159" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP159" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="160" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B160" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C160" t="s">
         <v>459</v>
@@ -31907,7 +32118,7 @@
         <v>160</v>
       </c>
       <c r="H160" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K160">
         <v>1500</v>
@@ -31925,7 +32136,7 @@
         <v>4</v>
       </c>
       <c r="T160" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U160">
         <v>4</v>
@@ -31934,34 +32145,37 @@
         <v>213</v>
       </c>
       <c r="X160" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z160" t="s">
         <v>168</v>
       </c>
+      <c r="AB160">
+        <v>7</v>
+      </c>
       <c r="AC160" t="s">
         <v>160</v>
       </c>
       <c r="AD160" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE160" t="s">
         <v>160</v>
       </c>
       <c r="AF160" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AG160">
         <v>1440</v>
       </c>
       <c r="AH160" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AI160">
         <v>0.9</v>
       </c>
       <c r="AJ160" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK160">
         <v>0.1</v>
@@ -31976,18 +32190,18 @@
         <v>217</v>
       </c>
       <c r="AO160" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP160" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="161" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B161" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C161" t="s">
         <v>459</v>
@@ -32005,7 +32219,7 @@
         <v>160</v>
       </c>
       <c r="H161" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K161">
         <v>500</v>
@@ -32023,7 +32237,7 @@
         <v>4</v>
       </c>
       <c r="T161" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U161">
         <v>4</v>
@@ -32032,11 +32246,14 @@
         <v>213</v>
       </c>
       <c r="X161" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z161" t="s">
         <v>168</v>
       </c>
+      <c r="AB161">
+        <v>7</v>
+      </c>
       <c r="AC161" t="s">
         <v>1694</v>
       </c>
@@ -32053,7 +32270,7 @@
         <v>20.9</v>
       </c>
       <c r="AJ161" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK161">
         <v>4.2</v>
@@ -32068,18 +32285,18 @@
         <v>217</v>
       </c>
       <c r="AO161" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP161" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="162" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B162" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C162" t="s">
         <v>459</v>
@@ -32097,7 +32314,7 @@
         <v>160</v>
       </c>
       <c r="H162" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K162">
         <v>500</v>
@@ -32115,7 +32332,7 @@
         <v>4</v>
       </c>
       <c r="T162" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U162">
         <v>4</v>
@@ -32124,11 +32341,14 @@
         <v>213</v>
       </c>
       <c r="X162" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z162" t="s">
         <v>168</v>
       </c>
+      <c r="AB162">
+        <v>7</v>
+      </c>
       <c r="AC162" t="s">
         <v>1694</v>
       </c>
@@ -32136,7 +32356,7 @@
         <v>160</v>
       </c>
       <c r="AF162" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AG162">
         <v>90</v>
@@ -32148,7 +32368,7 @@
         <v>0</v>
       </c>
       <c r="AJ162" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK162">
         <v>0</v>
@@ -32163,18 +32383,18 @@
         <v>217</v>
       </c>
       <c r="AO162" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP162" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="163" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B163" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C163" t="s">
         <v>459</v>
@@ -32192,7 +32412,7 @@
         <v>160</v>
       </c>
       <c r="H163" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K163">
         <v>500</v>
@@ -32210,7 +32430,7 @@
         <v>4</v>
       </c>
       <c r="T163" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U163">
         <v>4</v>
@@ -32219,16 +32439,19 @@
         <v>213</v>
       </c>
       <c r="X163" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z163" t="s">
         <v>168</v>
       </c>
+      <c r="AB163">
+        <v>7</v>
+      </c>
       <c r="AC163" t="s">
         <v>160</v>
       </c>
       <c r="AD163" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE163" t="s">
         <v>160</v>
@@ -32246,7 +32469,7 @@
         <v>78.8</v>
       </c>
       <c r="AJ163" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK163">
         <v>6.1</v>
@@ -32261,18 +32484,18 @@
         <v>217</v>
       </c>
       <c r="AO163" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP163" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="164" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B164" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C164" t="s">
         <v>459</v>
@@ -32290,7 +32513,7 @@
         <v>160</v>
       </c>
       <c r="H164" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K164">
         <v>500</v>
@@ -32308,7 +32531,7 @@
         <v>4</v>
       </c>
       <c r="T164" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U164">
         <v>4</v>
@@ -32317,22 +32540,25 @@
         <v>213</v>
       </c>
       <c r="X164" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z164" t="s">
         <v>168</v>
       </c>
+      <c r="AB164">
+        <v>7</v>
+      </c>
       <c r="AC164" t="s">
         <v>160</v>
       </c>
       <c r="AD164" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE164" t="s">
         <v>160</v>
       </c>
       <c r="AF164" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AG164">
         <v>1440</v>
@@ -32344,7 +32570,7 @@
         <v>92.2</v>
       </c>
       <c r="AJ164" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK164">
         <v>7.9</v>
@@ -32359,18 +32585,18 @@
         <v>217</v>
       </c>
       <c r="AO164" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP164" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="165" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B165" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C165" t="s">
         <v>459</v>
@@ -32388,7 +32614,7 @@
         <v>160</v>
       </c>
       <c r="H165" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K165">
         <v>1500</v>
@@ -32406,7 +32632,7 @@
         <v>4</v>
       </c>
       <c r="T165" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U165">
         <v>4</v>
@@ -32415,11 +32641,14 @@
         <v>213</v>
       </c>
       <c r="X165" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z165" t="s">
         <v>168</v>
       </c>
+      <c r="AB165">
+        <v>7</v>
+      </c>
       <c r="AC165" t="s">
         <v>1694</v>
       </c>
@@ -32436,7 +32665,7 @@
         <v>110.3</v>
       </c>
       <c r="AJ165" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK165">
         <v>0.6</v>
@@ -32451,18 +32680,18 @@
         <v>217</v>
       </c>
       <c r="AO165" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP165" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="166" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B166" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C166" t="s">
         <v>459</v>
@@ -32480,7 +32709,7 @@
         <v>160</v>
       </c>
       <c r="H166" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K166">
         <v>1500</v>
@@ -32498,7 +32727,7 @@
         <v>4</v>
       </c>
       <c r="T166" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U166">
         <v>4</v>
@@ -32507,11 +32736,14 @@
         <v>213</v>
       </c>
       <c r="X166" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z166" t="s">
         <v>168</v>
       </c>
+      <c r="AB166">
+        <v>7</v>
+      </c>
       <c r="AC166" t="s">
         <v>1694</v>
       </c>
@@ -32519,7 +32751,7 @@
         <v>160</v>
       </c>
       <c r="AF166" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AG166">
         <v>90</v>
@@ -32531,7 +32763,7 @@
         <v>0</v>
       </c>
       <c r="AJ166" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK166">
         <v>0</v>
@@ -32546,18 +32778,18 @@
         <v>217</v>
       </c>
       <c r="AO166" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP166" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B167" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C167" t="s">
         <v>459</v>
@@ -32575,7 +32807,7 @@
         <v>160</v>
       </c>
       <c r="H167" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K167">
         <v>1500</v>
@@ -32593,7 +32825,7 @@
         <v>4</v>
       </c>
       <c r="T167" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U167">
         <v>4</v>
@@ -32602,16 +32834,19 @@
         <v>213</v>
       </c>
       <c r="X167" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z167" t="s">
         <v>168</v>
       </c>
+      <c r="AB167">
+        <v>7</v>
+      </c>
       <c r="AC167" t="s">
         <v>160</v>
       </c>
       <c r="AD167" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE167" t="s">
         <v>160</v>
@@ -32629,7 +32864,7 @@
         <v>97.1</v>
       </c>
       <c r="AJ167" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK167">
         <v>2.2999999999999998</v>
@@ -32644,18 +32879,18 @@
         <v>217</v>
       </c>
       <c r="AO167" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP167" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="168" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="B168" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C168" t="s">
         <v>459</v>
@@ -32673,7 +32908,7 @@
         <v>160</v>
       </c>
       <c r="H168" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="K168">
         <v>1500</v>
@@ -32691,7 +32926,7 @@
         <v>4</v>
       </c>
       <c r="T168" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="U168">
         <v>4</v>
@@ -32700,22 +32935,25 @@
         <v>213</v>
       </c>
       <c r="X168" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="Z168" t="s">
         <v>168</v>
       </c>
+      <c r="AB168">
+        <v>7</v>
+      </c>
       <c r="AC168" t="s">
         <v>160</v>
       </c>
       <c r="AD168" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AE168" t="s">
         <v>160</v>
       </c>
       <c r="AF168" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AG168">
         <v>1440</v>
@@ -32727,7 +32965,7 @@
         <v>108.9</v>
       </c>
       <c r="AJ168" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AK168">
         <v>0.8</v>
@@ -32742,10 +32980,1079 @@
         <v>217</v>
       </c>
       <c r="AO168" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AP168" t="s">
-        <v>1734</v>
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="169" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C169" t="s">
+        <v>459</v>
+      </c>
+      <c r="D169" t="s">
+        <v>791</v>
+      </c>
+      <c r="E169" t="s">
+        <v>792</v>
+      </c>
+      <c r="F169" t="s">
+        <v>168</v>
+      </c>
+      <c r="G169" t="s">
+        <v>160</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I169">
+        <v>24.105556</v>
+      </c>
+      <c r="J169">
+        <v>-121.186944</v>
+      </c>
+      <c r="K169">
+        <v>2400</v>
+      </c>
+      <c r="L169" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N169">
+        <v>2011</v>
+      </c>
+      <c r="O169">
+        <v>2011</v>
+      </c>
+      <c r="P169" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q169">
+        <v>7</v>
+      </c>
+      <c r="S169">
+        <v>5</v>
+      </c>
+      <c r="T169" t="s">
+        <v>1738</v>
+      </c>
+      <c r="U169" t="s">
+        <v>168</v>
+      </c>
+      <c r="V169" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB169">
+        <v>36</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE169" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH169" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI169">
+        <v>45.277999999999999</v>
+      </c>
+      <c r="AJ169" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK169">
+        <v>4.2820000000000036</v>
+      </c>
+      <c r="AL169">
+        <v>3</v>
+      </c>
+      <c r="AM169">
+        <v>50</v>
+      </c>
+      <c r="AN169">
+        <v>252</v>
+      </c>
+      <c r="AO169" t="s">
+        <v>1745</v>
+      </c>
+      <c r="AP169" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="170" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C170" t="s">
+        <v>459</v>
+      </c>
+      <c r="D170" t="s">
+        <v>791</v>
+      </c>
+      <c r="E170" t="s">
+        <v>792</v>
+      </c>
+      <c r="F170" t="s">
+        <v>168</v>
+      </c>
+      <c r="G170" t="s">
+        <v>160</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I170">
+        <v>24.105556</v>
+      </c>
+      <c r="J170">
+        <v>-121.186944</v>
+      </c>
+      <c r="K170">
+        <v>2400</v>
+      </c>
+      <c r="L170" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N170">
+        <v>2011</v>
+      </c>
+      <c r="O170">
+        <v>2011</v>
+      </c>
+      <c r="P170" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q170">
+        <v>7</v>
+      </c>
+      <c r="S170">
+        <v>5</v>
+      </c>
+      <c r="T170" t="s">
+        <v>1738</v>
+      </c>
+      <c r="U170" t="s">
+        <v>168</v>
+      </c>
+      <c r="V170" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>1740</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB170">
+        <v>36</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE170" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH170" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI170">
+        <v>74.19</v>
+      </c>
+      <c r="AJ170" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK170">
+        <v>3.3329999999999984</v>
+      </c>
+      <c r="AL170">
+        <v>3</v>
+      </c>
+      <c r="AM170">
+        <v>50</v>
+      </c>
+      <c r="AN170">
+        <v>252</v>
+      </c>
+      <c r="AO170" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="171" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C171" t="s">
+        <v>459</v>
+      </c>
+      <c r="D171" t="s">
+        <v>791</v>
+      </c>
+      <c r="E171" t="s">
+        <v>792</v>
+      </c>
+      <c r="F171" t="s">
+        <v>168</v>
+      </c>
+      <c r="G171" t="s">
+        <v>160</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I171">
+        <v>24.105556</v>
+      </c>
+      <c r="J171">
+        <v>-121.186944</v>
+      </c>
+      <c r="K171">
+        <v>2400</v>
+      </c>
+      <c r="L171" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N171">
+        <v>2011</v>
+      </c>
+      <c r="O171">
+        <v>2011</v>
+      </c>
+      <c r="P171" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q171">
+        <v>7</v>
+      </c>
+      <c r="S171">
+        <v>5</v>
+      </c>
+      <c r="T171" t="s">
+        <v>1738</v>
+      </c>
+      <c r="U171" t="s">
+        <v>168</v>
+      </c>
+      <c r="V171" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB171">
+        <v>36</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH171" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI171">
+        <v>62.707999999999998</v>
+      </c>
+      <c r="AJ171" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK171">
+        <v>3.8889999999999958</v>
+      </c>
+      <c r="AL171">
+        <v>3</v>
+      </c>
+      <c r="AM171">
+        <v>50</v>
+      </c>
+      <c r="AN171">
+        <v>252</v>
+      </c>
+      <c r="AO171" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="172" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C172" t="s">
+        <v>459</v>
+      </c>
+      <c r="D172" t="s">
+        <v>791</v>
+      </c>
+      <c r="E172" t="s">
+        <v>792</v>
+      </c>
+      <c r="F172" t="s">
+        <v>168</v>
+      </c>
+      <c r="G172" t="s">
+        <v>160</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I172">
+        <v>24.105556</v>
+      </c>
+      <c r="J172">
+        <v>-121.186944</v>
+      </c>
+      <c r="K172">
+        <v>2400</v>
+      </c>
+      <c r="L172" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N172">
+        <v>2011</v>
+      </c>
+      <c r="O172">
+        <v>2011</v>
+      </c>
+      <c r="P172" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q172">
+        <v>7</v>
+      </c>
+      <c r="S172">
+        <v>5</v>
+      </c>
+      <c r="T172" t="s">
+        <v>1738</v>
+      </c>
+      <c r="U172" t="s">
+        <v>168</v>
+      </c>
+      <c r="V172" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y172" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB172">
+        <v>36</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH172" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI172">
+        <v>60.856000000000002</v>
+      </c>
+      <c r="AJ172" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK172">
+        <v>3.1489999999999938</v>
+      </c>
+      <c r="AL172">
+        <v>3</v>
+      </c>
+      <c r="AM172">
+        <v>50</v>
+      </c>
+      <c r="AN172">
+        <v>252</v>
+      </c>
+      <c r="AO172" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="173" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C173" t="s">
+        <v>459</v>
+      </c>
+      <c r="D173" t="s">
+        <v>791</v>
+      </c>
+      <c r="E173" t="s">
+        <v>792</v>
+      </c>
+      <c r="F173" t="s">
+        <v>168</v>
+      </c>
+      <c r="G173" t="s">
+        <v>160</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I173">
+        <v>24.105556</v>
+      </c>
+      <c r="J173">
+        <v>-121.186944</v>
+      </c>
+      <c r="K173">
+        <v>2400</v>
+      </c>
+      <c r="L173" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N173">
+        <v>2011</v>
+      </c>
+      <c r="O173">
+        <v>2011</v>
+      </c>
+      <c r="P173" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q173">
+        <v>7</v>
+      </c>
+      <c r="S173">
+        <v>5</v>
+      </c>
+      <c r="T173" t="s">
+        <v>1738</v>
+      </c>
+      <c r="U173" t="s">
+        <v>168</v>
+      </c>
+      <c r="V173" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y173" s="7" t="s">
+        <v>1743</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB173">
+        <v>36</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI173">
+        <v>83.634</v>
+      </c>
+      <c r="AJ173" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK173">
+        <v>4.0739999999999981</v>
+      </c>
+      <c r="AL173">
+        <v>3</v>
+      </c>
+      <c r="AM173">
+        <v>50</v>
+      </c>
+      <c r="AN173">
+        <v>252</v>
+      </c>
+      <c r="AO173" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="174" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C174" t="s">
+        <v>459</v>
+      </c>
+      <c r="D174" t="s">
+        <v>791</v>
+      </c>
+      <c r="E174" t="s">
+        <v>792</v>
+      </c>
+      <c r="F174" t="s">
+        <v>168</v>
+      </c>
+      <c r="G174" t="s">
+        <v>160</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I174">
+        <v>24.105556</v>
+      </c>
+      <c r="J174">
+        <v>-121.186944</v>
+      </c>
+      <c r="K174">
+        <v>2400</v>
+      </c>
+      <c r="L174" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N174">
+        <v>2011</v>
+      </c>
+      <c r="O174">
+        <v>2011</v>
+      </c>
+      <c r="P174" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q174">
+        <v>7</v>
+      </c>
+      <c r="S174">
+        <v>5</v>
+      </c>
+      <c r="T174" t="s">
+        <v>1738</v>
+      </c>
+      <c r="U174" t="s">
+        <v>168</v>
+      </c>
+      <c r="V174" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y174">
+        <v>25</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB174">
+        <v>36</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH174" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI174">
+        <v>17.152999999999999</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK174">
+        <v>1.6660000000000004</v>
+      </c>
+      <c r="AL174">
+        <v>3</v>
+      </c>
+      <c r="AM174">
+        <v>50</v>
+      </c>
+      <c r="AN174">
+        <v>252</v>
+      </c>
+      <c r="AO174" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="175" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C175" t="s">
+        <v>459</v>
+      </c>
+      <c r="D175" t="s">
+        <v>791</v>
+      </c>
+      <c r="E175" t="s">
+        <v>792</v>
+      </c>
+      <c r="F175" t="s">
+        <v>168</v>
+      </c>
+      <c r="G175" t="s">
+        <v>160</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I175">
+        <v>24.105556</v>
+      </c>
+      <c r="J175">
+        <v>-121.186944</v>
+      </c>
+      <c r="K175">
+        <v>2400</v>
+      </c>
+      <c r="L175" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N175">
+        <v>2011</v>
+      </c>
+      <c r="O175">
+        <v>2011</v>
+      </c>
+      <c r="P175" t="s">
+        <v>168</v>
+      </c>
+      <c r="T175" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U175">
+        <v>5</v>
+      </c>
+      <c r="V175">
+        <v>0</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB175">
+        <v>12</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH175" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI175">
+        <v>30.222999999999999</v>
+      </c>
+      <c r="AJ175" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK175">
+        <v>3.6210000000000022</v>
+      </c>
+      <c r="AM175">
+        <v>300</v>
+      </c>
+      <c r="AN175">
+        <v>84</v>
+      </c>
+      <c r="AO175" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="176" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C176" t="s">
+        <v>459</v>
+      </c>
+      <c r="D176" t="s">
+        <v>791</v>
+      </c>
+      <c r="E176" t="s">
+        <v>792</v>
+      </c>
+      <c r="F176" t="s">
+        <v>168</v>
+      </c>
+      <c r="G176" t="s">
+        <v>160</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I176">
+        <v>24.105556</v>
+      </c>
+      <c r="J176">
+        <v>-121.186944</v>
+      </c>
+      <c r="K176">
+        <v>2400</v>
+      </c>
+      <c r="L176" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N176">
+        <v>2011</v>
+      </c>
+      <c r="O176">
+        <v>2011</v>
+      </c>
+      <c r="P176" t="s">
+        <v>168</v>
+      </c>
+      <c r="T176" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U176">
+        <v>5</v>
+      </c>
+      <c r="V176">
+        <v>4</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB176">
+        <v>12</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH176" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI176">
+        <v>74.861000000000004</v>
+      </c>
+      <c r="AJ176" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK176">
+        <v>3.5279999999999916</v>
+      </c>
+      <c r="AM176">
+        <v>300</v>
+      </c>
+      <c r="AN176">
+        <v>84</v>
+      </c>
+      <c r="AO176" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="177" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C177" t="s">
+        <v>459</v>
+      </c>
+      <c r="D177" t="s">
+        <v>791</v>
+      </c>
+      <c r="E177" t="s">
+        <v>792</v>
+      </c>
+      <c r="F177" t="s">
+        <v>168</v>
+      </c>
+      <c r="G177" t="s">
+        <v>160</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I177">
+        <v>24.105556</v>
+      </c>
+      <c r="J177">
+        <v>-121.186944</v>
+      </c>
+      <c r="K177">
+        <v>2400</v>
+      </c>
+      <c r="L177" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N177">
+        <v>2011</v>
+      </c>
+      <c r="O177">
+        <v>2011</v>
+      </c>
+      <c r="P177" t="s">
+        <v>168</v>
+      </c>
+      <c r="T177" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U177">
+        <v>5</v>
+      </c>
+      <c r="V177">
+        <v>8</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB177">
+        <v>12</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH177" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI177">
+        <v>83.031999999999996</v>
+      </c>
+      <c r="AJ177" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK177">
+        <v>2.0420000000000016</v>
+      </c>
+      <c r="AM177">
+        <v>300</v>
+      </c>
+      <c r="AN177">
+        <v>84</v>
+      </c>
+      <c r="AO177" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="178" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C178" t="s">
+        <v>459</v>
+      </c>
+      <c r="D178" t="s">
+        <v>791</v>
+      </c>
+      <c r="E178" t="s">
+        <v>792</v>
+      </c>
+      <c r="F178" t="s">
+        <v>168</v>
+      </c>
+      <c r="G178" t="s">
+        <v>160</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I178">
+        <v>24.105556</v>
+      </c>
+      <c r="J178">
+        <v>-121.186944</v>
+      </c>
+      <c r="K178">
+        <v>2400</v>
+      </c>
+      <c r="L178" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N178">
+        <v>2011</v>
+      </c>
+      <c r="O178">
+        <v>2011</v>
+      </c>
+      <c r="P178" t="s">
+        <v>168</v>
+      </c>
+      <c r="T178" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U178">
+        <v>5</v>
+      </c>
+      <c r="V178">
+        <v>12</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB178">
+        <v>12</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH178" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI178">
+        <v>88.230999999999995</v>
+      </c>
+      <c r="AJ178" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK178">
+        <v>1.8569999999999993</v>
+      </c>
+      <c r="AM178">
+        <v>300</v>
+      </c>
+      <c r="AN178">
+        <v>84</v>
+      </c>
+      <c r="AO178" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="179" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C179" t="s">
+        <v>459</v>
+      </c>
+      <c r="D179" t="s">
+        <v>791</v>
+      </c>
+      <c r="E179" t="s">
+        <v>792</v>
+      </c>
+      <c r="F179" t="s">
+        <v>168</v>
+      </c>
+      <c r="G179" t="s">
+        <v>160</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I179">
+        <v>24.105556</v>
+      </c>
+      <c r="J179">
+        <v>-121.186944</v>
+      </c>
+      <c r="K179">
+        <v>2400</v>
+      </c>
+      <c r="L179" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N179">
+        <v>2011</v>
+      </c>
+      <c r="O179">
+        <v>2011</v>
+      </c>
+      <c r="P179" t="s">
+        <v>168</v>
+      </c>
+      <c r="T179" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U179">
+        <v>5</v>
+      </c>
+      <c r="V179">
+        <v>16</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB179">
+        <v>12</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH179" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI179">
+        <v>87.302999999999997</v>
+      </c>
+      <c r="AJ179" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK179">
+        <v>2.7849999999999966</v>
+      </c>
+      <c r="AM179">
+        <v>300</v>
+      </c>
+      <c r="AN179">
+        <v>84</v>
+      </c>
+      <c r="AO179" t="s">
+        <v>1745</v>
       </c>
     </row>
   </sheetData>
@@ -32755,14 +34062,147 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I10" sqref="I10:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>45.277999999999999</v>
+      </c>
+      <c r="G2">
+        <v>49.56</v>
+      </c>
+      <c r="I2">
+        <f>G2-F2</f>
+        <v>4.2820000000000036</v>
+      </c>
+    </row>
+    <row r="3" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>74.19</v>
+      </c>
+      <c r="G3">
+        <v>77.522999999999996</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="0">G3-F3</f>
+        <v>3.3329999999999984</v>
+      </c>
+    </row>
+    <row r="4" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>62.707999999999998</v>
+      </c>
+      <c r="G4">
+        <v>66.596999999999994</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>3.8889999999999958</v>
+      </c>
+    </row>
+    <row r="5" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>60.856000000000002</v>
+      </c>
+      <c r="G5">
+        <v>64.004999999999995</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3.1489999999999938</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>83.634</v>
+      </c>
+      <c r="G6">
+        <v>87.707999999999998</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>4.0739999999999981</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>17.152999999999999</v>
+      </c>
+      <c r="G7">
+        <v>18.818999999999999</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.6660000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>30.222999999999999</v>
+      </c>
+      <c r="G10">
+        <v>33.844000000000001</v>
+      </c>
+      <c r="I10">
+        <f>G10-F10</f>
+        <v>3.6210000000000022</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>74.861000000000004</v>
+      </c>
+      <c r="G11">
+        <v>78.388999999999996</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:I14" si="1">G11-F11</f>
+        <v>3.5279999999999916</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>83.031999999999996</v>
+      </c>
+      <c r="G12">
+        <v>85.073999999999998</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>2.0420000000000016</v>
+      </c>
+    </row>
+    <row r="13" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>88.230999999999995</v>
+      </c>
+      <c r="G13">
+        <v>90.087999999999994</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.8569999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>87.302999999999997</v>
+      </c>
+      <c r="G14">
+        <v>90.087999999999994</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>2.7849999999999966</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/oegres_TA/oegres_TA.xlsx
+++ b/data/oegres_TA/oegres_TA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5763" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6112" uniqueCount="1761">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5268,6 +5268,51 @@
   </si>
   <si>
     <t>Figure 1</t>
+  </si>
+  <si>
+    <t>Chen06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peitungyenshan, Taiwan </t>
+  </si>
+  <si>
+    <t>data from 6 month cold stratified seeds were recorde for only 11 weeks</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>"stored temporarily"</t>
+  </si>
+  <si>
+    <t>Chichizola18</t>
+  </si>
+  <si>
+    <t>Nahuel Huapi National Park, Argentina</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>dry/refrigerated</t>
+  </si>
+  <si>
+    <t>tegument cutting</t>
+  </si>
+  <si>
+    <t>12/12.</t>
+  </si>
+  <si>
+    <t>mechanical scarification</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Figure 2</t>
+  </si>
+  <si>
+    <t>Figure 3</t>
   </si>
 </sst>
 </file>
@@ -5683,7 +5728,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16003,12 +16048,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP179"/>
+  <dimension ref="A1:AP199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="R179" sqref="R179"/>
+      <selection pane="bottomLeft" activeCell="AO202" sqref="AO202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33779,7 +33824,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="177" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1736</v>
       </c>
@@ -33871,7 +33916,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="178" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1736</v>
       </c>
@@ -33963,7 +34008,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="179" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1736</v>
       </c>
@@ -34053,6 +34098,1897 @@
       </c>
       <c r="AO179" t="s">
         <v>1745</v>
+      </c>
+    </row>
+    <row r="180" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C180" t="s">
+        <v>459</v>
+      </c>
+      <c r="D180" t="s">
+        <v>798</v>
+      </c>
+      <c r="E180" t="s">
+        <v>799</v>
+      </c>
+      <c r="F180" t="s">
+        <v>168</v>
+      </c>
+      <c r="G180" t="s">
+        <v>160</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I180">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J180">
+        <v>-121.117</v>
+      </c>
+      <c r="L180" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N180">
+        <v>2002</v>
+      </c>
+      <c r="O180">
+        <v>2002</v>
+      </c>
+      <c r="P180" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S180">
+        <v>4</v>
+      </c>
+      <c r="T180" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U180">
+        <v>4</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y180">
+        <v>12</v>
+      </c>
+      <c r="AB180">
+        <v>20</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH180" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI180">
+        <v>79.3</v>
+      </c>
+      <c r="AJ180" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK180">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AL180">
+        <v>3</v>
+      </c>
+      <c r="AM180">
+        <v>35</v>
+      </c>
+      <c r="AN180">
+        <v>140</v>
+      </c>
+      <c r="AO180" t="s">
+        <v>1749</v>
+      </c>
+      <c r="AP180" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="181" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C181" t="s">
+        <v>459</v>
+      </c>
+      <c r="D181" t="s">
+        <v>798</v>
+      </c>
+      <c r="E181" t="s">
+        <v>799</v>
+      </c>
+      <c r="F181" t="s">
+        <v>168</v>
+      </c>
+      <c r="G181" t="s">
+        <v>160</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I181">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J181">
+        <v>-121.117</v>
+      </c>
+      <c r="L181" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N181">
+        <v>2002</v>
+      </c>
+      <c r="O181">
+        <v>2002</v>
+      </c>
+      <c r="P181" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S181">
+        <v>4</v>
+      </c>
+      <c r="T181" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U181">
+        <v>4</v>
+      </c>
+      <c r="V181">
+        <v>4</v>
+      </c>
+      <c r="W181" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y181">
+        <v>12</v>
+      </c>
+      <c r="AB181">
+        <v>20</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH181" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI181">
+        <v>65.7</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK181">
+        <v>7</v>
+      </c>
+      <c r="AL181">
+        <v>3</v>
+      </c>
+      <c r="AM181">
+        <v>35</v>
+      </c>
+      <c r="AN181">
+        <v>140</v>
+      </c>
+      <c r="AO181" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="182" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C182" t="s">
+        <v>459</v>
+      </c>
+      <c r="D182" t="s">
+        <v>798</v>
+      </c>
+      <c r="E182" t="s">
+        <v>799</v>
+      </c>
+      <c r="F182" t="s">
+        <v>168</v>
+      </c>
+      <c r="G182" t="s">
+        <v>160</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I182">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J182">
+        <v>-121.117</v>
+      </c>
+      <c r="L182" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N182">
+        <v>2002</v>
+      </c>
+      <c r="O182">
+        <v>2002</v>
+      </c>
+      <c r="P182" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S182">
+        <v>4</v>
+      </c>
+      <c r="T182" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U182">
+        <v>4</v>
+      </c>
+      <c r="V182">
+        <v>8</v>
+      </c>
+      <c r="W182" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y182">
+        <v>12</v>
+      </c>
+      <c r="AB182">
+        <v>20</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH182" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI182">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AJ182" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK182">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AL182">
+        <v>3</v>
+      </c>
+      <c r="AM182">
+        <v>35</v>
+      </c>
+      <c r="AN182">
+        <v>140</v>
+      </c>
+      <c r="AO182" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="183" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C183" t="s">
+        <v>459</v>
+      </c>
+      <c r="D183" t="s">
+        <v>798</v>
+      </c>
+      <c r="E183" t="s">
+        <v>799</v>
+      </c>
+      <c r="F183" t="s">
+        <v>168</v>
+      </c>
+      <c r="G183" t="s">
+        <v>160</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I183">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J183">
+        <v>-121.117</v>
+      </c>
+      <c r="L183" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N183">
+        <v>2002</v>
+      </c>
+      <c r="O183">
+        <v>2002</v>
+      </c>
+      <c r="P183" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U183">
+        <v>4</v>
+      </c>
+      <c r="V183">
+        <v>12</v>
+      </c>
+      <c r="W183" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y183">
+        <v>12</v>
+      </c>
+      <c r="AB183">
+        <v>20</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH183" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI183">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK183">
+        <v>7.5</v>
+      </c>
+      <c r="AL183">
+        <v>3</v>
+      </c>
+      <c r="AM183">
+        <v>35</v>
+      </c>
+      <c r="AN183">
+        <v>140</v>
+      </c>
+      <c r="AO183" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="184" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C184" t="s">
+        <v>459</v>
+      </c>
+      <c r="D184" t="s">
+        <v>798</v>
+      </c>
+      <c r="E184" t="s">
+        <v>799</v>
+      </c>
+      <c r="F184" t="s">
+        <v>168</v>
+      </c>
+      <c r="G184" t="s">
+        <v>160</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I184">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J184">
+        <v>-121.117</v>
+      </c>
+      <c r="L184" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N184">
+        <v>2002</v>
+      </c>
+      <c r="O184">
+        <v>2002</v>
+      </c>
+      <c r="P184" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U184">
+        <v>4</v>
+      </c>
+      <c r="V184">
+        <v>24</v>
+      </c>
+      <c r="W184" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y184">
+        <v>12</v>
+      </c>
+      <c r="AB184">
+        <v>20</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH184" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ184" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK184" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL184">
+        <v>3</v>
+      </c>
+      <c r="AM184">
+        <v>35</v>
+      </c>
+      <c r="AN184">
+        <v>140</v>
+      </c>
+      <c r="AO184" t="s">
+        <v>1749</v>
+      </c>
+      <c r="AP184" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="185" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C185" t="s">
+        <v>459</v>
+      </c>
+      <c r="D185" t="s">
+        <v>798</v>
+      </c>
+      <c r="E185" t="s">
+        <v>799</v>
+      </c>
+      <c r="F185" t="s">
+        <v>168</v>
+      </c>
+      <c r="G185" t="s">
+        <v>160</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I185">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J185">
+        <v>-121.117</v>
+      </c>
+      <c r="L185" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N185">
+        <v>2002</v>
+      </c>
+      <c r="O185">
+        <v>2002</v>
+      </c>
+      <c r="P185" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S185">
+        <v>4</v>
+      </c>
+      <c r="T185" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U185">
+        <v>4</v>
+      </c>
+      <c r="V185">
+        <v>36</v>
+      </c>
+      <c r="W185" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y185">
+        <v>12</v>
+      </c>
+      <c r="AB185">
+        <v>20</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE185" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH185" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI185">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AJ185" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK185">
+        <v>4</v>
+      </c>
+      <c r="AL185">
+        <v>3</v>
+      </c>
+      <c r="AM185">
+        <v>35</v>
+      </c>
+      <c r="AN185">
+        <v>140</v>
+      </c>
+      <c r="AO185" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="186" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C186" t="s">
+        <v>459</v>
+      </c>
+      <c r="D186" t="s">
+        <v>798</v>
+      </c>
+      <c r="E186" t="s">
+        <v>799</v>
+      </c>
+      <c r="F186" t="s">
+        <v>168</v>
+      </c>
+      <c r="G186" t="s">
+        <v>160</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I186">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J186">
+        <v>-121.117</v>
+      </c>
+      <c r="L186" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N186">
+        <v>2002</v>
+      </c>
+      <c r="O186">
+        <v>2002</v>
+      </c>
+      <c r="P186" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S186">
+        <v>4</v>
+      </c>
+      <c r="T186" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U186">
+        <v>4</v>
+      </c>
+      <c r="V186">
+        <v>48</v>
+      </c>
+      <c r="W186" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y186">
+        <v>12</v>
+      </c>
+      <c r="AB186">
+        <v>20</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH186" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI186">
+        <v>74.3</v>
+      </c>
+      <c r="AJ186" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AK186">
+        <v>7</v>
+      </c>
+      <c r="AL186">
+        <v>3</v>
+      </c>
+      <c r="AM186">
+        <v>35</v>
+      </c>
+      <c r="AN186">
+        <v>140</v>
+      </c>
+      <c r="AO186" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C187" t="s">
+        <v>459</v>
+      </c>
+      <c r="D187" t="s">
+        <v>798</v>
+      </c>
+      <c r="E187" t="s">
+        <v>799</v>
+      </c>
+      <c r="F187" t="s">
+        <v>168</v>
+      </c>
+      <c r="G187" t="s">
+        <v>160</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I187">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J187">
+        <v>-121.117</v>
+      </c>
+      <c r="L187" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N187">
+        <v>2002</v>
+      </c>
+      <c r="O187">
+        <v>2002</v>
+      </c>
+      <c r="P187" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S187">
+        <v>4</v>
+      </c>
+      <c r="T187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U187">
+        <v>4</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+      <c r="W187" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y187">
+        <v>12</v>
+      </c>
+      <c r="AB187">
+        <v>20</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI187">
+        <v>93.8</v>
+      </c>
+      <c r="AL187">
+        <v>3</v>
+      </c>
+      <c r="AM187">
+        <v>35</v>
+      </c>
+      <c r="AN187">
+        <v>140</v>
+      </c>
+      <c r="AO187" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="188" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C188" t="s">
+        <v>459</v>
+      </c>
+      <c r="D188" t="s">
+        <v>798</v>
+      </c>
+      <c r="E188" t="s">
+        <v>799</v>
+      </c>
+      <c r="F188" t="s">
+        <v>168</v>
+      </c>
+      <c r="G188" t="s">
+        <v>160</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I188">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J188">
+        <v>-121.117</v>
+      </c>
+      <c r="L188" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N188">
+        <v>2002</v>
+      </c>
+      <c r="O188">
+        <v>2002</v>
+      </c>
+      <c r="P188" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S188">
+        <v>4</v>
+      </c>
+      <c r="T188" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U188">
+        <v>4</v>
+      </c>
+      <c r="V188">
+        <v>4</v>
+      </c>
+      <c r="W188" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y188">
+        <v>12</v>
+      </c>
+      <c r="AB188">
+        <v>20</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI188">
+        <v>97.9</v>
+      </c>
+      <c r="AL188">
+        <v>3</v>
+      </c>
+      <c r="AM188">
+        <v>35</v>
+      </c>
+      <c r="AN188">
+        <v>140</v>
+      </c>
+      <c r="AO188" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="189" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C189" t="s">
+        <v>459</v>
+      </c>
+      <c r="D189" t="s">
+        <v>798</v>
+      </c>
+      <c r="E189" t="s">
+        <v>799</v>
+      </c>
+      <c r="F189" t="s">
+        <v>168</v>
+      </c>
+      <c r="G189" t="s">
+        <v>160</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I189">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J189">
+        <v>-121.117</v>
+      </c>
+      <c r="L189" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N189">
+        <v>2002</v>
+      </c>
+      <c r="O189">
+        <v>2002</v>
+      </c>
+      <c r="P189" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S189">
+        <v>4</v>
+      </c>
+      <c r="T189" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U189">
+        <v>4</v>
+      </c>
+      <c r="V189">
+        <v>8</v>
+      </c>
+      <c r="W189" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y189">
+        <v>12</v>
+      </c>
+      <c r="AB189">
+        <v>20</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI189">
+        <v>100.1</v>
+      </c>
+      <c r="AL189">
+        <v>3</v>
+      </c>
+      <c r="AM189">
+        <v>35</v>
+      </c>
+      <c r="AN189">
+        <v>140</v>
+      </c>
+      <c r="AO189" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="190" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C190" t="s">
+        <v>459</v>
+      </c>
+      <c r="D190" t="s">
+        <v>798</v>
+      </c>
+      <c r="E190" t="s">
+        <v>799</v>
+      </c>
+      <c r="F190" t="s">
+        <v>168</v>
+      </c>
+      <c r="G190" t="s">
+        <v>160</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I190">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J190">
+        <v>-121.117</v>
+      </c>
+      <c r="L190" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N190">
+        <v>2002</v>
+      </c>
+      <c r="O190">
+        <v>2002</v>
+      </c>
+      <c r="P190" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S190">
+        <v>4</v>
+      </c>
+      <c r="T190" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U190">
+        <v>4</v>
+      </c>
+      <c r="V190">
+        <v>12</v>
+      </c>
+      <c r="W190" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y190">
+        <v>12</v>
+      </c>
+      <c r="AB190">
+        <v>20</v>
+      </c>
+      <c r="AC190" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE190" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH190" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI190">
+        <v>93.3</v>
+      </c>
+      <c r="AL190">
+        <v>3</v>
+      </c>
+      <c r="AM190">
+        <v>35</v>
+      </c>
+      <c r="AN190">
+        <v>140</v>
+      </c>
+      <c r="AO190" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="191" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C191" t="s">
+        <v>459</v>
+      </c>
+      <c r="D191" t="s">
+        <v>798</v>
+      </c>
+      <c r="E191" t="s">
+        <v>799</v>
+      </c>
+      <c r="F191" t="s">
+        <v>168</v>
+      </c>
+      <c r="G191" t="s">
+        <v>160</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I191">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J191">
+        <v>-121.117</v>
+      </c>
+      <c r="L191" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N191">
+        <v>2002</v>
+      </c>
+      <c r="O191">
+        <v>2002</v>
+      </c>
+      <c r="P191" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S191">
+        <v>4</v>
+      </c>
+      <c r="T191" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U191">
+        <v>4</v>
+      </c>
+      <c r="V191">
+        <v>24</v>
+      </c>
+      <c r="W191" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y191">
+        <v>12</v>
+      </c>
+      <c r="AB191">
+        <v>20</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE191" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH191" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI191" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL191">
+        <v>3</v>
+      </c>
+      <c r="AM191">
+        <v>35</v>
+      </c>
+      <c r="AN191">
+        <v>140</v>
+      </c>
+      <c r="AO191" t="s">
+        <v>1749</v>
+      </c>
+      <c r="AP191" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="192" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C192" t="s">
+        <v>459</v>
+      </c>
+      <c r="D192" t="s">
+        <v>798</v>
+      </c>
+      <c r="E192" t="s">
+        <v>799</v>
+      </c>
+      <c r="F192" t="s">
+        <v>168</v>
+      </c>
+      <c r="G192" t="s">
+        <v>160</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I192">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J192">
+        <v>-121.117</v>
+      </c>
+      <c r="L192" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N192">
+        <v>2002</v>
+      </c>
+      <c r="O192">
+        <v>2002</v>
+      </c>
+      <c r="P192" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S192">
+        <v>4</v>
+      </c>
+      <c r="T192" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U192">
+        <v>4</v>
+      </c>
+      <c r="V192">
+        <v>36</v>
+      </c>
+      <c r="W192" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y192">
+        <v>12</v>
+      </c>
+      <c r="AB192">
+        <v>20</v>
+      </c>
+      <c r="AC192" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE192" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH192" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI192">
+        <v>53.8</v>
+      </c>
+      <c r="AL192">
+        <v>3</v>
+      </c>
+      <c r="AM192">
+        <v>35</v>
+      </c>
+      <c r="AN192">
+        <v>140</v>
+      </c>
+      <c r="AO192" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="193" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C193" t="s">
+        <v>459</v>
+      </c>
+      <c r="D193" t="s">
+        <v>798</v>
+      </c>
+      <c r="E193" t="s">
+        <v>799</v>
+      </c>
+      <c r="F193" t="s">
+        <v>168</v>
+      </c>
+      <c r="G193" t="s">
+        <v>160</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I193">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="J193">
+        <v>-121.117</v>
+      </c>
+      <c r="L193" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N193">
+        <v>2002</v>
+      </c>
+      <c r="O193">
+        <v>2002</v>
+      </c>
+      <c r="P193" t="s">
+        <v>1681</v>
+      </c>
+      <c r="S193">
+        <v>4</v>
+      </c>
+      <c r="T193" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U193">
+        <v>4</v>
+      </c>
+      <c r="V193">
+        <v>48</v>
+      </c>
+      <c r="W193" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Y193">
+        <v>12</v>
+      </c>
+      <c r="AB193">
+        <v>20</v>
+      </c>
+      <c r="AC193" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE193" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH193" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI193">
+        <v>47.6</v>
+      </c>
+      <c r="AL193">
+        <v>3</v>
+      </c>
+      <c r="AM193">
+        <v>35</v>
+      </c>
+      <c r="AN193">
+        <v>140</v>
+      </c>
+      <c r="AO193" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="194" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C194" t="s">
+        <v>459</v>
+      </c>
+      <c r="D194" t="s">
+        <v>815</v>
+      </c>
+      <c r="E194" t="s">
+        <v>816</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I194">
+        <v>-41.12</v>
+      </c>
+      <c r="J194">
+        <v>-71.222999999999999</v>
+      </c>
+      <c r="K194">
+        <v>838</v>
+      </c>
+      <c r="L194" t="s">
+        <v>1753</v>
+      </c>
+      <c r="N194">
+        <v>2016</v>
+      </c>
+      <c r="O194">
+        <v>2016</v>
+      </c>
+      <c r="P194" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q194">
+        <v>183</v>
+      </c>
+      <c r="S194">
+        <v>5</v>
+      </c>
+      <c r="T194" t="s">
+        <v>1684</v>
+      </c>
+      <c r="U194" t="s">
+        <v>168</v>
+      </c>
+      <c r="V194" t="s">
+        <v>168</v>
+      </c>
+      <c r="W194" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>1756</v>
+      </c>
+      <c r="AB194">
+        <v>56</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI194">
+        <v>93.06</v>
+      </c>
+      <c r="AJ194" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AK194">
+        <v>4.7319999999999993</v>
+      </c>
+      <c r="AL194">
+        <v>10</v>
+      </c>
+      <c r="AM194">
+        <v>30</v>
+      </c>
+      <c r="AN194">
+        <v>56</v>
+      </c>
+      <c r="AO194" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AP194" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="195" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C195" t="s">
+        <v>459</v>
+      </c>
+      <c r="D195" t="s">
+        <v>815</v>
+      </c>
+      <c r="E195" t="s">
+        <v>816</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I195">
+        <v>-41.12</v>
+      </c>
+      <c r="J195">
+        <v>-71.222999999999999</v>
+      </c>
+      <c r="K195">
+        <v>838</v>
+      </c>
+      <c r="L195" t="s">
+        <v>1753</v>
+      </c>
+      <c r="N195">
+        <v>2016</v>
+      </c>
+      <c r="O195">
+        <v>2016</v>
+      </c>
+      <c r="P195" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q195">
+        <v>183</v>
+      </c>
+      <c r="S195">
+        <v>5</v>
+      </c>
+      <c r="T195" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U195">
+        <v>5</v>
+      </c>
+      <c r="V195">
+        <v>6</v>
+      </c>
+      <c r="W195" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>1756</v>
+      </c>
+      <c r="AB195">
+        <v>56</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI195">
+        <v>98.58</v>
+      </c>
+      <c r="AJ195" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AK195">
+        <v>1.4200000000000017</v>
+      </c>
+      <c r="AL195">
+        <v>10</v>
+      </c>
+      <c r="AM195">
+        <v>30</v>
+      </c>
+      <c r="AN195">
+        <v>56</v>
+      </c>
+      <c r="AO195" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AP195" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="196" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C196" t="s">
+        <v>459</v>
+      </c>
+      <c r="D196" t="s">
+        <v>815</v>
+      </c>
+      <c r="E196" t="s">
+        <v>816</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I196">
+        <v>-41.12</v>
+      </c>
+      <c r="J196">
+        <v>-71.222999999999999</v>
+      </c>
+      <c r="K196">
+        <v>838</v>
+      </c>
+      <c r="L196" t="s">
+        <v>1753</v>
+      </c>
+      <c r="N196">
+        <v>2016</v>
+      </c>
+      <c r="O196">
+        <v>2016</v>
+      </c>
+      <c r="P196" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q196">
+        <v>183</v>
+      </c>
+      <c r="S196">
+        <v>5</v>
+      </c>
+      <c r="T196" t="s">
+        <v>1757</v>
+      </c>
+      <c r="U196" t="s">
+        <v>168</v>
+      </c>
+      <c r="V196" t="s">
+        <v>168</v>
+      </c>
+      <c r="W196" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>1756</v>
+      </c>
+      <c r="AB196">
+        <v>56</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>1755</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI196">
+        <v>95.741</v>
+      </c>
+      <c r="AJ196" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AK196">
+        <v>3.1550000000000011</v>
+      </c>
+      <c r="AL196">
+        <v>10</v>
+      </c>
+      <c r="AM196">
+        <v>30</v>
+      </c>
+      <c r="AN196">
+        <v>56</v>
+      </c>
+      <c r="AO196" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AP196" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="197" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C197" t="s">
+        <v>459</v>
+      </c>
+      <c r="D197" t="s">
+        <v>815</v>
+      </c>
+      <c r="E197" t="s">
+        <v>816</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I197">
+        <v>-41.12</v>
+      </c>
+      <c r="J197">
+        <v>-71.222999999999999</v>
+      </c>
+      <c r="K197">
+        <v>838</v>
+      </c>
+      <c r="L197" t="s">
+        <v>1753</v>
+      </c>
+      <c r="N197">
+        <v>2016</v>
+      </c>
+      <c r="O197">
+        <v>2016</v>
+      </c>
+      <c r="P197" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q197">
+        <v>183</v>
+      </c>
+      <c r="S197">
+        <v>5</v>
+      </c>
+      <c r="T197" t="s">
+        <v>1684</v>
+      </c>
+      <c r="U197" t="s">
+        <v>168</v>
+      </c>
+      <c r="V197" t="s">
+        <v>168</v>
+      </c>
+      <c r="W197" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>1756</v>
+      </c>
+      <c r="AB197">
+        <v>56</v>
+      </c>
+      <c r="AC197" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI197">
+        <v>4.5259999999999998</v>
+      </c>
+      <c r="AJ197" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AK197">
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="AL197">
+        <v>10</v>
+      </c>
+      <c r="AM197">
+        <v>30</v>
+      </c>
+      <c r="AN197">
+        <v>56</v>
+      </c>
+      <c r="AO197" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AP197" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="198" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C198" t="s">
+        <v>459</v>
+      </c>
+      <c r="D198" t="s">
+        <v>815</v>
+      </c>
+      <c r="E198" t="s">
+        <v>816</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I198">
+        <v>-41.12</v>
+      </c>
+      <c r="J198">
+        <v>-71.222999999999999</v>
+      </c>
+      <c r="K198">
+        <v>838</v>
+      </c>
+      <c r="L198" t="s">
+        <v>1753</v>
+      </c>
+      <c r="N198">
+        <v>2016</v>
+      </c>
+      <c r="O198">
+        <v>2016</v>
+      </c>
+      <c r="P198" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q198">
+        <v>183</v>
+      </c>
+      <c r="S198">
+        <v>5</v>
+      </c>
+      <c r="T198" t="s">
+        <v>1718</v>
+      </c>
+      <c r="U198">
+        <v>5</v>
+      </c>
+      <c r="V198">
+        <v>6</v>
+      </c>
+      <c r="W198" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>1756</v>
+      </c>
+      <c r="AB198">
+        <v>56</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH198" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI198">
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="AJ198" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AK198">
+        <v>7.9000000000000625E-2</v>
+      </c>
+      <c r="AL198">
+        <v>10</v>
+      </c>
+      <c r="AM198">
+        <v>30</v>
+      </c>
+      <c r="AN198">
+        <v>56</v>
+      </c>
+      <c r="AO198" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AP198" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="199" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C199" t="s">
+        <v>459</v>
+      </c>
+      <c r="D199" t="s">
+        <v>815</v>
+      </c>
+      <c r="E199" t="s">
+        <v>816</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I199">
+        <v>-41.12</v>
+      </c>
+      <c r="J199">
+        <v>-71.222999999999999</v>
+      </c>
+      <c r="K199">
+        <v>838</v>
+      </c>
+      <c r="L199" t="s">
+        <v>1753</v>
+      </c>
+      <c r="N199">
+        <v>2016</v>
+      </c>
+      <c r="O199">
+        <v>2016</v>
+      </c>
+      <c r="P199" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q199">
+        <v>183</v>
+      </c>
+      <c r="S199">
+        <v>5</v>
+      </c>
+      <c r="T199" t="s">
+        <v>1757</v>
+      </c>
+      <c r="U199" t="s">
+        <v>168</v>
+      </c>
+      <c r="V199" t="s">
+        <v>168</v>
+      </c>
+      <c r="W199" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>1756</v>
+      </c>
+      <c r="AB199">
+        <v>56</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>1755</v>
+      </c>
+      <c r="AE199" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AH199" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AI199">
+        <v>4.16</v>
+      </c>
+      <c r="AJ199" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AK199">
+        <v>0.21699999999999964</v>
+      </c>
+      <c r="AL199">
+        <v>10</v>
+      </c>
+      <c r="AM199">
+        <v>30</v>
+      </c>
+      <c r="AN199">
+        <v>56</v>
+      </c>
+      <c r="AO199" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AP199" t="s">
+        <v>1716</v>
       </c>
     </row>
   </sheetData>
@@ -34062,10 +35998,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:I14"/>
+  <dimension ref="F2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I14"/>
+      <selection activeCell="I22" sqref="I22:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34202,6 +36138,78 @@
         <v>2.7849999999999966</v>
       </c>
     </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>93.06</v>
+      </c>
+      <c r="G17">
+        <v>97.792000000000002</v>
+      </c>
+      <c r="I17">
+        <f>G17-F17</f>
+        <v>4.7319999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>98.58</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I19" si="2">G18-F18</f>
+        <v>1.4200000000000017</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>95.741</v>
+      </c>
+      <c r="G19">
+        <v>98.896000000000001</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>3.1550000000000011</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>4.5259999999999998</v>
+      </c>
+      <c r="G22">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="I22">
+        <f>G22-F22</f>
+        <v>0.41500000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="G23">
+        <v>4.1210000000000004</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I24" si="3">G23-F23</f>
+        <v>7.9000000000000625E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>4.16</v>
+      </c>
+      <c r="G24">
+        <v>4.3769999999999998</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0.21699999999999964</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/oegres_TA/oegres_TA.xlsx
+++ b/data/oegres_TA/oegres_TA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6674" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7514" uniqueCount="1798">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5355,13 +5355,82 @@
   </si>
   <si>
     <t>GA4</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>data not shown after 29 weeks</t>
+  </si>
+  <si>
+    <t>data not shown after 28 weeks</t>
+  </si>
+  <si>
+    <t>data not shown after 21 weeks</t>
+  </si>
+  <si>
+    <t>data not shown after 13 weeks</t>
+  </si>
+  <si>
+    <t>data not shown after 17 weeks</t>
+  </si>
+  <si>
+    <t>response measured in g?</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Chien11</t>
+  </si>
+  <si>
+    <t>exp3</t>
+  </si>
+  <si>
+    <t>exp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilex </t>
+  </si>
+  <si>
+    <t>maximowicziana</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Hengchun, Taiwan</t>
+  </si>
+  <si>
+    <t>hard to distinguish some points and SE bars</t>
+  </si>
+  <si>
+    <t>Sutu, Taiwan</t>
+  </si>
+  <si>
+    <t>5/5</t>
+  </si>
+  <si>
+    <t>how do I read this graph?</t>
+  </si>
+  <si>
+    <t>Chien02</t>
+  </si>
+  <si>
+    <t>not in english</t>
+  </si>
+  <si>
+    <t>Cho05</t>
+  </si>
+  <si>
+    <t>Cho09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5407,8 +5476,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5427,18 +5510,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5449,7 +5520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5467,8 +5538,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5491,13 +5566,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5506,6 +5582,8 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5514,6 +5592,8 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -5811,7 +5891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -6393,7 +6473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L90" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -16164,12 +16244,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD254"/>
+  <dimension ref="A1:AS277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AE205" sqref="AE205"/>
+      <selection pane="bottomLeft" activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36204,10 +36284,10 @@
         <v>12</v>
       </c>
       <c r="AA200" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB200" t="s">
-        <v>165</v>
+        <v>1685</v>
+      </c>
+      <c r="AB200">
+        <v>0</v>
       </c>
       <c r="AC200" t="s">
         <v>165</v>
@@ -36218,13 +36298,7 @@
       <c r="AF200" t="s">
         <v>157</v>
       </c>
-      <c r="AG200" t="s">
-        <v>1685</v>
-      </c>
-      <c r="AH200">
-        <v>0</v>
-      </c>
-      <c r="AI200">
+      <c r="AI200" s="16">
         <v>1200</v>
       </c>
       <c r="AJ200" t="s">
@@ -36233,8 +36307,14 @@
       <c r="AK200">
         <v>115</v>
       </c>
+      <c r="AN200">
+        <v>3</v>
+      </c>
       <c r="AP200">
         <v>224</v>
+      </c>
+      <c r="AR200" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="201" spans="1:45" x14ac:dyDescent="0.2">
@@ -36305,10 +36385,10 @@
         <v>12</v>
       </c>
       <c r="AA201" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB201" t="s">
-        <v>165</v>
+        <v>1679</v>
+      </c>
+      <c r="AB201">
+        <v>26</v>
       </c>
       <c r="AC201" t="s">
         <v>165</v>
@@ -36319,13 +36399,7 @@
       <c r="AF201" t="s">
         <v>157</v>
       </c>
-      <c r="AG201" t="s">
-        <v>1679</v>
-      </c>
-      <c r="AH201">
-        <v>26</v>
-      </c>
-      <c r="AI201">
+      <c r="AI201" s="16">
         <v>1200</v>
       </c>
       <c r="AJ201" t="s">
@@ -36334,8 +36408,14 @@
       <c r="AK201">
         <v>109</v>
       </c>
+      <c r="AN201">
+        <v>3</v>
+      </c>
       <c r="AP201">
         <v>224</v>
+      </c>
+      <c r="AR201" t="s">
+        <v>1741</v>
       </c>
       <c r="AS201" t="s">
         <v>1770</v>
@@ -36408,11 +36488,11 @@
       <c r="Z202">
         <v>12</v>
       </c>
-      <c r="AA202" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB202" t="s">
-        <v>165</v>
+      <c r="AA202" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AB202">
+        <v>260</v>
       </c>
       <c r="AC202" t="s">
         <v>165</v>
@@ -36423,13 +36503,7 @@
       <c r="AF202" t="s">
         <v>157</v>
       </c>
-      <c r="AG202" s="4" t="s">
-        <v>1679</v>
-      </c>
-      <c r="AH202">
-        <v>260</v>
-      </c>
-      <c r="AI202">
+      <c r="AI202" s="16">
         <v>1200</v>
       </c>
       <c r="AJ202" t="s">
@@ -36438,8 +36512,14 @@
       <c r="AK202">
         <v>102</v>
       </c>
+      <c r="AN202">
+        <v>3</v>
+      </c>
       <c r="AP202">
         <v>224</v>
+      </c>
+      <c r="AR202" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="203" spans="1:45" x14ac:dyDescent="0.2">
@@ -36509,11 +36589,11 @@
       <c r="Z203">
         <v>12</v>
       </c>
-      <c r="AA203" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB203" t="s">
-        <v>165</v>
+      <c r="AA203" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AB203">
+        <v>2600</v>
       </c>
       <c r="AC203" t="s">
         <v>165</v>
@@ -36524,13 +36604,7 @@
       <c r="AF203" t="s">
         <v>157</v>
       </c>
-      <c r="AG203" s="4" t="s">
-        <v>1679</v>
-      </c>
-      <c r="AH203">
-        <v>2600</v>
-      </c>
-      <c r="AI203">
+      <c r="AI203" s="16">
         <v>1200</v>
       </c>
       <c r="AJ203" t="s">
@@ -36539,19 +36613,99 @@
       <c r="AK203">
         <v>77</v>
       </c>
+      <c r="AN203">
+        <v>3</v>
+      </c>
       <c r="AP203">
         <v>224</v>
       </c>
+      <c r="AR203" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="204" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="X204" s="13"/>
-      <c r="AG204" t="s">
+      <c r="A204" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C204" t="s">
+        <v>456</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G204" t="s">
+        <v>157</v>
+      </c>
+      <c r="I204" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J204">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K204">
+        <v>121.53</v>
+      </c>
+      <c r="L204">
+        <v>600</v>
+      </c>
+      <c r="M204" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N204">
+        <v>4680</v>
+      </c>
+      <c r="O204">
+        <v>2008</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R204">
+        <v>24</v>
+      </c>
+      <c r="T204">
+        <v>5</v>
+      </c>
+      <c r="U204" t="s">
+        <v>103</v>
+      </c>
+      <c r="V204" t="s">
+        <v>165</v>
+      </c>
+      <c r="W204" t="s">
+        <v>165</v>
+      </c>
+      <c r="X204" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z204" s="15">
+        <v>12</v>
+      </c>
+      <c r="AA204" t="s">
         <v>1774</v>
       </c>
-      <c r="AH204">
+      <c r="AB204">
         <v>26</v>
       </c>
-      <c r="AI204">
+      <c r="AC204" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI204" s="16">
         <v>1200</v>
       </c>
       <c r="AJ204" t="s">
@@ -36560,16 +36714,99 @@
       <c r="AK204">
         <v>57</v>
       </c>
+      <c r="AN204">
+        <v>3</v>
+      </c>
+      <c r="AP204">
+        <v>224</v>
+      </c>
+      <c r="AR204" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="205" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="X205" s="13"/>
-      <c r="AG205" t="s">
+      <c r="A205" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C205" t="s">
+        <v>456</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G205" t="s">
+        <v>157</v>
+      </c>
+      <c r="I205" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J205">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K205">
+        <v>121.53</v>
+      </c>
+      <c r="L205">
+        <v>600</v>
+      </c>
+      <c r="M205" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N205">
+        <v>4680</v>
+      </c>
+      <c r="O205">
+        <v>2008</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R205">
+        <v>24</v>
+      </c>
+      <c r="T205">
+        <v>5</v>
+      </c>
+      <c r="U205" t="s">
+        <v>103</v>
+      </c>
+      <c r="V205" t="s">
+        <v>165</v>
+      </c>
+      <c r="W205" t="s">
+        <v>165</v>
+      </c>
+      <c r="X205" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z205">
+        <v>12</v>
+      </c>
+      <c r="AA205" t="s">
         <v>1774</v>
       </c>
-      <c r="AH205">
+      <c r="AB205">
         <v>260</v>
       </c>
-      <c r="AI205">
+      <c r="AC205" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI205" s="16">
         <v>1200</v>
       </c>
       <c r="AJ205" t="s">
@@ -36578,16 +36815,99 @@
       <c r="AK205">
         <v>49</v>
       </c>
+      <c r="AN205">
+        <v>3</v>
+      </c>
+      <c r="AP205">
+        <v>224</v>
+      </c>
+      <c r="AR205" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="206" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="X206" s="13"/>
-      <c r="AG206" t="s">
+      <c r="A206" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C206" t="s">
+        <v>456</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G206" t="s">
+        <v>157</v>
+      </c>
+      <c r="I206" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J206">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K206">
+        <v>121.53</v>
+      </c>
+      <c r="L206">
+        <v>600</v>
+      </c>
+      <c r="M206" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N206">
+        <v>4680</v>
+      </c>
+      <c r="O206">
+        <v>2008</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R206">
+        <v>24</v>
+      </c>
+      <c r="T206">
+        <v>5</v>
+      </c>
+      <c r="U206" t="s">
+        <v>103</v>
+      </c>
+      <c r="V206" t="s">
+        <v>165</v>
+      </c>
+      <c r="W206" t="s">
+        <v>165</v>
+      </c>
+      <c r="X206" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z206">
+        <v>12</v>
+      </c>
+      <c r="AA206" t="s">
         <v>1774</v>
       </c>
-      <c r="AH206">
+      <c r="AB206">
         <v>2600</v>
       </c>
-      <c r="AI206">
+      <c r="AC206" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI206" s="16">
         <v>1200</v>
       </c>
       <c r="AJ206" t="s">
@@ -36596,9 +36916,119 @@
       <c r="AK206">
         <v>42</v>
       </c>
+      <c r="AN206">
+        <v>3</v>
+      </c>
+      <c r="AP206">
+        <v>224</v>
+      </c>
+      <c r="AR206" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="207" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="X207" s="13"/>
+      <c r="A207" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C207" t="s">
+        <v>456</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G207" t="s">
+        <v>157</v>
+      </c>
+      <c r="I207" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J207">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K207">
+        <v>121.53</v>
+      </c>
+      <c r="L207">
+        <v>600</v>
+      </c>
+      <c r="M207" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N207">
+        <v>4680</v>
+      </c>
+      <c r="O207">
+        <v>2008</v>
+      </c>
+      <c r="P207" t="s">
+        <v>1773</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R207">
+        <v>24</v>
+      </c>
+      <c r="T207">
+        <v>5</v>
+      </c>
+      <c r="U207" t="s">
+        <v>1681</v>
+      </c>
+      <c r="V207" t="s">
+        <v>165</v>
+      </c>
+      <c r="W207" t="s">
+        <v>165</v>
+      </c>
+      <c r="X207" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z207" s="15">
+        <v>12</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB207">
+        <v>0</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI207" s="16">
+        <v>1200</v>
+      </c>
+      <c r="AJ207" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK207">
+        <v>40</v>
+      </c>
+      <c r="AN207">
+        <v>3</v>
+      </c>
+      <c r="AP207">
+        <v>224</v>
+      </c>
+      <c r="AR207" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="208" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
@@ -36635,37 +37065,73 @@
         <v>1676</v>
       </c>
       <c r="N208">
-        <v>900</v>
+        <v>4680</v>
       </c>
       <c r="O208">
-        <v>2007</v>
+        <v>2008</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R208">
+        <v>24</v>
+      </c>
+      <c r="T208">
+        <v>5</v>
       </c>
       <c r="U208" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="V208" t="s">
+        <v>165</v>
+      </c>
+      <c r="W208" t="s">
+        <v>165</v>
       </c>
       <c r="X208" s="13" t="s">
-        <v>1733</v>
+        <v>1766</v>
       </c>
       <c r="Y208" t="s">
-        <v>103</v>
+        <v>165</v>
+      </c>
+      <c r="Z208" s="15">
+        <v>12</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AB208">
+        <v>26</v>
+      </c>
+      <c r="AC208" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>1691</v>
       </c>
       <c r="AF208" t="s">
         <v>157</v>
       </c>
-      <c r="AG208" t="s">
-        <v>1679</v>
-      </c>
-      <c r="AH208">
-        <v>1440</v>
-      </c>
-      <c r="AI208">
+      <c r="AI208" s="16">
         <v>1200</v>
+      </c>
+      <c r="AJ208" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK208">
+        <v>50.7</v>
+      </c>
+      <c r="AN208">
+        <v>3</v>
       </c>
       <c r="AP208">
         <v>224</v>
       </c>
-    </row>
-    <row r="209" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="AR208" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="209" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1752</v>
       </c>
@@ -36700,22 +37166,73 @@
         <v>1676</v>
       </c>
       <c r="N209">
-        <v>900</v>
+        <v>4680</v>
       </c>
       <c r="O209">
-        <v>2007</v>
+        <v>2008</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R209">
+        <v>24</v>
+      </c>
+      <c r="T209">
+        <v>5</v>
+      </c>
+      <c r="U209" t="s">
+        <v>103</v>
+      </c>
+      <c r="V209" t="s">
+        <v>165</v>
+      </c>
+      <c r="W209" t="s">
+        <v>165</v>
       </c>
       <c r="X209" s="13" t="s">
-        <v>1733</v>
+        <v>1766</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z209">
+        <v>12</v>
+      </c>
+      <c r="AA209" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AB209">
+        <v>260</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>1691</v>
       </c>
       <c r="AF209" t="s">
-        <v>1691</v>
+        <v>157</v>
+      </c>
+      <c r="AI209" s="16">
+        <v>1200</v>
+      </c>
+      <c r="AJ209" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK209">
+        <v>51.3</v>
+      </c>
+      <c r="AN209">
+        <v>3</v>
       </c>
       <c r="AP209">
         <v>224</v>
       </c>
-    </row>
-    <row r="210" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="AR209" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="210" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1752</v>
       </c>
@@ -36750,22 +37267,73 @@
         <v>1676</v>
       </c>
       <c r="N210">
-        <v>900</v>
+        <v>4680</v>
       </c>
       <c r="O210">
-        <v>2007</v>
+        <v>2008</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R210">
+        <v>24</v>
+      </c>
+      <c r="T210">
+        <v>5</v>
+      </c>
+      <c r="U210" t="s">
+        <v>103</v>
+      </c>
+      <c r="V210" t="s">
+        <v>165</v>
+      </c>
+      <c r="W210" t="s">
+        <v>165</v>
       </c>
       <c r="X210" s="13" t="s">
-        <v>1735</v>
+        <v>1766</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z210">
+        <v>12</v>
+      </c>
+      <c r="AA210" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AB210">
+        <v>2600</v>
+      </c>
+      <c r="AC210" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>1691</v>
       </c>
       <c r="AF210" t="s">
-        <v>1691</v>
+        <v>157</v>
+      </c>
+      <c r="AI210" s="16">
+        <v>1200</v>
+      </c>
+      <c r="AJ210" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK210">
+        <v>74</v>
+      </c>
+      <c r="AN210">
+        <v>3</v>
       </c>
       <c r="AP210">
         <v>224</v>
       </c>
-    </row>
-    <row r="211" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="AR210" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="211" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1752</v>
       </c>
@@ -36800,22 +37368,73 @@
         <v>1676</v>
       </c>
       <c r="N211">
-        <v>900</v>
+        <v>4680</v>
       </c>
       <c r="O211">
-        <v>2007</v>
+        <v>2008</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R211">
+        <v>24</v>
+      </c>
+      <c r="T211">
+        <v>5</v>
+      </c>
+      <c r="U211" t="s">
+        <v>103</v>
+      </c>
+      <c r="V211" t="s">
+        <v>165</v>
+      </c>
+      <c r="W211" t="s">
+        <v>165</v>
       </c>
       <c r="X211" s="13" t="s">
         <v>1766</v>
       </c>
+      <c r="Y211" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z211" s="15">
+        <v>12</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>1774</v>
+      </c>
+      <c r="AB211">
+        <v>26</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>1691</v>
+      </c>
       <c r="AF211" t="s">
-        <v>1691</v>
+        <v>157</v>
+      </c>
+      <c r="AI211" s="16">
+        <v>1200</v>
+      </c>
+      <c r="AJ211" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK211">
+        <v>95.3</v>
+      </c>
+      <c r="AN211">
+        <v>3</v>
       </c>
       <c r="AP211">
         <v>224</v>
       </c>
-    </row>
-    <row r="212" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="AR211" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="212" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1752</v>
       </c>
@@ -36850,34 +37469,73 @@
         <v>1676</v>
       </c>
       <c r="N212">
-        <v>900</v>
+        <v>4680</v>
       </c>
       <c r="O212">
-        <v>2007</v>
+        <v>2008</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R212">
+        <v>24</v>
+      </c>
+      <c r="T212">
+        <v>5</v>
       </c>
       <c r="U212" t="s">
-        <v>94</v>
-      </c>
-      <c r="X212">
-        <v>25</v>
+        <v>103</v>
+      </c>
+      <c r="V212" t="s">
+        <v>165</v>
+      </c>
+      <c r="W212" t="s">
+        <v>165</v>
+      </c>
+      <c r="X212" s="13" t="s">
+        <v>1766</v>
       </c>
       <c r="Y212" t="s">
-        <v>103</v>
+        <v>165</v>
+      </c>
+      <c r="Z212">
+        <v>12</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>1774</v>
+      </c>
+      <c r="AB212">
+        <v>260</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>1691</v>
       </c>
       <c r="AF212" t="s">
         <v>157</v>
       </c>
-      <c r="AG212" t="s">
-        <v>1679</v>
-      </c>
-      <c r="AH212">
-        <v>1440</v>
+      <c r="AI212" s="16">
+        <v>1200</v>
+      </c>
+      <c r="AJ212" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK212">
+        <v>98</v>
+      </c>
+      <c r="AN212">
+        <v>3</v>
       </c>
       <c r="AP212">
         <v>224</v>
       </c>
-    </row>
-    <row r="213" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="AR212" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="213" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1752</v>
       </c>
@@ -36912,27 +37570,78 @@
         <v>1676</v>
       </c>
       <c r="N213">
-        <v>900</v>
+        <v>4680</v>
       </c>
       <c r="O213">
-        <v>2007</v>
-      </c>
-      <c r="X213">
-        <v>25</v>
+        <v>2008</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R213">
+        <v>24</v>
+      </c>
+      <c r="T213">
+        <v>5</v>
+      </c>
+      <c r="U213" t="s">
+        <v>103</v>
+      </c>
+      <c r="V213" t="s">
+        <v>165</v>
+      </c>
+      <c r="W213" t="s">
+        <v>165</v>
+      </c>
+      <c r="X213" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z213">
+        <v>12</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>1774</v>
+      </c>
+      <c r="AB213">
+        <v>2600</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>1691</v>
       </c>
       <c r="AF213" t="s">
-        <v>1691</v>
+        <v>157</v>
+      </c>
+      <c r="AI213" s="16">
+        <v>1200</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK213">
+        <v>99.3</v>
+      </c>
+      <c r="AN213">
+        <v>3</v>
       </c>
       <c r="AP213">
         <v>224</v>
       </c>
-    </row>
-    <row r="214" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="AR213" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="214" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1752</v>
       </c>
       <c r="B214" t="s">
-        <v>1677</v>
+        <v>1722</v>
       </c>
       <c r="C214" t="s">
         <v>456</v>
@@ -36961,46 +37670,58 @@
       <c r="M214" t="s">
         <v>1676</v>
       </c>
-      <c r="Q214" t="s">
-        <v>165</v>
-      </c>
-      <c r="R214" t="s">
-        <v>165</v>
-      </c>
-      <c r="S214" t="s">
-        <v>165</v>
-      </c>
-      <c r="T214" t="s">
-        <v>165</v>
+      <c r="N214">
+        <v>900</v>
+      </c>
+      <c r="O214">
+        <v>2007</v>
       </c>
       <c r="U214" t="s">
-        <v>1712</v>
-      </c>
-      <c r="V214">
-        <v>5</v>
-      </c>
-      <c r="W214">
-        <v>4</v>
+        <v>1775</v>
       </c>
       <c r="X214" s="13" t="s">
-        <v>1766</v>
-      </c>
-      <c r="AN214">
-        <v>3</v>
-      </c>
-      <c r="AO214">
-        <v>50</v>
+        <v>1733</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AH214">
+        <v>1440</v>
+      </c>
+      <c r="AI214">
+        <v>1200</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK214">
+        <v>62.777999999999999</v>
+      </c>
+      <c r="AL214" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM214">
+        <v>13.889000000000003</v>
       </c>
       <c r="AP214">
         <v>224</v>
       </c>
-    </row>
-    <row r="215" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="AR214" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="215" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1752</v>
       </c>
       <c r="B215" t="s">
-        <v>1677</v>
+        <v>1722</v>
       </c>
       <c r="C215" t="s">
         <v>456</v>
@@ -37029,46 +37750,46 @@
       <c r="M215" t="s">
         <v>1676</v>
       </c>
-      <c r="Q215" t="s">
-        <v>165</v>
-      </c>
-      <c r="R215" t="s">
-        <v>165</v>
-      </c>
-      <c r="S215" t="s">
-        <v>165</v>
-      </c>
-      <c r="T215" t="s">
-        <v>165</v>
+      <c r="N215">
+        <v>900</v>
+      </c>
+      <c r="O215">
+        <v>2007</v>
       </c>
       <c r="U215" t="s">
-        <v>1712</v>
-      </c>
-      <c r="V215">
-        <v>5</v>
-      </c>
-      <c r="W215">
-        <v>8</v>
+        <v>1775</v>
       </c>
       <c r="X215" s="13" t="s">
-        <v>1766</v>
-      </c>
-      <c r="AN215">
-        <v>3</v>
-      </c>
-      <c r="AO215">
-        <v>50</v>
+        <v>1735</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ215" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK215">
+        <v>8.1940000000000008</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM215">
+        <v>4.1669999999999998</v>
       </c>
       <c r="AP215">
         <v>224</v>
       </c>
-    </row>
-    <row r="216" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="AR215" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="216" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1752</v>
       </c>
       <c r="B216" t="s">
-        <v>1677</v>
+        <v>1722</v>
       </c>
       <c r="C216" t="s">
         <v>456</v>
@@ -37097,46 +37818,46 @@
       <c r="M216" t="s">
         <v>1676</v>
       </c>
-      <c r="Q216" t="s">
-        <v>165</v>
-      </c>
-      <c r="R216" t="s">
-        <v>165</v>
-      </c>
-      <c r="S216" t="s">
-        <v>165</v>
-      </c>
-      <c r="T216" t="s">
-        <v>165</v>
+      <c r="N216">
+        <v>900</v>
+      </c>
+      <c r="O216">
+        <v>2007</v>
       </c>
       <c r="U216" t="s">
-        <v>1712</v>
-      </c>
-      <c r="V216">
-        <v>5</v>
-      </c>
-      <c r="W216">
-        <v>12</v>
+        <v>1775</v>
       </c>
       <c r="X216" s="13" t="s">
         <v>1766</v>
       </c>
-      <c r="AN216">
-        <v>3</v>
-      </c>
-      <c r="AO216">
-        <v>50</v>
+      <c r="AF216" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ216" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK216">
+        <v>53.472000000000001</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM216">
+        <v>8.0559999999999974</v>
       </c>
       <c r="AP216">
         <v>224</v>
       </c>
-    </row>
-    <row r="217" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="AR216" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="217" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1752</v>
       </c>
       <c r="B217" t="s">
-        <v>1677</v>
+        <v>1722</v>
       </c>
       <c r="C217" t="s">
         <v>456</v>
@@ -37165,46 +37886,55 @@
       <c r="M217" t="s">
         <v>1676</v>
       </c>
-      <c r="Q217" t="s">
-        <v>165</v>
-      </c>
-      <c r="R217" t="s">
-        <v>165</v>
-      </c>
-      <c r="S217" t="s">
-        <v>165</v>
-      </c>
-      <c r="T217" t="s">
-        <v>165</v>
+      <c r="N217">
+        <v>900</v>
+      </c>
+      <c r="O217">
+        <v>2007</v>
       </c>
       <c r="U217" t="s">
-        <v>1712</v>
-      </c>
-      <c r="V217">
-        <v>5</v>
-      </c>
-      <c r="W217">
-        <v>16</v>
-      </c>
-      <c r="X217" s="13" t="s">
-        <v>1766</v>
-      </c>
-      <c r="AN217">
-        <v>3</v>
-      </c>
-      <c r="AO217">
-        <v>50</v>
+        <v>94</v>
+      </c>
+      <c r="X217">
+        <v>25</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AH217">
+        <v>1440</v>
+      </c>
+      <c r="AJ217" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK217">
+        <v>74.861000000000004</v>
+      </c>
+      <c r="AL217" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM217">
+        <v>12.221999999999994</v>
       </c>
       <c r="AP217">
         <v>224</v>
       </c>
-    </row>
-    <row r="218" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="AR217" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="218" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1752</v>
       </c>
       <c r="B218" t="s">
-        <v>1677</v>
+        <v>1784</v>
       </c>
       <c r="C218" t="s">
         <v>456</v>
@@ -37233,2204 +37963,5199 @@
       <c r="M218" t="s">
         <v>1676</v>
       </c>
-      <c r="Q218" t="s">
-        <v>165</v>
-      </c>
-      <c r="R218" t="s">
-        <v>165</v>
-      </c>
-      <c r="S218" t="s">
-        <v>165</v>
-      </c>
-      <c r="T218" t="s">
-        <v>165</v>
+      <c r="O218">
+        <v>2008</v>
       </c>
       <c r="U218" t="s">
+        <v>1681</v>
+      </c>
+      <c r="AJ218" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK218" s="4">
+        <v>40.22</v>
+      </c>
+      <c r="AL218" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM218">
+        <v>5.7860000000000014</v>
+      </c>
+      <c r="AR218" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="219" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C219" t="s">
+        <v>456</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G219" t="s">
+        <v>157</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J219">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K219">
+        <v>121.53</v>
+      </c>
+      <c r="L219">
+        <v>600</v>
+      </c>
+      <c r="M219" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O219">
+        <v>2008</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>165</v>
+      </c>
+      <c r="R219" t="s">
+        <v>165</v>
+      </c>
+      <c r="S219" t="s">
+        <v>165</v>
+      </c>
+      <c r="T219" t="s">
+        <v>165</v>
+      </c>
+      <c r="U219" t="s">
         <v>1712</v>
       </c>
-      <c r="V218">
+      <c r="V219">
         <v>5</v>
       </c>
-      <c r="W218">
+      <c r="W219">
+        <v>4</v>
+      </c>
+      <c r="X219" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AJ219" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK219" s="4">
+        <v>52.478999999999999</v>
+      </c>
+      <c r="AL219" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM219">
+        <v>3.0309999999999988</v>
+      </c>
+      <c r="AN219">
+        <v>3</v>
+      </c>
+      <c r="AO219">
+        <v>50</v>
+      </c>
+      <c r="AP219">
+        <v>224</v>
+      </c>
+      <c r="AR219" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AS219" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="220" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C220" t="s">
+        <v>456</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G220" t="s">
+        <v>157</v>
+      </c>
+      <c r="I220" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J220">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K220">
+        <v>121.53</v>
+      </c>
+      <c r="L220">
+        <v>600</v>
+      </c>
+      <c r="M220" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O220">
+        <v>2008</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>165</v>
+      </c>
+      <c r="R220" t="s">
+        <v>165</v>
+      </c>
+      <c r="S220" t="s">
+        <v>165</v>
+      </c>
+      <c r="T220" t="s">
+        <v>165</v>
+      </c>
+      <c r="U220" t="s">
+        <v>1712</v>
+      </c>
+      <c r="V220">
+        <v>5</v>
+      </c>
+      <c r="W220">
+        <v>8</v>
+      </c>
+      <c r="X220" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK220" s="4">
+        <v>84.435000000000002</v>
+      </c>
+      <c r="AL220" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM220">
+        <v>4.1319999999999908</v>
+      </c>
+      <c r="AN220">
+        <v>3</v>
+      </c>
+      <c r="AO220">
+        <v>50</v>
+      </c>
+      <c r="AP220">
+        <v>224</v>
+      </c>
+      <c r="AR220" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AS220" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="221" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C221" t="s">
+        <v>456</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G221" t="s">
+        <v>157</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J221">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K221">
+        <v>121.53</v>
+      </c>
+      <c r="L221">
+        <v>600</v>
+      </c>
+      <c r="M221" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O221">
+        <v>2008</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>165</v>
+      </c>
+      <c r="R221" t="s">
+        <v>165</v>
+      </c>
+      <c r="S221" t="s">
+        <v>165</v>
+      </c>
+      <c r="T221" t="s">
+        <v>165</v>
+      </c>
+      <c r="U221" t="s">
+        <v>1712</v>
+      </c>
+      <c r="V221">
+        <v>5</v>
+      </c>
+      <c r="W221">
+        <v>12</v>
+      </c>
+      <c r="X221" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AJ221" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK221" s="4">
+        <v>82.230999999999995</v>
+      </c>
+      <c r="AL221" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM221">
+        <v>4.6840000000000117</v>
+      </c>
+      <c r="AN221">
+        <v>3</v>
+      </c>
+      <c r="AO221">
+        <v>50</v>
+      </c>
+      <c r="AP221">
+        <v>224</v>
+      </c>
+      <c r="AR221" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AS221" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="222" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C222" t="s">
+        <v>456</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G222" t="s">
+        <v>157</v>
+      </c>
+      <c r="I222" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J222">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K222">
+        <v>121.53</v>
+      </c>
+      <c r="L222">
+        <v>600</v>
+      </c>
+      <c r="M222" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O222">
+        <v>2008</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>165</v>
+      </c>
+      <c r="R222" t="s">
+        <v>165</v>
+      </c>
+      <c r="S222" t="s">
+        <v>165</v>
+      </c>
+      <c r="T222" t="s">
+        <v>165</v>
+      </c>
+      <c r="U222" t="s">
+        <v>1712</v>
+      </c>
+      <c r="V222">
+        <v>5</v>
+      </c>
+      <c r="W222">
+        <v>16</v>
+      </c>
+      <c r="X222" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AJ222" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK222" s="4">
+        <v>88.292000000000002</v>
+      </c>
+      <c r="AL222" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM222">
+        <v>4.9590000000000032</v>
+      </c>
+      <c r="AN222">
+        <v>3</v>
+      </c>
+      <c r="AO222">
+        <v>50</v>
+      </c>
+      <c r="AP222">
+        <v>224</v>
+      </c>
+      <c r="AR222" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AS222" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="223" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C223" t="s">
+        <v>456</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G223" t="s">
+        <v>157</v>
+      </c>
+      <c r="I223" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J223">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K223">
+        <v>121.53</v>
+      </c>
+      <c r="L223">
+        <v>600</v>
+      </c>
+      <c r="M223" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O223">
+        <v>2008</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>165</v>
+      </c>
+      <c r="R223" t="s">
+        <v>165</v>
+      </c>
+      <c r="S223" t="s">
+        <v>165</v>
+      </c>
+      <c r="T223" t="s">
+        <v>165</v>
+      </c>
+      <c r="U223" t="s">
+        <v>1712</v>
+      </c>
+      <c r="V223">
+        <v>5</v>
+      </c>
+      <c r="W223">
         <v>20</v>
       </c>
-      <c r="X218" s="13" t="s">
+      <c r="X223" s="13" t="s">
         <v>1766</v>
       </c>
-      <c r="AN218">
+      <c r="AJ223" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK223" s="4">
+        <v>85.813000000000002</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM223">
+        <v>5.7849999999999966</v>
+      </c>
+      <c r="AN223">
         <v>3</v>
       </c>
-      <c r="AO218">
+      <c r="AO223">
         <v>50</v>
       </c>
-      <c r="AP218">
+      <c r="AP223">
         <v>224</v>
       </c>
-    </row>
-    <row r="219" spans="1:56" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A219" s="16" t="s">
+      <c r="AR223" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AS223" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="224" spans="1:45" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A224" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B219" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C219" s="16" t="s">
+      <c r="B224" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C224" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D219" s="16" t="s">
+      <c r="D224" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E219" s="16" t="s">
+      <c r="E224" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G219" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I219" s="16" t="s">
+      <c r="G224" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I224" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J219" s="16">
+      <c r="J224" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K219" s="16">
+      <c r="K224" s="11">
         <v>121.53</v>
       </c>
-      <c r="L219" s="16">
+      <c r="L224" s="11">
         <v>600</v>
       </c>
-      <c r="M219" s="16" t="s">
+      <c r="M224" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R219" s="16">
-        <v>21</v>
-      </c>
-      <c r="S219" s="16">
+      <c r="O224" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q224" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R224" s="11">
+        <v>30</v>
+      </c>
+      <c r="S224" s="11">
         <v>33</v>
       </c>
-      <c r="T219" s="16">
+      <c r="T224" s="11">
         <v>15</v>
       </c>
-      <c r="X219" s="17" t="s">
-        <v>1771</v>
-      </c>
-      <c r="Z219" s="16">
-        <v>12</v>
-      </c>
-      <c r="AN219" s="16">
-        <v>3</v>
-      </c>
-      <c r="AO219" s="16">
-        <v>40</v>
-      </c>
-      <c r="AP219" s="16">
-        <v>30</v>
-      </c>
-      <c r="AS219" s="19" t="s">
-        <v>1772</v>
-      </c>
-      <c r="AT219" s="20"/>
-      <c r="AU219" s="20"/>
-      <c r="AV219" s="20"/>
-      <c r="AW219" s="20"/>
-      <c r="AX219" s="20"/>
-      <c r="AY219" s="20"/>
-      <c r="AZ219" s="20"/>
-      <c r="BA219" s="20"/>
-      <c r="BB219" s="20"/>
-      <c r="BC219" s="20"/>
-      <c r="BD219" s="20"/>
-    </row>
-    <row r="220" spans="1:56" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="16" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B220" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="D220" s="16" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>1754</v>
-      </c>
-      <c r="G220" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I220" s="16" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J220" s="16">
-        <v>25.167000000000002</v>
-      </c>
-      <c r="K220" s="16">
-        <v>121.53</v>
-      </c>
-      <c r="L220" s="16">
-        <v>600</v>
-      </c>
-      <c r="M220" s="16" t="s">
-        <v>1676</v>
-      </c>
-      <c r="R220" s="16">
-        <v>21</v>
-      </c>
-      <c r="S220" s="16">
-        <v>33</v>
-      </c>
-      <c r="T220" s="16">
-        <v>5</v>
-      </c>
-      <c r="X220" s="17" t="s">
-        <v>1771</v>
-      </c>
-      <c r="Z220" s="16">
-        <v>12</v>
-      </c>
-      <c r="AN220" s="16">
-        <v>3</v>
-      </c>
-      <c r="AO220" s="16">
-        <v>40</v>
-      </c>
-      <c r="AP220" s="16">
-        <v>30</v>
-      </c>
-      <c r="AT220"/>
-      <c r="AU220"/>
-      <c r="AV220"/>
-    </row>
-    <row r="221" spans="1:56" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="16" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B221" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="D221" s="16" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>1754</v>
-      </c>
-      <c r="G221" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I221" s="16" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J221" s="16">
-        <v>25.167000000000002</v>
-      </c>
-      <c r="K221" s="16">
-        <v>121.53</v>
-      </c>
-      <c r="L221" s="16">
-        <v>600</v>
-      </c>
-      <c r="M221" s="16" t="s">
-        <v>1676</v>
-      </c>
-      <c r="R221" s="16">
-        <v>21</v>
-      </c>
-      <c r="S221" s="16">
-        <v>33</v>
-      </c>
-      <c r="T221" s="18">
-        <v>-20</v>
-      </c>
-      <c r="X221" s="17" t="s">
-        <v>1771</v>
-      </c>
-      <c r="Z221" s="16">
-        <v>12</v>
-      </c>
-      <c r="AN221" s="16">
-        <v>3</v>
-      </c>
-      <c r="AO221" s="16">
-        <v>40</v>
-      </c>
-      <c r="AP221" s="16">
-        <v>30</v>
-      </c>
-      <c r="AT221"/>
-      <c r="AU221"/>
-      <c r="AV221"/>
-    </row>
-    <row r="222" spans="1:56" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="16" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B222" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="D222" s="16" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E222" s="16" t="s">
-        <v>1754</v>
-      </c>
-      <c r="G222" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I222" s="16" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J222" s="16">
-        <v>25.167000000000002</v>
-      </c>
-      <c r="K222" s="16">
-        <v>121.53</v>
-      </c>
-      <c r="L222" s="16">
-        <v>600</v>
-      </c>
-      <c r="M222" s="16" t="s">
-        <v>1676</v>
-      </c>
-      <c r="R222" s="16">
-        <v>21</v>
-      </c>
-      <c r="S222" s="16">
-        <v>33</v>
-      </c>
-      <c r="T222" s="16">
-        <v>15</v>
-      </c>
-      <c r="X222" s="17" t="s">
-        <v>1771</v>
-      </c>
-      <c r="Z222" s="16">
-        <v>12</v>
-      </c>
-      <c r="AN222" s="16">
-        <v>3</v>
-      </c>
-      <c r="AO222" s="16">
-        <v>40</v>
-      </c>
-      <c r="AP222" s="16">
-        <v>122</v>
-      </c>
-      <c r="AT222"/>
-      <c r="AU222"/>
-      <c r="AV222"/>
-    </row>
-    <row r="223" spans="1:56" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="16" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B223" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="D223" s="16" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E223" s="16" t="s">
-        <v>1754</v>
-      </c>
-      <c r="G223" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I223" s="16" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J223" s="16">
-        <v>25.167000000000002</v>
-      </c>
-      <c r="K223" s="16">
-        <v>121.53</v>
-      </c>
-      <c r="L223" s="16">
-        <v>600</v>
-      </c>
-      <c r="M223" s="16" t="s">
-        <v>1676</v>
-      </c>
-      <c r="R223" s="16">
-        <v>21</v>
-      </c>
-      <c r="S223" s="16">
-        <v>33</v>
-      </c>
-      <c r="T223" s="16">
-        <v>5</v>
-      </c>
-      <c r="X223" s="17" t="s">
-        <v>1771</v>
-      </c>
-      <c r="Z223" s="16">
-        <v>12</v>
-      </c>
-      <c r="AN223" s="16">
-        <v>3</v>
-      </c>
-      <c r="AO223" s="16">
-        <v>40</v>
-      </c>
-      <c r="AP223" s="16">
-        <v>122</v>
-      </c>
-      <c r="AT223"/>
-      <c r="AU223"/>
-      <c r="AV223"/>
-    </row>
-    <row r="224" spans="1:56" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="16" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B224" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="D224" s="16" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E224" s="16" t="s">
-        <v>1754</v>
-      </c>
-      <c r="G224" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I224" s="16" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J224" s="16">
-        <v>25.167000000000002</v>
-      </c>
-      <c r="K224" s="16">
-        <v>121.53</v>
-      </c>
-      <c r="L224" s="16">
-        <v>600</v>
-      </c>
-      <c r="M224" s="16" t="s">
-        <v>1676</v>
-      </c>
-      <c r="R224" s="16">
-        <v>21</v>
-      </c>
-      <c r="S224" s="16">
-        <v>33</v>
-      </c>
-      <c r="T224" s="18">
-        <v>-20</v>
+      <c r="V224" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W224" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X224" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z224" s="16">
+      <c r="Z224" s="11">
         <v>12</v>
       </c>
-      <c r="AN224" s="16">
+      <c r="AA224" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB224" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC224" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD224" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF224" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ224" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK224" s="20">
+        <v>52</v>
+      </c>
+      <c r="AN224" s="11">
         <v>3</v>
       </c>
-      <c r="AO224" s="16">
+      <c r="AO224" s="11">
         <v>40</v>
       </c>
-      <c r="AP224" s="16">
-        <v>122</v>
-      </c>
-      <c r="AT224"/>
-      <c r="AU224"/>
-      <c r="AV224"/>
-    </row>
-    <row r="225" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="16" t="s">
+      <c r="AP224" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR224" s="11" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AS224" s="18" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="225" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B225" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C225" s="16" t="s">
+      <c r="B225" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C225" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D225" s="16" t="s">
+      <c r="D225" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E225" s="16" t="s">
+      <c r="E225" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G225" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I225" s="16" t="s">
+      <c r="G225" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I225" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J225" s="16">
+      <c r="J225" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K225" s="16">
+      <c r="K225" s="11">
         <v>121.53</v>
       </c>
-      <c r="L225" s="16">
+      <c r="L225" s="11">
         <v>600</v>
       </c>
-      <c r="M225" s="16" t="s">
+      <c r="M225" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R225" s="16">
-        <v>21</v>
-      </c>
-      <c r="S225" s="16">
+      <c r="O225" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q225" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R225" s="11">
+        <v>30</v>
+      </c>
+      <c r="S225" s="11">
         <v>33</v>
       </c>
-      <c r="T225" s="16">
-        <v>15</v>
+      <c r="T225" s="11">
+        <v>5</v>
+      </c>
+      <c r="V225" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W225" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X225" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z225" s="16">
+      <c r="Z225" s="11">
         <v>12</v>
       </c>
-      <c r="AN225" s="16">
+      <c r="AA225" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB225" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC225" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD225" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF225" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ225" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK225" s="20">
+        <v>70.7</v>
+      </c>
+      <c r="AN225" s="11">
         <v>3</v>
       </c>
-      <c r="AO225" s="16">
+      <c r="AO225" s="11">
         <v>40</v>
       </c>
-      <c r="AP225" s="16">
-        <v>243</v>
-      </c>
-      <c r="AT225"/>
-      <c r="AU225"/>
-      <c r="AV225"/>
-    </row>
-    <row r="226" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="16" t="s">
+      <c r="AP225" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR225" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="226" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B226" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C226" s="16" t="s">
+      <c r="B226" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C226" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D226" s="16" t="s">
+      <c r="D226" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E226" s="16" t="s">
+      <c r="E226" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G226" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I226" s="16" t="s">
+      <c r="G226" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I226" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J226" s="16">
+      <c r="J226" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K226" s="16">
+      <c r="K226" s="11">
         <v>121.53</v>
       </c>
-      <c r="L226" s="16">
+      <c r="L226" s="11">
         <v>600</v>
       </c>
-      <c r="M226" s="16" t="s">
+      <c r="M226" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R226" s="16">
-        <v>21</v>
-      </c>
-      <c r="S226" s="16">
+      <c r="O226" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q226" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R226" s="11">
+        <v>30</v>
+      </c>
+      <c r="S226" s="11">
         <v>33</v>
       </c>
-      <c r="T226" s="16">
-        <v>5</v>
+      <c r="T226" s="19">
+        <v>-20</v>
+      </c>
+      <c r="V226" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W226" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X226" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z226" s="16">
+      <c r="Z226" s="11">
         <v>12</v>
       </c>
-      <c r="AN226" s="16">
+      <c r="AA226" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB226" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC226" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD226" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF226" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ226" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK226" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN226" s="11">
         <v>3</v>
       </c>
-      <c r="AO226" s="16">
+      <c r="AO226" s="11">
         <v>40</v>
       </c>
-      <c r="AP226" s="16">
-        <v>243</v>
-      </c>
-      <c r="AT226"/>
-      <c r="AU226"/>
-      <c r="AV226"/>
-    </row>
-    <row r="227" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="16" t="s">
+      <c r="AP226" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR226" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="227" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B227" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C227" s="16" t="s">
+      <c r="B227" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C227" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D227" s="16" t="s">
+      <c r="D227" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E227" s="16" t="s">
+      <c r="E227" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G227" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I227" s="16" t="s">
+      <c r="G227" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I227" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J227" s="16">
+      <c r="J227" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K227" s="16">
+      <c r="K227" s="11">
         <v>121.53</v>
       </c>
-      <c r="L227" s="16">
+      <c r="L227" s="11">
         <v>600</v>
       </c>
-      <c r="M227" s="16" t="s">
+      <c r="M227" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R227" s="16">
-        <v>21</v>
-      </c>
-      <c r="S227" s="16">
+      <c r="O227" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q227" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R227" s="11">
+        <v>122</v>
+      </c>
+      <c r="S227" s="11">
         <v>33</v>
       </c>
-      <c r="T227" s="18">
-        <v>-20</v>
+      <c r="T227" s="11">
+        <v>15</v>
+      </c>
+      <c r="V227" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W227" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X227" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z227" s="16">
+      <c r="Z227" s="11">
         <v>12</v>
       </c>
-      <c r="AN227" s="16">
+      <c r="AA227" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB227" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC227" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD227" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF227" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ227" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK227" s="20">
+        <v>15.3</v>
+      </c>
+      <c r="AN227" s="11">
         <v>3</v>
       </c>
-      <c r="AO227" s="16">
+      <c r="AO227" s="11">
         <v>40</v>
       </c>
-      <c r="AP227" s="16">
-        <v>243</v>
-      </c>
-      <c r="AT227"/>
-      <c r="AU227"/>
-      <c r="AV227"/>
-    </row>
-    <row r="228" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="16" t="s">
+      <c r="AP227" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR227" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="228" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B228" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C228" s="16" t="s">
+      <c r="B228" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C228" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D228" s="16" t="s">
+      <c r="D228" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E228" s="16" t="s">
+      <c r="E228" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G228" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I228" s="16" t="s">
+      <c r="G228" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I228" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J228" s="16">
+      <c r="J228" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K228" s="16">
+      <c r="K228" s="11">
         <v>121.53</v>
       </c>
-      <c r="L228" s="16">
+      <c r="L228" s="11">
         <v>600</v>
       </c>
-      <c r="M228" s="16" t="s">
+      <c r="M228" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R228" s="16">
-        <v>21</v>
-      </c>
-      <c r="S228" s="16">
+      <c r="O228" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q228" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R228" s="11">
+        <v>122</v>
+      </c>
+      <c r="S228" s="11">
         <v>33</v>
       </c>
-      <c r="T228" s="16">
-        <v>15</v>
+      <c r="T228" s="11">
+        <v>5</v>
+      </c>
+      <c r="V228" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W228" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X228" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z228" s="16">
+      <c r="Z228" s="11">
         <v>12</v>
       </c>
-      <c r="AN228" s="16">
+      <c r="AA228" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB228" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC228" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD228" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF228" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ228" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK228" s="20">
+        <v>58</v>
+      </c>
+      <c r="AN228" s="11">
         <v>3</v>
       </c>
-      <c r="AO228" s="16">
+      <c r="AO228" s="11">
         <v>40</v>
       </c>
-      <c r="AP228" s="16">
-        <v>365</v>
-      </c>
-      <c r="AT228"/>
-      <c r="AU228"/>
-      <c r="AV228"/>
-    </row>
-    <row r="229" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="16" t="s">
+      <c r="AP228" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR228" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="229" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B229" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C229" s="16" t="s">
+      <c r="B229" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C229" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D229" s="16" t="s">
+      <c r="D229" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E229" s="16" t="s">
+      <c r="E229" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G229" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I229" s="16" t="s">
+      <c r="G229" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I229" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J229" s="16">
+      <c r="J229" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K229" s="16">
+      <c r="K229" s="11">
         <v>121.53</v>
       </c>
-      <c r="L229" s="16">
+      <c r="L229" s="11">
         <v>600</v>
       </c>
-      <c r="M229" s="16" t="s">
+      <c r="M229" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R229" s="16">
-        <v>21</v>
-      </c>
-      <c r="S229" s="16">
+      <c r="O229" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q229" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R229" s="11">
+        <v>122</v>
+      </c>
+      <c r="S229" s="11">
         <v>33</v>
       </c>
-      <c r="T229" s="16">
-        <v>5</v>
+      <c r="T229" s="19">
+        <v>-20</v>
+      </c>
+      <c r="V229" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W229" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X229" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z229" s="16">
+      <c r="Z229" s="11">
         <v>12</v>
       </c>
-      <c r="AN229" s="16">
+      <c r="AA229" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB229" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC229" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD229" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF229" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ229" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK229" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN229" s="11">
         <v>3</v>
       </c>
-      <c r="AO229" s="16">
+      <c r="AO229" s="11">
         <v>40</v>
       </c>
-      <c r="AP229" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="230" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="16" t="s">
+      <c r="AP229" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR229" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="230" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B230" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C230" s="16" t="s">
+      <c r="B230" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C230" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D230" s="16" t="s">
+      <c r="D230" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E230" s="16" t="s">
+      <c r="E230" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G230" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I230" s="16" t="s">
+      <c r="G230" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I230" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J230" s="16">
+      <c r="J230" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K230" s="16">
+      <c r="K230" s="11">
         <v>121.53</v>
       </c>
-      <c r="L230" s="16">
+      <c r="L230" s="11">
         <v>600</v>
       </c>
-      <c r="M230" s="16" t="s">
+      <c r="M230" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R230" s="16">
-        <v>21</v>
-      </c>
-      <c r="S230" s="16">
+      <c r="O230" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q230" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R230" s="11">
+        <v>243</v>
+      </c>
+      <c r="S230" s="11">
         <v>33</v>
       </c>
-      <c r="T230" s="18">
-        <v>-20</v>
+      <c r="T230" s="11">
+        <v>15</v>
+      </c>
+      <c r="V230" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W230" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X230" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z230" s="16">
+      <c r="Z230" s="11">
         <v>12</v>
       </c>
-      <c r="AN230" s="16">
+      <c r="AA230" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB230" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC230" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD230" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF230" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ230" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK230" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN230" s="11">
         <v>3</v>
       </c>
-      <c r="AO230" s="16">
+      <c r="AO230" s="11">
         <v>40</v>
       </c>
-      <c r="AP230" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="231" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="16" t="s">
+      <c r="AP230" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR230" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="231" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B231" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C231" s="16" t="s">
+      <c r="B231" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C231" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D231" s="16" t="s">
+      <c r="D231" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E231" s="16" t="s">
+      <c r="E231" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G231" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I231" s="16" t="s">
+      <c r="G231" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I231" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J231" s="16">
+      <c r="J231" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K231" s="16">
+      <c r="K231" s="11">
         <v>121.53</v>
       </c>
-      <c r="L231" s="16">
+      <c r="L231" s="11">
         <v>600</v>
       </c>
-      <c r="M231" s="16" t="s">
+      <c r="M231" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R231" s="16">
-        <v>21</v>
-      </c>
-      <c r="S231" s="16">
-        <v>56</v>
-      </c>
-      <c r="T231" s="16">
-        <v>15</v>
+      <c r="O231" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q231" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R231" s="11">
+        <v>243</v>
+      </c>
+      <c r="S231" s="11">
+        <v>33</v>
+      </c>
+      <c r="T231" s="11">
+        <v>5</v>
+      </c>
+      <c r="V231" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W231" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X231" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z231" s="16">
+      <c r="Z231" s="11">
         <v>12</v>
       </c>
-      <c r="AN231" s="16">
+      <c r="AA231" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB231" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC231" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD231" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF231" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ231" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK231" s="20">
+        <v>22</v>
+      </c>
+      <c r="AN231" s="11">
         <v>3</v>
       </c>
-      <c r="AO231" s="16">
+      <c r="AO231" s="11">
         <v>40</v>
       </c>
-      <c r="AP231" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="232" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="16" t="s">
+      <c r="AP231" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR231" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="232" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B232" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C232" s="16" t="s">
+      <c r="B232" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C232" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D232" s="16" t="s">
+      <c r="D232" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E232" s="16" t="s">
+      <c r="E232" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G232" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I232" s="16" t="s">
+      <c r="G232" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I232" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J232" s="16">
+      <c r="J232" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K232" s="16">
+      <c r="K232" s="11">
         <v>121.53</v>
       </c>
-      <c r="L232" s="16">
+      <c r="L232" s="11">
         <v>600</v>
       </c>
-      <c r="M232" s="16" t="s">
+      <c r="M232" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R232" s="16">
-        <v>21</v>
-      </c>
-      <c r="S232" s="16">
-        <v>56</v>
-      </c>
-      <c r="T232" s="16">
-        <v>5</v>
+      <c r="O232" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q232" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R232" s="11">
+        <v>243</v>
+      </c>
+      <c r="S232" s="11">
+        <v>33</v>
+      </c>
+      <c r="T232" s="19">
+        <v>-20</v>
+      </c>
+      <c r="V232" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W232" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X232" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z232" s="16">
+      <c r="Z232" s="11">
         <v>12</v>
       </c>
-      <c r="AN232" s="16">
+      <c r="AA232" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB232" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC232" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD232" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF232" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ232" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK232" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN232" s="11">
         <v>3</v>
       </c>
-      <c r="AO232" s="16">
+      <c r="AO232" s="11">
         <v>40</v>
       </c>
-      <c r="AP232" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="233" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="16" t="s">
+      <c r="AP232" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR232" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="233" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B233" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C233" s="16" t="s">
+      <c r="B233" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C233" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D233" s="16" t="s">
+      <c r="D233" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E233" s="16" t="s">
+      <c r="E233" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G233" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I233" s="16" t="s">
+      <c r="G233" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I233" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J233" s="16">
+      <c r="J233" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K233" s="16">
+      <c r="K233" s="11">
         <v>121.53</v>
       </c>
-      <c r="L233" s="16">
+      <c r="L233" s="11">
         <v>600</v>
       </c>
-      <c r="M233" s="16" t="s">
+      <c r="M233" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R233" s="16">
-        <v>21</v>
-      </c>
-      <c r="S233" s="16">
-        <v>56</v>
-      </c>
-      <c r="T233" s="18">
-        <v>-20</v>
+      <c r="O233" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q233" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R233" s="11">
+        <v>365</v>
+      </c>
+      <c r="S233" s="11">
+        <v>33</v>
+      </c>
+      <c r="T233" s="11">
+        <v>15</v>
+      </c>
+      <c r="V233" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W233" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X233" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z233" s="16">
+      <c r="Z233" s="11">
         <v>12</v>
       </c>
-      <c r="AN233" s="16">
+      <c r="AA233" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB233" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC233" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD233" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF233" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ233" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK233" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN233" s="11">
         <v>3</v>
       </c>
-      <c r="AO233" s="16">
+      <c r="AO233" s="11">
         <v>40</v>
       </c>
-      <c r="AP233" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="16" t="s">
+      <c r="AP233" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR233" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="234" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B234" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C234" s="16" t="s">
+      <c r="B234" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C234" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D234" s="16" t="s">
+      <c r="D234" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E234" s="16" t="s">
+      <c r="E234" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G234" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I234" s="16" t="s">
+      <c r="G234" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I234" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J234" s="16">
+      <c r="J234" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K234" s="16">
+      <c r="K234" s="11">
         <v>121.53</v>
       </c>
-      <c r="L234" s="16">
+      <c r="L234" s="11">
         <v>600</v>
       </c>
-      <c r="M234" s="16" t="s">
+      <c r="M234" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R234" s="16">
-        <v>21</v>
-      </c>
-      <c r="S234" s="16">
-        <v>56</v>
-      </c>
-      <c r="T234" s="16">
-        <v>15</v>
+      <c r="O234" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q234" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R234" s="11">
+        <v>365</v>
+      </c>
+      <c r="S234" s="11">
+        <v>33</v>
+      </c>
+      <c r="T234" s="11">
+        <v>5</v>
+      </c>
+      <c r="V234" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W234" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X234" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z234" s="16">
+      <c r="Z234" s="11">
         <v>12</v>
       </c>
-      <c r="AN234" s="16">
+      <c r="AA234" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB234" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC234" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD234" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF234" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ234" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK234" s="20">
+        <v>2</v>
+      </c>
+      <c r="AN234" s="11">
         <v>3</v>
       </c>
-      <c r="AO234" s="16">
+      <c r="AO234" s="11">
         <v>40</v>
       </c>
-      <c r="AP234" s="16">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="235" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="16" t="s">
+      <c r="AP234" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR234" s="11" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AS234" s="11" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="235" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B235" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C235" s="16" t="s">
+      <c r="B235" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C235" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D235" s="16" t="s">
+      <c r="D235" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E235" s="16" t="s">
+      <c r="E235" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G235" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I235" s="16" t="s">
+      <c r="G235" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I235" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J235" s="16">
+      <c r="J235" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K235" s="16">
+      <c r="K235" s="11">
         <v>121.53</v>
       </c>
-      <c r="L235" s="16">
+      <c r="L235" s="11">
         <v>600</v>
       </c>
-      <c r="M235" s="16" t="s">
+      <c r="M235" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R235" s="16">
-        <v>21</v>
-      </c>
-      <c r="S235" s="16">
-        <v>56</v>
-      </c>
-      <c r="T235" s="16">
-        <v>5</v>
+      <c r="O235" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q235" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R235" s="11">
+        <v>365</v>
+      </c>
+      <c r="S235" s="11">
+        <v>33</v>
+      </c>
+      <c r="T235" s="19">
+        <v>-20</v>
+      </c>
+      <c r="V235" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W235" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X235" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z235" s="16">
+      <c r="Z235" s="11">
         <v>12</v>
       </c>
-      <c r="AN235" s="16">
+      <c r="AA235" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB235" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC235" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD235" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF235" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ235" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK235" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN235" s="11">
         <v>3</v>
       </c>
-      <c r="AO235" s="16">
+      <c r="AO235" s="11">
         <v>40</v>
       </c>
-      <c r="AP235" s="16">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="236" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="16" t="s">
+      <c r="AP235" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR235" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="236" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B236" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C236" s="16" t="s">
+      <c r="B236" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C236" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D236" s="16" t="s">
+      <c r="D236" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E236" s="16" t="s">
+      <c r="E236" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G236" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I236" s="16" t="s">
+      <c r="G236" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I236" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J236" s="16">
+      <c r="J236" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K236" s="16">
+      <c r="K236" s="11">
         <v>121.53</v>
       </c>
-      <c r="L236" s="16">
+      <c r="L236" s="11">
         <v>600</v>
       </c>
-      <c r="M236" s="16" t="s">
+      <c r="M236" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R236" s="16">
-        <v>21</v>
-      </c>
-      <c r="S236" s="16">
+      <c r="O236" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q236" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R236" s="11">
+        <v>30</v>
+      </c>
+      <c r="S236" s="11">
         <v>56</v>
       </c>
-      <c r="T236" s="18">
-        <v>-20</v>
+      <c r="T236" s="11">
+        <v>15</v>
+      </c>
+      <c r="V236" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W236" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X236" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z236" s="16">
+      <c r="Z236" s="11">
         <v>12</v>
       </c>
-      <c r="AN236" s="16">
+      <c r="AA236" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB236" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC236" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD236" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF236" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ236" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK236" s="20">
+        <v>73.3</v>
+      </c>
+      <c r="AN236" s="11">
         <v>3</v>
       </c>
-      <c r="AO236" s="16">
+      <c r="AO236" s="11">
         <v>40</v>
       </c>
-      <c r="AP236" s="16">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="237" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="16" t="s">
+      <c r="AP236" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR236" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="237" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B237" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C237" s="16" t="s">
+      <c r="B237" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C237" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D237" s="16" t="s">
+      <c r="D237" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E237" s="16" t="s">
+      <c r="E237" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G237" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I237" s="16" t="s">
+      <c r="G237" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I237" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J237" s="16">
+      <c r="J237" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K237" s="16">
+      <c r="K237" s="11">
         <v>121.53</v>
       </c>
-      <c r="L237" s="16">
+      <c r="L237" s="11">
         <v>600</v>
       </c>
-      <c r="M237" s="16" t="s">
+      <c r="M237" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R237" s="16">
-        <v>21</v>
-      </c>
-      <c r="S237" s="16">
+      <c r="O237" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q237" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R237" s="11">
+        <v>30</v>
+      </c>
+      <c r="S237" s="11">
         <v>56</v>
       </c>
-      <c r="T237" s="16">
-        <v>15</v>
+      <c r="T237" s="11">
+        <v>5</v>
+      </c>
+      <c r="V237" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W237" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X237" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z237" s="16">
+      <c r="Z237" s="11">
         <v>12</v>
       </c>
-      <c r="AN237" s="16">
+      <c r="AA237" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB237" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC237" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD237" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF237" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ237" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK237" s="20">
+        <v>72</v>
+      </c>
+      <c r="AN237" s="11">
         <v>3</v>
       </c>
-      <c r="AO237" s="16">
+      <c r="AO237" s="11">
         <v>40</v>
       </c>
-      <c r="AP237" s="16">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="238" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="16" t="s">
+      <c r="AP237" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR237" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="238" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B238" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C238" s="16" t="s">
+      <c r="B238" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C238" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D238" s="16" t="s">
+      <c r="D238" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E238" s="16" t="s">
+      <c r="E238" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G238" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I238" s="16" t="s">
+      <c r="G238" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I238" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J238" s="16">
+      <c r="J238" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K238" s="16">
+      <c r="K238" s="11">
         <v>121.53</v>
       </c>
-      <c r="L238" s="16">
+      <c r="L238" s="11">
         <v>600</v>
       </c>
-      <c r="M238" s="16" t="s">
+      <c r="M238" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R238" s="16">
-        <v>21</v>
-      </c>
-      <c r="S238" s="16">
+      <c r="O238" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q238" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R238" s="11">
+        <v>30</v>
+      </c>
+      <c r="S238" s="11">
         <v>56</v>
       </c>
-      <c r="T238" s="16">
-        <v>5</v>
+      <c r="T238" s="19">
+        <v>-20</v>
+      </c>
+      <c r="V238" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W238" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X238" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z238" s="16">
+      <c r="Z238" s="11">
         <v>12</v>
       </c>
-      <c r="AN238" s="16">
+      <c r="AA238" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB238" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC238" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD238" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF238" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ238" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK238" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN238" s="11">
         <v>3</v>
       </c>
-      <c r="AO238" s="16">
+      <c r="AO238" s="11">
         <v>40</v>
       </c>
-      <c r="AP238" s="16">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="239" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="16" t="s">
+      <c r="AP238" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR238" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="239" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B239" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C239" s="16" t="s">
+      <c r="B239" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C239" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D239" s="16" t="s">
+      <c r="D239" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E239" s="16" t="s">
+      <c r="E239" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G239" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I239" s="16" t="s">
+      <c r="G239" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I239" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J239" s="16">
+      <c r="J239" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K239" s="16">
+      <c r="K239" s="11">
         <v>121.53</v>
       </c>
-      <c r="L239" s="16">
+      <c r="L239" s="11">
         <v>600</v>
       </c>
-      <c r="M239" s="16" t="s">
+      <c r="M239" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R239" s="16">
-        <v>21</v>
-      </c>
-      <c r="S239" s="16">
+      <c r="O239" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q239" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R239" s="11">
+        <v>122</v>
+      </c>
+      <c r="S239" s="11">
         <v>56</v>
       </c>
-      <c r="T239" s="18">
-        <v>-20</v>
+      <c r="T239" s="11">
+        <v>15</v>
+      </c>
+      <c r="V239" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W239" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X239" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z239" s="16">
+      <c r="Z239" s="11">
         <v>12</v>
       </c>
-      <c r="AN239" s="16">
+      <c r="AA239" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB239" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC239" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD239" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF239" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ239" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK239" s="20">
+        <v>8</v>
+      </c>
+      <c r="AN239" s="11">
         <v>3</v>
       </c>
-      <c r="AO239" s="16">
+      <c r="AO239" s="11">
         <v>40</v>
       </c>
-      <c r="AP239" s="16">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="240" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="16" t="s">
+      <c r="AP239" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR239" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="240" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B240" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C240" s="16" t="s">
+      <c r="B240" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C240" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D240" s="16" t="s">
+      <c r="D240" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E240" s="16" t="s">
+      <c r="E240" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G240" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I240" s="16" t="s">
+      <c r="G240" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I240" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J240" s="16">
+      <c r="J240" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K240" s="16">
+      <c r="K240" s="11">
         <v>121.53</v>
       </c>
-      <c r="L240" s="16">
+      <c r="L240" s="11">
         <v>600</v>
       </c>
-      <c r="M240" s="16" t="s">
+      <c r="M240" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R240" s="16">
-        <v>21</v>
-      </c>
-      <c r="S240" s="16">
+      <c r="O240" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q240" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R240" s="11">
+        <v>122</v>
+      </c>
+      <c r="S240" s="11">
         <v>56</v>
       </c>
-      <c r="T240" s="16">
-        <v>15</v>
+      <c r="T240" s="11">
+        <v>5</v>
+      </c>
+      <c r="V240" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W240" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X240" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z240" s="16">
+      <c r="Z240" s="11">
         <v>12</v>
       </c>
-      <c r="AN240" s="16">
+      <c r="AA240" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB240" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC240" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD240" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF240" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ240" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK240" s="20">
+        <v>62.7</v>
+      </c>
+      <c r="AN240" s="11">
         <v>3</v>
       </c>
-      <c r="AO240" s="16">
+      <c r="AO240" s="11">
         <v>40</v>
       </c>
-      <c r="AP240" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="241" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="16" t="s">
+      <c r="AP240" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR240" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="241" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B241" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C241" s="16" t="s">
+      <c r="B241" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C241" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D241" s="16" t="s">
+      <c r="D241" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E241" s="16" t="s">
+      <c r="E241" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G241" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I241" s="16" t="s">
+      <c r="G241" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I241" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J241" s="16">
+      <c r="J241" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K241" s="16">
+      <c r="K241" s="11">
         <v>121.53</v>
       </c>
-      <c r="L241" s="16">
+      <c r="L241" s="11">
         <v>600</v>
       </c>
-      <c r="M241" s="16" t="s">
+      <c r="M241" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R241" s="16">
-        <v>21</v>
-      </c>
-      <c r="S241" s="16">
+      <c r="O241" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q241" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R241" s="11">
+        <v>122</v>
+      </c>
+      <c r="S241" s="11">
         <v>56</v>
       </c>
-      <c r="T241" s="16">
-        <v>5</v>
+      <c r="T241" s="19">
+        <v>-20</v>
+      </c>
+      <c r="V241" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W241" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X241" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z241" s="16">
+      <c r="Z241" s="11">
         <v>12</v>
       </c>
-      <c r="AN241" s="16">
+      <c r="AA241" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB241" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC241" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD241" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF241" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ241" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK241" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN241" s="11">
         <v>3</v>
       </c>
-      <c r="AO241" s="16">
+      <c r="AO241" s="11">
         <v>40</v>
       </c>
-      <c r="AP241" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="242" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="16" t="s">
+      <c r="AP241" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR241" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="242" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B242" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C242" s="16" t="s">
+      <c r="B242" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C242" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D242" s="16" t="s">
+      <c r="D242" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E242" s="16" t="s">
+      <c r="E242" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G242" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I242" s="16" t="s">
+      <c r="G242" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I242" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J242" s="16">
+      <c r="J242" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K242" s="16">
+      <c r="K242" s="11">
         <v>121.53</v>
       </c>
-      <c r="L242" s="16">
+      <c r="L242" s="11">
         <v>600</v>
       </c>
-      <c r="M242" s="16" t="s">
+      <c r="M242" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R242" s="16">
-        <v>21</v>
-      </c>
-      <c r="S242" s="16">
+      <c r="O242" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q242" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R242" s="11">
+        <v>243</v>
+      </c>
+      <c r="S242" s="11">
         <v>56</v>
       </c>
-      <c r="T242" s="18">
-        <v>-20</v>
+      <c r="T242" s="11">
+        <v>15</v>
+      </c>
+      <c r="V242" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W242" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X242" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z242" s="16">
+      <c r="Z242" s="11">
         <v>12</v>
       </c>
-      <c r="AN242" s="16">
+      <c r="AA242" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB242" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC242" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD242" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF242" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ242" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK242" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN242" s="11">
         <v>3</v>
       </c>
-      <c r="AO242" s="16">
+      <c r="AO242" s="11">
         <v>40</v>
       </c>
-      <c r="AP242" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="243" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="16" t="s">
+      <c r="AP242" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR242" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="243" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B243" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C243" s="16" t="s">
+      <c r="B243" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C243" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D243" s="16" t="s">
+      <c r="D243" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E243" s="16" t="s">
+      <c r="E243" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G243" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I243" s="16" t="s">
+      <c r="G243" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I243" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J243" s="16">
+      <c r="J243" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K243" s="16">
+      <c r="K243" s="11">
         <v>121.53</v>
       </c>
-      <c r="L243" s="16">
+      <c r="L243" s="11">
         <v>600</v>
       </c>
-      <c r="M243" s="16" t="s">
+      <c r="M243" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R243" s="16">
-        <v>21</v>
-      </c>
-      <c r="S243" s="16">
-        <v>92</v>
-      </c>
-      <c r="T243" s="16">
-        <v>15</v>
+      <c r="O243" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q243" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R243" s="11">
+        <v>243</v>
+      </c>
+      <c r="S243" s="11">
+        <v>56</v>
+      </c>
+      <c r="T243" s="11">
+        <v>5</v>
+      </c>
+      <c r="V243" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W243" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X243" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z243" s="16">
+      <c r="Z243" s="11">
         <v>12</v>
       </c>
-      <c r="AN243" s="16">
+      <c r="AA243" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB243" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC243" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD243" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF243" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ243" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK243" s="20">
+        <v>24.7</v>
+      </c>
+      <c r="AN243" s="11">
         <v>3</v>
       </c>
-      <c r="AO243" s="16">
+      <c r="AO243" s="11">
         <v>40</v>
       </c>
-      <c r="AP243" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="244" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="16" t="s">
+      <c r="AP243" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR243" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="244" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B244" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C244" s="16" t="s">
+      <c r="B244" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C244" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D244" s="16" t="s">
+      <c r="D244" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E244" s="16" t="s">
+      <c r="E244" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G244" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I244" s="16" t="s">
+      <c r="G244" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I244" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J244" s="16">
+      <c r="J244" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K244" s="16">
+      <c r="K244" s="11">
         <v>121.53</v>
       </c>
-      <c r="L244" s="16">
+      <c r="L244" s="11">
         <v>600</v>
       </c>
-      <c r="M244" s="16" t="s">
+      <c r="M244" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R244" s="16">
-        <v>21</v>
-      </c>
-      <c r="S244" s="16">
-        <v>92</v>
-      </c>
-      <c r="T244" s="16">
-        <v>5</v>
+      <c r="O244" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q244" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R244" s="11">
+        <v>243</v>
+      </c>
+      <c r="S244" s="11">
+        <v>56</v>
+      </c>
+      <c r="T244" s="19">
+        <v>-20</v>
+      </c>
+      <c r="V244" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W244" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X244" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z244" s="16">
+      <c r="Z244" s="11">
         <v>12</v>
       </c>
-      <c r="AN244" s="16">
+      <c r="AA244" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB244" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC244" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD244" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF244" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ244" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK244" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN244" s="11">
         <v>3</v>
       </c>
-      <c r="AO244" s="16">
+      <c r="AO244" s="11">
         <v>40</v>
       </c>
-      <c r="AP244" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="245" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="16" t="s">
+      <c r="AP244" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR244" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="245" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B245" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C245" s="16" t="s">
+      <c r="B245" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C245" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D245" s="16" t="s">
+      <c r="D245" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E245" s="16" t="s">
+      <c r="E245" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G245" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I245" s="16" t="s">
+      <c r="G245" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I245" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J245" s="16">
+      <c r="J245" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K245" s="16">
+      <c r="K245" s="11">
         <v>121.53</v>
       </c>
-      <c r="L245" s="16">
+      <c r="L245" s="11">
         <v>600</v>
       </c>
-      <c r="M245" s="16" t="s">
+      <c r="M245" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R245" s="16">
-        <v>21</v>
-      </c>
-      <c r="S245" s="16">
-        <v>92</v>
-      </c>
-      <c r="T245" s="18">
-        <v>-20</v>
+      <c r="O245" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q245" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R245" s="11">
+        <v>365</v>
+      </c>
+      <c r="S245" s="11">
+        <v>56</v>
+      </c>
+      <c r="T245" s="11">
+        <v>15</v>
+      </c>
+      <c r="V245" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W245" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X245" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z245" s="16">
+      <c r="Z245" s="11">
         <v>12</v>
       </c>
-      <c r="AN245" s="16">
+      <c r="AA245" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB245" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC245" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD245" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF245" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ245" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK245" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN245" s="11">
         <v>3</v>
       </c>
-      <c r="AO245" s="16">
+      <c r="AO245" s="11">
         <v>40</v>
       </c>
-      <c r="AP245" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="246" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="16" t="s">
+      <c r="AP245" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR245" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="246" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B246" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C246" s="16" t="s">
+      <c r="B246" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C246" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D246" s="16" t="s">
+      <c r="D246" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E246" s="16" t="s">
+      <c r="E246" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G246" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I246" s="16" t="s">
+      <c r="G246" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I246" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J246" s="16">
+      <c r="J246" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K246" s="16">
+      <c r="K246" s="11">
         <v>121.53</v>
       </c>
-      <c r="L246" s="16">
+      <c r="L246" s="11">
         <v>600</v>
       </c>
-      <c r="M246" s="16" t="s">
+      <c r="M246" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R246" s="16">
-        <v>21</v>
-      </c>
-      <c r="S246" s="16">
-        <v>92</v>
-      </c>
-      <c r="T246" s="16">
-        <v>15</v>
+      <c r="O246" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q246" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R246" s="11">
+        <v>365</v>
+      </c>
+      <c r="S246" s="11">
+        <v>56</v>
+      </c>
+      <c r="T246" s="11">
+        <v>5</v>
+      </c>
+      <c r="V246" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W246" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X246" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z246" s="16">
+      <c r="Z246" s="11">
         <v>12</v>
       </c>
-      <c r="AN246" s="16">
+      <c r="AA246" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB246" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC246" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD246" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF246" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ246" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK246" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="AN246" s="11">
         <v>3</v>
       </c>
-      <c r="AO246" s="16">
+      <c r="AO246" s="11">
         <v>40</v>
       </c>
-      <c r="AP246" s="16">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="247" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="16" t="s">
+      <c r="AP246" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR246" s="11" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AS246" s="11" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="247" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B247" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C247" s="16" t="s">
+      <c r="B247" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C247" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D247" s="16" t="s">
+      <c r="D247" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E247" s="16" t="s">
+      <c r="E247" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G247" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I247" s="16" t="s">
+      <c r="G247" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I247" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J247" s="16">
+      <c r="J247" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K247" s="16">
+      <c r="K247" s="11">
         <v>121.53</v>
       </c>
-      <c r="L247" s="16">
+      <c r="L247" s="11">
         <v>600</v>
       </c>
-      <c r="M247" s="16" t="s">
+      <c r="M247" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R247" s="16">
-        <v>21</v>
-      </c>
-      <c r="S247" s="16">
-        <v>92</v>
-      </c>
-      <c r="T247" s="16">
-        <v>5</v>
+      <c r="O247" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q247" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R247" s="11">
+        <v>365</v>
+      </c>
+      <c r="S247" s="11">
+        <v>56</v>
+      </c>
+      <c r="T247" s="19">
+        <v>-20</v>
+      </c>
+      <c r="V247" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W247" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X247" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z247" s="16">
+      <c r="Z247" s="11">
         <v>12</v>
       </c>
-      <c r="AN247" s="16">
+      <c r="AA247" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB247" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC247" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD247" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF247" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ247" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK247" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN247" s="11">
         <v>3</v>
       </c>
-      <c r="AO247" s="16">
+      <c r="AO247" s="11">
         <v>40</v>
       </c>
-      <c r="AP247" s="16">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="248" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="16" t="s">
+      <c r="AP247" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR247" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="248" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B248" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C248" s="16" t="s">
+      <c r="B248" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C248" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D248" s="16" t="s">
+      <c r="D248" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E248" s="16" t="s">
+      <c r="E248" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G248" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I248" s="16" t="s">
+      <c r="G248" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I248" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J248" s="16">
+      <c r="J248" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K248" s="16">
+      <c r="K248" s="11">
         <v>121.53</v>
       </c>
-      <c r="L248" s="16">
+      <c r="L248" s="11">
         <v>600</v>
       </c>
-      <c r="M248" s="16" t="s">
+      <c r="M248" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R248" s="16">
-        <v>21</v>
-      </c>
-      <c r="S248" s="16">
+      <c r="O248" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q248" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R248" s="11">
+        <v>30</v>
+      </c>
+      <c r="S248" s="11">
         <v>92</v>
       </c>
-      <c r="T248" s="18">
-        <v>-20</v>
+      <c r="T248" s="11">
+        <v>15</v>
+      </c>
+      <c r="V248" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W248" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X248" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z248" s="16">
+      <c r="Z248" s="11">
         <v>12</v>
       </c>
-      <c r="AN248" s="16">
+      <c r="AA248" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB248" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC248" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD248" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF248" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ248" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK248" s="20">
+        <v>69.3</v>
+      </c>
+      <c r="AN248" s="11">
         <v>3</v>
       </c>
-      <c r="AO248" s="16">
+      <c r="AO248" s="11">
         <v>40</v>
       </c>
-      <c r="AP248" s="16">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="249" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="16" t="s">
+      <c r="AP248" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR248" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="249" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B249" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C249" s="16" t="s">
+      <c r="B249" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C249" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D249" s="16" t="s">
+      <c r="D249" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E249" s="16" t="s">
+      <c r="E249" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G249" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I249" s="16" t="s">
+      <c r="G249" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I249" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J249" s="16">
+      <c r="J249" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K249" s="16">
+      <c r="K249" s="11">
         <v>121.53</v>
       </c>
-      <c r="L249" s="16">
+      <c r="L249" s="11">
         <v>600</v>
       </c>
-      <c r="M249" s="16" t="s">
+      <c r="M249" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R249" s="16">
-        <v>21</v>
-      </c>
-      <c r="S249" s="16">
+      <c r="O249" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q249" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R249" s="11">
+        <v>30</v>
+      </c>
+      <c r="S249" s="11">
         <v>92</v>
       </c>
-      <c r="T249" s="16">
-        <v>15</v>
+      <c r="T249" s="11">
+        <v>5</v>
+      </c>
+      <c r="V249" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W249" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X249" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z249" s="16">
+      <c r="Z249" s="11">
         <v>12</v>
       </c>
-      <c r="AN249" s="16">
+      <c r="AA249" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB249" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC249" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD249" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF249" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ249" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK249" s="20">
+        <v>78</v>
+      </c>
+      <c r="AN249" s="11">
         <v>3</v>
       </c>
-      <c r="AO249" s="16">
+      <c r="AO249" s="11">
         <v>40</v>
       </c>
-      <c r="AP249" s="16">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="250" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="16" t="s">
+      <c r="AP249" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR249" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="250" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B250" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C250" s="16" t="s">
+      <c r="B250" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C250" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D250" s="16" t="s">
+      <c r="D250" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E250" s="16" t="s">
+      <c r="E250" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G250" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I250" s="16" t="s">
+      <c r="G250" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I250" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J250" s="16">
+      <c r="J250" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K250" s="16">
+      <c r="K250" s="11">
         <v>121.53</v>
       </c>
-      <c r="L250" s="16">
+      <c r="L250" s="11">
         <v>600</v>
       </c>
-      <c r="M250" s="16" t="s">
+      <c r="M250" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R250" s="16">
-        <v>21</v>
-      </c>
-      <c r="S250" s="16">
+      <c r="O250" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q250" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R250" s="11">
+        <v>30</v>
+      </c>
+      <c r="S250" s="11">
         <v>92</v>
       </c>
-      <c r="T250" s="16">
-        <v>5</v>
+      <c r="T250" s="19">
+        <v>-20</v>
+      </c>
+      <c r="V250" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W250" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X250" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z250" s="16">
+      <c r="Z250" s="11">
         <v>12</v>
       </c>
-      <c r="AN250" s="16">
+      <c r="AA250" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB250" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC250" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD250" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF250" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ250" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK250" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN250" s="11">
         <v>3</v>
       </c>
-      <c r="AO250" s="16">
+      <c r="AO250" s="11">
         <v>40</v>
       </c>
-      <c r="AP250" s="16">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="251" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="16" t="s">
+      <c r="AP250" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR250" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="251" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B251" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C251" s="16" t="s">
+      <c r="B251" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C251" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D251" s="16" t="s">
+      <c r="D251" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E251" s="16" t="s">
+      <c r="E251" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G251" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I251" s="16" t="s">
+      <c r="G251" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I251" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J251" s="16">
+      <c r="J251" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K251" s="16">
+      <c r="K251" s="11">
         <v>121.53</v>
       </c>
-      <c r="L251" s="16">
+      <c r="L251" s="11">
         <v>600</v>
       </c>
-      <c r="M251" s="16" t="s">
+      <c r="M251" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R251" s="16">
-        <v>21</v>
-      </c>
-      <c r="S251" s="16">
+      <c r="O251" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q251" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R251" s="11">
+        <v>122</v>
+      </c>
+      <c r="S251" s="11">
         <v>92</v>
       </c>
-      <c r="T251" s="18">
-        <v>-20</v>
+      <c r="T251" s="11">
+        <v>15</v>
+      </c>
+      <c r="V251" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W251" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X251" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z251" s="16">
+      <c r="Z251" s="11">
         <v>12</v>
       </c>
-      <c r="AN251" s="16">
+      <c r="AA251" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB251" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC251" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD251" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF251" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ251" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK251" s="20">
+        <v>28.7</v>
+      </c>
+      <c r="AN251" s="11">
         <v>3</v>
       </c>
-      <c r="AO251" s="16">
+      <c r="AO251" s="11">
         <v>40</v>
       </c>
-      <c r="AP251" s="16">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="252" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="16" t="s">
+      <c r="AP251" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR251" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="252" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B252" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C252" s="16" t="s">
+      <c r="B252" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C252" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D252" s="16" t="s">
+      <c r="D252" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E252" s="16" t="s">
+      <c r="E252" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G252" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I252" s="16" t="s">
+      <c r="G252" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I252" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J252" s="16">
+      <c r="J252" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K252" s="16">
+      <c r="K252" s="11">
         <v>121.53</v>
       </c>
-      <c r="L252" s="16">
+      <c r="L252" s="11">
         <v>600</v>
       </c>
-      <c r="M252" s="16" t="s">
+      <c r="M252" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R252" s="16">
-        <v>21</v>
-      </c>
-      <c r="S252" s="16">
+      <c r="O252" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q252" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R252" s="11">
+        <v>122</v>
+      </c>
+      <c r="S252" s="11">
         <v>92</v>
       </c>
-      <c r="T252" s="16">
-        <v>15</v>
+      <c r="T252" s="11">
+        <v>5</v>
+      </c>
+      <c r="V252" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W252" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X252" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z252" s="16">
+      <c r="Z252" s="11">
         <v>12</v>
       </c>
-      <c r="AN252" s="16">
+      <c r="AA252" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB252" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC252" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD252" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF252" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ252" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK252" s="20">
+        <v>58</v>
+      </c>
+      <c r="AN252" s="11">
         <v>3</v>
       </c>
-      <c r="AO252" s="16">
+      <c r="AO252" s="11">
         <v>40</v>
       </c>
-      <c r="AP252" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="253" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="16" t="s">
+      <c r="AP252" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR252" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="253" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B253" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C253" s="16" t="s">
+      <c r="B253" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C253" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D253" s="16" t="s">
+      <c r="D253" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E253" s="16" t="s">
+      <c r="E253" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G253" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I253" s="16" t="s">
+      <c r="G253" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I253" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J253" s="16">
+      <c r="J253" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K253" s="16">
+      <c r="K253" s="11">
         <v>121.53</v>
       </c>
-      <c r="L253" s="16">
+      <c r="L253" s="11">
         <v>600</v>
       </c>
-      <c r="M253" s="16" t="s">
+      <c r="M253" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R253" s="16">
-        <v>21</v>
-      </c>
-      <c r="S253" s="16">
+      <c r="O253" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q253" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R253" s="11">
+        <v>122</v>
+      </c>
+      <c r="S253" s="11">
         <v>92</v>
       </c>
-      <c r="T253" s="16">
-        <v>5</v>
+      <c r="T253" s="19">
+        <v>-20</v>
+      </c>
+      <c r="V253" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W253" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X253" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z253" s="16">
+      <c r="Z253" s="11">
         <v>12</v>
       </c>
-      <c r="AN253" s="16">
+      <c r="AA253" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB253" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC253" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD253" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF253" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ253" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK253" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN253" s="11">
         <v>3</v>
       </c>
-      <c r="AO253" s="16">
+      <c r="AO253" s="11">
         <v>40</v>
       </c>
-      <c r="AP253" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="254" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="16" t="s">
+      <c r="AP253" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR253" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="254" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B254" s="16" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C254" s="16" t="s">
+      <c r="B254" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C254" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D254" s="16" t="s">
+      <c r="D254" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="E254" s="16" t="s">
+      <c r="E254" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="G254" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I254" s="16" t="s">
+      <c r="G254" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I254" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="J254" s="16">
+      <c r="J254" s="11">
         <v>25.167000000000002</v>
       </c>
-      <c r="K254" s="16">
+      <c r="K254" s="11">
         <v>121.53</v>
       </c>
-      <c r="L254" s="16">
+      <c r="L254" s="11">
         <v>600</v>
       </c>
-      <c r="M254" s="16" t="s">
+      <c r="M254" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="R254" s="16">
-        <v>21</v>
-      </c>
-      <c r="S254" s="16">
+      <c r="O254" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q254" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R254" s="11">
+        <v>243</v>
+      </c>
+      <c r="S254" s="11">
         <v>92</v>
       </c>
-      <c r="T254" s="18">
-        <v>-20</v>
+      <c r="T254" s="11">
+        <v>15</v>
+      </c>
+      <c r="V254" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W254" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="X254" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="Z254" s="16">
+      <c r="Z254" s="11">
         <v>12</v>
       </c>
-      <c r="AN254" s="16">
+      <c r="AA254" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB254" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC254" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD254" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF254" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ254" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK254" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN254" s="11">
         <v>3</v>
       </c>
-      <c r="AO254" s="16">
+      <c r="AO254" s="11">
         <v>40</v>
       </c>
-      <c r="AP254" s="16">
+      <c r="AP254" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR254" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="255" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="11" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G255" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I255" s="11" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J255" s="11">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K255" s="11">
+        <v>121.53</v>
+      </c>
+      <c r="L255" s="11">
+        <v>600</v>
+      </c>
+      <c r="M255" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O255" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q255" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R255" s="11">
+        <v>243</v>
+      </c>
+      <c r="S255" s="11">
+        <v>92</v>
+      </c>
+      <c r="T255" s="11">
+        <v>5</v>
+      </c>
+      <c r="V255" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W255" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X255" s="17" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Z255" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA255" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB255" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC255" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD255" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF255" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ255" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK255" s="20">
+        <v>51.3</v>
+      </c>
+      <c r="AN255" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO255" s="11">
+        <v>40</v>
+      </c>
+      <c r="AP255" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR255" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="256" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="11" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G256" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I256" s="11" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J256" s="11">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K256" s="11">
+        <v>121.53</v>
+      </c>
+      <c r="L256" s="11">
+        <v>600</v>
+      </c>
+      <c r="M256" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O256" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q256" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R256" s="11">
+        <v>243</v>
+      </c>
+      <c r="S256" s="11">
+        <v>92</v>
+      </c>
+      <c r="T256" s="19">
+        <v>-20</v>
+      </c>
+      <c r="V256" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W256" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X256" s="17" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Z256" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA256" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB256" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC256" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD256" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF256" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ256" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK256" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN256" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO256" s="11">
+        <v>40</v>
+      </c>
+      <c r="AP256" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR256" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="257" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="11" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G257" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I257" s="11" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J257" s="11">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K257" s="11">
+        <v>121.53</v>
+      </c>
+      <c r="L257" s="11">
+        <v>600</v>
+      </c>
+      <c r="M257" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O257" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q257" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R257" s="11">
         <v>365</v>
       </c>
+      <c r="S257" s="11">
+        <v>92</v>
+      </c>
+      <c r="T257" s="11">
+        <v>15</v>
+      </c>
+      <c r="V257" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W257" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X257" s="17" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Z257" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA257" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB257" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC257" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD257" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF257" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ257" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK257" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN257" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO257" s="11">
+        <v>40</v>
+      </c>
+      <c r="AP257" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR257" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="258" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="11" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G258" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I258" s="11" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J258" s="11">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K258" s="11">
+        <v>121.53</v>
+      </c>
+      <c r="L258" s="11">
+        <v>600</v>
+      </c>
+      <c r="M258" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O258" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q258" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R258" s="11">
+        <v>365</v>
+      </c>
+      <c r="S258" s="11">
+        <v>92</v>
+      </c>
+      <c r="T258" s="11">
+        <v>5</v>
+      </c>
+      <c r="V258" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W258" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X258" s="17" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Z258" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA258" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB258" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC258" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD258" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF258" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ258" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK258" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN258" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO258" s="11">
+        <v>40</v>
+      </c>
+      <c r="AP258" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR258" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="259" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="11" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G259" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I259" s="11" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J259" s="11">
+        <v>25.167000000000002</v>
+      </c>
+      <c r="K259" s="11">
+        <v>121.53</v>
+      </c>
+      <c r="L259" s="11">
+        <v>600</v>
+      </c>
+      <c r="M259" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O259" s="11">
+        <v>2006</v>
+      </c>
+      <c r="Q259" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R259" s="11">
+        <v>365</v>
+      </c>
+      <c r="S259" s="11">
+        <v>92</v>
+      </c>
+      <c r="T259" s="19">
+        <v>-20</v>
+      </c>
+      <c r="V259" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W259" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X259" s="17" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Z259" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA259" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB259" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC259" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD259" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AF259" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ259" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK259" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN259" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO259" s="11">
+        <v>40</v>
+      </c>
+      <c r="AP259" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR259" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="260" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A260" s="11" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G260" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I260" s="11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J260" s="11">
+        <v>24.867000000000001</v>
+      </c>
+      <c r="K260" s="11">
+        <v>121.767</v>
+      </c>
+      <c r="L260" s="11">
+        <v>500</v>
+      </c>
+      <c r="M260" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N260" s="11">
+        <v>18200</v>
+      </c>
+      <c r="O260" s="11">
+        <v>2008</v>
+      </c>
+      <c r="Q260" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R260" s="11">
+        <v>7</v>
+      </c>
+      <c r="T260" s="19">
+        <v>5</v>
+      </c>
+      <c r="V260" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W260" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X260" s="13" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Z260" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA260" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB260" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC260" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD260" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AE260" s="11"/>
+      <c r="AF260" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ260" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK260">
+        <v>97.888000000000005</v>
+      </c>
+      <c r="AL260" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM260">
+        <v>1.2560000000000002</v>
+      </c>
+      <c r="AN260" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO260" s="11">
+        <v>50</v>
+      </c>
+      <c r="AP260" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR260" s="11" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="261" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A261" s="11" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D261" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G261" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I261" s="11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J261" s="11">
+        <v>24.867000000000001</v>
+      </c>
+      <c r="K261" s="11">
+        <v>121.767</v>
+      </c>
+      <c r="L261" s="11">
+        <v>500</v>
+      </c>
+      <c r="M261" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N261" s="11">
+        <v>18200</v>
+      </c>
+      <c r="O261" s="11">
+        <v>2008</v>
+      </c>
+      <c r="Q261" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R261" s="11">
+        <v>7</v>
+      </c>
+      <c r="T261" s="19">
+        <v>5</v>
+      </c>
+      <c r="V261" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W261" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X261" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Z261" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA261" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB261" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC261" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD261" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AE261" s="11"/>
+      <c r="AF261" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ261" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK261">
+        <v>100.4</v>
+      </c>
+      <c r="AL261" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM261">
+        <v>1.1409999999999911</v>
+      </c>
+      <c r="AN261" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO261" s="11">
+        <v>50</v>
+      </c>
+      <c r="AP261" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR261" s="11" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="262" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A262" s="11" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I262" s="11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J262" s="11">
+        <v>24.867000000000001</v>
+      </c>
+      <c r="K262" s="11">
+        <v>121.767</v>
+      </c>
+      <c r="L262" s="11">
+        <v>500</v>
+      </c>
+      <c r="M262" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N262" s="11">
+        <v>18200</v>
+      </c>
+      <c r="O262" s="11">
+        <v>2008</v>
+      </c>
+      <c r="Q262" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R262" s="11">
+        <v>7</v>
+      </c>
+      <c r="T262" s="19">
+        <v>5</v>
+      </c>
+      <c r="V262" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W262" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X262" s="13" t="s">
+        <v>1735</v>
+      </c>
+      <c r="Z262" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA262" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB262" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC262" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD262" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AE262" s="11"/>
+      <c r="AF262" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ262" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK262">
+        <v>96.747</v>
+      </c>
+      <c r="AL262" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM262">
+        <v>1.3689999999999998</v>
+      </c>
+      <c r="AN262" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO262" s="11">
+        <v>50</v>
+      </c>
+      <c r="AP262" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR262" s="11" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="263" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A263" s="11" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G263" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I263" s="11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J263" s="11">
+        <v>24.867000000000001</v>
+      </c>
+      <c r="K263" s="11">
+        <v>121.767</v>
+      </c>
+      <c r="L263" s="11">
+        <v>500</v>
+      </c>
+      <c r="M263" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N263" s="11">
+        <v>18200</v>
+      </c>
+      <c r="O263" s="11">
+        <v>2008</v>
+      </c>
+      <c r="Q263" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R263" s="11">
+        <v>7</v>
+      </c>
+      <c r="T263" s="19">
+        <v>5</v>
+      </c>
+      <c r="V263" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W263" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X263" s="13" t="s">
+        <v>1733</v>
+      </c>
+      <c r="Z263" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA263" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB263" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC263" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD263" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AE263" s="11"/>
+      <c r="AF263" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ263" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK263">
+        <v>79.11</v>
+      </c>
+      <c r="AL263" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM263">
+        <v>4.1089999999999947</v>
+      </c>
+      <c r="AN263" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO263" s="11">
+        <v>50</v>
+      </c>
+      <c r="AP263" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR263" s="11" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="264" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A264" s="11" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G264" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I264" s="11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J264" s="11">
+        <v>24.867000000000001</v>
+      </c>
+      <c r="K264" s="11">
+        <v>121.767</v>
+      </c>
+      <c r="L264" s="11">
+        <v>500</v>
+      </c>
+      <c r="M264" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N264" s="11">
+        <v>18200</v>
+      </c>
+      <c r="O264" s="11">
+        <v>2008</v>
+      </c>
+      <c r="Q264" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R264" s="11">
+        <v>7</v>
+      </c>
+      <c r="T264" s="19">
+        <v>5</v>
+      </c>
+      <c r="V264" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W264" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X264" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="Z264" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA264" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB264" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC264" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD264" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AE264" s="11"/>
+      <c r="AF264" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ264" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK264">
+        <v>85.331000000000003</v>
+      </c>
+      <c r="AL264" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM264">
+        <v>0.62800000000000011</v>
+      </c>
+      <c r="AN264" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO264" s="11">
+        <v>50</v>
+      </c>
+      <c r="AP264" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR264" s="11" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="265" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A265" s="11" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G265" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I265" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J265">
+        <v>22.0167</v>
+      </c>
+      <c r="K265">
+        <v>120.767</v>
+      </c>
+      <c r="L265">
+        <v>200</v>
+      </c>
+      <c r="M265" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N265">
+        <v>16350</v>
+      </c>
+      <c r="O265">
+        <v>2009</v>
+      </c>
+      <c r="Q265" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R265" s="11">
+        <v>7</v>
+      </c>
+      <c r="T265" s="19">
+        <v>5</v>
+      </c>
+      <c r="V265" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W265" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X265" s="13" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Z265" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA265" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB265" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC265" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD265" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AE265" s="11"/>
+      <c r="AF265" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ265" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK265" s="9"/>
+      <c r="AL265" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM265" s="9"/>
+      <c r="AN265">
+        <v>3</v>
+      </c>
+      <c r="AO265">
+        <v>25</v>
+      </c>
+      <c r="AP265" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR265" s="11" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AS265" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="266" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A266" s="11" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G266" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I266" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J266">
+        <v>22.0167</v>
+      </c>
+      <c r="K266">
+        <v>120.767</v>
+      </c>
+      <c r="L266">
+        <v>200</v>
+      </c>
+      <c r="M266" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N266">
+        <v>16350</v>
+      </c>
+      <c r="O266">
+        <v>2009</v>
+      </c>
+      <c r="Q266" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R266" s="11">
+        <v>7</v>
+      </c>
+      <c r="T266" s="19">
+        <v>5</v>
+      </c>
+      <c r="V266" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W266" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X266" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Z266" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA266" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB266" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC266" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD266" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AE266" s="11"/>
+      <c r="AF266" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ266" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK266">
+        <v>91.260999999999996</v>
+      </c>
+      <c r="AL266" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM266" s="9"/>
+      <c r="AN266">
+        <v>3</v>
+      </c>
+      <c r="AO266">
+        <v>25</v>
+      </c>
+      <c r="AP266" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR266" s="11" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="267" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A267" s="11" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G267" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I267" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J267">
+        <v>22.0167</v>
+      </c>
+      <c r="K267">
+        <v>120.767</v>
+      </c>
+      <c r="L267">
+        <v>200</v>
+      </c>
+      <c r="M267" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N267">
+        <v>16350</v>
+      </c>
+      <c r="O267">
+        <v>2009</v>
+      </c>
+      <c r="Q267" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R267" s="11">
+        <v>7</v>
+      </c>
+      <c r="T267" s="19">
+        <v>5</v>
+      </c>
+      <c r="V267" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W267" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X267" s="13" t="s">
+        <v>1735</v>
+      </c>
+      <c r="Z267" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA267" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB267" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC267" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD267" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AE267" s="11"/>
+      <c r="AF267" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ267" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK267">
+        <v>96.704999999999998</v>
+      </c>
+      <c r="AL267" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM267" s="9"/>
+      <c r="AN267">
+        <v>3</v>
+      </c>
+      <c r="AO267">
+        <v>25</v>
+      </c>
+      <c r="AP267" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR267" s="11" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="268" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A268" s="11" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G268" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I268" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J268">
+        <v>22.0167</v>
+      </c>
+      <c r="K268">
+        <v>120.767</v>
+      </c>
+      <c r="L268">
+        <v>200</v>
+      </c>
+      <c r="M268" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N268">
+        <v>16350</v>
+      </c>
+      <c r="O268">
+        <v>2009</v>
+      </c>
+      <c r="Q268" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R268" s="11">
+        <v>7</v>
+      </c>
+      <c r="T268" s="19">
+        <v>5</v>
+      </c>
+      <c r="V268" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W268" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X268" s="13" t="s">
+        <v>1733</v>
+      </c>
+      <c r="Z268" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA268" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB268" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC268" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD268" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AE268" s="11"/>
+      <c r="AF268" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ268" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK268">
+        <v>80.516000000000005</v>
+      </c>
+      <c r="AL268" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM268" s="9"/>
+      <c r="AN268">
+        <v>3</v>
+      </c>
+      <c r="AO268">
+        <v>25</v>
+      </c>
+      <c r="AP268" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR268" s="11" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="269" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A269" s="11" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C269" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G269" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I269" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J269">
+        <v>22.0167</v>
+      </c>
+      <c r="K269">
+        <v>120.767</v>
+      </c>
+      <c r="L269">
+        <v>200</v>
+      </c>
+      <c r="M269" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N269">
+        <v>16350</v>
+      </c>
+      <c r="O269">
+        <v>2009</v>
+      </c>
+      <c r="Q269" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R269" s="11">
+        <v>7</v>
+      </c>
+      <c r="T269" s="19">
+        <v>5</v>
+      </c>
+      <c r="V269" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W269" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X269" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="Z269" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA269" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB269" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC269" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD269" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AE269" s="11"/>
+      <c r="AF269" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AJ269" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AK269">
+        <v>92.55</v>
+      </c>
+      <c r="AL269" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AM269" s="9"/>
+      <c r="AN269">
+        <v>3</v>
+      </c>
+      <c r="AO269">
+        <v>25</v>
+      </c>
+      <c r="AP269" s="11">
+        <v>224</v>
+      </c>
+      <c r="AR269" s="11" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="270" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A270" s="9" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G270" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I270" s="11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J270" s="11">
+        <v>24.867000000000001</v>
+      </c>
+      <c r="K270" s="11">
+        <v>121.767</v>
+      </c>
+      <c r="L270" s="11">
+        <v>500</v>
+      </c>
+      <c r="M270" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N270" s="11">
+        <v>18200</v>
+      </c>
+      <c r="O270" s="11">
+        <v>2008</v>
+      </c>
+      <c r="Q270" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R270" s="11">
+        <v>7</v>
+      </c>
+      <c r="T270" s="19">
+        <v>5</v>
+      </c>
+      <c r="V270" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W270" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X270" s="13" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="271" spans="1:45" ht="26" x14ac:dyDescent="0.3">
+      <c r="A271" s="9" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G271" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I271" s="11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J271" s="11">
+        <v>24.867000000000001</v>
+      </c>
+      <c r="K271" s="11">
+        <v>121.767</v>
+      </c>
+      <c r="L271" s="11">
+        <v>500</v>
+      </c>
+      <c r="M271" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N271" s="11">
+        <v>18200</v>
+      </c>
+      <c r="O271" s="11">
+        <v>2008</v>
+      </c>
+      <c r="Q271" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R271" s="11">
+        <v>7</v>
+      </c>
+      <c r="T271" s="19">
+        <v>5</v>
+      </c>
+      <c r="V271" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W271" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X271" s="13" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AS271" s="21" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="272" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A272" s="9" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G272" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I272" s="11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J272" s="11">
+        <v>24.867000000000001</v>
+      </c>
+      <c r="K272" s="11">
+        <v>121.767</v>
+      </c>
+      <c r="L272" s="11">
+        <v>500</v>
+      </c>
+      <c r="M272" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N272" s="11">
+        <v>18200</v>
+      </c>
+      <c r="O272" s="11">
+        <v>2008</v>
+      </c>
+      <c r="Q272" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R272" s="11">
+        <v>7</v>
+      </c>
+      <c r="T272" s="19">
+        <v>5</v>
+      </c>
+      <c r="V272" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W272" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X272" s="13" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A273" s="9" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G273" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I273" s="11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J273" s="11">
+        <v>24.867000000000001</v>
+      </c>
+      <c r="K273" s="11">
+        <v>121.767</v>
+      </c>
+      <c r="L273" s="11">
+        <v>500</v>
+      </c>
+      <c r="M273" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N273" s="11">
+        <v>18200</v>
+      </c>
+      <c r="O273" s="11">
+        <v>2008</v>
+      </c>
+      <c r="Q273" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R273" s="11">
+        <v>7</v>
+      </c>
+      <c r="T273" s="19">
+        <v>5</v>
+      </c>
+      <c r="V273" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="W273" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="X273" s="13" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A274" s="11" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
+      <c r="G274" s="11"/>
+      <c r="I274" s="11"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="11"/>
+      <c r="L274" s="11"/>
+      <c r="M274" s="11"/>
+      <c r="N274" s="11"/>
+      <c r="O274" s="11"/>
+      <c r="Q274" s="11"/>
+      <c r="R274" s="11"/>
+      <c r="T274" s="19"/>
+      <c r="V274" s="11"/>
+      <c r="W274" s="11"/>
+      <c r="X274" s="13"/>
+    </row>
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A275" s="11" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>1795</v>
+      </c>
+      <c r="X275" s="13"/>
+    </row>
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A276" s="11" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C276" t="s">
+        <v>456</v>
+      </c>
+      <c r="X276" s="13"/>
+    </row>
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X277" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39439,216 +43164,779 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:I24"/>
+  <dimension ref="A7:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:I24"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F2">
-        <v>45.277999999999999</v>
-      </c>
-      <c r="G2">
-        <v>49.56</v>
-      </c>
-      <c r="I2">
-        <f>G2-F2</f>
-        <v>4.2820000000000036</v>
-      </c>
-    </row>
-    <row r="3" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F3">
-        <v>74.19</v>
-      </c>
-      <c r="G3">
-        <v>77.522999999999996</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I7" si="0">G3-F3</f>
-        <v>3.3329999999999984</v>
-      </c>
-    </row>
-    <row r="4" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F4">
-        <v>62.707999999999998</v>
-      </c>
-      <c r="G4">
-        <v>66.596999999999994</v>
-      </c>
-      <c r="I4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>32.064</v>
+      </c>
+      <c r="F7">
+        <v>40.22</v>
+      </c>
+      <c r="H7">
+        <f>F14-F7</f>
+        <v>5.7860000000000014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
+      </c>
+      <c r="E8">
+        <v>29.100999999999999</v>
+      </c>
+      <c r="F8">
+        <v>52.478999999999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H12" si="0">F15-F8</f>
+        <v>3.0309999999999988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>28.103000000000002</v>
+      </c>
+      <c r="F9">
+        <v>84.435000000000002</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>3.8889999999999958</v>
-      </c>
-    </row>
-    <row r="5" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F5">
-        <v>60.856000000000002</v>
-      </c>
-      <c r="G5">
-        <v>64.004999999999995</v>
-      </c>
-      <c r="I5">
+        <v>4.1319999999999908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>255</v>
+      </c>
+      <c r="E10">
+        <v>21.303000000000001</v>
+      </c>
+      <c r="F10">
+        <v>82.230999999999995</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>3.1489999999999938</v>
-      </c>
-    </row>
-    <row r="6" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F6">
-        <v>83.634</v>
-      </c>
-      <c r="G6">
-        <v>87.707999999999998</v>
-      </c>
-      <c r="I6">
+        <v>4.6840000000000117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>17.373000000000001</v>
+      </c>
+      <c r="F11">
+        <v>88.292000000000002</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>4.0739999999999981</v>
-      </c>
-    </row>
-    <row r="7" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F7">
-        <v>17.152999999999999</v>
-      </c>
-      <c r="G7">
-        <v>18.818999999999999</v>
-      </c>
-      <c r="I7">
+        <v>4.9590000000000032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>255</v>
+      </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <v>13.506</v>
+      </c>
+      <c r="F12">
+        <v>85.813000000000002</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>1.6660000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F10">
-        <v>30.222999999999999</v>
-      </c>
-      <c r="G10">
-        <v>33.844000000000001</v>
-      </c>
-      <c r="I10">
-        <f>G10-F10</f>
-        <v>3.6210000000000022</v>
-      </c>
-    </row>
-    <row r="11" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F11">
+        <v>5.7849999999999966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>32.002000000000002</v>
+      </c>
+      <c r="F14">
+        <v>46.006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>195</v>
+      </c>
+      <c r="D15">
+        <v>195</v>
+      </c>
+      <c r="E15">
+        <v>29.039000000000001</v>
+      </c>
+      <c r="F15">
+        <v>55.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>28.103000000000002</v>
+      </c>
+      <c r="F16">
+        <v>88.566999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>21.303000000000001</v>
+      </c>
+      <c r="F17">
+        <v>86.915000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>17.436</v>
+      </c>
+      <c r="F18">
+        <v>93.251000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>255</v>
+      </c>
+      <c r="D19">
+        <v>255</v>
+      </c>
+      <c r="E19">
+        <v>13.63</v>
+      </c>
+      <c r="F19">
+        <v>91.597999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>31.99</v>
+      </c>
+      <c r="F27">
+        <v>62.777999999999999</v>
+      </c>
+      <c r="H27">
+        <f>F32-F27</f>
+        <v>13.889000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>255</v>
+      </c>
+      <c r="D28">
+        <v>255</v>
+      </c>
+      <c r="E28">
+        <v>32.021999999999998</v>
+      </c>
+      <c r="F28">
+        <v>8.1940000000000008</v>
+      </c>
+      <c r="H28">
+        <f>F33-F28</f>
+        <v>4.1669999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>32.021999999999998</v>
+      </c>
+      <c r="F29">
+        <v>53.472000000000001</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H30" si="1">F34-F29</f>
+        <v>8.0559999999999974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>255</v>
+      </c>
+      <c r="D30">
+        <v>255</v>
+      </c>
+      <c r="E30">
+        <v>32.021999999999998</v>
+      </c>
+      <c r="F30">
         <v>74.861000000000004</v>
       </c>
-      <c r="G11">
-        <v>78.388999999999996</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ref="I11:I14" si="1">G11-F11</f>
-        <v>3.5279999999999916</v>
-      </c>
-    </row>
-    <row r="12" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F12">
-        <v>83.031999999999996</v>
-      </c>
-      <c r="G12">
-        <v>85.073999999999998</v>
-      </c>
-      <c r="I12">
+      <c r="H30">
         <f t="shared" si="1"/>
-        <v>2.0420000000000016</v>
-      </c>
-    </row>
-    <row r="13" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F13">
-        <v>88.230999999999995</v>
-      </c>
-      <c r="G13">
-        <v>90.087999999999994</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>1.8569999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F14">
-        <v>87.302999999999997</v>
-      </c>
-      <c r="G14">
-        <v>90.087999999999994</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>2.7849999999999966</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F17">
-        <v>93.06</v>
-      </c>
-      <c r="G17">
-        <v>97.792000000000002</v>
-      </c>
-      <c r="I17">
-        <f>G17-F17</f>
-        <v>4.7319999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F18">
-        <v>98.58</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ref="I18:I19" si="2">G18-F18</f>
-        <v>1.4200000000000017</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F19">
-        <v>95.741</v>
-      </c>
-      <c r="G19">
-        <v>98.896000000000001</v>
-      </c>
-      <c r="I19">
+        <v>12.221999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>32.054000000000002</v>
+      </c>
+      <c r="F32">
+        <v>76.667000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>69</v>
+      </c>
+      <c r="D33">
+        <v>69</v>
+      </c>
+      <c r="E33">
+        <v>31.959</v>
+      </c>
+      <c r="F33">
+        <v>12.361000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>61</v>
+      </c>
+      <c r="E34">
+        <v>32.021999999999998</v>
+      </c>
+      <c r="F34">
+        <v>61.527999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>32.021999999999998</v>
+      </c>
+      <c r="F35">
+        <v>87.082999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>19</v>
+      </c>
+      <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="F39">
+        <v>79.11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1733</v>
+      </c>
+      <c r="I39">
+        <f>F45-F39</f>
+        <v>4.1089999999999947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <v>31.99</v>
+      </c>
+      <c r="F40">
+        <v>96.747</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:I43" si="2">F46-F40</f>
+        <v>1.3689999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <v>31.948</v>
+      </c>
+      <c r="F41">
+        <v>100.4</v>
+      </c>
+      <c r="G41" s="7">
+        <v>44854</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="2"/>
-        <v>3.1550000000000011</v>
-      </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F22">
-        <v>4.5259999999999998</v>
-      </c>
-      <c r="G22">
-        <v>4.9409999999999998</v>
-      </c>
-      <c r="I22">
-        <f>G22-F22</f>
-        <v>0.41500000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F23">
-        <v>4.0419999999999998</v>
-      </c>
-      <c r="G23">
-        <v>4.1210000000000004</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ref="I23:I24" si="3">G23-F23</f>
-        <v>7.9000000000000625E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F24">
-        <v>4.16</v>
-      </c>
-      <c r="G24">
-        <v>4.3769999999999998</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
-        <v>0.21699999999999964</v>
+        <v>1.1409999999999911</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>255</v>
+      </c>
+      <c r="D42">
+        <v>255</v>
+      </c>
+      <c r="E42">
+        <v>31.99</v>
+      </c>
+      <c r="F42">
+        <v>97.888000000000005</v>
+      </c>
+      <c r="G42" s="7">
+        <v>44727</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>1.2560000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>31.99</v>
+      </c>
+      <c r="F43">
+        <v>85.331000000000003</v>
+      </c>
+      <c r="G43">
+        <v>25</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>0.62800000000000011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>56</v>
+      </c>
+      <c r="D45">
+        <v>56</v>
+      </c>
+      <c r="E45">
+        <v>32</v>
+      </c>
+      <c r="F45">
+        <v>83.218999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>255</v>
+      </c>
+      <c r="D46">
+        <v>255</v>
+      </c>
+      <c r="E46">
+        <v>31.969000000000001</v>
+      </c>
+      <c r="F46">
+        <v>98.116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>96</v>
+      </c>
+      <c r="E47">
+        <v>32</v>
+      </c>
+      <c r="F47">
+        <v>101.541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>147</v>
+      </c>
+      <c r="D48">
+        <v>147</v>
+      </c>
+      <c r="E48">
+        <v>32</v>
+      </c>
+      <c r="F48">
+        <v>99.144000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>19</v>
+      </c>
+      <c r="E49">
+        <v>31.969000000000001</v>
+      </c>
+      <c r="F49">
+        <v>85.959000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>79</v>
+      </c>
+      <c r="D51">
+        <v>79</v>
+      </c>
+      <c r="E51">
+        <v>31.949000000000002</v>
+      </c>
+      <c r="F51">
+        <v>91.260999999999996</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>31.974</v>
+      </c>
+      <c r="F52">
+        <v>96.704999999999998</v>
+      </c>
+      <c r="G52" s="7">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>255</v>
+      </c>
+      <c r="D53">
+        <v>255</v>
+      </c>
+      <c r="E53">
+        <v>31.949000000000002</v>
+      </c>
+      <c r="F53">
+        <v>80.516000000000005</v>
+      </c>
+      <c r="G53" s="7">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>19</v>
+      </c>
+      <c r="E54">
+        <v>31.974</v>
+      </c>
+      <c r="F54">
+        <v>92.55</v>
+      </c>
+      <c r="G54">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/oegres_TA/oegres_TA.xlsx
+++ b/data/oegres_TA/oegres_TA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7514" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7823" uniqueCount="1804">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5424,6 +5424,24 @@
   </si>
   <si>
     <t>Cho09</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>Lake Pontchartrain, Louisiana, USA</t>
+  </si>
+  <si>
+    <t>15-25</t>
+  </si>
+  <si>
+    <t>dry stratified</t>
+  </si>
+  <si>
+    <t>Hoengseong-gun, Gangwon-do, Korea</t>
+  </si>
+  <si>
+    <t>Cho18</t>
   </si>
 </sst>
 </file>
@@ -16244,12 +16262,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS277"/>
+  <dimension ref="A1:AS279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="D276" sqref="D276"/>
+      <selection pane="bottomLeft" activeCell="R94" sqref="R94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16413,6 +16431,9 @@
       <c r="G2" t="s">
         <v>157</v>
       </c>
+      <c r="H2" t="s">
+        <v>1691</v>
+      </c>
       <c r="I2" t="s">
         <v>1682</v>
       </c>
@@ -16523,6 +16544,9 @@
       <c r="G3" t="s">
         <v>157</v>
       </c>
+      <c r="H3" t="s">
+        <v>1691</v>
+      </c>
       <c r="I3" t="s">
         <v>1682</v>
       </c>
@@ -16633,6 +16657,9 @@
       <c r="G4" t="s">
         <v>157</v>
       </c>
+      <c r="H4" t="s">
+        <v>1691</v>
+      </c>
       <c r="I4" t="s">
         <v>1682</v>
       </c>
@@ -16743,6 +16770,9 @@
       <c r="G5" t="s">
         <v>157</v>
       </c>
+      <c r="H5" t="s">
+        <v>1691</v>
+      </c>
       <c r="I5" t="s">
         <v>1682</v>
       </c>
@@ -16853,6 +16883,9 @@
       <c r="G6" t="s">
         <v>157</v>
       </c>
+      <c r="H6" t="s">
+        <v>1691</v>
+      </c>
       <c r="I6" t="s">
         <v>1682</v>
       </c>
@@ -16963,6 +16996,9 @@
       <c r="G7" t="s">
         <v>157</v>
       </c>
+      <c r="H7" t="s">
+        <v>1691</v>
+      </c>
       <c r="I7" t="s">
         <v>1682</v>
       </c>
@@ -17073,6 +17109,9 @@
       <c r="G8" t="s">
         <v>157</v>
       </c>
+      <c r="H8" t="s">
+        <v>1691</v>
+      </c>
       <c r="I8" t="s">
         <v>1682</v>
       </c>
@@ -17183,6 +17222,9 @@
       <c r="G9" t="s">
         <v>157</v>
       </c>
+      <c r="H9" t="s">
+        <v>1691</v>
+      </c>
       <c r="I9" t="s">
         <v>1682</v>
       </c>
@@ -17293,6 +17335,9 @@
       <c r="G10" t="s">
         <v>157</v>
       </c>
+      <c r="H10" t="s">
+        <v>1691</v>
+      </c>
       <c r="I10" t="s">
         <v>1682</v>
       </c>
@@ -17403,6 +17448,9 @@
       <c r="G11" t="s">
         <v>157</v>
       </c>
+      <c r="H11" t="s">
+        <v>1691</v>
+      </c>
       <c r="I11" t="s">
         <v>1682</v>
       </c>
@@ -17513,6 +17561,9 @@
       <c r="G12" t="s">
         <v>157</v>
       </c>
+      <c r="H12" t="s">
+        <v>1691</v>
+      </c>
       <c r="I12" t="s">
         <v>1682</v>
       </c>
@@ -17623,6 +17674,9 @@
       <c r="G13" t="s">
         <v>157</v>
       </c>
+      <c r="H13" t="s">
+        <v>1691</v>
+      </c>
       <c r="I13" t="s">
         <v>1682</v>
       </c>
@@ -17733,6 +17787,9 @@
       <c r="G14" t="s">
         <v>157</v>
       </c>
+      <c r="H14" t="s">
+        <v>1691</v>
+      </c>
       <c r="I14" t="s">
         <v>1682</v>
       </c>
@@ -17843,6 +17900,9 @@
       <c r="G15" t="s">
         <v>157</v>
       </c>
+      <c r="H15" t="s">
+        <v>1691</v>
+      </c>
       <c r="I15" t="s">
         <v>1682</v>
       </c>
@@ -17953,6 +18013,9 @@
       <c r="G16" t="s">
         <v>157</v>
       </c>
+      <c r="H16" t="s">
+        <v>1691</v>
+      </c>
       <c r="I16" t="s">
         <v>1682</v>
       </c>
@@ -18060,6 +18123,9 @@
       <c r="G17" t="s">
         <v>157</v>
       </c>
+      <c r="H17" t="s">
+        <v>1691</v>
+      </c>
       <c r="I17" t="s">
         <v>1682</v>
       </c>
@@ -18167,6 +18233,9 @@
       <c r="G18" t="s">
         <v>157</v>
       </c>
+      <c r="H18" t="s">
+        <v>1691</v>
+      </c>
       <c r="I18" t="s">
         <v>1682</v>
       </c>
@@ -18274,6 +18343,9 @@
       <c r="G19" t="s">
         <v>157</v>
       </c>
+      <c r="H19" t="s">
+        <v>1691</v>
+      </c>
       <c r="I19" t="s">
         <v>1682</v>
       </c>
@@ -18381,6 +18453,9 @@
       <c r="G20" t="s">
         <v>157</v>
       </c>
+      <c r="H20" t="s">
+        <v>1691</v>
+      </c>
       <c r="I20" t="s">
         <v>1686</v>
       </c>
@@ -18488,6 +18563,9 @@
       <c r="G21" t="s">
         <v>157</v>
       </c>
+      <c r="H21" t="s">
+        <v>1691</v>
+      </c>
       <c r="I21" t="s">
         <v>1686</v>
       </c>
@@ -18595,6 +18673,9 @@
       <c r="G22" t="s">
         <v>157</v>
       </c>
+      <c r="H22" t="s">
+        <v>1691</v>
+      </c>
       <c r="I22" t="s">
         <v>1686</v>
       </c>
@@ -18705,6 +18786,9 @@
       <c r="G23" t="s">
         <v>157</v>
       </c>
+      <c r="H23" t="s">
+        <v>1691</v>
+      </c>
       <c r="I23" t="s">
         <v>1686</v>
       </c>
@@ -18815,6 +18899,9 @@
       <c r="G24" t="s">
         <v>157</v>
       </c>
+      <c r="H24" t="s">
+        <v>1691</v>
+      </c>
       <c r="I24" t="s">
         <v>1686</v>
       </c>
@@ -18925,6 +19012,9 @@
       <c r="G25" t="s">
         <v>157</v>
       </c>
+      <c r="H25" t="s">
+        <v>1691</v>
+      </c>
       <c r="I25" t="s">
         <v>1686</v>
       </c>
@@ -19035,6 +19125,9 @@
       <c r="G26" t="s">
         <v>157</v>
       </c>
+      <c r="H26" t="s">
+        <v>1691</v>
+      </c>
       <c r="I26" t="s">
         <v>1686</v>
       </c>
@@ -19145,6 +19238,9 @@
       <c r="G27" t="s">
         <v>157</v>
       </c>
+      <c r="H27" t="s">
+        <v>1691</v>
+      </c>
       <c r="I27" t="s">
         <v>1686</v>
       </c>
@@ -19255,6 +19351,9 @@
       <c r="G28" t="s">
         <v>157</v>
       </c>
+      <c r="H28" t="s">
+        <v>1691</v>
+      </c>
       <c r="I28" t="s">
         <v>1686</v>
       </c>
@@ -19365,6 +19464,9 @@
       <c r="G29" t="s">
         <v>157</v>
       </c>
+      <c r="H29" t="s">
+        <v>1691</v>
+      </c>
       <c r="I29" t="s">
         <v>1686</v>
       </c>
@@ -19475,6 +19577,9 @@
       <c r="G30" t="s">
         <v>157</v>
       </c>
+      <c r="H30" t="s">
+        <v>1691</v>
+      </c>
       <c r="I30" t="s">
         <v>1686</v>
       </c>
@@ -19585,6 +19690,9 @@
       <c r="G31" t="s">
         <v>157</v>
       </c>
+      <c r="H31" t="s">
+        <v>1691</v>
+      </c>
       <c r="I31" t="s">
         <v>1686</v>
       </c>
@@ -19695,6 +19803,9 @@
       <c r="G32" t="s">
         <v>157</v>
       </c>
+      <c r="H32" t="s">
+        <v>1691</v>
+      </c>
       <c r="I32" t="s">
         <v>1686</v>
       </c>
@@ -19805,6 +19916,9 @@
       <c r="G33" t="s">
         <v>157</v>
       </c>
+      <c r="H33" t="s">
+        <v>1691</v>
+      </c>
       <c r="I33" t="s">
         <v>1686</v>
       </c>
@@ -19915,6 +20029,9 @@
       <c r="G34" t="s">
         <v>157</v>
       </c>
+      <c r="H34" t="s">
+        <v>1691</v>
+      </c>
       <c r="I34" t="s">
         <v>1686</v>
       </c>
@@ -20022,6 +20139,9 @@
       <c r="G35" t="s">
         <v>157</v>
       </c>
+      <c r="H35" t="s">
+        <v>1691</v>
+      </c>
       <c r="I35" t="s">
         <v>1686</v>
       </c>
@@ -20129,6 +20249,9 @@
       <c r="G36" t="s">
         <v>157</v>
       </c>
+      <c r="H36" t="s">
+        <v>1691</v>
+      </c>
       <c r="I36" t="s">
         <v>1686</v>
       </c>
@@ -20236,6 +20359,9 @@
       <c r="G37" t="s">
         <v>157</v>
       </c>
+      <c r="H37" t="s">
+        <v>1691</v>
+      </c>
       <c r="I37" t="s">
         <v>1686</v>
       </c>
@@ -20343,6 +20469,9 @@
       <c r="G38" t="s">
         <v>157</v>
       </c>
+      <c r="H38" t="s">
+        <v>1691</v>
+      </c>
       <c r="I38" t="s">
         <v>1687</v>
       </c>
@@ -20450,6 +20579,9 @@
       <c r="G39" t="s">
         <v>157</v>
       </c>
+      <c r="H39" t="s">
+        <v>1691</v>
+      </c>
       <c r="I39" t="s">
         <v>1687</v>
       </c>
@@ -20557,6 +20689,9 @@
       <c r="G40" t="s">
         <v>157</v>
       </c>
+      <c r="H40" t="s">
+        <v>1691</v>
+      </c>
       <c r="I40" t="s">
         <v>1687</v>
       </c>
@@ -20667,6 +20802,9 @@
       <c r="G41" t="s">
         <v>157</v>
       </c>
+      <c r="H41" t="s">
+        <v>1691</v>
+      </c>
       <c r="I41" t="s">
         <v>1687</v>
       </c>
@@ -20777,6 +20915,9 @@
       <c r="G42" t="s">
         <v>157</v>
       </c>
+      <c r="H42" t="s">
+        <v>1691</v>
+      </c>
       <c r="I42" t="s">
         <v>1687</v>
       </c>
@@ -20887,6 +21028,9 @@
       <c r="G43" t="s">
         <v>157</v>
       </c>
+      <c r="H43" t="s">
+        <v>1691</v>
+      </c>
       <c r="I43" t="s">
         <v>1687</v>
       </c>
@@ -20997,6 +21141,9 @@
       <c r="G44" t="s">
         <v>157</v>
       </c>
+      <c r="H44" t="s">
+        <v>1691</v>
+      </c>
       <c r="I44" t="s">
         <v>1687</v>
       </c>
@@ -21107,6 +21254,9 @@
       <c r="G45" t="s">
         <v>157</v>
       </c>
+      <c r="H45" t="s">
+        <v>1691</v>
+      </c>
       <c r="I45" t="s">
         <v>1687</v>
       </c>
@@ -21217,6 +21367,9 @@
       <c r="G46" t="s">
         <v>157</v>
       </c>
+      <c r="H46" t="s">
+        <v>1691</v>
+      </c>
       <c r="I46" t="s">
         <v>1687</v>
       </c>
@@ -21327,6 +21480,9 @@
       <c r="G47" t="s">
         <v>157</v>
       </c>
+      <c r="H47" t="s">
+        <v>1691</v>
+      </c>
       <c r="I47" t="s">
         <v>1687</v>
       </c>
@@ -21437,6 +21593,9 @@
       <c r="G48" t="s">
         <v>157</v>
       </c>
+      <c r="H48" t="s">
+        <v>1691</v>
+      </c>
       <c r="I48" t="s">
         <v>1687</v>
       </c>
@@ -21547,6 +21706,9 @@
       <c r="G49" t="s">
         <v>157</v>
       </c>
+      <c r="H49" t="s">
+        <v>1691</v>
+      </c>
       <c r="I49" t="s">
         <v>1687</v>
       </c>
@@ -21657,6 +21819,9 @@
       <c r="G50" t="s">
         <v>157</v>
       </c>
+      <c r="H50" t="s">
+        <v>1691</v>
+      </c>
       <c r="I50" t="s">
         <v>1687</v>
       </c>
@@ -21767,6 +21932,9 @@
       <c r="G51" t="s">
         <v>157</v>
       </c>
+      <c r="H51" t="s">
+        <v>1691</v>
+      </c>
       <c r="I51" t="s">
         <v>1687</v>
       </c>
@@ -21877,6 +22045,9 @@
       <c r="G52" t="s">
         <v>157</v>
       </c>
+      <c r="H52" t="s">
+        <v>1691</v>
+      </c>
       <c r="I52" t="s">
         <v>1687</v>
       </c>
@@ -21984,6 +22155,9 @@
       <c r="G53" t="s">
         <v>157</v>
       </c>
+      <c r="H53" t="s">
+        <v>1691</v>
+      </c>
       <c r="I53" t="s">
         <v>1687</v>
       </c>
@@ -22091,6 +22265,9 @@
       <c r="G54" t="s">
         <v>157</v>
       </c>
+      <c r="H54" t="s">
+        <v>1691</v>
+      </c>
       <c r="I54" t="s">
         <v>1687</v>
       </c>
@@ -22198,6 +22375,9 @@
       <c r="G55" t="s">
         <v>157</v>
       </c>
+      <c r="H55" t="s">
+        <v>1691</v>
+      </c>
       <c r="I55" t="s">
         <v>1687</v>
       </c>
@@ -22305,6 +22485,9 @@
       <c r="G56" t="s">
         <v>157</v>
       </c>
+      <c r="H56" t="s">
+        <v>1691</v>
+      </c>
       <c r="I56" t="s">
         <v>1688</v>
       </c>
@@ -22412,6 +22595,9 @@
       <c r="G57" t="s">
         <v>157</v>
       </c>
+      <c r="H57" t="s">
+        <v>1691</v>
+      </c>
       <c r="I57" t="s">
         <v>1688</v>
       </c>
@@ -22519,6 +22705,9 @@
       <c r="G58" t="s">
         <v>157</v>
       </c>
+      <c r="H58" t="s">
+        <v>1691</v>
+      </c>
       <c r="I58" t="s">
         <v>1688</v>
       </c>
@@ -22629,6 +22818,9 @@
       <c r="G59" t="s">
         <v>157</v>
       </c>
+      <c r="H59" t="s">
+        <v>1691</v>
+      </c>
       <c r="I59" t="s">
         <v>1688</v>
       </c>
@@ -22739,6 +22931,9 @@
       <c r="G60" t="s">
         <v>157</v>
       </c>
+      <c r="H60" t="s">
+        <v>1691</v>
+      </c>
       <c r="I60" t="s">
         <v>1688</v>
       </c>
@@ -22849,6 +23044,9 @@
       <c r="G61" t="s">
         <v>157</v>
       </c>
+      <c r="H61" t="s">
+        <v>1691</v>
+      </c>
       <c r="I61" t="s">
         <v>1688</v>
       </c>
@@ -22959,6 +23157,9 @@
       <c r="G62" t="s">
         <v>157</v>
       </c>
+      <c r="H62" t="s">
+        <v>1691</v>
+      </c>
       <c r="I62" t="s">
         <v>1688</v>
       </c>
@@ -23069,6 +23270,9 @@
       <c r="G63" t="s">
         <v>157</v>
       </c>
+      <c r="H63" t="s">
+        <v>1691</v>
+      </c>
       <c r="I63" t="s">
         <v>1688</v>
       </c>
@@ -23179,6 +23383,9 @@
       <c r="G64" t="s">
         <v>157</v>
       </c>
+      <c r="H64" t="s">
+        <v>1691</v>
+      </c>
       <c r="I64" t="s">
         <v>1688</v>
       </c>
@@ -23289,6 +23496,9 @@
       <c r="G65" t="s">
         <v>157</v>
       </c>
+      <c r="H65" t="s">
+        <v>1691</v>
+      </c>
       <c r="I65" t="s">
         <v>1688</v>
       </c>
@@ -23399,6 +23609,9 @@
       <c r="G66" t="s">
         <v>157</v>
       </c>
+      <c r="H66" t="s">
+        <v>1691</v>
+      </c>
       <c r="I66" t="s">
         <v>1688</v>
       </c>
@@ -23509,6 +23722,9 @@
       <c r="G67" t="s">
         <v>157</v>
       </c>
+      <c r="H67" t="s">
+        <v>1691</v>
+      </c>
       <c r="I67" t="s">
         <v>1688</v>
       </c>
@@ -23619,6 +23835,9 @@
       <c r="G68" t="s">
         <v>157</v>
       </c>
+      <c r="H68" t="s">
+        <v>1691</v>
+      </c>
       <c r="I68" t="s">
         <v>1688</v>
       </c>
@@ -23729,6 +23948,9 @@
       <c r="G69" t="s">
         <v>157</v>
       </c>
+      <c r="H69" t="s">
+        <v>1691</v>
+      </c>
       <c r="I69" t="s">
         <v>1688</v>
       </c>
@@ -23839,6 +24061,9 @@
       <c r="G70" t="s">
         <v>157</v>
       </c>
+      <c r="H70" t="s">
+        <v>1691</v>
+      </c>
       <c r="I70" t="s">
         <v>1688</v>
       </c>
@@ -23946,6 +24171,9 @@
       <c r="G71" t="s">
         <v>157</v>
       </c>
+      <c r="H71" t="s">
+        <v>1691</v>
+      </c>
       <c r="I71" t="s">
         <v>1688</v>
       </c>
@@ -24053,6 +24281,9 @@
       <c r="G72" t="s">
         <v>157</v>
       </c>
+      <c r="H72" t="s">
+        <v>1691</v>
+      </c>
       <c r="I72" t="s">
         <v>1688</v>
       </c>
@@ -24160,6 +24391,9 @@
       <c r="G73" t="s">
         <v>157</v>
       </c>
+      <c r="H73" t="s">
+        <v>1691</v>
+      </c>
       <c r="I73" t="s">
         <v>1688</v>
       </c>
@@ -24267,6 +24501,9 @@
       <c r="G74" t="s">
         <v>157</v>
       </c>
+      <c r="H74" t="s">
+        <v>1691</v>
+      </c>
       <c r="I74" t="s">
         <v>1689</v>
       </c>
@@ -24374,6 +24611,9 @@
       <c r="G75" t="s">
         <v>157</v>
       </c>
+      <c r="H75" t="s">
+        <v>1691</v>
+      </c>
       <c r="I75" t="s">
         <v>1689</v>
       </c>
@@ -24481,6 +24721,9 @@
       <c r="G76" t="s">
         <v>157</v>
       </c>
+      <c r="H76" t="s">
+        <v>1691</v>
+      </c>
       <c r="I76" t="s">
         <v>1689</v>
       </c>
@@ -24591,6 +24834,9 @@
       <c r="G77" t="s">
         <v>157</v>
       </c>
+      <c r="H77" t="s">
+        <v>1691</v>
+      </c>
       <c r="I77" t="s">
         <v>1689</v>
       </c>
@@ -24701,6 +24947,9 @@
       <c r="G78" t="s">
         <v>157</v>
       </c>
+      <c r="H78" t="s">
+        <v>1691</v>
+      </c>
       <c r="I78" t="s">
         <v>1689</v>
       </c>
@@ -24811,6 +25060,9 @@
       <c r="G79" t="s">
         <v>157</v>
       </c>
+      <c r="H79" t="s">
+        <v>1691</v>
+      </c>
       <c r="I79" t="s">
         <v>1689</v>
       </c>
@@ -24921,6 +25173,9 @@
       <c r="G80" t="s">
         <v>157</v>
       </c>
+      <c r="H80" t="s">
+        <v>1691</v>
+      </c>
       <c r="I80" t="s">
         <v>1689</v>
       </c>
@@ -25031,6 +25286,9 @@
       <c r="G81" t="s">
         <v>157</v>
       </c>
+      <c r="H81" t="s">
+        <v>1691</v>
+      </c>
       <c r="I81" t="s">
         <v>1689</v>
       </c>
@@ -25141,6 +25399,9 @@
       <c r="G82" t="s">
         <v>157</v>
       </c>
+      <c r="H82" t="s">
+        <v>1691</v>
+      </c>
       <c r="I82" t="s">
         <v>1689</v>
       </c>
@@ -25251,6 +25512,9 @@
       <c r="G83" t="s">
         <v>157</v>
       </c>
+      <c r="H83" t="s">
+        <v>1691</v>
+      </c>
       <c r="I83" t="s">
         <v>1689</v>
       </c>
@@ -25361,6 +25625,9 @@
       <c r="G84" t="s">
         <v>157</v>
       </c>
+      <c r="H84" t="s">
+        <v>1691</v>
+      </c>
       <c r="I84" t="s">
         <v>1689</v>
       </c>
@@ -25471,6 +25738,9 @@
       <c r="G85" t="s">
         <v>157</v>
       </c>
+      <c r="H85" t="s">
+        <v>1691</v>
+      </c>
       <c r="I85" t="s">
         <v>1689</v>
       </c>
@@ -25581,6 +25851,9 @@
       <c r="G86" t="s">
         <v>157</v>
       </c>
+      <c r="H86" t="s">
+        <v>1691</v>
+      </c>
       <c r="I86" t="s">
         <v>1689</v>
       </c>
@@ -25691,6 +25964,9 @@
       <c r="G87" t="s">
         <v>157</v>
       </c>
+      <c r="H87" t="s">
+        <v>1691</v>
+      </c>
       <c r="I87" t="s">
         <v>1689</v>
       </c>
@@ -25801,6 +26077,9 @@
       <c r="G88" t="s">
         <v>157</v>
       </c>
+      <c r="H88" t="s">
+        <v>1691</v>
+      </c>
       <c r="I88" t="s">
         <v>1689</v>
       </c>
@@ -25908,6 +26187,9 @@
       <c r="G89" t="s">
         <v>157</v>
       </c>
+      <c r="H89" t="s">
+        <v>1691</v>
+      </c>
       <c r="I89" t="s">
         <v>1689</v>
       </c>
@@ -26015,6 +26297,9 @@
       <c r="G90" t="s">
         <v>157</v>
       </c>
+      <c r="H90" t="s">
+        <v>1691</v>
+      </c>
       <c r="I90" t="s">
         <v>1689</v>
       </c>
@@ -26122,6 +26407,9 @@
       <c r="G91" t="s">
         <v>157</v>
       </c>
+      <c r="H91" t="s">
+        <v>1691</v>
+      </c>
       <c r="I91" t="s">
         <v>1689</v>
       </c>
@@ -26226,6 +26514,9 @@
       <c r="F92" s="9" t="s">
         <v>165</v>
       </c>
+      <c r="H92" t="s">
+        <v>1691</v>
+      </c>
       <c r="I92" s="9" t="s">
         <v>1700</v>
       </c>
@@ -26255,6 +26546,9 @@
       </c>
     </row>
     <row r="93" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>1691</v>
+      </c>
       <c r="U93" s="9" t="s">
         <v>1708</v>
       </c>
@@ -26267,6 +26561,9 @@
       </c>
     </row>
     <row r="94" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>1691</v>
+      </c>
       <c r="U94" s="9" t="s">
         <v>1708</v>
       </c>
@@ -26279,21 +26576,36 @@
       </c>
     </row>
     <row r="95" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>1691</v>
+      </c>
       <c r="U95" s="9" t="s">
         <v>1681</v>
       </c>
       <c r="X95" s="14"/>
     </row>
     <row r="96" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>1691</v>
+      </c>
       <c r="X96" s="14"/>
     </row>
     <row r="97" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>1691</v>
+      </c>
       <c r="X97" s="14"/>
     </row>
     <row r="98" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>1691</v>
+      </c>
       <c r="X98" s="14"/>
     </row>
     <row r="99" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>1691</v>
+      </c>
       <c r="X99" s="14"/>
     </row>
     <row r="100" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -26315,6 +26627,9 @@
       <c r="F100" s="9" t="s">
         <v>165</v>
       </c>
+      <c r="H100" t="s">
+        <v>1691</v>
+      </c>
       <c r="I100" s="9" t="s">
         <v>1703</v>
       </c>
@@ -26356,6 +26671,9 @@
       <c r="G101" t="s">
         <v>157</v>
       </c>
+      <c r="H101" t="s">
+        <v>1691</v>
+      </c>
       <c r="I101" t="s">
         <v>1711</v>
       </c>
@@ -26472,6 +26790,9 @@
       <c r="G102" t="s">
         <v>157</v>
       </c>
+      <c r="H102" t="s">
+        <v>1691</v>
+      </c>
       <c r="I102" t="s">
         <v>1711</v>
       </c>
@@ -26585,6 +26906,9 @@
       <c r="G103" t="s">
         <v>157</v>
       </c>
+      <c r="H103" t="s">
+        <v>1691</v>
+      </c>
       <c r="I103" t="s">
         <v>1711</v>
       </c>
@@ -26698,6 +27022,9 @@
       <c r="G104" t="s">
         <v>157</v>
       </c>
+      <c r="H104" t="s">
+        <v>1691</v>
+      </c>
       <c r="I104" t="s">
         <v>1711</v>
       </c>
@@ -26811,6 +27138,9 @@
       <c r="G105" t="s">
         <v>157</v>
       </c>
+      <c r="H105" t="s">
+        <v>1691</v>
+      </c>
       <c r="I105" t="s">
         <v>1711</v>
       </c>
@@ -26924,6 +27254,9 @@
       <c r="G106" t="s">
         <v>157</v>
       </c>
+      <c r="H106" t="s">
+        <v>1691</v>
+      </c>
       <c r="I106" t="s">
         <v>1711</v>
       </c>
@@ -27031,6 +27364,9 @@
       <c r="G107" t="s">
         <v>157</v>
       </c>
+      <c r="H107" t="s">
+        <v>1691</v>
+      </c>
       <c r="I107" t="s">
         <v>1711</v>
       </c>
@@ -27138,6 +27474,9 @@
       <c r="G108" t="s">
         <v>157</v>
       </c>
+      <c r="H108" t="s">
+        <v>1691</v>
+      </c>
       <c r="I108" t="s">
         <v>1711</v>
       </c>
@@ -27245,6 +27584,9 @@
       <c r="G109" t="s">
         <v>157</v>
       </c>
+      <c r="H109" t="s">
+        <v>1691</v>
+      </c>
       <c r="I109" t="s">
         <v>1711</v>
       </c>
@@ -27352,6 +27694,9 @@
       <c r="G110" t="s">
         <v>157</v>
       </c>
+      <c r="H110" t="s">
+        <v>1691</v>
+      </c>
       <c r="I110" t="s">
         <v>1711</v>
       </c>
@@ -27459,6 +27804,9 @@
       <c r="G111" t="s">
         <v>157</v>
       </c>
+      <c r="H111" t="s">
+        <v>1691</v>
+      </c>
       <c r="I111" t="s">
         <v>1711</v>
       </c>
@@ -27566,6 +27914,9 @@
       <c r="G112" t="s">
         <v>157</v>
       </c>
+      <c r="H112" t="s">
+        <v>1691</v>
+      </c>
       <c r="I112" t="s">
         <v>1711</v>
       </c>
@@ -27673,6 +28024,9 @@
       <c r="G113" t="s">
         <v>157</v>
       </c>
+      <c r="H113" t="s">
+        <v>1691</v>
+      </c>
       <c r="I113" t="s">
         <v>1711</v>
       </c>
@@ -27780,6 +28134,9 @@
       <c r="G114" t="s">
         <v>157</v>
       </c>
+      <c r="H114" t="s">
+        <v>1691</v>
+      </c>
       <c r="I114" t="s">
         <v>1711</v>
       </c>
@@ -27887,6 +28244,9 @@
       <c r="G115" t="s">
         <v>157</v>
       </c>
+      <c r="H115" t="s">
+        <v>1691</v>
+      </c>
       <c r="I115" t="s">
         <v>1711</v>
       </c>
@@ -27994,6 +28354,9 @@
       <c r="G116" t="s">
         <v>157</v>
       </c>
+      <c r="H116" t="s">
+        <v>1691</v>
+      </c>
       <c r="I116" t="s">
         <v>1711</v>
       </c>
@@ -28101,6 +28464,9 @@
       <c r="G117" t="s">
         <v>157</v>
       </c>
+      <c r="H117" t="s">
+        <v>1691</v>
+      </c>
       <c r="I117" t="s">
         <v>1711</v>
       </c>
@@ -28208,6 +28574,9 @@
       <c r="G118" t="s">
         <v>157</v>
       </c>
+      <c r="H118" t="s">
+        <v>1691</v>
+      </c>
       <c r="I118" t="s">
         <v>1711</v>
       </c>
@@ -28315,6 +28684,9 @@
       <c r="G119" t="s">
         <v>157</v>
       </c>
+      <c r="H119" t="s">
+        <v>1691</v>
+      </c>
       <c r="I119" t="s">
         <v>1711</v>
       </c>
@@ -28422,6 +28794,9 @@
       <c r="G120" t="s">
         <v>157</v>
       </c>
+      <c r="H120" t="s">
+        <v>1691</v>
+      </c>
       <c r="I120" t="s">
         <v>1711</v>
       </c>
@@ -28529,6 +28904,9 @@
       <c r="G121" t="s">
         <v>157</v>
       </c>
+      <c r="H121" t="s">
+        <v>1691</v>
+      </c>
       <c r="I121" t="s">
         <v>1717</v>
       </c>
@@ -28624,6 +29002,9 @@
       <c r="G122" t="s">
         <v>157</v>
       </c>
+      <c r="H122" t="s">
+        <v>1691</v>
+      </c>
       <c r="I122" t="s">
         <v>1717</v>
       </c>
@@ -28722,6 +29103,9 @@
       <c r="G123" t="s">
         <v>157</v>
       </c>
+      <c r="H123" t="s">
+        <v>1691</v>
+      </c>
       <c r="I123" t="s">
         <v>1717</v>
       </c>
@@ -28823,6 +29207,9 @@
       <c r="G124" t="s">
         <v>157</v>
       </c>
+      <c r="H124" t="s">
+        <v>1691</v>
+      </c>
       <c r="I124" t="s">
         <v>1717</v>
       </c>
@@ -28924,6 +29311,9 @@
       <c r="G125" t="s">
         <v>157</v>
       </c>
+      <c r="H125" t="s">
+        <v>1691</v>
+      </c>
       <c r="I125" t="s">
         <v>1717</v>
       </c>
@@ -29019,6 +29409,9 @@
       <c r="G126" t="s">
         <v>157</v>
       </c>
+      <c r="H126" t="s">
+        <v>1691</v>
+      </c>
       <c r="I126" t="s">
         <v>1717</v>
       </c>
@@ -29117,6 +29510,9 @@
       <c r="G127" t="s">
         <v>157</v>
       </c>
+      <c r="H127" t="s">
+        <v>1691</v>
+      </c>
       <c r="I127" t="s">
         <v>1717</v>
       </c>
@@ -29218,6 +29614,9 @@
       <c r="G128" t="s">
         <v>157</v>
       </c>
+      <c r="H128" t="s">
+        <v>1691</v>
+      </c>
       <c r="I128" t="s">
         <v>1717</v>
       </c>
@@ -29319,6 +29718,9 @@
       <c r="G129" t="s">
         <v>157</v>
       </c>
+      <c r="H129" t="s">
+        <v>1691</v>
+      </c>
       <c r="I129" t="s">
         <v>1717</v>
       </c>
@@ -29414,6 +29816,9 @@
       <c r="G130" t="s">
         <v>157</v>
       </c>
+      <c r="H130" t="s">
+        <v>1691</v>
+      </c>
       <c r="I130" t="s">
         <v>1717</v>
       </c>
@@ -29512,6 +29917,9 @@
       <c r="G131" t="s">
         <v>157</v>
       </c>
+      <c r="H131" t="s">
+        <v>1691</v>
+      </c>
       <c r="I131" t="s">
         <v>1717</v>
       </c>
@@ -29613,6 +30021,9 @@
       <c r="G132" t="s">
         <v>157</v>
       </c>
+      <c r="H132" t="s">
+        <v>1691</v>
+      </c>
       <c r="I132" t="s">
         <v>1717</v>
       </c>
@@ -29714,6 +30125,9 @@
       <c r="G133" t="s">
         <v>157</v>
       </c>
+      <c r="H133" t="s">
+        <v>1691</v>
+      </c>
       <c r="I133" t="s">
         <v>1717</v>
       </c>
@@ -29809,6 +30223,9 @@
       <c r="G134" t="s">
         <v>157</v>
       </c>
+      <c r="H134" t="s">
+        <v>1691</v>
+      </c>
       <c r="I134" t="s">
         <v>1717</v>
       </c>
@@ -29907,6 +30324,9 @@
       <c r="G135" t="s">
         <v>157</v>
       </c>
+      <c r="H135" t="s">
+        <v>1691</v>
+      </c>
       <c r="I135" t="s">
         <v>1717</v>
       </c>
@@ -30008,6 +30428,9 @@
       <c r="G136" t="s">
         <v>157</v>
       </c>
+      <c r="H136" t="s">
+        <v>1691</v>
+      </c>
       <c r="I136" t="s">
         <v>1717</v>
       </c>
@@ -30109,6 +30532,9 @@
       <c r="G137" t="s">
         <v>157</v>
       </c>
+      <c r="H137" t="s">
+        <v>1691</v>
+      </c>
       <c r="I137" t="s">
         <v>1717</v>
       </c>
@@ -30204,6 +30630,9 @@
       <c r="G138" t="s">
         <v>157</v>
       </c>
+      <c r="H138" t="s">
+        <v>1691</v>
+      </c>
       <c r="I138" t="s">
         <v>1717</v>
       </c>
@@ -30302,6 +30731,9 @@
       <c r="G139" t="s">
         <v>157</v>
       </c>
+      <c r="H139" t="s">
+        <v>1691</v>
+      </c>
       <c r="I139" t="s">
         <v>1717</v>
       </c>
@@ -30403,6 +30835,9 @@
       <c r="G140" t="s">
         <v>157</v>
       </c>
+      <c r="H140" t="s">
+        <v>1691</v>
+      </c>
       <c r="I140" t="s">
         <v>1717</v>
       </c>
@@ -30504,6 +30939,9 @@
       <c r="G141" t="s">
         <v>157</v>
       </c>
+      <c r="H141" t="s">
+        <v>1691</v>
+      </c>
       <c r="I141" t="s">
         <v>1717</v>
       </c>
@@ -30599,6 +31037,9 @@
       <c r="G142" t="s">
         <v>157</v>
       </c>
+      <c r="H142" t="s">
+        <v>1691</v>
+      </c>
       <c r="I142" t="s">
         <v>1717</v>
       </c>
@@ -30697,6 +31138,9 @@
       <c r="G143" t="s">
         <v>157</v>
       </c>
+      <c r="H143" t="s">
+        <v>1691</v>
+      </c>
       <c r="I143" t="s">
         <v>1717</v>
       </c>
@@ -30798,6 +31242,9 @@
       <c r="G144" t="s">
         <v>157</v>
       </c>
+      <c r="H144" t="s">
+        <v>1691</v>
+      </c>
       <c r="I144" t="s">
         <v>1717</v>
       </c>
@@ -30899,6 +31346,9 @@
       <c r="G145" t="s">
         <v>157</v>
       </c>
+      <c r="H145" t="s">
+        <v>1691</v>
+      </c>
       <c r="I145" t="s">
         <v>1717</v>
       </c>
@@ -30994,6 +31444,9 @@
       <c r="G146" t="s">
         <v>157</v>
       </c>
+      <c r="H146" t="s">
+        <v>1691</v>
+      </c>
       <c r="I146" t="s">
         <v>1717</v>
       </c>
@@ -31092,6 +31545,9 @@
       <c r="G147" t="s">
         <v>157</v>
       </c>
+      <c r="H147" t="s">
+        <v>1691</v>
+      </c>
       <c r="I147" t="s">
         <v>1717</v>
       </c>
@@ -31193,6 +31649,9 @@
       <c r="G148" t="s">
         <v>157</v>
       </c>
+      <c r="H148" t="s">
+        <v>1691</v>
+      </c>
       <c r="I148" t="s">
         <v>1717</v>
       </c>
@@ -31294,6 +31753,9 @@
       <c r="G149" t="s">
         <v>157</v>
       </c>
+      <c r="H149" t="s">
+        <v>1691</v>
+      </c>
       <c r="I149" t="s">
         <v>1717</v>
       </c>
@@ -31389,6 +31851,9 @@
       <c r="G150" t="s">
         <v>157</v>
       </c>
+      <c r="H150" t="s">
+        <v>1691</v>
+      </c>
       <c r="I150" t="s">
         <v>1717</v>
       </c>
@@ -31487,6 +31952,9 @@
       <c r="G151" t="s">
         <v>157</v>
       </c>
+      <c r="H151" t="s">
+        <v>1691</v>
+      </c>
       <c r="I151" t="s">
         <v>1717</v>
       </c>
@@ -31588,6 +32056,9 @@
       <c r="G152" t="s">
         <v>157</v>
       </c>
+      <c r="H152" t="s">
+        <v>1691</v>
+      </c>
       <c r="I152" t="s">
         <v>1717</v>
       </c>
@@ -31689,6 +32160,9 @@
       <c r="G153" t="s">
         <v>157</v>
       </c>
+      <c r="H153" t="s">
+        <v>1691</v>
+      </c>
       <c r="I153" t="s">
         <v>1717</v>
       </c>
@@ -31784,6 +32258,9 @@
       <c r="G154" t="s">
         <v>157</v>
       </c>
+      <c r="H154" t="s">
+        <v>1691</v>
+      </c>
       <c r="I154" t="s">
         <v>1717</v>
       </c>
@@ -31882,6 +32359,9 @@
       <c r="G155" t="s">
         <v>157</v>
       </c>
+      <c r="H155" t="s">
+        <v>1691</v>
+      </c>
       <c r="I155" t="s">
         <v>1717</v>
       </c>
@@ -31983,6 +32463,9 @@
       <c r="G156" t="s">
         <v>157</v>
       </c>
+      <c r="H156" t="s">
+        <v>1691</v>
+      </c>
       <c r="I156" t="s">
         <v>1717</v>
       </c>
@@ -32084,6 +32567,9 @@
       <c r="G157" t="s">
         <v>157</v>
       </c>
+      <c r="H157" t="s">
+        <v>1691</v>
+      </c>
       <c r="I157" t="s">
         <v>1717</v>
       </c>
@@ -32179,6 +32665,9 @@
       <c r="G158" t="s">
         <v>157</v>
       </c>
+      <c r="H158" t="s">
+        <v>1691</v>
+      </c>
       <c r="I158" t="s">
         <v>1717</v>
       </c>
@@ -32277,6 +32766,9 @@
       <c r="G159" t="s">
         <v>157</v>
       </c>
+      <c r="H159" t="s">
+        <v>1691</v>
+      </c>
       <c r="I159" t="s">
         <v>1717</v>
       </c>
@@ -32378,6 +32870,9 @@
       <c r="G160" t="s">
         <v>157</v>
       </c>
+      <c r="H160" t="s">
+        <v>1691</v>
+      </c>
       <c r="I160" t="s">
         <v>1717</v>
       </c>
@@ -32479,6 +32974,9 @@
       <c r="G161" t="s">
         <v>157</v>
       </c>
+      <c r="H161" t="s">
+        <v>1691</v>
+      </c>
       <c r="I161" t="s">
         <v>1717</v>
       </c>
@@ -32574,6 +33072,9 @@
       <c r="G162" t="s">
         <v>157</v>
       </c>
+      <c r="H162" t="s">
+        <v>1691</v>
+      </c>
       <c r="I162" t="s">
         <v>1717</v>
       </c>
@@ -32672,6 +33173,9 @@
       <c r="G163" t="s">
         <v>157</v>
       </c>
+      <c r="H163" t="s">
+        <v>1691</v>
+      </c>
       <c r="I163" t="s">
         <v>1717</v>
       </c>
@@ -32773,6 +33277,9 @@
       <c r="G164" t="s">
         <v>157</v>
       </c>
+      <c r="H164" t="s">
+        <v>1691</v>
+      </c>
       <c r="I164" t="s">
         <v>1717</v>
       </c>
@@ -32874,6 +33381,9 @@
       <c r="G165" t="s">
         <v>157</v>
       </c>
+      <c r="H165" t="s">
+        <v>1691</v>
+      </c>
       <c r="I165" t="s">
         <v>1717</v>
       </c>
@@ -32969,6 +33479,9 @@
       <c r="G166" t="s">
         <v>157</v>
       </c>
+      <c r="H166" t="s">
+        <v>1691</v>
+      </c>
       <c r="I166" t="s">
         <v>1717</v>
       </c>
@@ -33067,6 +33580,9 @@
       <c r="G167" t="s">
         <v>157</v>
       </c>
+      <c r="H167" t="s">
+        <v>1691</v>
+      </c>
       <c r="I167" t="s">
         <v>1717</v>
       </c>
@@ -33168,6 +33684,9 @@
       <c r="G168" t="s">
         <v>157</v>
       </c>
+      <c r="H168" t="s">
+        <v>1691</v>
+      </c>
       <c r="I168" t="s">
         <v>1717</v>
       </c>
@@ -33269,6 +33788,9 @@
       <c r="G169" t="s">
         <v>157</v>
       </c>
+      <c r="H169" t="s">
+        <v>1691</v>
+      </c>
       <c r="I169" t="s">
         <v>1731</v>
       </c>
@@ -33373,6 +33895,9 @@
       <c r="G170" t="s">
         <v>157</v>
       </c>
+      <c r="H170" t="s">
+        <v>1691</v>
+      </c>
       <c r="I170" t="s">
         <v>1731</v>
       </c>
@@ -33474,6 +33999,9 @@
       <c r="G171" t="s">
         <v>157</v>
       </c>
+      <c r="H171" t="s">
+        <v>1691</v>
+      </c>
       <c r="I171" t="s">
         <v>1731</v>
       </c>
@@ -33575,6 +34103,9 @@
       <c r="G172" t="s">
         <v>157</v>
       </c>
+      <c r="H172" t="s">
+        <v>1691</v>
+      </c>
       <c r="I172" t="s">
         <v>1731</v>
       </c>
@@ -33676,6 +34207,9 @@
       <c r="G173" t="s">
         <v>157</v>
       </c>
+      <c r="H173" t="s">
+        <v>1691</v>
+      </c>
       <c r="I173" t="s">
         <v>1731</v>
       </c>
@@ -33777,6 +34311,9 @@
       <c r="G174" t="s">
         <v>157</v>
       </c>
+      <c r="H174" t="s">
+        <v>1691</v>
+      </c>
       <c r="I174" t="s">
         <v>1731</v>
       </c>
@@ -33878,6 +34415,9 @@
       <c r="G175" t="s">
         <v>157</v>
       </c>
+      <c r="H175" t="s">
+        <v>1691</v>
+      </c>
       <c r="I175" t="s">
         <v>1731</v>
       </c>
@@ -33970,6 +34510,9 @@
       <c r="G176" t="s">
         <v>157</v>
       </c>
+      <c r="H176" t="s">
+        <v>1691</v>
+      </c>
       <c r="I176" t="s">
         <v>1731</v>
       </c>
@@ -34062,6 +34605,9 @@
       <c r="G177" t="s">
         <v>157</v>
       </c>
+      <c r="H177" t="s">
+        <v>1691</v>
+      </c>
       <c r="I177" t="s">
         <v>1731</v>
       </c>
@@ -34154,6 +34700,9 @@
       <c r="G178" t="s">
         <v>157</v>
       </c>
+      <c r="H178" t="s">
+        <v>1691</v>
+      </c>
       <c r="I178" t="s">
         <v>1731</v>
       </c>
@@ -34246,6 +34795,9 @@
       <c r="G179" t="s">
         <v>157</v>
       </c>
+      <c r="H179" t="s">
+        <v>1691</v>
+      </c>
       <c r="I179" t="s">
         <v>1731</v>
       </c>
@@ -34338,6 +34890,9 @@
       <c r="G180" t="s">
         <v>157</v>
       </c>
+      <c r="H180" t="s">
+        <v>1691</v>
+      </c>
       <c r="I180" t="s">
         <v>1739</v>
       </c>
@@ -34436,6 +34991,9 @@
       <c r="G181" t="s">
         <v>157</v>
       </c>
+      <c r="H181" t="s">
+        <v>1691</v>
+      </c>
       <c r="I181" t="s">
         <v>1739</v>
       </c>
@@ -34531,6 +35089,9 @@
       <c r="G182" t="s">
         <v>157</v>
       </c>
+      <c r="H182" t="s">
+        <v>1691</v>
+      </c>
       <c r="I182" t="s">
         <v>1739</v>
       </c>
@@ -34626,6 +35187,9 @@
       <c r="G183" t="s">
         <v>157</v>
       </c>
+      <c r="H183" t="s">
+        <v>1691</v>
+      </c>
       <c r="I183" t="s">
         <v>1739</v>
       </c>
@@ -34721,6 +35285,9 @@
       <c r="G184" t="s">
         <v>157</v>
       </c>
+      <c r="H184" t="s">
+        <v>1691</v>
+      </c>
       <c r="I184" t="s">
         <v>1739</v>
       </c>
@@ -34819,6 +35386,9 @@
       <c r="G185" t="s">
         <v>157</v>
       </c>
+      <c r="H185" t="s">
+        <v>1691</v>
+      </c>
       <c r="I185" t="s">
         <v>1739</v>
       </c>
@@ -34914,6 +35484,9 @@
       <c r="G186" t="s">
         <v>157</v>
       </c>
+      <c r="H186" t="s">
+        <v>1691</v>
+      </c>
       <c r="I186" t="s">
         <v>1739</v>
       </c>
@@ -35009,6 +35582,9 @@
       <c r="G187" t="s">
         <v>157</v>
       </c>
+      <c r="H187" t="s">
+        <v>1691</v>
+      </c>
       <c r="I187" t="s">
         <v>1739</v>
       </c>
@@ -35098,6 +35674,9 @@
       <c r="G188" t="s">
         <v>157</v>
       </c>
+      <c r="H188" t="s">
+        <v>1691</v>
+      </c>
       <c r="I188" t="s">
         <v>1739</v>
       </c>
@@ -35187,6 +35766,9 @@
       <c r="G189" t="s">
         <v>157</v>
       </c>
+      <c r="H189" t="s">
+        <v>1691</v>
+      </c>
       <c r="I189" t="s">
         <v>1739</v>
       </c>
@@ -35276,6 +35858,9 @@
       <c r="G190" t="s">
         <v>157</v>
       </c>
+      <c r="H190" t="s">
+        <v>1691</v>
+      </c>
       <c r="I190" t="s">
         <v>1739</v>
       </c>
@@ -35365,6 +35950,9 @@
       <c r="G191" t="s">
         <v>157</v>
       </c>
+      <c r="H191" t="s">
+        <v>1691</v>
+      </c>
       <c r="I191" t="s">
         <v>1739</v>
       </c>
@@ -35457,6 +36045,9 @@
       <c r="G192" t="s">
         <v>157</v>
       </c>
+      <c r="H192" t="s">
+        <v>1691</v>
+      </c>
       <c r="I192" t="s">
         <v>1739</v>
       </c>
@@ -35546,6 +36137,9 @@
       <c r="G193" t="s">
         <v>157</v>
       </c>
+      <c r="H193" t="s">
+        <v>1691</v>
+      </c>
       <c r="I193" t="s">
         <v>1739</v>
       </c>
@@ -35629,6 +36223,9 @@
       <c r="E194" t="s">
         <v>813</v>
       </c>
+      <c r="H194" t="s">
+        <v>1691</v>
+      </c>
       <c r="I194" t="s">
         <v>1744</v>
       </c>
@@ -35728,6 +36325,9 @@
       <c r="E195" t="s">
         <v>813</v>
       </c>
+      <c r="H195" t="s">
+        <v>1691</v>
+      </c>
       <c r="I195" t="s">
         <v>1744</v>
       </c>
@@ -35827,6 +36427,9 @@
       <c r="E196" t="s">
         <v>813</v>
       </c>
+      <c r="H196" t="s">
+        <v>1691</v>
+      </c>
       <c r="I196" t="s">
         <v>1744</v>
       </c>
@@ -35929,6 +36532,9 @@
       <c r="E197" t="s">
         <v>813</v>
       </c>
+      <c r="H197" t="s">
+        <v>1691</v>
+      </c>
       <c r="I197" t="s">
         <v>1744</v>
       </c>
@@ -36028,6 +36634,9 @@
       <c r="E198" t="s">
         <v>813</v>
       </c>
+      <c r="H198" t="s">
+        <v>1691</v>
+      </c>
       <c r="I198" t="s">
         <v>1744</v>
       </c>
@@ -36127,6 +36736,9 @@
       <c r="E199" t="s">
         <v>813</v>
       </c>
+      <c r="H199" t="s">
+        <v>1691</v>
+      </c>
       <c r="I199" t="s">
         <v>1744</v>
       </c>
@@ -36232,6 +36844,9 @@
       <c r="G200" t="s">
         <v>157</v>
       </c>
+      <c r="H200" t="s">
+        <v>1691</v>
+      </c>
       <c r="I200" t="s">
         <v>1755</v>
       </c>
@@ -36336,6 +36951,9 @@
       <c r="G201" t="s">
         <v>157</v>
       </c>
+      <c r="H201" t="s">
+        <v>1691</v>
+      </c>
       <c r="I201" t="s">
         <v>1755</v>
       </c>
@@ -36440,6 +37058,9 @@
       <c r="G202" t="s">
         <v>157</v>
       </c>
+      <c r="H202" t="s">
+        <v>1691</v>
+      </c>
       <c r="I202" t="s">
         <v>1755</v>
       </c>
@@ -36541,6 +37162,9 @@
       <c r="G203" t="s">
         <v>157</v>
       </c>
+      <c r="H203" t="s">
+        <v>1691</v>
+      </c>
       <c r="I203" t="s">
         <v>1755</v>
       </c>
@@ -36642,6 +37266,9 @@
       <c r="G204" t="s">
         <v>157</v>
       </c>
+      <c r="H204" t="s">
+        <v>1691</v>
+      </c>
       <c r="I204" t="s">
         <v>1755</v>
       </c>
@@ -36743,6 +37370,9 @@
       <c r="G205" t="s">
         <v>157</v>
       </c>
+      <c r="H205" t="s">
+        <v>1691</v>
+      </c>
       <c r="I205" t="s">
         <v>1755</v>
       </c>
@@ -36844,6 +37474,9 @@
       <c r="G206" t="s">
         <v>157</v>
       </c>
+      <c r="H206" t="s">
+        <v>1691</v>
+      </c>
       <c r="I206" t="s">
         <v>1755</v>
       </c>
@@ -36945,6 +37578,9 @@
       <c r="G207" t="s">
         <v>157</v>
       </c>
+      <c r="H207" t="s">
+        <v>1691</v>
+      </c>
       <c r="I207" t="s">
         <v>1755</v>
       </c>
@@ -37049,6 +37685,9 @@
       <c r="G208" t="s">
         <v>157</v>
       </c>
+      <c r="H208" t="s">
+        <v>1691</v>
+      </c>
       <c r="I208" t="s">
         <v>1755</v>
       </c>
@@ -37150,6 +37789,9 @@
       <c r="G209" t="s">
         <v>157</v>
       </c>
+      <c r="H209" t="s">
+        <v>1691</v>
+      </c>
       <c r="I209" t="s">
         <v>1755</v>
       </c>
@@ -37251,6 +37893,9 @@
       <c r="G210" t="s">
         <v>157</v>
       </c>
+      <c r="H210" t="s">
+        <v>1691</v>
+      </c>
       <c r="I210" t="s">
         <v>1755</v>
       </c>
@@ -37352,6 +37997,9 @@
       <c r="G211" t="s">
         <v>157</v>
       </c>
+      <c r="H211" t="s">
+        <v>1691</v>
+      </c>
       <c r="I211" t="s">
         <v>1755</v>
       </c>
@@ -37453,6 +38101,9 @@
       <c r="G212" t="s">
         <v>157</v>
       </c>
+      <c r="H212" t="s">
+        <v>1691</v>
+      </c>
       <c r="I212" t="s">
         <v>1755</v>
       </c>
@@ -37554,6 +38205,9 @@
       <c r="G213" t="s">
         <v>157</v>
       </c>
+      <c r="H213" t="s">
+        <v>1691</v>
+      </c>
       <c r="I213" t="s">
         <v>1755</v>
       </c>
@@ -37655,6 +38309,9 @@
       <c r="G214" t="s">
         <v>157</v>
       </c>
+      <c r="H214" t="s">
+        <v>1691</v>
+      </c>
       <c r="I214" t="s">
         <v>1755</v>
       </c>
@@ -37735,6 +38392,9 @@
       <c r="G215" t="s">
         <v>157</v>
       </c>
+      <c r="H215" t="s">
+        <v>1691</v>
+      </c>
       <c r="I215" t="s">
         <v>1755</v>
       </c>
@@ -37803,6 +38463,9 @@
       <c r="G216" t="s">
         <v>157</v>
       </c>
+      <c r="H216" t="s">
+        <v>1691</v>
+      </c>
       <c r="I216" t="s">
         <v>1755</v>
       </c>
@@ -37871,6 +38534,9 @@
       <c r="G217" t="s">
         <v>157</v>
       </c>
+      <c r="H217" t="s">
+        <v>1691</v>
+      </c>
       <c r="I217" t="s">
         <v>1755</v>
       </c>
@@ -37948,6 +38614,9 @@
       <c r="G218" t="s">
         <v>157</v>
       </c>
+      <c r="H218" t="s">
+        <v>1691</v>
+      </c>
       <c r="I218" t="s">
         <v>1755</v>
       </c>
@@ -38004,6 +38673,9 @@
       <c r="G219" t="s">
         <v>157</v>
       </c>
+      <c r="H219" t="s">
+        <v>1691</v>
+      </c>
       <c r="I219" t="s">
         <v>1755</v>
       </c>
@@ -38093,6 +38765,9 @@
       <c r="G220" t="s">
         <v>157</v>
       </c>
+      <c r="H220" t="s">
+        <v>1691</v>
+      </c>
       <c r="I220" t="s">
         <v>1755</v>
       </c>
@@ -38182,6 +38857,9 @@
       <c r="G221" t="s">
         <v>157</v>
       </c>
+      <c r="H221" t="s">
+        <v>1691</v>
+      </c>
       <c r="I221" t="s">
         <v>1755</v>
       </c>
@@ -38271,6 +38949,9 @@
       <c r="G222" t="s">
         <v>157</v>
       </c>
+      <c r="H222" t="s">
+        <v>1691</v>
+      </c>
       <c r="I222" t="s">
         <v>1755</v>
       </c>
@@ -38360,6 +39041,9 @@
       <c r="G223" t="s">
         <v>157</v>
       </c>
+      <c r="H223" t="s">
+        <v>1691</v>
+      </c>
       <c r="I223" t="s">
         <v>1755</v>
       </c>
@@ -38449,6 +39133,9 @@
       <c r="G224" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H224" t="s">
+        <v>1691</v>
+      </c>
       <c r="I224" s="11" t="s">
         <v>1755</v>
       </c>
@@ -38547,6 +39234,9 @@
       <c r="G225" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H225" t="s">
+        <v>1691</v>
+      </c>
       <c r="I225" s="11" t="s">
         <v>1755</v>
       </c>
@@ -38642,6 +39332,9 @@
       <c r="G226" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H226" t="s">
+        <v>1691</v>
+      </c>
       <c r="I226" s="11" t="s">
         <v>1755</v>
       </c>
@@ -38737,6 +39430,9 @@
       <c r="G227" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H227" t="s">
+        <v>1691</v>
+      </c>
       <c r="I227" s="11" t="s">
         <v>1755</v>
       </c>
@@ -38832,6 +39528,9 @@
       <c r="G228" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H228" t="s">
+        <v>1691</v>
+      </c>
       <c r="I228" s="11" t="s">
         <v>1755</v>
       </c>
@@ -38927,6 +39626,9 @@
       <c r="G229" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H229" t="s">
+        <v>1691</v>
+      </c>
       <c r="I229" s="11" t="s">
         <v>1755</v>
       </c>
@@ -39022,6 +39724,9 @@
       <c r="G230" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H230" t="s">
+        <v>1691</v>
+      </c>
       <c r="I230" s="11" t="s">
         <v>1755</v>
       </c>
@@ -39117,6 +39822,9 @@
       <c r="G231" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H231" t="s">
+        <v>1691</v>
+      </c>
       <c r="I231" s="11" t="s">
         <v>1755</v>
       </c>
@@ -39212,6 +39920,9 @@
       <c r="G232" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H232" t="s">
+        <v>1691</v>
+      </c>
       <c r="I232" s="11" t="s">
         <v>1755</v>
       </c>
@@ -39307,6 +40018,9 @@
       <c r="G233" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H233" t="s">
+        <v>1691</v>
+      </c>
       <c r="I233" s="11" t="s">
         <v>1755</v>
       </c>
@@ -39402,6 +40116,9 @@
       <c r="G234" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H234" t="s">
+        <v>1691</v>
+      </c>
       <c r="I234" s="11" t="s">
         <v>1755</v>
       </c>
@@ -39500,6 +40217,9 @@
       <c r="G235" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H235" t="s">
+        <v>1691</v>
+      </c>
       <c r="I235" s="11" t="s">
         <v>1755</v>
       </c>
@@ -39595,6 +40315,9 @@
       <c r="G236" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H236" t="s">
+        <v>1691</v>
+      </c>
       <c r="I236" s="11" t="s">
         <v>1755</v>
       </c>
@@ -39690,6 +40413,9 @@
       <c r="G237" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H237" t="s">
+        <v>1691</v>
+      </c>
       <c r="I237" s="11" t="s">
         <v>1755</v>
       </c>
@@ -39785,6 +40511,9 @@
       <c r="G238" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H238" t="s">
+        <v>1691</v>
+      </c>
       <c r="I238" s="11" t="s">
         <v>1755</v>
       </c>
@@ -39880,6 +40609,9 @@
       <c r="G239" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H239" t="s">
+        <v>1691</v>
+      </c>
       <c r="I239" s="11" t="s">
         <v>1755</v>
       </c>
@@ -39975,6 +40707,9 @@
       <c r="G240" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H240" t="s">
+        <v>1691</v>
+      </c>
       <c r="I240" s="11" t="s">
         <v>1755</v>
       </c>
@@ -40070,6 +40805,9 @@
       <c r="G241" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H241" t="s">
+        <v>1691</v>
+      </c>
       <c r="I241" s="11" t="s">
         <v>1755</v>
       </c>
@@ -40165,6 +40903,9 @@
       <c r="G242" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H242" t="s">
+        <v>1691</v>
+      </c>
       <c r="I242" s="11" t="s">
         <v>1755</v>
       </c>
@@ -40260,6 +41001,9 @@
       <c r="G243" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H243" t="s">
+        <v>1691</v>
+      </c>
       <c r="I243" s="11" t="s">
         <v>1755</v>
       </c>
@@ -40355,6 +41099,9 @@
       <c r="G244" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H244" t="s">
+        <v>1691</v>
+      </c>
       <c r="I244" s="11" t="s">
         <v>1755</v>
       </c>
@@ -40450,6 +41197,9 @@
       <c r="G245" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H245" t="s">
+        <v>1691</v>
+      </c>
       <c r="I245" s="11" t="s">
         <v>1755</v>
       </c>
@@ -40545,6 +41295,9 @@
       <c r="G246" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H246" t="s">
+        <v>1691</v>
+      </c>
       <c r="I246" s="11" t="s">
         <v>1755</v>
       </c>
@@ -40643,6 +41396,9 @@
       <c r="G247" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H247" t="s">
+        <v>1691</v>
+      </c>
       <c r="I247" s="11" t="s">
         <v>1755</v>
       </c>
@@ -40738,6 +41494,9 @@
       <c r="G248" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H248" t="s">
+        <v>1691</v>
+      </c>
       <c r="I248" s="11" t="s">
         <v>1755</v>
       </c>
@@ -40833,6 +41592,9 @@
       <c r="G249" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H249" t="s">
+        <v>1691</v>
+      </c>
       <c r="I249" s="11" t="s">
         <v>1755</v>
       </c>
@@ -40928,6 +41690,9 @@
       <c r="G250" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H250" t="s">
+        <v>1691</v>
+      </c>
       <c r="I250" s="11" t="s">
         <v>1755</v>
       </c>
@@ -41023,6 +41788,9 @@
       <c r="G251" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H251" t="s">
+        <v>1691</v>
+      </c>
       <c r="I251" s="11" t="s">
         <v>1755</v>
       </c>
@@ -41118,6 +41886,9 @@
       <c r="G252" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H252" t="s">
+        <v>1691</v>
+      </c>
       <c r="I252" s="11" t="s">
         <v>1755</v>
       </c>
@@ -41213,6 +41984,9 @@
       <c r="G253" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H253" t="s">
+        <v>1691</v>
+      </c>
       <c r="I253" s="11" t="s">
         <v>1755</v>
       </c>
@@ -41308,6 +42082,9 @@
       <c r="G254" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H254" t="s">
+        <v>1691</v>
+      </c>
       <c r="I254" s="11" t="s">
         <v>1755</v>
       </c>
@@ -41403,6 +42180,9 @@
       <c r="G255" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H255" t="s">
+        <v>1691</v>
+      </c>
       <c r="I255" s="11" t="s">
         <v>1755</v>
       </c>
@@ -41498,6 +42278,9 @@
       <c r="G256" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H256" t="s">
+        <v>1691</v>
+      </c>
       <c r="I256" s="11" t="s">
         <v>1755</v>
       </c>
@@ -41593,6 +42376,9 @@
       <c r="G257" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H257" t="s">
+        <v>1691</v>
+      </c>
       <c r="I257" s="11" t="s">
         <v>1755</v>
       </c>
@@ -41688,6 +42474,9 @@
       <c r="G258" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H258" t="s">
+        <v>1691</v>
+      </c>
       <c r="I258" s="11" t="s">
         <v>1755</v>
       </c>
@@ -41783,6 +42572,9 @@
       <c r="G259" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H259" t="s">
+        <v>1691</v>
+      </c>
       <c r="I259" s="11" t="s">
         <v>1755</v>
       </c>
@@ -41878,6 +42670,9 @@
       <c r="G260" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H260" t="s">
+        <v>1691</v>
+      </c>
       <c r="I260" s="11" t="s">
         <v>1791</v>
       </c>
@@ -41980,6 +42775,9 @@
       <c r="G261" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H261" t="s">
+        <v>1691</v>
+      </c>
       <c r="I261" s="11" t="s">
         <v>1791</v>
       </c>
@@ -42082,6 +42880,9 @@
       <c r="G262" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H262" t="s">
+        <v>1691</v>
+      </c>
       <c r="I262" s="11" t="s">
         <v>1791</v>
       </c>
@@ -42184,6 +42985,9 @@
       <c r="G263" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H263" t="s">
+        <v>1691</v>
+      </c>
       <c r="I263" s="11" t="s">
         <v>1791</v>
       </c>
@@ -42286,6 +43090,9 @@
       <c r="G264" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H264" t="s">
+        <v>1691</v>
+      </c>
       <c r="I264" s="11" t="s">
         <v>1791</v>
       </c>
@@ -42388,6 +43195,9 @@
       <c r="G265" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H265" t="s">
+        <v>1691</v>
+      </c>
       <c r="I265" t="s">
         <v>1789</v>
       </c>
@@ -42489,6 +43299,9 @@
       <c r="G266" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H266" t="s">
+        <v>1691</v>
+      </c>
       <c r="I266" t="s">
         <v>1789</v>
       </c>
@@ -42589,6 +43402,9 @@
       <c r="G267" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H267" t="s">
+        <v>1691</v>
+      </c>
       <c r="I267" t="s">
         <v>1789</v>
       </c>
@@ -42689,6 +43505,9 @@
       <c r="G268" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H268" t="s">
+        <v>1691</v>
+      </c>
       <c r="I268" t="s">
         <v>1789</v>
       </c>
@@ -42789,6 +43608,9 @@
       <c r="G269" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H269" t="s">
+        <v>1691</v>
+      </c>
       <c r="I269" t="s">
         <v>1789</v>
       </c>
@@ -42889,6 +43711,9 @@
       <c r="G270" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H270" t="s">
+        <v>1691</v>
+      </c>
       <c r="I270" s="11" t="s">
         <v>1791</v>
       </c>
@@ -42948,6 +43773,9 @@
       <c r="G271" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H271" t="s">
+        <v>1691</v>
+      </c>
       <c r="I271" s="11" t="s">
         <v>1791</v>
       </c>
@@ -43010,6 +43838,9 @@
       <c r="G272" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="H272" t="s">
+        <v>1691</v>
+      </c>
       <c r="I272" s="11" t="s">
         <v>1791</v>
       </c>
@@ -43068,6 +43899,9 @@
       </c>
       <c r="G273" s="11" t="s">
         <v>157</v>
+      </c>
+      <c r="H273" t="s">
+        <v>1691</v>
       </c>
       <c r="I273" s="11" t="s">
         <v>1791</v>
@@ -43143,7 +43977,7 @@
       <c r="X275" s="13"/>
     </row>
     <row r="276" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A276" s="11" t="s">
+      <c r="A276" s="9" t="s">
         <v>1797</v>
       </c>
       <c r="B276" s="11" t="s">
@@ -43152,10 +43986,158 @@
       <c r="C276" t="s">
         <v>456</v>
       </c>
+      <c r="D276" t="s">
+        <v>838</v>
+      </c>
+      <c r="E276" t="s">
+        <v>839</v>
+      </c>
+      <c r="G276" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I276" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J276">
+        <v>30.417000000000002</v>
+      </c>
+      <c r="K276">
+        <v>-89.582999999999998</v>
+      </c>
+      <c r="M276" t="s">
+        <v>1705</v>
+      </c>
+      <c r="O276" t="s">
+        <v>1798</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R276">
+        <v>304</v>
+      </c>
+      <c r="T276" t="s">
+        <v>1800</v>
+      </c>
+      <c r="U276" t="s">
+        <v>1801</v>
+      </c>
       <c r="X276" s="13"/>
     </row>
     <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A277" s="9" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C277" t="s">
+        <v>456</v>
+      </c>
+      <c r="D277" t="s">
+        <v>838</v>
+      </c>
+      <c r="E277" t="s">
+        <v>839</v>
+      </c>
+      <c r="G277" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I277" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J277">
+        <v>30.417000000000002</v>
+      </c>
+      <c r="K277">
+        <v>-89.582999999999998</v>
+      </c>
+      <c r="M277" t="s">
+        <v>1705</v>
+      </c>
       <c r="X277" s="13"/>
+    </row>
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A278" s="9" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C278" t="s">
+        <v>456</v>
+      </c>
+      <c r="D278" t="s">
+        <v>838</v>
+      </c>
+      <c r="E278" t="s">
+        <v>839</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I278" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J278">
+        <v>30.417000000000002</v>
+      </c>
+      <c r="K278">
+        <v>-89.582999999999998</v>
+      </c>
+      <c r="M278" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A279" s="11" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C279" t="s">
+        <v>456</v>
+      </c>
+      <c r="D279" t="s">
+        <v>847</v>
+      </c>
+      <c r="E279" t="s">
+        <v>848</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I279" t="s">
+        <v>1802</v>
+      </c>
+      <c r="M279" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N279">
+        <v>5000</v>
+      </c>
+      <c r="O279">
+        <v>2012</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R279">
+        <v>2</v>
+      </c>
+      <c r="T279">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43192,7 +44174,7 @@
         <v>40.22</v>
       </c>
       <c r="H7">
-        <f>F14-F7</f>
+        <f t="shared" ref="H7:H12" si="0">F14-F7</f>
         <v>5.7860000000000014</v>
       </c>
     </row>
@@ -43216,7 +44198,7 @@
         <v>52.478999999999999</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H12" si="0">F15-F8</f>
+        <f t="shared" si="0"/>
         <v>3.0309999999999988</v>
       </c>
     </row>
@@ -43504,7 +44486,7 @@
         <v>53.472000000000001</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H30" si="1">F34-F29</f>
+        <f>F34-F29</f>
         <v>8.0559999999999974</v>
       </c>
     </row>
@@ -43528,7 +44510,7 @@
         <v>74.861000000000004</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f>F35-F30</f>
         <v>12.221999999999994</v>
       </c>
     </row>
@@ -43662,7 +44644,7 @@
         <v>1735</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40:I43" si="2">F46-F40</f>
+        <f>F46-F40</f>
         <v>1.3689999999999998</v>
       </c>
     </row>
@@ -43689,7 +44671,7 @@
         <v>44854</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f>F47-F41</f>
         <v>1.1409999999999911</v>
       </c>
     </row>
@@ -43716,7 +44698,7 @@
         <v>44727</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f>F48-F42</f>
         <v>1.2560000000000002</v>
       </c>
     </row>
@@ -43743,7 +44725,7 @@
         <v>25</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f>F49-F43</f>
         <v>0.62800000000000011</v>
       </c>
     </row>
